--- a/Data/Odds/NBA/NBA odds 2021-22.xlsx
+++ b/Data/Odds/NBA/NBA odds 2021-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M293"/>
+  <dimension ref="A1:M419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13664,6 +13664,5686 @@
         <v>3</v>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B294" t="n">
+        <v>501</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>NewYork</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>28</v>
+      </c>
+      <c r="F294" t="n">
+        <v>30</v>
+      </c>
+      <c r="G294" t="n">
+        <v>14</v>
+      </c>
+      <c r="H294" t="n">
+        <v>31</v>
+      </c>
+      <c r="I294" t="n">
+        <v>103</v>
+      </c>
+      <c r="J294" t="n">
+        <v>210</v>
+      </c>
+      <c r="K294" t="n">
+        <v>2</v>
+      </c>
+      <c r="L294" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M294" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B295" t="n">
+        <v>502</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>21</v>
+      </c>
+      <c r="F295" t="n">
+        <v>23</v>
+      </c>
+      <c r="G295" t="n">
+        <v>25</v>
+      </c>
+      <c r="H295" t="n">
+        <v>27</v>
+      </c>
+      <c r="I295" t="n">
+        <v>96</v>
+      </c>
+      <c r="J295" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K295" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="L295" t="n">
+        <v>105</v>
+      </c>
+      <c r="M295" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B296" t="n">
+        <v>503</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>27</v>
+      </c>
+      <c r="F296" t="n">
+        <v>30</v>
+      </c>
+      <c r="G296" t="n">
+        <v>21</v>
+      </c>
+      <c r="H296" t="n">
+        <v>17</v>
+      </c>
+      <c r="I296" t="n">
+        <v>95</v>
+      </c>
+      <c r="J296" t="n">
+        <v>215</v>
+      </c>
+      <c r="K296" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="L296" t="n">
+        <v>100</v>
+      </c>
+      <c r="M296" t="n">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B297" t="n">
+        <v>504</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>35</v>
+      </c>
+      <c r="F297" t="n">
+        <v>16</v>
+      </c>
+      <c r="G297" t="n">
+        <v>25</v>
+      </c>
+      <c r="H297" t="n">
+        <v>42</v>
+      </c>
+      <c r="I297" t="n">
+        <v>118</v>
+      </c>
+      <c r="J297" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>-120</v>
+      </c>
+      <c r="M297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B298" t="n">
+        <v>505</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>34</v>
+      </c>
+      <c r="F298" t="n">
+        <v>20</v>
+      </c>
+      <c r="G298" t="n">
+        <v>38</v>
+      </c>
+      <c r="H298" t="n">
+        <v>21</v>
+      </c>
+      <c r="I298" t="n">
+        <v>118</v>
+      </c>
+      <c r="J298" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="K298" t="n">
+        <v>221</v>
+      </c>
+      <c r="L298" t="n">
+        <v>165</v>
+      </c>
+      <c r="M298" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B299" t="n">
+        <v>506</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>34</v>
+      </c>
+      <c r="F299" t="n">
+        <v>24</v>
+      </c>
+      <c r="G299" t="n">
+        <v>23</v>
+      </c>
+      <c r="H299" t="n">
+        <v>32</v>
+      </c>
+      <c r="I299" t="n">
+        <v>125</v>
+      </c>
+      <c r="J299" t="n">
+        <v>6</v>
+      </c>
+      <c r="K299" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L299" t="n">
+        <v>-185</v>
+      </c>
+      <c r="M299" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B300" t="n">
+        <v>507</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>27</v>
+      </c>
+      <c r="F300" t="n">
+        <v>20</v>
+      </c>
+      <c r="G300" t="n">
+        <v>22</v>
+      </c>
+      <c r="H300" t="n">
+        <v>23</v>
+      </c>
+      <c r="I300" t="n">
+        <v>92</v>
+      </c>
+      <c r="J300" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="K300" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="L300" t="n">
+        <v>330</v>
+      </c>
+      <c r="M300" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B301" t="n">
+        <v>508</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>22</v>
+      </c>
+      <c r="F301" t="n">
+        <v>29</v>
+      </c>
+      <c r="G301" t="n">
+        <v>27</v>
+      </c>
+      <c r="H301" t="n">
+        <v>30</v>
+      </c>
+      <c r="I301" t="n">
+        <v>108</v>
+      </c>
+      <c r="J301" t="n">
+        <v>9</v>
+      </c>
+      <c r="K301" t="n">
+        <v>9</v>
+      </c>
+      <c r="L301" t="n">
+        <v>-400</v>
+      </c>
+      <c r="M301" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B302" t="n">
+        <v>509</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>25</v>
+      </c>
+      <c r="F302" t="n">
+        <v>24</v>
+      </c>
+      <c r="G302" t="n">
+        <v>21</v>
+      </c>
+      <c r="H302" t="n">
+        <v>26</v>
+      </c>
+      <c r="I302" t="n">
+        <v>96</v>
+      </c>
+      <c r="J302" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="K302" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L302" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M302" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B303" t="n">
+        <v>510</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>30</v>
+      </c>
+      <c r="F303" t="n">
+        <v>34</v>
+      </c>
+      <c r="G303" t="n">
+        <v>27</v>
+      </c>
+      <c r="H303" t="n">
+        <v>22</v>
+      </c>
+      <c r="I303" t="n">
+        <v>113</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="K303" t="n">
+        <v>203</v>
+      </c>
+      <c r="L303" t="n">
+        <v>105</v>
+      </c>
+      <c r="M303" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B304" t="n">
+        <v>511</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>34</v>
+      </c>
+      <c r="F304" t="n">
+        <v>31</v>
+      </c>
+      <c r="G304" t="n">
+        <v>20</v>
+      </c>
+      <c r="H304" t="n">
+        <v>28</v>
+      </c>
+      <c r="I304" t="n">
+        <v>113</v>
+      </c>
+      <c r="J304" t="n">
+        <v>223</v>
+      </c>
+      <c r="K304" t="n">
+        <v>222</v>
+      </c>
+      <c r="L304" t="n">
+        <v>140</v>
+      </c>
+      <c r="M304" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B305" t="n">
+        <v>512</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>32</v>
+      </c>
+      <c r="F305" t="n">
+        <v>29</v>
+      </c>
+      <c r="G305" t="n">
+        <v>41</v>
+      </c>
+      <c r="H305" t="n">
+        <v>25</v>
+      </c>
+      <c r="I305" t="n">
+        <v>127</v>
+      </c>
+      <c r="J305" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K305" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L305" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M305" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B306" t="n">
+        <v>513</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>34</v>
+      </c>
+      <c r="F306" t="n">
+        <v>33</v>
+      </c>
+      <c r="G306" t="n">
+        <v>31</v>
+      </c>
+      <c r="H306" t="n">
+        <v>11</v>
+      </c>
+      <c r="I306" t="n">
+        <v>109</v>
+      </c>
+      <c r="J306" t="n">
+        <v>3</v>
+      </c>
+      <c r="K306" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L306" t="n">
+        <v>-155</v>
+      </c>
+      <c r="M306" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B307" t="n">
+        <v>514</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>28</v>
+      </c>
+      <c r="F307" t="n">
+        <v>36</v>
+      </c>
+      <c r="G307" t="n">
+        <v>12</v>
+      </c>
+      <c r="H307" t="n">
+        <v>28</v>
+      </c>
+      <c r="I307" t="n">
+        <v>104</v>
+      </c>
+      <c r="J307" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="K307" t="n">
+        <v>224</v>
+      </c>
+      <c r="L307" t="n">
+        <v>135</v>
+      </c>
+      <c r="M307" t="n">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B308" t="n">
+        <v>515</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>26</v>
+      </c>
+      <c r="F308" t="n">
+        <v>34</v>
+      </c>
+      <c r="G308" t="n">
+        <v>27</v>
+      </c>
+      <c r="H308" t="n">
+        <v>28</v>
+      </c>
+      <c r="I308" t="n">
+        <v>123</v>
+      </c>
+      <c r="J308" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="K308" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="L308" t="n">
+        <v>115</v>
+      </c>
+      <c r="M308" t="n">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B309" t="n">
+        <v>516</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>LALakers</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>29</v>
+      </c>
+      <c r="F309" t="n">
+        <v>32</v>
+      </c>
+      <c r="G309" t="n">
+        <v>33</v>
+      </c>
+      <c r="H309" t="n">
+        <v>21</v>
+      </c>
+      <c r="I309" t="n">
+        <v>126</v>
+      </c>
+      <c r="J309" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K309" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L309" t="n">
+        <v>-135</v>
+      </c>
+      <c r="M309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B310" t="n">
+        <v>517</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>30</v>
+      </c>
+      <c r="F310" t="n">
+        <v>31</v>
+      </c>
+      <c r="G310" t="n">
+        <v>30</v>
+      </c>
+      <c r="H310" t="n">
+        <v>27</v>
+      </c>
+      <c r="I310" t="n">
+        <v>118</v>
+      </c>
+      <c r="J310" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K310" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L310" t="n">
+        <v>-280</v>
+      </c>
+      <c r="M310" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B311" t="n">
+        <v>518</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>39</v>
+      </c>
+      <c r="F311" t="n">
+        <v>19</v>
+      </c>
+      <c r="G311" t="n">
+        <v>35</v>
+      </c>
+      <c r="H311" t="n">
+        <v>16</v>
+      </c>
+      <c r="I311" t="n">
+        <v>109</v>
+      </c>
+      <c r="J311" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="K311" t="n">
+        <v>215</v>
+      </c>
+      <c r="L311" t="n">
+        <v>240</v>
+      </c>
+      <c r="M311" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B312" t="n">
+        <v>519</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>28</v>
+      </c>
+      <c r="F312" t="n">
+        <v>22</v>
+      </c>
+      <c r="G312" t="n">
+        <v>30</v>
+      </c>
+      <c r="H312" t="n">
+        <v>18</v>
+      </c>
+      <c r="I312" t="n">
+        <v>98</v>
+      </c>
+      <c r="J312" t="n">
+        <v>22</v>
+      </c>
+      <c r="K312" t="n">
+        <v>223</v>
+      </c>
+      <c r="L312" t="n">
+        <v>300</v>
+      </c>
+      <c r="M312" t="n">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B313" t="n">
+        <v>520</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>30</v>
+      </c>
+      <c r="F313" t="n">
+        <v>32</v>
+      </c>
+      <c r="G313" t="n">
+        <v>33</v>
+      </c>
+      <c r="H313" t="n">
+        <v>15</v>
+      </c>
+      <c r="I313" t="n">
+        <v>110</v>
+      </c>
+      <c r="J313" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K313" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L313" t="n">
+        <v>-360</v>
+      </c>
+      <c r="M313" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B314" t="n">
+        <v>521</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>26</v>
+      </c>
+      <c r="F314" t="n">
+        <v>29</v>
+      </c>
+      <c r="G314" t="n">
+        <v>24</v>
+      </c>
+      <c r="H314" t="n">
+        <v>30</v>
+      </c>
+      <c r="I314" t="n">
+        <v>109</v>
+      </c>
+      <c r="J314" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="K314" t="n">
+        <v>220</v>
+      </c>
+      <c r="L314" t="n">
+        <v>125</v>
+      </c>
+      <c r="M314" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B315" t="n">
+        <v>522</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>33</v>
+      </c>
+      <c r="F315" t="n">
+        <v>23</v>
+      </c>
+      <c r="G315" t="n">
+        <v>27</v>
+      </c>
+      <c r="H315" t="n">
+        <v>34</v>
+      </c>
+      <c r="I315" t="n">
+        <v>117</v>
+      </c>
+      <c r="J315" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K315" t="n">
+        <v>3</v>
+      </c>
+      <c r="L315" t="n">
+        <v>-145</v>
+      </c>
+      <c r="M315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B316" t="n">
+        <v>523</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>24</v>
+      </c>
+      <c r="F316" t="n">
+        <v>20</v>
+      </c>
+      <c r="G316" t="n">
+        <v>24</v>
+      </c>
+      <c r="H316" t="n">
+        <v>29</v>
+      </c>
+      <c r="I316" t="n">
+        <v>97</v>
+      </c>
+      <c r="J316" t="n">
+        <v>3</v>
+      </c>
+      <c r="K316" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L316" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M316" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B317" t="n">
+        <v>524</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>22</v>
+      </c>
+      <c r="F317" t="n">
+        <v>27</v>
+      </c>
+      <c r="G317" t="n">
+        <v>25</v>
+      </c>
+      <c r="H317" t="n">
+        <v>20</v>
+      </c>
+      <c r="I317" t="n">
+        <v>94</v>
+      </c>
+      <c r="J317" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="K317" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="L317" t="n">
+        <v>140</v>
+      </c>
+      <c r="M317" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B318" t="n">
+        <v>525</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>28</v>
+      </c>
+      <c r="F318" t="n">
+        <v>37</v>
+      </c>
+      <c r="G318" t="n">
+        <v>29</v>
+      </c>
+      <c r="H318" t="n">
+        <v>29</v>
+      </c>
+      <c r="I318" t="n">
+        <v>123</v>
+      </c>
+      <c r="J318" t="n">
+        <v>9</v>
+      </c>
+      <c r="K318" t="n">
+        <v>10</v>
+      </c>
+      <c r="L318" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M318" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B319" t="n">
+        <v>526</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>23</v>
+      </c>
+      <c r="F319" t="n">
+        <v>30</v>
+      </c>
+      <c r="G319" t="n">
+        <v>22</v>
+      </c>
+      <c r="H319" t="n">
+        <v>15</v>
+      </c>
+      <c r="I319" t="n">
+        <v>90</v>
+      </c>
+      <c r="J319" t="n">
+        <v>212</v>
+      </c>
+      <c r="K319" t="n">
+        <v>211</v>
+      </c>
+      <c r="L319" t="n">
+        <v>400</v>
+      </c>
+      <c r="M319" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B320" t="n">
+        <v>527</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>25</v>
+      </c>
+      <c r="F320" t="n">
+        <v>21</v>
+      </c>
+      <c r="G320" t="n">
+        <v>22</v>
+      </c>
+      <c r="H320" t="n">
+        <v>20</v>
+      </c>
+      <c r="I320" t="n">
+        <v>88</v>
+      </c>
+      <c r="J320" t="n">
+        <v>212</v>
+      </c>
+      <c r="K320" t="n">
+        <v>206</v>
+      </c>
+      <c r="L320" t="n">
+        <v>145</v>
+      </c>
+      <c r="M320" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B321" t="n">
+        <v>528</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>33</v>
+      </c>
+      <c r="F321" t="n">
+        <v>29</v>
+      </c>
+      <c r="G321" t="n">
+        <v>18</v>
+      </c>
+      <c r="H321" t="n">
+        <v>24</v>
+      </c>
+      <c r="I321" t="n">
+        <v>104</v>
+      </c>
+      <c r="J321" t="n">
+        <v>2</v>
+      </c>
+      <c r="K321" t="n">
+        <v>3</v>
+      </c>
+      <c r="L321" t="n">
+        <v>-165</v>
+      </c>
+      <c r="M321" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B322" t="n">
+        <v>529</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>31</v>
+      </c>
+      <c r="F322" t="n">
+        <v>20</v>
+      </c>
+      <c r="G322" t="n">
+        <v>31</v>
+      </c>
+      <c r="H322" t="n">
+        <v>30</v>
+      </c>
+      <c r="I322" t="n">
+        <v>112</v>
+      </c>
+      <c r="J322" t="n">
+        <v>218</v>
+      </c>
+      <c r="K322" t="n">
+        <v>216</v>
+      </c>
+      <c r="L322" t="n">
+        <v>140</v>
+      </c>
+      <c r="M322" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B323" t="n">
+        <v>530</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>NewYork</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>22</v>
+      </c>
+      <c r="F323" t="n">
+        <v>20</v>
+      </c>
+      <c r="G323" t="n">
+        <v>24</v>
+      </c>
+      <c r="H323" t="n">
+        <v>34</v>
+      </c>
+      <c r="I323" t="n">
+        <v>100</v>
+      </c>
+      <c r="J323" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K323" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L323" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M323" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B324" t="n">
+        <v>531</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>23</v>
+      </c>
+      <c r="F324" t="n">
+        <v>26</v>
+      </c>
+      <c r="G324" t="n">
+        <v>33</v>
+      </c>
+      <c r="H324" t="n">
+        <v>30</v>
+      </c>
+      <c r="I324" t="n">
+        <v>112</v>
+      </c>
+      <c r="J324" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="K324" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="L324" t="n">
+        <v>120</v>
+      </c>
+      <c r="M324" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B325" t="n">
+        <v>532</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>21</v>
+      </c>
+      <c r="F325" t="n">
+        <v>29</v>
+      </c>
+      <c r="G325" t="n">
+        <v>29</v>
+      </c>
+      <c r="H325" t="n">
+        <v>25</v>
+      </c>
+      <c r="I325" t="n">
+        <v>104</v>
+      </c>
+      <c r="J325" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K325" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L325" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M325" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B326" t="n">
+        <v>533</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>34</v>
+      </c>
+      <c r="F326" t="n">
+        <v>26</v>
+      </c>
+      <c r="G326" t="n">
+        <v>21</v>
+      </c>
+      <c r="H326" t="n">
+        <v>37</v>
+      </c>
+      <c r="I326" t="n">
+        <v>118</v>
+      </c>
+      <c r="J326" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="K326" t="n">
+        <v>228</v>
+      </c>
+      <c r="L326" t="n">
+        <v>170</v>
+      </c>
+      <c r="M326" t="n">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B327" t="n">
+        <v>534</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>36</v>
+      </c>
+      <c r="F327" t="n">
+        <v>16</v>
+      </c>
+      <c r="G327" t="n">
+        <v>26</v>
+      </c>
+      <c r="H327" t="n">
+        <v>30</v>
+      </c>
+      <c r="I327" t="n">
+        <v>108</v>
+      </c>
+      <c r="J327" t="n">
+        <v>4</v>
+      </c>
+      <c r="K327" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L327" t="n">
+        <v>-190</v>
+      </c>
+      <c r="M327" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B328" t="n">
+        <v>535</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>OklahomaCity</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>28</v>
+      </c>
+      <c r="F328" t="n">
+        <v>28</v>
+      </c>
+      <c r="G328" t="n">
+        <v>29</v>
+      </c>
+      <c r="H328" t="n">
+        <v>23</v>
+      </c>
+      <c r="I328" t="n">
+        <v>108</v>
+      </c>
+      <c r="J328" t="n">
+        <v>211</v>
+      </c>
+      <c r="K328" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="L328" t="n">
+        <v>160</v>
+      </c>
+      <c r="M328" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B329" t="n">
+        <v>536</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>29</v>
+      </c>
+      <c r="F329" t="n">
+        <v>19</v>
+      </c>
+      <c r="G329" t="n">
+        <v>23</v>
+      </c>
+      <c r="H329" t="n">
+        <v>29</v>
+      </c>
+      <c r="I329" t="n">
+        <v>100</v>
+      </c>
+      <c r="J329" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K329" t="n">
+        <v>4</v>
+      </c>
+      <c r="L329" t="n">
+        <v>-180</v>
+      </c>
+      <c r="M329" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B330" t="n">
+        <v>537</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
+        <v>33</v>
+      </c>
+      <c r="F330" t="n">
+        <v>21</v>
+      </c>
+      <c r="G330" t="n">
+        <v>26</v>
+      </c>
+      <c r="H330" t="n">
+        <v>27</v>
+      </c>
+      <c r="I330" t="n">
+        <v>107</v>
+      </c>
+      <c r="J330" t="n">
+        <v>214</v>
+      </c>
+      <c r="K330" t="n">
+        <v>215</v>
+      </c>
+      <c r="L330" t="n">
+        <v>145</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B331" t="n">
+        <v>538</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>32</v>
+      </c>
+      <c r="F331" t="n">
+        <v>29</v>
+      </c>
+      <c r="G331" t="n">
+        <v>34</v>
+      </c>
+      <c r="H331" t="n">
+        <v>22</v>
+      </c>
+      <c r="I331" t="n">
+        <v>117</v>
+      </c>
+      <c r="J331" t="n">
+        <v>3</v>
+      </c>
+      <c r="K331" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L331" t="n">
+        <v>-165</v>
+      </c>
+      <c r="M331" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B332" t="n">
+        <v>539</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>20</v>
+      </c>
+      <c r="F332" t="n">
+        <v>34</v>
+      </c>
+      <c r="G332" t="n">
+        <v>33</v>
+      </c>
+      <c r="H332" t="n">
+        <v>30</v>
+      </c>
+      <c r="I332" t="n">
+        <v>117</v>
+      </c>
+      <c r="J332" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="K332" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="L332" t="n">
+        <v>-105</v>
+      </c>
+      <c r="M332" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B333" t="n">
+        <v>540</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>SanAntonio</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>34</v>
+      </c>
+      <c r="F333" t="n">
+        <v>37</v>
+      </c>
+      <c r="G333" t="n">
+        <v>33</v>
+      </c>
+      <c r="H333" t="n">
+        <v>32</v>
+      </c>
+      <c r="I333" t="n">
+        <v>136</v>
+      </c>
+      <c r="J333" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="n">
+        <v>-115</v>
+      </c>
+      <c r="M333" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B334" t="n">
+        <v>541</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>26</v>
+      </c>
+      <c r="F334" t="n">
+        <v>21</v>
+      </c>
+      <c r="G334" t="n">
+        <v>30</v>
+      </c>
+      <c r="H334" t="n">
+        <v>32</v>
+      </c>
+      <c r="I334" t="n">
+        <v>109</v>
+      </c>
+      <c r="J334" t="n">
+        <v>221</v>
+      </c>
+      <c r="K334" t="n">
+        <v>225</v>
+      </c>
+      <c r="L334" t="n">
+        <v>180</v>
+      </c>
+      <c r="M334" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B335" t="n">
+        <v>542</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>27</v>
+      </c>
+      <c r="F335" t="n">
+        <v>33</v>
+      </c>
+      <c r="G335" t="n">
+        <v>27</v>
+      </c>
+      <c r="H335" t="n">
+        <v>32</v>
+      </c>
+      <c r="I335" t="n">
+        <v>119</v>
+      </c>
+      <c r="J335" t="n">
+        <v>6</v>
+      </c>
+      <c r="K335" t="n">
+        <v>5</v>
+      </c>
+      <c r="L335" t="n">
+        <v>-210</v>
+      </c>
+      <c r="M335" t="n">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B336" t="n">
+        <v>543</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>20</v>
+      </c>
+      <c r="F336" t="n">
+        <v>24</v>
+      </c>
+      <c r="G336" t="n">
+        <v>21</v>
+      </c>
+      <c r="H336" t="n">
+        <v>33</v>
+      </c>
+      <c r="I336" t="n">
+        <v>98</v>
+      </c>
+      <c r="J336" t="n">
+        <v>3</v>
+      </c>
+      <c r="K336" t="n">
+        <v>3</v>
+      </c>
+      <c r="L336" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M336" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B337" t="n">
+        <v>544</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>23</v>
+      </c>
+      <c r="F337" t="n">
+        <v>21</v>
+      </c>
+      <c r="G337" t="n">
+        <v>25</v>
+      </c>
+      <c r="H337" t="n">
+        <v>32</v>
+      </c>
+      <c r="I337" t="n">
+        <v>101</v>
+      </c>
+      <c r="J337" t="n">
+        <v>213</v>
+      </c>
+      <c r="K337" t="n">
+        <v>205</v>
+      </c>
+      <c r="L337" t="n">
+        <v>130</v>
+      </c>
+      <c r="M337" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B338" t="n">
+        <v>545</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>28</v>
+      </c>
+      <c r="F338" t="n">
+        <v>26</v>
+      </c>
+      <c r="G338" t="n">
+        <v>30</v>
+      </c>
+      <c r="H338" t="n">
+        <v>26</v>
+      </c>
+      <c r="I338" t="n">
+        <v>110</v>
+      </c>
+      <c r="J338" t="n">
+        <v>220</v>
+      </c>
+      <c r="K338" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="L338" t="n">
+        <v>265</v>
+      </c>
+      <c r="M338" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B339" t="n">
+        <v>546</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
+        <v>31</v>
+      </c>
+      <c r="F339" t="n">
+        <v>38</v>
+      </c>
+      <c r="G339" t="n">
+        <v>24</v>
+      </c>
+      <c r="H339" t="n">
+        <v>30</v>
+      </c>
+      <c r="I339" t="n">
+        <v>123</v>
+      </c>
+      <c r="J339" t="n">
+        <v>8</v>
+      </c>
+      <c r="K339" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L339" t="n">
+        <v>-320</v>
+      </c>
+      <c r="M339" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B340" t="n">
+        <v>547</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E340" t="n">
+        <v>25</v>
+      </c>
+      <c r="F340" t="n">
+        <v>32</v>
+      </c>
+      <c r="G340" t="n">
+        <v>29</v>
+      </c>
+      <c r="H340" t="n">
+        <v>26</v>
+      </c>
+      <c r="I340" t="n">
+        <v>117</v>
+      </c>
+      <c r="J340" t="n">
+        <v>3</v>
+      </c>
+      <c r="K340" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L340" t="n">
+        <v>-220</v>
+      </c>
+      <c r="M340" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B341" t="n">
+        <v>548</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>LALakers</t>
+        </is>
+      </c>
+      <c r="E341" t="n">
+        <v>28</v>
+      </c>
+      <c r="F341" t="n">
+        <v>27</v>
+      </c>
+      <c r="G341" t="n">
+        <v>27</v>
+      </c>
+      <c r="H341" t="n">
+        <v>30</v>
+      </c>
+      <c r="I341" t="n">
+        <v>120</v>
+      </c>
+      <c r="J341" t="n">
+        <v>215</v>
+      </c>
+      <c r="K341" t="n">
+        <v>215</v>
+      </c>
+      <c r="L341" t="n">
+        <v>190</v>
+      </c>
+      <c r="M341" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B342" t="n">
+        <v>549</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E342" t="n">
+        <v>27</v>
+      </c>
+      <c r="F342" t="n">
+        <v>25</v>
+      </c>
+      <c r="G342" t="n">
+        <v>29</v>
+      </c>
+      <c r="H342" t="n">
+        <v>34</v>
+      </c>
+      <c r="I342" t="n">
+        <v>115</v>
+      </c>
+      <c r="J342" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="K342" t="n">
+        <v>212</v>
+      </c>
+      <c r="L342" t="n">
+        <v>155</v>
+      </c>
+      <c r="M342" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B343" t="n">
+        <v>550</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E343" t="n">
+        <v>30</v>
+      </c>
+      <c r="F343" t="n">
+        <v>27</v>
+      </c>
+      <c r="G343" t="n">
+        <v>21</v>
+      </c>
+      <c r="H343" t="n">
+        <v>31</v>
+      </c>
+      <c r="I343" t="n">
+        <v>109</v>
+      </c>
+      <c r="J343" t="n">
+        <v>2</v>
+      </c>
+      <c r="K343" t="n">
+        <v>4</v>
+      </c>
+      <c r="L343" t="n">
+        <v>-175</v>
+      </c>
+      <c r="M343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B344" t="n">
+        <v>551</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E344" t="n">
+        <v>32</v>
+      </c>
+      <c r="F344" t="n">
+        <v>28</v>
+      </c>
+      <c r="G344" t="n">
+        <v>25</v>
+      </c>
+      <c r="H344" t="n">
+        <v>26</v>
+      </c>
+      <c r="I344" t="n">
+        <v>111</v>
+      </c>
+      <c r="J344" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="K344" t="n">
+        <v>215</v>
+      </c>
+      <c r="L344" t="n">
+        <v>425</v>
+      </c>
+      <c r="M344" t="n">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B345" t="n">
+        <v>552</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E345" t="n">
+        <v>30</v>
+      </c>
+      <c r="F345" t="n">
+        <v>21</v>
+      </c>
+      <c r="G345" t="n">
+        <v>26</v>
+      </c>
+      <c r="H345" t="n">
+        <v>23</v>
+      </c>
+      <c r="I345" t="n">
+        <v>100</v>
+      </c>
+      <c r="J345" t="n">
+        <v>9</v>
+      </c>
+      <c r="K345" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L345" t="n">
+        <v>-550</v>
+      </c>
+      <c r="M345" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B346" t="n">
+        <v>553</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E346" t="n">
+        <v>40</v>
+      </c>
+      <c r="F346" t="n">
+        <v>18</v>
+      </c>
+      <c r="G346" t="n">
+        <v>20</v>
+      </c>
+      <c r="H346" t="n">
+        <v>31</v>
+      </c>
+      <c r="I346" t="n">
+        <v>109</v>
+      </c>
+      <c r="J346" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K346" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="L346" t="n">
+        <v>190</v>
+      </c>
+      <c r="M346" t="n">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B347" t="n">
+        <v>554</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E347" t="n">
+        <v>25</v>
+      </c>
+      <c r="F347" t="n">
+        <v>31</v>
+      </c>
+      <c r="G347" t="n">
+        <v>30</v>
+      </c>
+      <c r="H347" t="n">
+        <v>26</v>
+      </c>
+      <c r="I347" t="n">
+        <v>112</v>
+      </c>
+      <c r="J347" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K347" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L347" t="n">
+        <v>-220</v>
+      </c>
+      <c r="M347" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B348" t="n">
+        <v>555</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>NewYork</t>
+        </is>
+      </c>
+      <c r="E348" t="n">
+        <v>34</v>
+      </c>
+      <c r="F348" t="n">
+        <v>21</v>
+      </c>
+      <c r="G348" t="n">
+        <v>21</v>
+      </c>
+      <c r="H348" t="n">
+        <v>20</v>
+      </c>
+      <c r="I348" t="n">
+        <v>96</v>
+      </c>
+      <c r="J348" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="K348" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L348" t="n">
+        <v>-135</v>
+      </c>
+      <c r="M348" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B349" t="n">
+        <v>556</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E349" t="n">
+        <v>18</v>
+      </c>
+      <c r="F349" t="n">
+        <v>28</v>
+      </c>
+      <c r="G349" t="n">
+        <v>34</v>
+      </c>
+      <c r="H349" t="n">
+        <v>24</v>
+      </c>
+      <c r="I349" t="n">
+        <v>104</v>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="K349" t="n">
+        <v>225</v>
+      </c>
+      <c r="L349" t="n">
+        <v>115</v>
+      </c>
+      <c r="M349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B350" t="n">
+        <v>557</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E350" t="n">
+        <v>18</v>
+      </c>
+      <c r="F350" t="n">
+        <v>23</v>
+      </c>
+      <c r="G350" t="n">
+        <v>11</v>
+      </c>
+      <c r="H350" t="n">
+        <v>26</v>
+      </c>
+      <c r="I350" t="n">
+        <v>78</v>
+      </c>
+      <c r="J350" t="n">
+        <v>204</v>
+      </c>
+      <c r="K350" t="n">
+        <v>200</v>
+      </c>
+      <c r="L350" t="n">
+        <v>165</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B351" t="n">
+        <v>558</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E351" t="n">
+        <v>24</v>
+      </c>
+      <c r="F351" t="n">
+        <v>28</v>
+      </c>
+      <c r="G351" t="n">
+        <v>22</v>
+      </c>
+      <c r="H351" t="n">
+        <v>24</v>
+      </c>
+      <c r="I351" t="n">
+        <v>98</v>
+      </c>
+      <c r="J351" t="n">
+        <v>5</v>
+      </c>
+      <c r="K351" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L351" t="n">
+        <v>-185</v>
+      </c>
+      <c r="M351" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B352" t="n">
+        <v>559</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E352" t="n">
+        <v>30</v>
+      </c>
+      <c r="F352" t="n">
+        <v>25</v>
+      </c>
+      <c r="G352" t="n">
+        <v>26</v>
+      </c>
+      <c r="H352" t="n">
+        <v>27</v>
+      </c>
+      <c r="I352" t="n">
+        <v>113</v>
+      </c>
+      <c r="J352" t="n">
+        <v>2</v>
+      </c>
+      <c r="K352" t="n">
+        <v>209</v>
+      </c>
+      <c r="L352" t="n">
+        <v>175</v>
+      </c>
+      <c r="M352" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B353" t="n">
+        <v>560</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E353" t="n">
+        <v>30</v>
+      </c>
+      <c r="F353" t="n">
+        <v>21</v>
+      </c>
+      <c r="G353" t="n">
+        <v>37</v>
+      </c>
+      <c r="H353" t="n">
+        <v>20</v>
+      </c>
+      <c r="I353" t="n">
+        <v>122</v>
+      </c>
+      <c r="J353" t="n">
+        <v>216</v>
+      </c>
+      <c r="K353" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L353" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M353" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B354" t="n">
+        <v>561</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E354" t="n">
+        <v>30</v>
+      </c>
+      <c r="F354" t="n">
+        <v>25</v>
+      </c>
+      <c r="G354" t="n">
+        <v>26</v>
+      </c>
+      <c r="H354" t="n">
+        <v>23</v>
+      </c>
+      <c r="I354" t="n">
+        <v>104</v>
+      </c>
+      <c r="J354" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K354" t="n">
+        <v>7</v>
+      </c>
+      <c r="L354" t="n">
+        <v>-300</v>
+      </c>
+      <c r="M354" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B355" t="n">
+        <v>562</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E355" t="n">
+        <v>27</v>
+      </c>
+      <c r="F355" t="n">
+        <v>18</v>
+      </c>
+      <c r="G355" t="n">
+        <v>22</v>
+      </c>
+      <c r="H355" t="n">
+        <v>25</v>
+      </c>
+      <c r="I355" t="n">
+        <v>92</v>
+      </c>
+      <c r="J355" t="n">
+        <v>223.5</v>
+      </c>
+      <c r="K355" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="L355" t="n">
+        <v>250</v>
+      </c>
+      <c r="M355" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B356" t="n">
+        <v>563</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E356" t="n">
+        <v>33</v>
+      </c>
+      <c r="F356" t="n">
+        <v>33</v>
+      </c>
+      <c r="G356" t="n">
+        <v>29</v>
+      </c>
+      <c r="H356" t="n">
+        <v>25</v>
+      </c>
+      <c r="I356" t="n">
+        <v>120</v>
+      </c>
+      <c r="J356" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K356" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L356" t="n">
+        <v>-430</v>
+      </c>
+      <c r="M356" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B357" t="n">
+        <v>564</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E357" t="n">
+        <v>25</v>
+      </c>
+      <c r="F357" t="n">
+        <v>34</v>
+      </c>
+      <c r="G357" t="n">
+        <v>24</v>
+      </c>
+      <c r="H357" t="n">
+        <v>29</v>
+      </c>
+      <c r="I357" t="n">
+        <v>112</v>
+      </c>
+      <c r="J357" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="K357" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="L357" t="n">
+        <v>360</v>
+      </c>
+      <c r="M357" t="n">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B358" t="n">
+        <v>565</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E358" t="n">
+        <v>36</v>
+      </c>
+      <c r="F358" t="n">
+        <v>26</v>
+      </c>
+      <c r="G358" t="n">
+        <v>30</v>
+      </c>
+      <c r="H358" t="n">
+        <v>27</v>
+      </c>
+      <c r="I358" t="n">
+        <v>119</v>
+      </c>
+      <c r="J358" t="n">
+        <v>222</v>
+      </c>
+      <c r="K358" t="n">
+        <v>2</v>
+      </c>
+      <c r="L358" t="n">
+        <v>-135</v>
+      </c>
+      <c r="M358" t="n">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B359" t="n">
+        <v>566</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E359" t="n">
+        <v>23</v>
+      </c>
+      <c r="F359" t="n">
+        <v>20</v>
+      </c>
+      <c r="G359" t="n">
+        <v>21</v>
+      </c>
+      <c r="H359" t="n">
+        <v>30</v>
+      </c>
+      <c r="I359" t="n">
+        <v>94</v>
+      </c>
+      <c r="J359" t="n">
+        <v>1</v>
+      </c>
+      <c r="K359" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="L359" t="n">
+        <v>115</v>
+      </c>
+      <c r="M359" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B360" t="n">
+        <v>567</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E360" t="n">
+        <v>23</v>
+      </c>
+      <c r="F360" t="n">
+        <v>39</v>
+      </c>
+      <c r="G360" t="n">
+        <v>24</v>
+      </c>
+      <c r="H360" t="n">
+        <v>17</v>
+      </c>
+      <c r="I360" t="n">
+        <v>103</v>
+      </c>
+      <c r="J360" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K360" t="n">
+        <v>5</v>
+      </c>
+      <c r="L360" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M360" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B361" t="n">
+        <v>568</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>OklahomaCity</t>
+        </is>
+      </c>
+      <c r="E361" t="n">
+        <v>16</v>
+      </c>
+      <c r="F361" t="n">
+        <v>32</v>
+      </c>
+      <c r="G361" t="n">
+        <v>29</v>
+      </c>
+      <c r="H361" t="n">
+        <v>28</v>
+      </c>
+      <c r="I361" t="n">
+        <v>105</v>
+      </c>
+      <c r="J361" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K361" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="L361" t="n">
+        <v>175</v>
+      </c>
+      <c r="M361" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B362" t="n">
+        <v>569</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E362" t="n">
+        <v>31</v>
+      </c>
+      <c r="F362" t="n">
+        <v>37</v>
+      </c>
+      <c r="G362" t="n">
+        <v>34</v>
+      </c>
+      <c r="H362" t="n">
+        <v>21</v>
+      </c>
+      <c r="I362" t="n">
+        <v>123</v>
+      </c>
+      <c r="J362" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K362" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L362" t="n">
+        <v>-145</v>
+      </c>
+      <c r="M362" t="n">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B363" t="n">
+        <v>570</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>SanAntonio</t>
+        </is>
+      </c>
+      <c r="E363" t="n">
+        <v>22</v>
+      </c>
+      <c r="F363" t="n">
+        <v>35</v>
+      </c>
+      <c r="G363" t="n">
+        <v>20</v>
+      </c>
+      <c r="H363" t="n">
+        <v>32</v>
+      </c>
+      <c r="I363" t="n">
+        <v>109</v>
+      </c>
+      <c r="J363" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K363" t="n">
+        <v>220</v>
+      </c>
+      <c r="L363" t="n">
+        <v>125</v>
+      </c>
+      <c r="M363" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B364" t="n">
+        <v>571</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E364" t="n">
+        <v>25</v>
+      </c>
+      <c r="F364" t="n">
+        <v>21</v>
+      </c>
+      <c r="G364" t="n">
+        <v>23</v>
+      </c>
+      <c r="H364" t="n">
+        <v>27</v>
+      </c>
+      <c r="I364" t="n">
+        <v>96</v>
+      </c>
+      <c r="J364" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="K364" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="L364" t="n">
+        <v>140</v>
+      </c>
+      <c r="M364" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B365" t="n">
+        <v>572</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E365" t="n">
+        <v>32</v>
+      </c>
+      <c r="F365" t="n">
+        <v>17</v>
+      </c>
+      <c r="G365" t="n">
+        <v>30</v>
+      </c>
+      <c r="H365" t="n">
+        <v>26</v>
+      </c>
+      <c r="I365" t="n">
+        <v>105</v>
+      </c>
+      <c r="J365" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K365" t="n">
+        <v>3</v>
+      </c>
+      <c r="L365" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M365" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B366" t="n">
+        <v>573</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E366" t="n">
+        <v>29</v>
+      </c>
+      <c r="F366" t="n">
+        <v>16</v>
+      </c>
+      <c r="G366" t="n">
+        <v>17</v>
+      </c>
+      <c r="H366" t="n">
+        <v>31</v>
+      </c>
+      <c r="I366" t="n">
+        <v>93</v>
+      </c>
+      <c r="J366" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="K366" t="n">
+        <v>222</v>
+      </c>
+      <c r="L366" t="n">
+        <v>190</v>
+      </c>
+      <c r="M366" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B367" t="n">
+        <v>574</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E367" t="n">
+        <v>23</v>
+      </c>
+      <c r="F367" t="n">
+        <v>28</v>
+      </c>
+      <c r="G367" t="n">
+        <v>35</v>
+      </c>
+      <c r="H367" t="n">
+        <v>33</v>
+      </c>
+      <c r="I367" t="n">
+        <v>119</v>
+      </c>
+      <c r="J367" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K367" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L367" t="n">
+        <v>-220</v>
+      </c>
+      <c r="M367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B368" t="n">
+        <v>575</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E368" t="n">
+        <v>19</v>
+      </c>
+      <c r="F368" t="n">
+        <v>25</v>
+      </c>
+      <c r="G368" t="n">
+        <v>40</v>
+      </c>
+      <c r="H368" t="n">
+        <v>23</v>
+      </c>
+      <c r="I368" t="n">
+        <v>107</v>
+      </c>
+      <c r="J368" t="n">
+        <v>226</v>
+      </c>
+      <c r="K368" t="n">
+        <v>223.5</v>
+      </c>
+      <c r="L368" t="n">
+        <v>105</v>
+      </c>
+      <c r="M368" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B369" t="n">
+        <v>576</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>LALakers</t>
+        </is>
+      </c>
+      <c r="E369" t="n">
+        <v>26</v>
+      </c>
+      <c r="F369" t="n">
+        <v>23</v>
+      </c>
+      <c r="G369" t="n">
+        <v>12</v>
+      </c>
+      <c r="H369" t="n">
+        <v>22</v>
+      </c>
+      <c r="I369" t="n">
+        <v>83</v>
+      </c>
+      <c r="J369" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="L369" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M369" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B370" t="n">
+        <v>501</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E370" t="n">
+        <v>27</v>
+      </c>
+      <c r="F370" t="n">
+        <v>31</v>
+      </c>
+      <c r="G370" t="n">
+        <v>37</v>
+      </c>
+      <c r="H370" t="n">
+        <v>16</v>
+      </c>
+      <c r="I370" t="n">
+        <v>111</v>
+      </c>
+      <c r="J370" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="K370" t="n">
+        <v>212</v>
+      </c>
+      <c r="L370" t="n">
+        <v>290</v>
+      </c>
+      <c r="M370" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B371" t="n">
+        <v>502</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E371" t="n">
+        <v>24</v>
+      </c>
+      <c r="F371" t="n">
+        <v>24</v>
+      </c>
+      <c r="G371" t="n">
+        <v>21</v>
+      </c>
+      <c r="H371" t="n">
+        <v>36</v>
+      </c>
+      <c r="I371" t="n">
+        <v>105</v>
+      </c>
+      <c r="J371" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K371" t="n">
+        <v>9</v>
+      </c>
+      <c r="L371" t="n">
+        <v>-350</v>
+      </c>
+      <c r="M371" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B372" t="n">
+        <v>503</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E372" t="n">
+        <v>28</v>
+      </c>
+      <c r="F372" t="n">
+        <v>22</v>
+      </c>
+      <c r="G372" t="n">
+        <v>32</v>
+      </c>
+      <c r="H372" t="n">
+        <v>22</v>
+      </c>
+      <c r="I372" t="n">
+        <v>104</v>
+      </c>
+      <c r="J372" t="n">
+        <v>2</v>
+      </c>
+      <c r="K372" t="n">
+        <v>5</v>
+      </c>
+      <c r="L372" t="n">
+        <v>-210</v>
+      </c>
+      <c r="M372" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B373" t="n">
+        <v>504</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E373" t="n">
+        <v>18</v>
+      </c>
+      <c r="F373" t="n">
+        <v>19</v>
+      </c>
+      <c r="G373" t="n">
+        <v>22</v>
+      </c>
+      <c r="H373" t="n">
+        <v>33</v>
+      </c>
+      <c r="I373" t="n">
+        <v>92</v>
+      </c>
+      <c r="J373" t="n">
+        <v>204.5</v>
+      </c>
+      <c r="K373" t="n">
+        <v>203</v>
+      </c>
+      <c r="L373" t="n">
+        <v>180</v>
+      </c>
+      <c r="M373" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B374" t="n">
+        <v>505</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E374" t="n">
+        <v>25</v>
+      </c>
+      <c r="F374" t="n">
+        <v>35</v>
+      </c>
+      <c r="G374" t="n">
+        <v>22</v>
+      </c>
+      <c r="H374" t="n">
+        <v>31</v>
+      </c>
+      <c r="I374" t="n">
+        <v>113</v>
+      </c>
+      <c r="J374" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K374" t="n">
+        <v>214</v>
+      </c>
+      <c r="L374" t="n">
+        <v>160</v>
+      </c>
+      <c r="M374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B375" t="n">
+        <v>506</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E375" t="n">
+        <v>32</v>
+      </c>
+      <c r="F375" t="n">
+        <v>38</v>
+      </c>
+      <c r="G375" t="n">
+        <v>24</v>
+      </c>
+      <c r="H375" t="n">
+        <v>24</v>
+      </c>
+      <c r="I375" t="n">
+        <v>118</v>
+      </c>
+      <c r="J375" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K375" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L375" t="n">
+        <v>-180</v>
+      </c>
+      <c r="M375" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B376" t="n">
+        <v>507</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E376" t="n">
+        <v>22</v>
+      </c>
+      <c r="F376" t="n">
+        <v>22</v>
+      </c>
+      <c r="G376" t="n">
+        <v>28</v>
+      </c>
+      <c r="H376" t="n">
+        <v>29</v>
+      </c>
+      <c r="I376" t="n">
+        <v>101</v>
+      </c>
+      <c r="J376" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="K376" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L376" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M376" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B377" t="n">
+        <v>508</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E377" t="n">
+        <v>35</v>
+      </c>
+      <c r="F377" t="n">
+        <v>27</v>
+      </c>
+      <c r="G377" t="n">
+        <v>21</v>
+      </c>
+      <c r="H377" t="n">
+        <v>29</v>
+      </c>
+      <c r="I377" t="n">
+        <v>112</v>
+      </c>
+      <c r="J377" t="n">
+        <v>7</v>
+      </c>
+      <c r="K377" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="L377" t="n">
+        <v>140</v>
+      </c>
+      <c r="M377" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B378" t="n">
+        <v>509</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E378" t="n">
+        <v>31</v>
+      </c>
+      <c r="F378" t="n">
+        <v>34</v>
+      </c>
+      <c r="G378" t="n">
+        <v>28</v>
+      </c>
+      <c r="H378" t="n">
+        <v>34</v>
+      </c>
+      <c r="I378" t="n">
+        <v>127</v>
+      </c>
+      <c r="J378" t="n">
+        <v>201.5</v>
+      </c>
+      <c r="K378" t="n">
+        <v>203</v>
+      </c>
+      <c r="L378" t="n">
+        <v>280</v>
+      </c>
+      <c r="M378" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B379" t="n">
+        <v>510</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E379" t="n">
+        <v>34</v>
+      </c>
+      <c r="F379" t="n">
+        <v>30</v>
+      </c>
+      <c r="G379" t="n">
+        <v>31</v>
+      </c>
+      <c r="H379" t="n">
+        <v>26</v>
+      </c>
+      <c r="I379" t="n">
+        <v>121</v>
+      </c>
+      <c r="J379" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K379" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L379" t="n">
+        <v>-340</v>
+      </c>
+      <c r="M379" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B380" t="n">
+        <v>511</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E380" t="n">
+        <v>20</v>
+      </c>
+      <c r="F380" t="n">
+        <v>32</v>
+      </c>
+      <c r="G380" t="n">
+        <v>22</v>
+      </c>
+      <c r="H380" t="n">
+        <v>15</v>
+      </c>
+      <c r="I380" t="n">
+        <v>89</v>
+      </c>
+      <c r="J380" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K380" t="n">
+        <v>202</v>
+      </c>
+      <c r="L380" t="n">
+        <v>115</v>
+      </c>
+      <c r="M380" t="n">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B381" t="n">
+        <v>512</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E381" t="n">
+        <v>9</v>
+      </c>
+      <c r="F381" t="n">
+        <v>29</v>
+      </c>
+      <c r="G381" t="n">
+        <v>24</v>
+      </c>
+      <c r="H381" t="n">
+        <v>29</v>
+      </c>
+      <c r="I381" t="n">
+        <v>91</v>
+      </c>
+      <c r="J381" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="K381" t="n">
+        <v>2</v>
+      </c>
+      <c r="L381" t="n">
+        <v>-135</v>
+      </c>
+      <c r="M381" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B382" t="n">
+        <v>513</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E382" t="n">
+        <v>26</v>
+      </c>
+      <c r="F382" t="n">
+        <v>17</v>
+      </c>
+      <c r="G382" t="n">
+        <v>28</v>
+      </c>
+      <c r="H382" t="n">
+        <v>31</v>
+      </c>
+      <c r="I382" t="n">
+        <v>102</v>
+      </c>
+      <c r="J382" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="K382" t="n">
+        <v>221</v>
+      </c>
+      <c r="L382" t="n">
+        <v>235</v>
+      </c>
+      <c r="M382" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B383" t="n">
+        <v>514</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E383" t="n">
+        <v>32</v>
+      </c>
+      <c r="F383" t="n">
+        <v>38</v>
+      </c>
+      <c r="G383" t="n">
+        <v>28</v>
+      </c>
+      <c r="H383" t="n">
+        <v>31</v>
+      </c>
+      <c r="I383" t="n">
+        <v>129</v>
+      </c>
+      <c r="J383" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K383" t="n">
+        <v>7</v>
+      </c>
+      <c r="L383" t="n">
+        <v>-275</v>
+      </c>
+      <c r="M383" t="n">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B384" t="n">
+        <v>515</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>SanAntonio</t>
+        </is>
+      </c>
+      <c r="E384" t="n">
+        <v>29</v>
+      </c>
+      <c r="F384" t="n">
+        <v>26</v>
+      </c>
+      <c r="G384" t="n">
+        <v>24</v>
+      </c>
+      <c r="H384" t="n">
+        <v>27</v>
+      </c>
+      <c r="I384" t="n">
+        <v>106</v>
+      </c>
+      <c r="J384" t="n">
+        <v>223</v>
+      </c>
+      <c r="K384" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="L384" t="n">
+        <v>120</v>
+      </c>
+      <c r="M384" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B385" t="n">
+        <v>516</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>LALakers</t>
+        </is>
+      </c>
+      <c r="E385" t="n">
+        <v>34</v>
+      </c>
+      <c r="F385" t="n">
+        <v>26</v>
+      </c>
+      <c r="G385" t="n">
+        <v>30</v>
+      </c>
+      <c r="H385" t="n">
+        <v>24</v>
+      </c>
+      <c r="I385" t="n">
+        <v>114</v>
+      </c>
+      <c r="J385" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K385" t="n">
+        <v>2</v>
+      </c>
+      <c r="L385" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M385" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B386" t="n">
+        <v>517</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E386" t="n">
+        <v>24</v>
+      </c>
+      <c r="F386" t="n">
+        <v>20</v>
+      </c>
+      <c r="G386" t="n">
+        <v>33</v>
+      </c>
+      <c r="H386" t="n">
+        <v>23</v>
+      </c>
+      <c r="I386" t="n">
+        <v>100</v>
+      </c>
+      <c r="J386" t="n">
+        <v>219</v>
+      </c>
+      <c r="K386" t="n">
+        <v>224</v>
+      </c>
+      <c r="L386" t="n">
+        <v>110</v>
+      </c>
+      <c r="M386" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B387" t="n">
+        <v>518</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E387" t="n">
+        <v>32</v>
+      </c>
+      <c r="F387" t="n">
+        <v>26</v>
+      </c>
+      <c r="G387" t="n">
+        <v>31</v>
+      </c>
+      <c r="H387" t="n">
+        <v>31</v>
+      </c>
+      <c r="I387" t="n">
+        <v>120</v>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="K387" t="n">
+        <v>2</v>
+      </c>
+      <c r="L387" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M387" t="n">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B388" t="n">
+        <v>519</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E388" t="n">
+        <v>27</v>
+      </c>
+      <c r="F388" t="n">
+        <v>30</v>
+      </c>
+      <c r="G388" t="n">
+        <v>31</v>
+      </c>
+      <c r="H388" t="n">
+        <v>14</v>
+      </c>
+      <c r="I388" t="n">
+        <v>102</v>
+      </c>
+      <c r="J388" t="n">
+        <v>4</v>
+      </c>
+      <c r="K388" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L388" t="n">
+        <v>-210</v>
+      </c>
+      <c r="M388" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B389" t="n">
+        <v>520</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E389" t="n">
+        <v>30</v>
+      </c>
+      <c r="F389" t="n">
+        <v>27</v>
+      </c>
+      <c r="G389" t="n">
+        <v>30</v>
+      </c>
+      <c r="H389" t="n">
+        <v>19</v>
+      </c>
+      <c r="I389" t="n">
+        <v>106</v>
+      </c>
+      <c r="J389" t="n">
+        <v>224</v>
+      </c>
+      <c r="K389" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="L389" t="n">
+        <v>180</v>
+      </c>
+      <c r="M389" t="n">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B390" t="n">
+        <v>521</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E390" t="n">
+        <v>27</v>
+      </c>
+      <c r="F390" t="n">
+        <v>24</v>
+      </c>
+      <c r="G390" t="n">
+        <v>29</v>
+      </c>
+      <c r="H390" t="n">
+        <v>35</v>
+      </c>
+      <c r="I390" t="n">
+        <v>115</v>
+      </c>
+      <c r="J390" t="n">
+        <v>9</v>
+      </c>
+      <c r="K390" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L390" t="n">
+        <v>-380</v>
+      </c>
+      <c r="M390" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B391" t="n">
+        <v>522</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E391" t="n">
+        <v>23</v>
+      </c>
+      <c r="F391" t="n">
+        <v>21</v>
+      </c>
+      <c r="G391" t="n">
+        <v>19</v>
+      </c>
+      <c r="H391" t="n">
+        <v>26</v>
+      </c>
+      <c r="I391" t="n">
+        <v>89</v>
+      </c>
+      <c r="J391" t="n">
+        <v>223</v>
+      </c>
+      <c r="K391" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="L391" t="n">
+        <v>320</v>
+      </c>
+      <c r="M391" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B392" t="n">
+        <v>523</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E392" t="n">
+        <v>30</v>
+      </c>
+      <c r="F392" t="n">
+        <v>31</v>
+      </c>
+      <c r="G392" t="n">
+        <v>29</v>
+      </c>
+      <c r="H392" t="n">
+        <v>30</v>
+      </c>
+      <c r="I392" t="n">
+        <v>120</v>
+      </c>
+      <c r="J392" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K392" t="n">
+        <v>9</v>
+      </c>
+      <c r="L392" t="n">
+        <v>-400</v>
+      </c>
+      <c r="M392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B393" t="n">
+        <v>524</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>OklahomaCity</t>
+        </is>
+      </c>
+      <c r="E393" t="n">
+        <v>25</v>
+      </c>
+      <c r="F393" t="n">
+        <v>23</v>
+      </c>
+      <c r="G393" t="n">
+        <v>26</v>
+      </c>
+      <c r="H393" t="n">
+        <v>22</v>
+      </c>
+      <c r="I393" t="n">
+        <v>96</v>
+      </c>
+      <c r="J393" t="n">
+        <v>212</v>
+      </c>
+      <c r="K393" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="L393" t="n">
+        <v>330</v>
+      </c>
+      <c r="M393" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B394" t="n">
+        <v>525</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E394" t="n">
+        <v>18</v>
+      </c>
+      <c r="F394" t="n">
+        <v>35</v>
+      </c>
+      <c r="G394" t="n">
+        <v>26</v>
+      </c>
+      <c r="H394" t="n">
+        <v>16</v>
+      </c>
+      <c r="I394" t="n">
+        <v>95</v>
+      </c>
+      <c r="J394" t="n">
+        <v>217</v>
+      </c>
+      <c r="K394" t="n">
+        <v>208</v>
+      </c>
+      <c r="L394" t="n">
+        <v>210</v>
+      </c>
+      <c r="M394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B395" t="n">
+        <v>526</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E395" t="n">
+        <v>33</v>
+      </c>
+      <c r="F395" t="n">
+        <v>34</v>
+      </c>
+      <c r="G395" t="n">
+        <v>24</v>
+      </c>
+      <c r="H395" t="n">
+        <v>33</v>
+      </c>
+      <c r="I395" t="n">
+        <v>124</v>
+      </c>
+      <c r="J395" t="n">
+        <v>4</v>
+      </c>
+      <c r="K395" t="n">
+        <v>6</v>
+      </c>
+      <c r="L395" t="n">
+        <v>-250</v>
+      </c>
+      <c r="M395" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B396" t="n">
+        <v>527</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E396" t="n">
+        <v>30</v>
+      </c>
+      <c r="F396" t="n">
+        <v>24</v>
+      </c>
+      <c r="G396" t="n">
+        <v>23</v>
+      </c>
+      <c r="H396" t="n">
+        <v>23</v>
+      </c>
+      <c r="I396" t="n">
+        <v>100</v>
+      </c>
+      <c r="J396" t="n">
+        <v>221</v>
+      </c>
+      <c r="K396" t="n">
+        <v>219</v>
+      </c>
+      <c r="L396" t="n">
+        <v>145</v>
+      </c>
+      <c r="M396" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B397" t="n">
+        <v>528</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E397" t="n">
+        <v>17</v>
+      </c>
+      <c r="F397" t="n">
+        <v>28</v>
+      </c>
+      <c r="G397" t="n">
+        <v>26</v>
+      </c>
+      <c r="H397" t="n">
+        <v>19</v>
+      </c>
+      <c r="I397" t="n">
+        <v>90</v>
+      </c>
+      <c r="J397" t="n">
+        <v>6</v>
+      </c>
+      <c r="K397" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L397" t="n">
+        <v>-165</v>
+      </c>
+      <c r="M397" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B398" t="n">
+        <v>529</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
+        <v>25</v>
+      </c>
+      <c r="F398" t="n">
+        <v>33</v>
+      </c>
+      <c r="G398" t="n">
+        <v>22</v>
+      </c>
+      <c r="H398" t="n">
+        <v>20</v>
+      </c>
+      <c r="I398" t="n">
+        <v>100</v>
+      </c>
+      <c r="J398" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="K398" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="L398" t="n">
+        <v>150</v>
+      </c>
+      <c r="M398" t="n">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B399" t="n">
+        <v>530</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E399" t="n">
+        <v>25</v>
+      </c>
+      <c r="F399" t="n">
+        <v>16</v>
+      </c>
+      <c r="G399" t="n">
+        <v>32</v>
+      </c>
+      <c r="H399" t="n">
+        <v>32</v>
+      </c>
+      <c r="I399" t="n">
+        <v>105</v>
+      </c>
+      <c r="J399" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K399" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L399" t="n">
+        <v>-170</v>
+      </c>
+      <c r="M399" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B400" t="n">
+        <v>531</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E400" t="n">
+        <v>19</v>
+      </c>
+      <c r="F400" t="n">
+        <v>18</v>
+      </c>
+      <c r="G400" t="n">
+        <v>28</v>
+      </c>
+      <c r="H400" t="n">
+        <v>33</v>
+      </c>
+      <c r="I400" t="n">
+        <v>98</v>
+      </c>
+      <c r="J400" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K400" t="n">
+        <v>4</v>
+      </c>
+      <c r="L400" t="n">
+        <v>-170</v>
+      </c>
+      <c r="M400" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B401" t="n">
+        <v>532</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E401" t="n">
+        <v>22</v>
+      </c>
+      <c r="F401" t="n">
+        <v>17</v>
+      </c>
+      <c r="G401" t="n">
+        <v>25</v>
+      </c>
+      <c r="H401" t="n">
+        <v>28</v>
+      </c>
+      <c r="I401" t="n">
+        <v>92</v>
+      </c>
+      <c r="J401" t="n">
+        <v>199</v>
+      </c>
+      <c r="K401" t="n">
+        <v>199</v>
+      </c>
+      <c r="L401" t="n">
+        <v>150</v>
+      </c>
+      <c r="M401" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B402" t="n">
+        <v>533</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E402" t="n">
+        <v>31</v>
+      </c>
+      <c r="F402" t="n">
+        <v>37</v>
+      </c>
+      <c r="G402" t="n">
+        <v>24</v>
+      </c>
+      <c r="H402" t="n">
+        <v>37</v>
+      </c>
+      <c r="I402" t="n">
+        <v>129</v>
+      </c>
+      <c r="J402" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K402" t="n">
+        <v>4</v>
+      </c>
+      <c r="L402" t="n">
+        <v>-180</v>
+      </c>
+      <c r="M402" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B403" t="n">
+        <v>534</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E403" t="n">
+        <v>12</v>
+      </c>
+      <c r="F403" t="n">
+        <v>32</v>
+      </c>
+      <c r="G403" t="n">
+        <v>26</v>
+      </c>
+      <c r="H403" t="n">
+        <v>37</v>
+      </c>
+      <c r="I403" t="n">
+        <v>107</v>
+      </c>
+      <c r="J403" t="n">
+        <v>213</v>
+      </c>
+      <c r="K403" t="n">
+        <v>214</v>
+      </c>
+      <c r="L403" t="n">
+        <v>160</v>
+      </c>
+      <c r="M403" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B404" t="n">
+        <v>535</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E404" t="n">
+        <v>20</v>
+      </c>
+      <c r="F404" t="n">
+        <v>29</v>
+      </c>
+      <c r="G404" t="n">
+        <v>25</v>
+      </c>
+      <c r="H404" t="n">
+        <v>10</v>
+      </c>
+      <c r="I404" t="n">
+        <v>84</v>
+      </c>
+      <c r="J404" t="n">
+        <v>217</v>
+      </c>
+      <c r="K404" t="n">
+        <v>211</v>
+      </c>
+      <c r="L404" t="n">
+        <v>130</v>
+      </c>
+      <c r="M404" t="n">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B405" t="n">
+        <v>536</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>NewYork</t>
+        </is>
+      </c>
+      <c r="E405" t="n">
+        <v>16</v>
+      </c>
+      <c r="F405" t="n">
+        <v>32</v>
+      </c>
+      <c r="G405" t="n">
+        <v>21</v>
+      </c>
+      <c r="H405" t="n">
+        <v>23</v>
+      </c>
+      <c r="I405" t="n">
+        <v>92</v>
+      </c>
+      <c r="J405" t="n">
+        <v>3</v>
+      </c>
+      <c r="K405" t="n">
+        <v>3</v>
+      </c>
+      <c r="L405" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M405" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B406" t="n">
+        <v>537</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E406" t="n">
+        <v>31</v>
+      </c>
+      <c r="F406" t="n">
+        <v>25</v>
+      </c>
+      <c r="G406" t="n">
+        <v>28</v>
+      </c>
+      <c r="H406" t="n">
+        <v>27</v>
+      </c>
+      <c r="I406" t="n">
+        <v>111</v>
+      </c>
+      <c r="J406" t="n">
+        <v>214</v>
+      </c>
+      <c r="K406" t="n">
+        <v>215</v>
+      </c>
+      <c r="L406" t="n">
+        <v>450</v>
+      </c>
+      <c r="M406" t="n">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B407" t="n">
+        <v>538</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E407" t="n">
+        <v>30</v>
+      </c>
+      <c r="F407" t="n">
+        <v>30</v>
+      </c>
+      <c r="G407" t="n">
+        <v>33</v>
+      </c>
+      <c r="H407" t="n">
+        <v>36</v>
+      </c>
+      <c r="I407" t="n">
+        <v>129</v>
+      </c>
+      <c r="J407" t="n">
+        <v>11</v>
+      </c>
+      <c r="K407" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L407" t="n">
+        <v>-600</v>
+      </c>
+      <c r="M407" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B408" t="n">
+        <v>539</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E408" t="n">
+        <v>20</v>
+      </c>
+      <c r="F408" t="n">
+        <v>36</v>
+      </c>
+      <c r="G408" t="n">
+        <v>15</v>
+      </c>
+      <c r="H408" t="n">
+        <v>31</v>
+      </c>
+      <c r="I408" t="n">
+        <v>102</v>
+      </c>
+      <c r="J408" t="n">
+        <v>221</v>
+      </c>
+      <c r="K408" t="n">
+        <v>219</v>
+      </c>
+      <c r="L408" t="n">
+        <v>525</v>
+      </c>
+      <c r="M408" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B409" t="n">
+        <v>540</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E409" t="n">
+        <v>33</v>
+      </c>
+      <c r="F409" t="n">
+        <v>41</v>
+      </c>
+      <c r="G409" t="n">
+        <v>31</v>
+      </c>
+      <c r="H409" t="n">
+        <v>31</v>
+      </c>
+      <c r="I409" t="n">
+        <v>136</v>
+      </c>
+      <c r="J409" t="n">
+        <v>11</v>
+      </c>
+      <c r="K409" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L409" t="n">
+        <v>-750</v>
+      </c>
+      <c r="M409" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B410" t="n">
+        <v>541</v>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E410" t="n">
+        <v>32</v>
+      </c>
+      <c r="F410" t="n">
+        <v>26</v>
+      </c>
+      <c r="G410" t="n">
+        <v>25</v>
+      </c>
+      <c r="H410" t="n">
+        <v>18</v>
+      </c>
+      <c r="I410" t="n">
+        <v>101</v>
+      </c>
+      <c r="J410" t="n">
+        <v>209</v>
+      </c>
+      <c r="K410" t="n">
+        <v>209</v>
+      </c>
+      <c r="L410" t="n">
+        <v>180</v>
+      </c>
+      <c r="M410" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B411" t="n">
+        <v>542</v>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E411" t="n">
+        <v>35</v>
+      </c>
+      <c r="F411" t="n">
+        <v>14</v>
+      </c>
+      <c r="G411" t="n">
+        <v>30</v>
+      </c>
+      <c r="H411" t="n">
+        <v>32</v>
+      </c>
+      <c r="I411" t="n">
+        <v>111</v>
+      </c>
+      <c r="J411" t="n">
+        <v>4</v>
+      </c>
+      <c r="K411" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L411" t="n">
+        <v>-210</v>
+      </c>
+      <c r="M411" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B412" t="n">
+        <v>543</v>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E412" t="n">
+        <v>18</v>
+      </c>
+      <c r="F412" t="n">
+        <v>22</v>
+      </c>
+      <c r="G412" t="n">
+        <v>26</v>
+      </c>
+      <c r="H412" t="n">
+        <v>33</v>
+      </c>
+      <c r="I412" t="n">
+        <v>99</v>
+      </c>
+      <c r="J412" t="n">
+        <v>3</v>
+      </c>
+      <c r="K412" t="n">
+        <v>4</v>
+      </c>
+      <c r="L412" t="n">
+        <v>-170</v>
+      </c>
+      <c r="M412" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B413" t="n">
+        <v>544</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E413" t="n">
+        <v>21</v>
+      </c>
+      <c r="F413" t="n">
+        <v>18</v>
+      </c>
+      <c r="G413" t="n">
+        <v>23</v>
+      </c>
+      <c r="H413" t="n">
+        <v>34</v>
+      </c>
+      <c r="I413" t="n">
+        <v>96</v>
+      </c>
+      <c r="J413" t="n">
+        <v>223</v>
+      </c>
+      <c r="K413" t="n">
+        <v>222</v>
+      </c>
+      <c r="L413" t="n">
+        <v>150</v>
+      </c>
+      <c r="M413" t="n">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B414" t="n">
+        <v>545</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E414" t="n">
+        <v>23</v>
+      </c>
+      <c r="F414" t="n">
+        <v>20</v>
+      </c>
+      <c r="G414" t="n">
+        <v>31</v>
+      </c>
+      <c r="H414" t="n">
+        <v>29</v>
+      </c>
+      <c r="I414" t="n">
+        <v>103</v>
+      </c>
+      <c r="J414" t="n">
+        <v>9</v>
+      </c>
+      <c r="K414" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L414" t="n">
+        <v>-265</v>
+      </c>
+      <c r="M414" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B415" t="n">
+        <v>546</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>OklahomaCity</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
+        <v>24</v>
+      </c>
+      <c r="F415" t="n">
+        <v>19</v>
+      </c>
+      <c r="G415" t="n">
+        <v>24</v>
+      </c>
+      <c r="H415" t="n">
+        <v>23</v>
+      </c>
+      <c r="I415" t="n">
+        <v>90</v>
+      </c>
+      <c r="J415" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="K415" t="n">
+        <v>207</v>
+      </c>
+      <c r="L415" t="n">
+        <v>225</v>
+      </c>
+      <c r="M415" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B416" t="n">
+        <v>547</v>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E416" t="n">
+        <v>33</v>
+      </c>
+      <c r="F416" t="n">
+        <v>27</v>
+      </c>
+      <c r="G416" t="n">
+        <v>25</v>
+      </c>
+      <c r="H416" t="n">
+        <v>28</v>
+      </c>
+      <c r="I416" t="n">
+        <v>113</v>
+      </c>
+      <c r="J416" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="K416" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="L416" t="n">
+        <v>130</v>
+      </c>
+      <c r="M416" t="n">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B417" t="n">
+        <v>548</v>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E417" t="n">
+        <v>24</v>
+      </c>
+      <c r="F417" t="n">
+        <v>37</v>
+      </c>
+      <c r="G417" t="n">
+        <v>24</v>
+      </c>
+      <c r="H417" t="n">
+        <v>33</v>
+      </c>
+      <c r="I417" t="n">
+        <v>118</v>
+      </c>
+      <c r="J417" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K417" t="n">
+        <v>3</v>
+      </c>
+      <c r="L417" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M417" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B418" t="n">
+        <v>549</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E418" t="n">
+        <v>33</v>
+      </c>
+      <c r="F418" t="n">
+        <v>24</v>
+      </c>
+      <c r="G418" t="n">
+        <v>37</v>
+      </c>
+      <c r="H418" t="n">
+        <v>27</v>
+      </c>
+      <c r="I418" t="n">
+        <v>121</v>
+      </c>
+      <c r="J418" t="n">
+        <v>219</v>
+      </c>
+      <c r="K418" t="n">
+        <v>2</v>
+      </c>
+      <c r="L418" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M418" t="n">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B419" t="n">
+        <v>550</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>LALakers</t>
+        </is>
+      </c>
+      <c r="E419" t="n">
+        <v>25</v>
+      </c>
+      <c r="F419" t="n">
+        <v>23</v>
+      </c>
+      <c r="G419" t="n">
+        <v>25</v>
+      </c>
+      <c r="H419" t="n">
+        <v>30</v>
+      </c>
+      <c r="I419" t="n">
+        <v>103</v>
+      </c>
+      <c r="J419" t="n">
+        <v>1</v>
+      </c>
+      <c r="K419" t="n">
+        <v>216</v>
+      </c>
+      <c r="L419" t="n">
+        <v>105</v>
+      </c>
+      <c r="M419" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/Odds/NBA/NBA odds 2021-22.xlsx
+++ b/Data/Odds/NBA/NBA odds 2021-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M419"/>
+  <dimension ref="A1:M559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19344,6 +19344,6318 @@
         <v>1</v>
       </c>
     </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B420" t="n">
+        <v>551</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E420" t="n">
+        <v>31</v>
+      </c>
+      <c r="F420" t="n">
+        <v>32</v>
+      </c>
+      <c r="G420" t="n">
+        <v>35</v>
+      </c>
+      <c r="H420" t="n">
+        <v>19</v>
+      </c>
+      <c r="I420" t="n">
+        <v>117</v>
+      </c>
+      <c r="J420" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="K420" t="n">
+        <v>223.5</v>
+      </c>
+      <c r="L420" t="n">
+        <v>125</v>
+      </c>
+      <c r="M420" t="n">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B421" t="n">
+        <v>552</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E421" t="n">
+        <v>34</v>
+      </c>
+      <c r="F421" t="n">
+        <v>24</v>
+      </c>
+      <c r="G421" t="n">
+        <v>18</v>
+      </c>
+      <c r="H421" t="n">
+        <v>23</v>
+      </c>
+      <c r="I421" t="n">
+        <v>99</v>
+      </c>
+      <c r="J421" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K421" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L421" t="n">
+        <v>-145</v>
+      </c>
+      <c r="M421" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B422" t="n">
+        <v>553</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E422" t="n">
+        <v>28</v>
+      </c>
+      <c r="F422" t="n">
+        <v>19</v>
+      </c>
+      <c r="G422" t="n">
+        <v>19</v>
+      </c>
+      <c r="H422" t="n">
+        <v>19</v>
+      </c>
+      <c r="I422" t="n">
+        <v>85</v>
+      </c>
+      <c r="J422" t="n">
+        <v>217</v>
+      </c>
+      <c r="K422" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="L422" t="n">
+        <v>450</v>
+      </c>
+      <c r="M422" t="n">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B423" t="n">
+        <v>554</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E423" t="n">
+        <v>30</v>
+      </c>
+      <c r="F423" t="n">
+        <v>33</v>
+      </c>
+      <c r="G423" t="n">
+        <v>34</v>
+      </c>
+      <c r="H423" t="n">
+        <v>23</v>
+      </c>
+      <c r="I423" t="n">
+        <v>120</v>
+      </c>
+      <c r="J423" t="n">
+        <v>9</v>
+      </c>
+      <c r="K423" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L423" t="n">
+        <v>-600</v>
+      </c>
+      <c r="M423" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B424" t="n">
+        <v>555</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>SanAntonio</t>
+        </is>
+      </c>
+      <c r="E424" t="n">
+        <v>20</v>
+      </c>
+      <c r="F424" t="n">
+        <v>33</v>
+      </c>
+      <c r="G424" t="n">
+        <v>18</v>
+      </c>
+      <c r="H424" t="n">
+        <v>21</v>
+      </c>
+      <c r="I424" t="n">
+        <v>92</v>
+      </c>
+      <c r="J424" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="K424" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="L424" t="n">
+        <v>250</v>
+      </c>
+      <c r="M424" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B425" t="n">
+        <v>556</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E425" t="n">
+        <v>25</v>
+      </c>
+      <c r="F425" t="n">
+        <v>32</v>
+      </c>
+      <c r="G425" t="n">
+        <v>26</v>
+      </c>
+      <c r="H425" t="n">
+        <v>23</v>
+      </c>
+      <c r="I425" t="n">
+        <v>106</v>
+      </c>
+      <c r="J425" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K425" t="n">
+        <v>8</v>
+      </c>
+      <c r="L425" t="n">
+        <v>-300</v>
+      </c>
+      <c r="M425" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B426" t="n">
+        <v>557</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E426" t="n">
+        <v>21</v>
+      </c>
+      <c r="F426" t="n">
+        <v>20</v>
+      </c>
+      <c r="G426" t="n">
+        <v>32</v>
+      </c>
+      <c r="H426" t="n">
+        <v>16</v>
+      </c>
+      <c r="I426" t="n">
+        <v>89</v>
+      </c>
+      <c r="J426" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K426" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L426" t="n">
+        <v>-265</v>
+      </c>
+      <c r="M426" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B427" t="n">
+        <v>558</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E427" t="n">
+        <v>24</v>
+      </c>
+      <c r="F427" t="n">
+        <v>25</v>
+      </c>
+      <c r="G427" t="n">
+        <v>24</v>
+      </c>
+      <c r="H427" t="n">
+        <v>24</v>
+      </c>
+      <c r="I427" t="n">
+        <v>97</v>
+      </c>
+      <c r="J427" t="n">
+        <v>210</v>
+      </c>
+      <c r="K427" t="n">
+        <v>206</v>
+      </c>
+      <c r="L427" t="n">
+        <v>225</v>
+      </c>
+      <c r="M427" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B428" t="n">
+        <v>559</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E428" t="n">
+        <v>29</v>
+      </c>
+      <c r="F428" t="n">
+        <v>22</v>
+      </c>
+      <c r="G428" t="n">
+        <v>14</v>
+      </c>
+      <c r="H428" t="n">
+        <v>22</v>
+      </c>
+      <c r="I428" t="n">
+        <v>87</v>
+      </c>
+      <c r="J428" t="n">
+        <v>215</v>
+      </c>
+      <c r="K428" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="L428" t="n">
+        <v>100</v>
+      </c>
+      <c r="M428" t="n">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B429" t="n">
+        <v>560</v>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E429" t="n">
+        <v>24</v>
+      </c>
+      <c r="F429" t="n">
+        <v>21</v>
+      </c>
+      <c r="G429" t="n">
+        <v>30</v>
+      </c>
+      <c r="H429" t="n">
+        <v>22</v>
+      </c>
+      <c r="I429" t="n">
+        <v>97</v>
+      </c>
+      <c r="J429" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K429" t="n">
+        <v>1</v>
+      </c>
+      <c r="L429" t="n">
+        <v>-120</v>
+      </c>
+      <c r="M429" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B430" t="n">
+        <v>561</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E430" t="n">
+        <v>34</v>
+      </c>
+      <c r="F430" t="n">
+        <v>18</v>
+      </c>
+      <c r="G430" t="n">
+        <v>18</v>
+      </c>
+      <c r="H430" t="n">
+        <v>28</v>
+      </c>
+      <c r="I430" t="n">
+        <v>98</v>
+      </c>
+      <c r="J430" t="n">
+        <v>220</v>
+      </c>
+      <c r="K430" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="L430" t="n">
+        <v>235</v>
+      </c>
+      <c r="M430" t="n">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B431" t="n">
+        <v>562</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
+        <v>21</v>
+      </c>
+      <c r="F431" t="n">
+        <v>26</v>
+      </c>
+      <c r="G431" t="n">
+        <v>34</v>
+      </c>
+      <c r="H431" t="n">
+        <v>32</v>
+      </c>
+      <c r="I431" t="n">
+        <v>113</v>
+      </c>
+      <c r="J431" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K431" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L431" t="n">
+        <v>-275</v>
+      </c>
+      <c r="M431" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B432" t="n">
+        <v>563</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
+        <v>21</v>
+      </c>
+      <c r="F432" t="n">
+        <v>29</v>
+      </c>
+      <c r="G432" t="n">
+        <v>22</v>
+      </c>
+      <c r="H432" t="n">
+        <v>32</v>
+      </c>
+      <c r="I432" t="n">
+        <v>104</v>
+      </c>
+      <c r="J432" t="n">
+        <v>210</v>
+      </c>
+      <c r="K432" t="n">
+        <v>207</v>
+      </c>
+      <c r="L432" t="n">
+        <v>525</v>
+      </c>
+      <c r="M432" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B433" t="n">
+        <v>564</v>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>NewYork</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
+        <v>23</v>
+      </c>
+      <c r="F433" t="n">
+        <v>26</v>
+      </c>
+      <c r="G433" t="n">
+        <v>18</v>
+      </c>
+      <c r="H433" t="n">
+        <v>31</v>
+      </c>
+      <c r="I433" t="n">
+        <v>98</v>
+      </c>
+      <c r="J433" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K433" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L433" t="n">
+        <v>-750</v>
+      </c>
+      <c r="M433" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B434" t="n">
+        <v>565</v>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
+        <v>25</v>
+      </c>
+      <c r="F434" t="n">
+        <v>16</v>
+      </c>
+      <c r="G434" t="n">
+        <v>32</v>
+      </c>
+      <c r="H434" t="n">
+        <v>26</v>
+      </c>
+      <c r="I434" t="n">
+        <v>99</v>
+      </c>
+      <c r="J434" t="n">
+        <v>207</v>
+      </c>
+      <c r="K434" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="L434" t="n">
+        <v>450</v>
+      </c>
+      <c r="M434" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B435" t="n">
+        <v>566</v>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E435" t="n">
+        <v>31</v>
+      </c>
+      <c r="F435" t="n">
+        <v>31</v>
+      </c>
+      <c r="G435" t="n">
+        <v>19</v>
+      </c>
+      <c r="H435" t="n">
+        <v>28</v>
+      </c>
+      <c r="I435" t="n">
+        <v>109</v>
+      </c>
+      <c r="J435" t="n">
+        <v>13</v>
+      </c>
+      <c r="K435" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L435" t="n">
+        <v>-600</v>
+      </c>
+      <c r="M435" t="n">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B436" t="n">
+        <v>567</v>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E436" t="n">
+        <v>29</v>
+      </c>
+      <c r="F436" t="n">
+        <v>20</v>
+      </c>
+      <c r="G436" t="n">
+        <v>28</v>
+      </c>
+      <c r="H436" t="n">
+        <v>22</v>
+      </c>
+      <c r="I436" t="n">
+        <v>99</v>
+      </c>
+      <c r="J436" t="n">
+        <v>215</v>
+      </c>
+      <c r="K436" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="L436" t="n">
+        <v>175</v>
+      </c>
+      <c r="M436" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B437" t="n">
+        <v>568</v>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E437" t="n">
+        <v>30</v>
+      </c>
+      <c r="F437" t="n">
+        <v>28</v>
+      </c>
+      <c r="G437" t="n">
+        <v>33</v>
+      </c>
+      <c r="H437" t="n">
+        <v>19</v>
+      </c>
+      <c r="I437" t="n">
+        <v>110</v>
+      </c>
+      <c r="J437" t="n">
+        <v>6</v>
+      </c>
+      <c r="K437" t="n">
+        <v>5</v>
+      </c>
+      <c r="L437" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M437" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B438" t="n">
+        <v>569</v>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>LALakers</t>
+        </is>
+      </c>
+      <c r="E438" t="n">
+        <v>32</v>
+      </c>
+      <c r="F438" t="n">
+        <v>21</v>
+      </c>
+      <c r="G438" t="n">
+        <v>30</v>
+      </c>
+      <c r="H438" t="n">
+        <v>19</v>
+      </c>
+      <c r="I438" t="n">
+        <v>102</v>
+      </c>
+      <c r="J438" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K438" t="n">
+        <v>223</v>
+      </c>
+      <c r="L438" t="n">
+        <v>350</v>
+      </c>
+      <c r="M438" t="n">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B439" t="n">
+        <v>570</v>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E439" t="n">
+        <v>30</v>
+      </c>
+      <c r="F439" t="n">
+        <v>34</v>
+      </c>
+      <c r="G439" t="n">
+        <v>21</v>
+      </c>
+      <c r="H439" t="n">
+        <v>24</v>
+      </c>
+      <c r="I439" t="n">
+        <v>109</v>
+      </c>
+      <c r="J439" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K439" t="n">
+        <v>9</v>
+      </c>
+      <c r="L439" t="n">
+        <v>-420</v>
+      </c>
+      <c r="M439" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B440" t="n">
+        <v>571</v>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E440" t="n">
+        <v>19</v>
+      </c>
+      <c r="F440" t="n">
+        <v>22</v>
+      </c>
+      <c r="G440" t="n">
+        <v>23</v>
+      </c>
+      <c r="H440" t="n">
+        <v>25</v>
+      </c>
+      <c r="I440" t="n">
+        <v>89</v>
+      </c>
+      <c r="J440" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="K440" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="L440" t="n">
+        <v>130</v>
+      </c>
+      <c r="M440" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B441" t="n">
+        <v>572</v>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>OklahomaCity</t>
+        </is>
+      </c>
+      <c r="E441" t="n">
+        <v>22</v>
+      </c>
+      <c r="F441" t="n">
+        <v>31</v>
+      </c>
+      <c r="G441" t="n">
+        <v>27</v>
+      </c>
+      <c r="H441" t="n">
+        <v>21</v>
+      </c>
+      <c r="I441" t="n">
+        <v>101</v>
+      </c>
+      <c r="J441" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K441" t="n">
+        <v>3</v>
+      </c>
+      <c r="L441" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M441" t="n">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B442" t="n">
+        <v>573</v>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E442" t="n">
+        <v>18</v>
+      </c>
+      <c r="F442" t="n">
+        <v>30</v>
+      </c>
+      <c r="G442" t="n">
+        <v>24</v>
+      </c>
+      <c r="H442" t="n">
+        <v>25</v>
+      </c>
+      <c r="I442" t="n">
+        <v>97</v>
+      </c>
+      <c r="J442" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="K442" t="n">
+        <v>228</v>
+      </c>
+      <c r="L442" t="n">
+        <v>125</v>
+      </c>
+      <c r="M442" t="n">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B443" t="n">
+        <v>574</v>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E443" t="n">
+        <v>22</v>
+      </c>
+      <c r="F443" t="n">
+        <v>22</v>
+      </c>
+      <c r="G443" t="n">
+        <v>33</v>
+      </c>
+      <c r="H443" t="n">
+        <v>30</v>
+      </c>
+      <c r="I443" t="n">
+        <v>107</v>
+      </c>
+      <c r="J443" t="n">
+        <v>3</v>
+      </c>
+      <c r="K443" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L443" t="n">
+        <v>-145</v>
+      </c>
+      <c r="M443" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B444" t="n">
+        <v>575</v>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E444" t="n">
+        <v>22</v>
+      </c>
+      <c r="F444" t="n">
+        <v>24</v>
+      </c>
+      <c r="G444" t="n">
+        <v>27</v>
+      </c>
+      <c r="H444" t="n">
+        <v>25</v>
+      </c>
+      <c r="I444" t="n">
+        <v>98</v>
+      </c>
+      <c r="J444" t="n">
+        <v>220</v>
+      </c>
+      <c r="K444" t="n">
+        <v>212</v>
+      </c>
+      <c r="L444" t="n">
+        <v>300</v>
+      </c>
+      <c r="M444" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B445" t="n">
+        <v>576</v>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E445" t="n">
+        <v>25</v>
+      </c>
+      <c r="F445" t="n">
+        <v>20</v>
+      </c>
+      <c r="G445" t="n">
+        <v>23</v>
+      </c>
+      <c r="H445" t="n">
+        <v>37</v>
+      </c>
+      <c r="I445" t="n">
+        <v>105</v>
+      </c>
+      <c r="J445" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K445" t="n">
+        <v>8</v>
+      </c>
+      <c r="L445" t="n">
+        <v>-360</v>
+      </c>
+      <c r="M445" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B446" t="n">
+        <v>577</v>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E446" t="n">
+        <v>33</v>
+      </c>
+      <c r="F446" t="n">
+        <v>30</v>
+      </c>
+      <c r="G446" t="n">
+        <v>22</v>
+      </c>
+      <c r="H446" t="n">
+        <v>22</v>
+      </c>
+      <c r="I446" t="n">
+        <v>107</v>
+      </c>
+      <c r="J446" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="K446" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="L446" t="n">
+        <v>140</v>
+      </c>
+      <c r="M446" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B447" t="n">
+        <v>578</v>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E447" t="n">
+        <v>24</v>
+      </c>
+      <c r="F447" t="n">
+        <v>24</v>
+      </c>
+      <c r="G447" t="n">
+        <v>33</v>
+      </c>
+      <c r="H447" t="n">
+        <v>31</v>
+      </c>
+      <c r="I447" t="n">
+        <v>112</v>
+      </c>
+      <c r="J447" t="n">
+        <v>3</v>
+      </c>
+      <c r="K447" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L447" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M447" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B448" t="n">
+        <v>501</v>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E448" t="n">
+        <v>19</v>
+      </c>
+      <c r="F448" t="n">
+        <v>21</v>
+      </c>
+      <c r="G448" t="n">
+        <v>30</v>
+      </c>
+      <c r="H448" t="n">
+        <v>27</v>
+      </c>
+      <c r="I448" t="n">
+        <v>97</v>
+      </c>
+      <c r="J448" t="n">
+        <v>210</v>
+      </c>
+      <c r="K448" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="L448" t="n">
+        <v>225</v>
+      </c>
+      <c r="M448" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B449" t="n">
+        <v>502</v>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E449" t="n">
+        <v>21</v>
+      </c>
+      <c r="F449" t="n">
+        <v>26</v>
+      </c>
+      <c r="G449" t="n">
+        <v>36</v>
+      </c>
+      <c r="H449" t="n">
+        <v>29</v>
+      </c>
+      <c r="I449" t="n">
+        <v>112</v>
+      </c>
+      <c r="J449" t="n">
+        <v>7</v>
+      </c>
+      <c r="K449" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L449" t="n">
+        <v>-265</v>
+      </c>
+      <c r="M449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B450" t="n">
+        <v>503</v>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E450" t="n">
+        <v>27</v>
+      </c>
+      <c r="F450" t="n">
+        <v>24</v>
+      </c>
+      <c r="G450" t="n">
+        <v>17</v>
+      </c>
+      <c r="H450" t="n">
+        <v>36</v>
+      </c>
+      <c r="I450" t="n">
+        <v>104</v>
+      </c>
+      <c r="J450" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K450" t="n">
+        <v>10</v>
+      </c>
+      <c r="L450" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M450" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B451" t="n">
+        <v>504</v>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E451" t="n">
+        <v>29</v>
+      </c>
+      <c r="F451" t="n">
+        <v>25</v>
+      </c>
+      <c r="G451" t="n">
+        <v>27</v>
+      </c>
+      <c r="H451" t="n">
+        <v>8</v>
+      </c>
+      <c r="I451" t="n">
+        <v>89</v>
+      </c>
+      <c r="J451" t="n">
+        <v>208</v>
+      </c>
+      <c r="K451" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="L451" t="n">
+        <v>400</v>
+      </c>
+      <c r="M451" t="n">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B452" t="n">
+        <v>505</v>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>SanAntonio</t>
+        </is>
+      </c>
+      <c r="E452" t="n">
+        <v>20</v>
+      </c>
+      <c r="F452" t="n">
+        <v>33</v>
+      </c>
+      <c r="G452" t="n">
+        <v>25</v>
+      </c>
+      <c r="H452" t="n">
+        <v>12</v>
+      </c>
+      <c r="I452" t="n">
+        <v>90</v>
+      </c>
+      <c r="J452" t="n">
+        <v>223</v>
+      </c>
+      <c r="K452" t="n">
+        <v>220</v>
+      </c>
+      <c r="L452" t="n">
+        <v>110</v>
+      </c>
+      <c r="M452" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B453" t="n">
+        <v>506</v>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E453" t="n">
+        <v>34</v>
+      </c>
+      <c r="F453" t="n">
+        <v>32</v>
+      </c>
+      <c r="G453" t="n">
+        <v>27</v>
+      </c>
+      <c r="H453" t="n">
+        <v>22</v>
+      </c>
+      <c r="I453" t="n">
+        <v>115</v>
+      </c>
+      <c r="J453" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K453" t="n">
+        <v>2</v>
+      </c>
+      <c r="L453" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M453" t="n">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B454" t="n">
+        <v>507</v>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E454" t="n">
+        <v>24</v>
+      </c>
+      <c r="F454" t="n">
+        <v>29</v>
+      </c>
+      <c r="G454" t="n">
+        <v>32</v>
+      </c>
+      <c r="H454" t="n">
+        <v>23</v>
+      </c>
+      <c r="I454" t="n">
+        <v>108</v>
+      </c>
+      <c r="J454" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="K454" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="L454" t="n">
+        <v>-110</v>
+      </c>
+      <c r="M454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B455" t="n">
+        <v>508</v>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E455" t="n">
+        <v>30</v>
+      </c>
+      <c r="F455" t="n">
+        <v>26</v>
+      </c>
+      <c r="G455" t="n">
+        <v>38</v>
+      </c>
+      <c r="H455" t="n">
+        <v>26</v>
+      </c>
+      <c r="I455" t="n">
+        <v>120</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="L455" t="n">
+        <v>-110</v>
+      </c>
+      <c r="M455" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B456" t="n">
+        <v>509</v>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E456" t="n">
+        <v>24</v>
+      </c>
+      <c r="F456" t="n">
+        <v>34</v>
+      </c>
+      <c r="G456" t="n">
+        <v>29</v>
+      </c>
+      <c r="H456" t="n">
+        <v>16</v>
+      </c>
+      <c r="I456" t="n">
+        <v>103</v>
+      </c>
+      <c r="J456" t="n">
+        <v>209</v>
+      </c>
+      <c r="K456" t="n">
+        <v>209</v>
+      </c>
+      <c r="L456" t="n">
+        <v>265</v>
+      </c>
+      <c r="M456" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B457" t="n">
+        <v>510</v>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E457" t="n">
+        <v>23</v>
+      </c>
+      <c r="F457" t="n">
+        <v>29</v>
+      </c>
+      <c r="G457" t="n">
+        <v>17</v>
+      </c>
+      <c r="H457" t="n">
+        <v>20</v>
+      </c>
+      <c r="I457" t="n">
+        <v>89</v>
+      </c>
+      <c r="J457" t="n">
+        <v>8</v>
+      </c>
+      <c r="K457" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L457" t="n">
+        <v>-320</v>
+      </c>
+      <c r="M457" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B458" t="n">
+        <v>511</v>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E458" t="n">
+        <v>27</v>
+      </c>
+      <c r="F458" t="n">
+        <v>36</v>
+      </c>
+      <c r="G458" t="n">
+        <v>17</v>
+      </c>
+      <c r="H458" t="n">
+        <v>23</v>
+      </c>
+      <c r="I458" t="n">
+        <v>103</v>
+      </c>
+      <c r="J458" t="n">
+        <v>213</v>
+      </c>
+      <c r="K458" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="L458" t="n">
+        <v>400</v>
+      </c>
+      <c r="M458" t="n">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B459" t="n">
+        <v>512</v>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E459" t="n">
+        <v>32</v>
+      </c>
+      <c r="F459" t="n">
+        <v>29</v>
+      </c>
+      <c r="G459" t="n">
+        <v>31</v>
+      </c>
+      <c r="H459" t="n">
+        <v>27</v>
+      </c>
+      <c r="I459" t="n">
+        <v>119</v>
+      </c>
+      <c r="J459" t="n">
+        <v>9</v>
+      </c>
+      <c r="K459" t="n">
+        <v>10</v>
+      </c>
+      <c r="L459" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M459" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B460" t="n">
+        <v>513</v>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E460" t="n">
+        <v>22</v>
+      </c>
+      <c r="F460" t="n">
+        <v>26</v>
+      </c>
+      <c r="G460" t="n">
+        <v>37</v>
+      </c>
+      <c r="H460" t="n">
+        <v>33</v>
+      </c>
+      <c r="I460" t="n">
+        <v>118</v>
+      </c>
+      <c r="J460" t="n">
+        <v>218</v>
+      </c>
+      <c r="K460" t="n">
+        <v>1</v>
+      </c>
+      <c r="L460" t="n">
+        <v>-115</v>
+      </c>
+      <c r="M460" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B461" t="n">
+        <v>514</v>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E461" t="n">
+        <v>27</v>
+      </c>
+      <c r="F461" t="n">
+        <v>36</v>
+      </c>
+      <c r="G461" t="n">
+        <v>35</v>
+      </c>
+      <c r="H461" t="n">
+        <v>23</v>
+      </c>
+      <c r="I461" t="n">
+        <v>121</v>
+      </c>
+      <c r="J461" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K461" t="n">
+        <v>216</v>
+      </c>
+      <c r="L461" t="n">
+        <v>-105</v>
+      </c>
+      <c r="M461" t="n">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B462" t="n">
+        <v>515</v>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E462" t="n">
+        <v>26</v>
+      </c>
+      <c r="F462" t="n">
+        <v>30</v>
+      </c>
+      <c r="G462" t="n">
+        <v>30</v>
+      </c>
+      <c r="H462" t="n">
+        <v>19</v>
+      </c>
+      <c r="I462" t="n">
+        <v>105</v>
+      </c>
+      <c r="J462" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K462" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L462" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M462" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B463" t="n">
+        <v>516</v>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E463" t="n">
+        <v>23</v>
+      </c>
+      <c r="F463" t="n">
+        <v>28</v>
+      </c>
+      <c r="G463" t="n">
+        <v>19</v>
+      </c>
+      <c r="H463" t="n">
+        <v>32</v>
+      </c>
+      <c r="I463" t="n">
+        <v>102</v>
+      </c>
+      <c r="J463" t="n">
+        <v>210</v>
+      </c>
+      <c r="K463" t="n">
+        <v>201</v>
+      </c>
+      <c r="L463" t="n">
+        <v>105</v>
+      </c>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B464" t="n">
+        <v>517</v>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>LALakers</t>
+        </is>
+      </c>
+      <c r="E464" t="n">
+        <v>38</v>
+      </c>
+      <c r="F464" t="n">
+        <v>23</v>
+      </c>
+      <c r="G464" t="n">
+        <v>21</v>
+      </c>
+      <c r="H464" t="n">
+        <v>26</v>
+      </c>
+      <c r="I464" t="n">
+        <v>108</v>
+      </c>
+      <c r="J464" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="K464" t="n">
+        <v>213</v>
+      </c>
+      <c r="L464" t="n">
+        <v>-110</v>
+      </c>
+      <c r="M464" t="n">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B465" t="n">
+        <v>518</v>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E465" t="n">
+        <v>30</v>
+      </c>
+      <c r="F465" t="n">
+        <v>30</v>
+      </c>
+      <c r="G465" t="n">
+        <v>33</v>
+      </c>
+      <c r="H465" t="n">
+        <v>37</v>
+      </c>
+      <c r="I465" t="n">
+        <v>130</v>
+      </c>
+      <c r="J465" t="n">
+        <v>2</v>
+      </c>
+      <c r="K465" t="n">
+        <v>1</v>
+      </c>
+      <c r="L465" t="n">
+        <v>-110</v>
+      </c>
+      <c r="M465" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B466" t="n">
+        <v>519</v>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E466" t="n">
+        <v>41</v>
+      </c>
+      <c r="F466" t="n">
+        <v>21</v>
+      </c>
+      <c r="G466" t="n">
+        <v>21</v>
+      </c>
+      <c r="H466" t="n">
+        <v>30</v>
+      </c>
+      <c r="I466" t="n">
+        <v>113</v>
+      </c>
+      <c r="J466" t="n">
+        <v>209</v>
+      </c>
+      <c r="K466" t="n">
+        <v>209</v>
+      </c>
+      <c r="L466" t="n">
+        <v>400</v>
+      </c>
+      <c r="M466" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B467" t="n">
+        <v>520</v>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E467" t="n">
+        <v>25</v>
+      </c>
+      <c r="F467" t="n">
+        <v>28</v>
+      </c>
+      <c r="G467" t="n">
+        <v>37</v>
+      </c>
+      <c r="H467" t="n">
+        <v>25</v>
+      </c>
+      <c r="I467" t="n">
+        <v>115</v>
+      </c>
+      <c r="J467" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K467" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L467" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M467" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B468" t="n">
+        <v>521</v>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>OklahomaCity</t>
+        </is>
+      </c>
+      <c r="E468" t="n">
+        <v>24</v>
+      </c>
+      <c r="F468" t="n">
+        <v>23</v>
+      </c>
+      <c r="G468" t="n">
+        <v>21</v>
+      </c>
+      <c r="H468" t="n">
+        <v>21</v>
+      </c>
+      <c r="I468" t="n">
+        <v>89</v>
+      </c>
+      <c r="J468" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="K468" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="L468" t="n">
+        <v>650</v>
+      </c>
+      <c r="M468" t="n">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B469" t="n">
+        <v>522</v>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E469" t="n">
+        <v>34</v>
+      </c>
+      <c r="F469" t="n">
+        <v>24</v>
+      </c>
+      <c r="G469" t="n">
+        <v>22</v>
+      </c>
+      <c r="H469" t="n">
+        <v>16</v>
+      </c>
+      <c r="I469" t="n">
+        <v>96</v>
+      </c>
+      <c r="J469" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K469" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L469" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="M469" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B470" t="n">
+        <v>523</v>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E470" t="n">
+        <v>29</v>
+      </c>
+      <c r="F470" t="n">
+        <v>26</v>
+      </c>
+      <c r="G470" t="n">
+        <v>14</v>
+      </c>
+      <c r="H470" t="n">
+        <v>12</v>
+      </c>
+      <c r="I470" t="n">
+        <v>81</v>
+      </c>
+      <c r="J470" t="n">
+        <v>5</v>
+      </c>
+      <c r="K470" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L470" t="n">
+        <v>-175</v>
+      </c>
+      <c r="M470" t="n">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B471" t="n">
+        <v>524</v>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E471" t="n">
+        <v>16</v>
+      </c>
+      <c r="F471" t="n">
+        <v>27</v>
+      </c>
+      <c r="G471" t="n">
+        <v>29</v>
+      </c>
+      <c r="H471" t="n">
+        <v>22</v>
+      </c>
+      <c r="I471" t="n">
+        <v>94</v>
+      </c>
+      <c r="J471" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="K471" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="L471" t="n">
+        <v>155</v>
+      </c>
+      <c r="M471" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B472" t="n">
+        <v>525</v>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E472" t="n">
+        <v>30</v>
+      </c>
+      <c r="F472" t="n">
+        <v>23</v>
+      </c>
+      <c r="G472" t="n">
+        <v>35</v>
+      </c>
+      <c r="H472" t="n">
+        <v>26</v>
+      </c>
+      <c r="I472" t="n">
+        <v>114</v>
+      </c>
+      <c r="J472" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="K472" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L472" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M472" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B473" t="n">
+        <v>526</v>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E473" t="n">
+        <v>30</v>
+      </c>
+      <c r="F473" t="n">
+        <v>22</v>
+      </c>
+      <c r="G473" t="n">
+        <v>26</v>
+      </c>
+      <c r="H473" t="n">
+        <v>30</v>
+      </c>
+      <c r="I473" t="n">
+        <v>108</v>
+      </c>
+      <c r="J473" t="n">
+        <v>4</v>
+      </c>
+      <c r="K473" t="n">
+        <v>206</v>
+      </c>
+      <c r="L473" t="n">
+        <v>130</v>
+      </c>
+      <c r="M473" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B474" t="n">
+        <v>527</v>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E474" t="n">
+        <v>24</v>
+      </c>
+      <c r="F474" t="n">
+        <v>27</v>
+      </c>
+      <c r="G474" t="n">
+        <v>33</v>
+      </c>
+      <c r="H474" t="n">
+        <v>20</v>
+      </c>
+      <c r="I474" t="n">
+        <v>104</v>
+      </c>
+      <c r="J474" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="K474" t="n">
+        <v>211</v>
+      </c>
+      <c r="L474" t="n">
+        <v>290</v>
+      </c>
+      <c r="M474" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B475" t="n">
+        <v>528</v>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E475" t="n">
+        <v>27</v>
+      </c>
+      <c r="F475" t="n">
+        <v>28</v>
+      </c>
+      <c r="G475" t="n">
+        <v>24</v>
+      </c>
+      <c r="H475" t="n">
+        <v>33</v>
+      </c>
+      <c r="I475" t="n">
+        <v>112</v>
+      </c>
+      <c r="J475" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K475" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L475" t="n">
+        <v>-350</v>
+      </c>
+      <c r="M475" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B476" t="n">
+        <v>529</v>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E476" t="n">
+        <v>30</v>
+      </c>
+      <c r="F476" t="n">
+        <v>33</v>
+      </c>
+      <c r="G476" t="n">
+        <v>33</v>
+      </c>
+      <c r="H476" t="n">
+        <v>12</v>
+      </c>
+      <c r="I476" t="n">
+        <v>108</v>
+      </c>
+      <c r="J476" t="n">
+        <v>220</v>
+      </c>
+      <c r="K476" t="n">
+        <v>221</v>
+      </c>
+      <c r="L476" t="n">
+        <v>145</v>
+      </c>
+      <c r="M476" t="n">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B477" t="n">
+        <v>530</v>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E477" t="n">
+        <v>27</v>
+      </c>
+      <c r="F477" t="n">
+        <v>18</v>
+      </c>
+      <c r="G477" t="n">
+        <v>21</v>
+      </c>
+      <c r="H477" t="n">
+        <v>23</v>
+      </c>
+      <c r="I477" t="n">
+        <v>89</v>
+      </c>
+      <c r="J477" t="n">
+        <v>4</v>
+      </c>
+      <c r="K477" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L477" t="n">
+        <v>-165</v>
+      </c>
+      <c r="M477" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B478" t="n">
+        <v>531</v>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E478" t="n">
+        <v>21</v>
+      </c>
+      <c r="F478" t="n">
+        <v>26</v>
+      </c>
+      <c r="G478" t="n">
+        <v>26</v>
+      </c>
+      <c r="H478" t="n">
+        <v>26</v>
+      </c>
+      <c r="I478" t="n">
+        <v>99</v>
+      </c>
+      <c r="J478" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="K478" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="L478" t="n">
+        <v>425</v>
+      </c>
+      <c r="M478" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B479" t="n">
+        <v>532</v>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>NewYork</t>
+        </is>
+      </c>
+      <c r="E479" t="n">
+        <v>13</v>
+      </c>
+      <c r="F479" t="n">
+        <v>34</v>
+      </c>
+      <c r="G479" t="n">
+        <v>25</v>
+      </c>
+      <c r="H479" t="n">
+        <v>34</v>
+      </c>
+      <c r="I479" t="n">
+        <v>106</v>
+      </c>
+      <c r="J479" t="n">
+        <v>11</v>
+      </c>
+      <c r="K479" t="n">
+        <v>11</v>
+      </c>
+      <c r="L479" t="n">
+        <v>-550</v>
+      </c>
+      <c r="M479" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B480" t="n">
+        <v>533</v>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E480" t="n">
+        <v>19</v>
+      </c>
+      <c r="F480" t="n">
+        <v>27</v>
+      </c>
+      <c r="G480" t="n">
+        <v>18</v>
+      </c>
+      <c r="H480" t="n">
+        <v>30</v>
+      </c>
+      <c r="I480" t="n">
+        <v>94</v>
+      </c>
+      <c r="J480" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K480" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="L480" t="n">
+        <v>260</v>
+      </c>
+      <c r="M480" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B481" t="n">
+        <v>534</v>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E481" t="n">
+        <v>32</v>
+      </c>
+      <c r="F481" t="n">
+        <v>26</v>
+      </c>
+      <c r="G481" t="n">
+        <v>38</v>
+      </c>
+      <c r="H481" t="n">
+        <v>15</v>
+      </c>
+      <c r="I481" t="n">
+        <v>111</v>
+      </c>
+      <c r="J481" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K481" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L481" t="n">
+        <v>-310</v>
+      </c>
+      <c r="M481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B482" t="n">
+        <v>535</v>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E482" t="n">
+        <v>25</v>
+      </c>
+      <c r="F482" t="n">
+        <v>18</v>
+      </c>
+      <c r="G482" t="n">
+        <v>32</v>
+      </c>
+      <c r="H482" t="n">
+        <v>25</v>
+      </c>
+      <c r="I482" t="n">
+        <v>100</v>
+      </c>
+      <c r="J482" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K482" t="n">
+        <v>2</v>
+      </c>
+      <c r="L482" t="n">
+        <v>-135</v>
+      </c>
+      <c r="M482" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B483" t="n">
+        <v>536</v>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E483" t="n">
+        <v>26</v>
+      </c>
+      <c r="F483" t="n">
+        <v>15</v>
+      </c>
+      <c r="G483" t="n">
+        <v>30</v>
+      </c>
+      <c r="H483" t="n">
+        <v>32</v>
+      </c>
+      <c r="I483" t="n">
+        <v>103</v>
+      </c>
+      <c r="J483" t="n">
+        <v>210</v>
+      </c>
+      <c r="K483" t="n">
+        <v>207</v>
+      </c>
+      <c r="L483" t="n">
+        <v>115</v>
+      </c>
+      <c r="M483" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B484" t="n">
+        <v>537</v>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E484" t="n">
+        <v>21</v>
+      </c>
+      <c r="F484" t="n">
+        <v>27</v>
+      </c>
+      <c r="G484" t="n">
+        <v>29</v>
+      </c>
+      <c r="H484" t="n">
+        <v>28</v>
+      </c>
+      <c r="I484" t="n">
+        <v>105</v>
+      </c>
+      <c r="J484" t="n">
+        <v>226</v>
+      </c>
+      <c r="K484" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="L484" t="n">
+        <v>250</v>
+      </c>
+      <c r="M484" t="n">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B485" t="n">
+        <v>538</v>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E485" t="n">
+        <v>25</v>
+      </c>
+      <c r="F485" t="n">
+        <v>35</v>
+      </c>
+      <c r="G485" t="n">
+        <v>29</v>
+      </c>
+      <c r="H485" t="n">
+        <v>26</v>
+      </c>
+      <c r="I485" t="n">
+        <v>115</v>
+      </c>
+      <c r="J485" t="n">
+        <v>6</v>
+      </c>
+      <c r="K485" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L485" t="n">
+        <v>-300</v>
+      </c>
+      <c r="M485" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B486" t="n">
+        <v>539</v>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>OklahomaCity</t>
+        </is>
+      </c>
+      <c r="E486" t="n">
+        <v>23</v>
+      </c>
+      <c r="F486" t="n">
+        <v>22</v>
+      </c>
+      <c r="G486" t="n">
+        <v>29</v>
+      </c>
+      <c r="H486" t="n">
+        <v>31</v>
+      </c>
+      <c r="I486" t="n">
+        <v>105</v>
+      </c>
+      <c r="J486" t="n">
+        <v>205.5</v>
+      </c>
+      <c r="K486" t="n">
+        <v>205</v>
+      </c>
+      <c r="L486" t="n">
+        <v>375</v>
+      </c>
+      <c r="M486" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B487" t="n">
+        <v>540</v>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E487" t="n">
+        <v>30</v>
+      </c>
+      <c r="F487" t="n">
+        <v>28</v>
+      </c>
+      <c r="G487" t="n">
+        <v>31</v>
+      </c>
+      <c r="H487" t="n">
+        <v>22</v>
+      </c>
+      <c r="I487" t="n">
+        <v>111</v>
+      </c>
+      <c r="J487" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K487" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L487" t="n">
+        <v>-450</v>
+      </c>
+      <c r="M487" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B488" t="n">
+        <v>541</v>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E488" t="n">
+        <v>23</v>
+      </c>
+      <c r="F488" t="n">
+        <v>20</v>
+      </c>
+      <c r="G488" t="n">
+        <v>28</v>
+      </c>
+      <c r="H488" t="n">
+        <v>24</v>
+      </c>
+      <c r="I488" t="n">
+        <v>95</v>
+      </c>
+      <c r="J488" t="n">
+        <v>1</v>
+      </c>
+      <c r="K488" t="n">
+        <v>221</v>
+      </c>
+      <c r="L488" t="n">
+        <v>120</v>
+      </c>
+      <c r="M488" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B489" t="n">
+        <v>542</v>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E489" t="n">
+        <v>40</v>
+      </c>
+      <c r="F489" t="n">
+        <v>32</v>
+      </c>
+      <c r="G489" t="n">
+        <v>41</v>
+      </c>
+      <c r="H489" t="n">
+        <v>25</v>
+      </c>
+      <c r="I489" t="n">
+        <v>138</v>
+      </c>
+      <c r="J489" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="K489" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L489" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M489" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B490" t="n">
+        <v>543</v>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E490" t="n">
+        <v>24</v>
+      </c>
+      <c r="F490" t="n">
+        <v>26</v>
+      </c>
+      <c r="G490" t="n">
+        <v>21</v>
+      </c>
+      <c r="H490" t="n">
+        <v>37</v>
+      </c>
+      <c r="I490" t="n">
+        <v>108</v>
+      </c>
+      <c r="J490" t="n">
+        <v>213</v>
+      </c>
+      <c r="K490" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="L490" t="n">
+        <v>575</v>
+      </c>
+      <c r="M490" t="n">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B491" t="n">
+        <v>544</v>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E491" t="n">
+        <v>36</v>
+      </c>
+      <c r="F491" t="n">
+        <v>26</v>
+      </c>
+      <c r="G491" t="n">
+        <v>34</v>
+      </c>
+      <c r="H491" t="n">
+        <v>21</v>
+      </c>
+      <c r="I491" t="n">
+        <v>117</v>
+      </c>
+      <c r="J491" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K491" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L491" t="n">
+        <v>-850</v>
+      </c>
+      <c r="M491" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B492" t="n">
+        <v>545</v>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E492" t="n">
+        <v>29</v>
+      </c>
+      <c r="F492" t="n">
+        <v>25</v>
+      </c>
+      <c r="G492" t="n">
+        <v>30</v>
+      </c>
+      <c r="H492" t="n">
+        <v>39</v>
+      </c>
+      <c r="I492" t="n">
+        <v>123</v>
+      </c>
+      <c r="J492" t="n">
+        <v>7</v>
+      </c>
+      <c r="K492" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L492" t="n">
+        <v>-330</v>
+      </c>
+      <c r="M492" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B493" t="n">
+        <v>546</v>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E493" t="n">
+        <v>28</v>
+      </c>
+      <c r="F493" t="n">
+        <v>21</v>
+      </c>
+      <c r="G493" t="n">
+        <v>31</v>
+      </c>
+      <c r="H493" t="n">
+        <v>25</v>
+      </c>
+      <c r="I493" t="n">
+        <v>105</v>
+      </c>
+      <c r="J493" t="n">
+        <v>225</v>
+      </c>
+      <c r="K493" t="n">
+        <v>221</v>
+      </c>
+      <c r="L493" t="n">
+        <v>270</v>
+      </c>
+      <c r="M493" t="n">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B494" t="n">
+        <v>547</v>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E494" t="n">
+        <v>25</v>
+      </c>
+      <c r="F494" t="n">
+        <v>21</v>
+      </c>
+      <c r="G494" t="n">
+        <v>32</v>
+      </c>
+      <c r="H494" t="n">
+        <v>33</v>
+      </c>
+      <c r="I494" t="n">
+        <v>111</v>
+      </c>
+      <c r="J494" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="K494" t="n">
+        <v>217</v>
+      </c>
+      <c r="L494" t="n">
+        <v>245</v>
+      </c>
+      <c r="M494" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B495" t="n">
+        <v>548</v>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E495" t="n">
+        <v>30</v>
+      </c>
+      <c r="F495" t="n">
+        <v>25</v>
+      </c>
+      <c r="G495" t="n">
+        <v>31</v>
+      </c>
+      <c r="H495" t="n">
+        <v>32</v>
+      </c>
+      <c r="I495" t="n">
+        <v>118</v>
+      </c>
+      <c r="J495" t="n">
+        <v>6</v>
+      </c>
+      <c r="K495" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L495" t="n">
+        <v>-290</v>
+      </c>
+      <c r="M495" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B496" t="n">
+        <v>549</v>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E496" t="n">
+        <v>22</v>
+      </c>
+      <c r="F496" t="n">
+        <v>25</v>
+      </c>
+      <c r="G496" t="n">
+        <v>15</v>
+      </c>
+      <c r="H496" t="n">
+        <v>29</v>
+      </c>
+      <c r="I496" t="n">
+        <v>91</v>
+      </c>
+      <c r="J496" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="K496" t="n">
+        <v>209</v>
+      </c>
+      <c r="L496" t="n">
+        <v>185</v>
+      </c>
+      <c r="M496" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B497" t="n">
+        <v>550</v>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E497" t="n">
+        <v>19</v>
+      </c>
+      <c r="F497" t="n">
+        <v>27</v>
+      </c>
+      <c r="G497" t="n">
+        <v>25</v>
+      </c>
+      <c r="H497" t="n">
+        <v>26</v>
+      </c>
+      <c r="I497" t="n">
+        <v>97</v>
+      </c>
+      <c r="J497" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K497" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L497" t="n">
+        <v>-215</v>
+      </c>
+      <c r="M497" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B498" t="n">
+        <v>551</v>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>LALakers</t>
+        </is>
+      </c>
+      <c r="E498" t="n">
+        <v>30</v>
+      </c>
+      <c r="F498" t="n">
+        <v>31</v>
+      </c>
+      <c r="G498" t="n">
+        <v>23</v>
+      </c>
+      <c r="H498" t="n">
+        <v>37</v>
+      </c>
+      <c r="I498" t="n">
+        <v>121</v>
+      </c>
+      <c r="J498" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K498" t="n">
+        <v>7</v>
+      </c>
+      <c r="L498" t="n">
+        <v>-300</v>
+      </c>
+      <c r="M498" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B499" t="n">
+        <v>552</v>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E499" t="n">
+        <v>26</v>
+      </c>
+      <c r="F499" t="n">
+        <v>42</v>
+      </c>
+      <c r="G499" t="n">
+        <v>31</v>
+      </c>
+      <c r="H499" t="n">
+        <v>17</v>
+      </c>
+      <c r="I499" t="n">
+        <v>116</v>
+      </c>
+      <c r="J499" t="n">
+        <v>209</v>
+      </c>
+      <c r="K499" t="n">
+        <v>213</v>
+      </c>
+      <c r="L499" t="n">
+        <v>250</v>
+      </c>
+      <c r="M499" t="n">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B500" t="n">
+        <v>553</v>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E500" t="n">
+        <v>28</v>
+      </c>
+      <c r="F500" t="n">
+        <v>32</v>
+      </c>
+      <c r="G500" t="n">
+        <v>18</v>
+      </c>
+      <c r="H500" t="n">
+        <v>19</v>
+      </c>
+      <c r="I500" t="n">
+        <v>97</v>
+      </c>
+      <c r="J500" t="n">
+        <v>209.5</v>
+      </c>
+      <c r="K500" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="L500" t="n">
+        <v>400</v>
+      </c>
+      <c r="M500" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B501" t="n">
+        <v>554</v>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E501" t="n">
+        <v>48</v>
+      </c>
+      <c r="F501" t="n">
+        <v>25</v>
+      </c>
+      <c r="G501" t="n">
+        <v>27</v>
+      </c>
+      <c r="H501" t="n">
+        <v>26</v>
+      </c>
+      <c r="I501" t="n">
+        <v>126</v>
+      </c>
+      <c r="J501" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K501" t="n">
+        <v>11</v>
+      </c>
+      <c r="L501" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M501" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B502" t="n">
+        <v>555</v>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>NewYork</t>
+        </is>
+      </c>
+      <c r="E502" t="n">
+        <v>20</v>
+      </c>
+      <c r="F502" t="n">
+        <v>25</v>
+      </c>
+      <c r="G502" t="n">
+        <v>29</v>
+      </c>
+      <c r="H502" t="n">
+        <v>29</v>
+      </c>
+      <c r="I502" t="n">
+        <v>103</v>
+      </c>
+      <c r="J502" t="n">
+        <v>210</v>
+      </c>
+      <c r="K502" t="n">
+        <v>213</v>
+      </c>
+      <c r="L502" t="n">
+        <v>180</v>
+      </c>
+      <c r="M502" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B503" t="n">
+        <v>556</v>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E503" t="n">
+        <v>25</v>
+      </c>
+      <c r="F503" t="n">
+        <v>26</v>
+      </c>
+      <c r="G503" t="n">
+        <v>21</v>
+      </c>
+      <c r="H503" t="n">
+        <v>37</v>
+      </c>
+      <c r="I503" t="n">
+        <v>109</v>
+      </c>
+      <c r="J503" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K503" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L503" t="n">
+        <v>-210</v>
+      </c>
+      <c r="M503" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B504" t="n">
+        <v>557</v>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E504" t="n">
+        <v>24</v>
+      </c>
+      <c r="F504" t="n">
+        <v>23</v>
+      </c>
+      <c r="G504" t="n">
+        <v>30</v>
+      </c>
+      <c r="H504" t="n">
+        <v>27</v>
+      </c>
+      <c r="I504" t="n">
+        <v>104</v>
+      </c>
+      <c r="J504" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="K504" t="n">
+        <v>217</v>
+      </c>
+      <c r="L504" t="n">
+        <v>330</v>
+      </c>
+      <c r="M504" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B505" t="n">
+        <v>558</v>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E505" t="n">
+        <v>36</v>
+      </c>
+      <c r="F505" t="n">
+        <v>25</v>
+      </c>
+      <c r="G505" t="n">
+        <v>31</v>
+      </c>
+      <c r="H505" t="n">
+        <v>27</v>
+      </c>
+      <c r="I505" t="n">
+        <v>119</v>
+      </c>
+      <c r="J505" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K505" t="n">
+        <v>9</v>
+      </c>
+      <c r="L505" t="n">
+        <v>-400</v>
+      </c>
+      <c r="M505" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B506" t="n">
+        <v>559</v>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E506" t="n">
+        <v>24</v>
+      </c>
+      <c r="F506" t="n">
+        <v>28</v>
+      </c>
+      <c r="G506" t="n">
+        <v>32</v>
+      </c>
+      <c r="H506" t="n">
+        <v>33</v>
+      </c>
+      <c r="I506" t="n">
+        <v>117</v>
+      </c>
+      <c r="J506" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K506" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L506" t="n">
+        <v>-220</v>
+      </c>
+      <c r="M506" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B507" t="n">
+        <v>560</v>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E507" t="n">
+        <v>27</v>
+      </c>
+      <c r="F507" t="n">
+        <v>36</v>
+      </c>
+      <c r="G507" t="n">
+        <v>19</v>
+      </c>
+      <c r="H507" t="n">
+        <v>30</v>
+      </c>
+      <c r="I507" t="n">
+        <v>112</v>
+      </c>
+      <c r="J507" t="n">
+        <v>207.5</v>
+      </c>
+      <c r="K507" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="L507" t="n">
+        <v>190</v>
+      </c>
+      <c r="M507" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B508" t="n">
+        <v>561</v>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E508" t="n">
+        <v>26</v>
+      </c>
+      <c r="F508" t="n">
+        <v>33</v>
+      </c>
+      <c r="G508" t="n">
+        <v>24</v>
+      </c>
+      <c r="H508" t="n">
+        <v>26</v>
+      </c>
+      <c r="I508" t="n">
+        <v>109</v>
+      </c>
+      <c r="J508" t="n">
+        <v>216</v>
+      </c>
+      <c r="K508" t="n">
+        <v>216</v>
+      </c>
+      <c r="L508" t="n">
+        <v>160</v>
+      </c>
+      <c r="M508" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B509" t="n">
+        <v>562</v>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E509" t="n">
+        <v>27</v>
+      </c>
+      <c r="F509" t="n">
+        <v>23</v>
+      </c>
+      <c r="G509" t="n">
+        <v>23</v>
+      </c>
+      <c r="H509" t="n">
+        <v>30</v>
+      </c>
+      <c r="I509" t="n">
+        <v>103</v>
+      </c>
+      <c r="J509" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K509" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L509" t="n">
+        <v>-180</v>
+      </c>
+      <c r="M509" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B510" t="n">
+        <v>563</v>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>OklahomaCity</t>
+        </is>
+      </c>
+      <c r="E510" t="n">
+        <v>27</v>
+      </c>
+      <c r="F510" t="n">
+        <v>33</v>
+      </c>
+      <c r="G510" t="n">
+        <v>11</v>
+      </c>
+      <c r="H510" t="n">
+        <v>30</v>
+      </c>
+      <c r="I510" t="n">
+        <v>101</v>
+      </c>
+      <c r="J510" t="n">
+        <v>212</v>
+      </c>
+      <c r="K510" t="n">
+        <v>212</v>
+      </c>
+      <c r="L510" t="n">
+        <v>600</v>
+      </c>
+      <c r="M510" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B511" t="n">
+        <v>564</v>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E511" t="n">
+        <v>32</v>
+      </c>
+      <c r="F511" t="n">
+        <v>34</v>
+      </c>
+      <c r="G511" t="n">
+        <v>27</v>
+      </c>
+      <c r="H511" t="n">
+        <v>20</v>
+      </c>
+      <c r="I511" t="n">
+        <v>113</v>
+      </c>
+      <c r="J511" t="n">
+        <v>11</v>
+      </c>
+      <c r="K511" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L511" t="n">
+        <v>-900</v>
+      </c>
+      <c r="M511" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B512" t="n">
+        <v>565</v>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E512" t="n">
+        <v>21</v>
+      </c>
+      <c r="F512" t="n">
+        <v>26</v>
+      </c>
+      <c r="G512" t="n">
+        <v>16</v>
+      </c>
+      <c r="H512" t="n">
+        <v>27</v>
+      </c>
+      <c r="I512" t="n">
+        <v>90</v>
+      </c>
+      <c r="J512" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="K512" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="L512" t="n">
+        <v>500</v>
+      </c>
+      <c r="M512" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B513" t="n">
+        <v>566</v>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E513" t="n">
+        <v>22</v>
+      </c>
+      <c r="F513" t="n">
+        <v>30</v>
+      </c>
+      <c r="G513" t="n">
+        <v>34</v>
+      </c>
+      <c r="H513" t="n">
+        <v>22</v>
+      </c>
+      <c r="I513" t="n">
+        <v>108</v>
+      </c>
+      <c r="J513" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K513" t="n">
+        <v>12</v>
+      </c>
+      <c r="L513" t="n">
+        <v>-700</v>
+      </c>
+      <c r="M513" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B514" t="n">
+        <v>567</v>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E514" t="n">
+        <v>31</v>
+      </c>
+      <c r="F514" t="n">
+        <v>36</v>
+      </c>
+      <c r="G514" t="n">
+        <v>22</v>
+      </c>
+      <c r="H514" t="n">
+        <v>20</v>
+      </c>
+      <c r="I514" t="n">
+        <v>109</v>
+      </c>
+      <c r="J514" t="n">
+        <v>208</v>
+      </c>
+      <c r="K514" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="L514" t="n">
+        <v>105</v>
+      </c>
+      <c r="M514" t="n">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B515" t="n">
+        <v>568</v>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E515" t="n">
+        <v>16</v>
+      </c>
+      <c r="F515" t="n">
+        <v>30</v>
+      </c>
+      <c r="G515" t="n">
+        <v>15</v>
+      </c>
+      <c r="H515" t="n">
+        <v>16</v>
+      </c>
+      <c r="I515" t="n">
+        <v>77</v>
+      </c>
+      <c r="J515" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K515" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L515" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M515" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B516" t="n">
+        <v>569</v>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E516" t="n">
+        <v>16</v>
+      </c>
+      <c r="F516" t="n">
+        <v>20</v>
+      </c>
+      <c r="G516" t="n">
+        <v>20</v>
+      </c>
+      <c r="H516" t="n">
+        <v>36</v>
+      </c>
+      <c r="I516" t="n">
+        <v>92</v>
+      </c>
+      <c r="J516" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="K516" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="L516" t="n">
+        <v>800</v>
+      </c>
+      <c r="M516" t="n">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B517" t="n">
+        <v>570</v>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E517" t="n">
+        <v>36</v>
+      </c>
+      <c r="F517" t="n">
+        <v>41</v>
+      </c>
+      <c r="G517" t="n">
+        <v>28</v>
+      </c>
+      <c r="H517" t="n">
+        <v>18</v>
+      </c>
+      <c r="I517" t="n">
+        <v>123</v>
+      </c>
+      <c r="J517" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K517" t="n">
+        <v>13</v>
+      </c>
+      <c r="L517" t="n">
+        <v>-1400</v>
+      </c>
+      <c r="M517" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B518" t="n">
+        <v>571</v>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E518" t="n">
+        <v>28</v>
+      </c>
+      <c r="F518" t="n">
+        <v>38</v>
+      </c>
+      <c r="G518" t="n">
+        <v>23</v>
+      </c>
+      <c r="H518" t="n">
+        <v>21</v>
+      </c>
+      <c r="I518" t="n">
+        <v>110</v>
+      </c>
+      <c r="J518" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K518" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L518" t="n">
+        <v>-155</v>
+      </c>
+      <c r="M518" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B519" t="n">
+        <v>572</v>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E519" t="n">
+        <v>29</v>
+      </c>
+      <c r="F519" t="n">
+        <v>21</v>
+      </c>
+      <c r="G519" t="n">
+        <v>19</v>
+      </c>
+      <c r="H519" t="n">
+        <v>27</v>
+      </c>
+      <c r="I519" t="n">
+        <v>96</v>
+      </c>
+      <c r="J519" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="K519" t="n">
+        <v>214</v>
+      </c>
+      <c r="L519" t="n">
+        <v>135</v>
+      </c>
+      <c r="M519" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B520" t="n">
+        <v>573</v>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E520" t="n">
+        <v>24</v>
+      </c>
+      <c r="F520" t="n">
+        <v>33</v>
+      </c>
+      <c r="G520" t="n">
+        <v>33</v>
+      </c>
+      <c r="H520" t="n">
+        <v>25</v>
+      </c>
+      <c r="I520" t="n">
+        <v>115</v>
+      </c>
+      <c r="J520" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K520" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L520" t="n">
+        <v>-210</v>
+      </c>
+      <c r="M520" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B521" t="n">
+        <v>574</v>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>SanAntonio</t>
+        </is>
+      </c>
+      <c r="E521" t="n">
+        <v>20</v>
+      </c>
+      <c r="F521" t="n">
+        <v>24</v>
+      </c>
+      <c r="G521" t="n">
+        <v>31</v>
+      </c>
+      <c r="H521" t="n">
+        <v>36</v>
+      </c>
+      <c r="I521" t="n">
+        <v>111</v>
+      </c>
+      <c r="J521" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="K521" t="n">
+        <v>220</v>
+      </c>
+      <c r="L521" t="n">
+        <v>180</v>
+      </c>
+      <c r="M521" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B522" t="n">
+        <v>575</v>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E522" t="n">
+        <v>27</v>
+      </c>
+      <c r="F522" t="n">
+        <v>27</v>
+      </c>
+      <c r="G522" t="n">
+        <v>38</v>
+      </c>
+      <c r="H522" t="n">
+        <v>27</v>
+      </c>
+      <c r="I522" t="n">
+        <v>119</v>
+      </c>
+      <c r="J522" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="K522" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="L522" t="n">
+        <v>400</v>
+      </c>
+      <c r="M522" t="n">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B523" t="n">
+        <v>576</v>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E523" t="n">
+        <v>30</v>
+      </c>
+      <c r="F523" t="n">
+        <v>30</v>
+      </c>
+      <c r="G523" t="n">
+        <v>36</v>
+      </c>
+      <c r="H523" t="n">
+        <v>22</v>
+      </c>
+      <c r="I523" t="n">
+        <v>118</v>
+      </c>
+      <c r="J523" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K523" t="n">
+        <v>11</v>
+      </c>
+      <c r="L523" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M523" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B524" t="n">
+        <v>577</v>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E524" t="n">
+        <v>28</v>
+      </c>
+      <c r="F524" t="n">
+        <v>27</v>
+      </c>
+      <c r="G524" t="n">
+        <v>22</v>
+      </c>
+      <c r="H524" t="n">
+        <v>25</v>
+      </c>
+      <c r="I524" t="n">
+        <v>102</v>
+      </c>
+      <c r="J524" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="K524" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="L524" t="n">
+        <v>175</v>
+      </c>
+      <c r="M524" t="n">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B525" t="n">
+        <v>578</v>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E525" t="n">
+        <v>33</v>
+      </c>
+      <c r="F525" t="n">
+        <v>19</v>
+      </c>
+      <c r="G525" t="n">
+        <v>30</v>
+      </c>
+      <c r="H525" t="n">
+        <v>12</v>
+      </c>
+      <c r="I525" t="n">
+        <v>94</v>
+      </c>
+      <c r="J525" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K525" t="n">
+        <v>5</v>
+      </c>
+      <c r="L525" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M525" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B526" t="n">
+        <v>501</v>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E526" t="n">
+        <v>20</v>
+      </c>
+      <c r="F526" t="n">
+        <v>26</v>
+      </c>
+      <c r="G526" t="n">
+        <v>21</v>
+      </c>
+      <c r="H526" t="n">
+        <v>33</v>
+      </c>
+      <c r="I526" t="n">
+        <v>100</v>
+      </c>
+      <c r="J526" t="n">
+        <v>9</v>
+      </c>
+      <c r="K526" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L526" t="n">
+        <v>-600</v>
+      </c>
+      <c r="M526" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B527" t="n">
+        <v>502</v>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E527" t="n">
+        <v>25</v>
+      </c>
+      <c r="F527" t="n">
+        <v>28</v>
+      </c>
+      <c r="G527" t="n">
+        <v>23</v>
+      </c>
+      <c r="H527" t="n">
+        <v>16</v>
+      </c>
+      <c r="I527" t="n">
+        <v>92</v>
+      </c>
+      <c r="J527" t="n">
+        <v>205.5</v>
+      </c>
+      <c r="K527" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="L527" t="n">
+        <v>450</v>
+      </c>
+      <c r="M527" t="n">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B528" t="n">
+        <v>503</v>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>LALakers</t>
+        </is>
+      </c>
+      <c r="E528" t="n">
+        <v>20</v>
+      </c>
+      <c r="F528" t="n">
+        <v>31</v>
+      </c>
+      <c r="G528" t="n">
+        <v>30</v>
+      </c>
+      <c r="H528" t="n">
+        <v>19</v>
+      </c>
+      <c r="I528" t="n">
+        <v>100</v>
+      </c>
+      <c r="J528" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K528" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="L528" t="n">
+        <v>165</v>
+      </c>
+      <c r="M528" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B529" t="n">
+        <v>504</v>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>NewYork</t>
+        </is>
+      </c>
+      <c r="E529" t="n">
+        <v>36</v>
+      </c>
+      <c r="F529" t="n">
+        <v>27</v>
+      </c>
+      <c r="G529" t="n">
+        <v>20</v>
+      </c>
+      <c r="H529" t="n">
+        <v>23</v>
+      </c>
+      <c r="I529" t="n">
+        <v>106</v>
+      </c>
+      <c r="J529" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K529" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L529" t="n">
+        <v>-185</v>
+      </c>
+      <c r="M529" t="n">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B530" t="n">
+        <v>505</v>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E530" t="n">
+        <v>27</v>
+      </c>
+      <c r="F530" t="n">
+        <v>25</v>
+      </c>
+      <c r="G530" t="n">
+        <v>27</v>
+      </c>
+      <c r="H530" t="n">
+        <v>21</v>
+      </c>
+      <c r="I530" t="n">
+        <v>100</v>
+      </c>
+      <c r="J530" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="K530" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="L530" t="n">
+        <v>350</v>
+      </c>
+      <c r="M530" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B531" t="n">
+        <v>506</v>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E531" t="n">
+        <v>33</v>
+      </c>
+      <c r="F531" t="n">
+        <v>33</v>
+      </c>
+      <c r="G531" t="n">
+        <v>24</v>
+      </c>
+      <c r="H531" t="n">
+        <v>29</v>
+      </c>
+      <c r="I531" t="n">
+        <v>119</v>
+      </c>
+      <c r="J531" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K531" t="n">
+        <v>10</v>
+      </c>
+      <c r="L531" t="n">
+        <v>-420</v>
+      </c>
+      <c r="M531" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B532" t="n">
+        <v>507</v>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E532" t="n">
+        <v>21</v>
+      </c>
+      <c r="F532" t="n">
+        <v>21</v>
+      </c>
+      <c r="G532" t="n">
+        <v>38</v>
+      </c>
+      <c r="H532" t="n">
+        <v>23</v>
+      </c>
+      <c r="I532" t="n">
+        <v>112</v>
+      </c>
+      <c r="J532" t="n">
+        <v>207.5</v>
+      </c>
+      <c r="K532" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="L532" t="n">
+        <v>130</v>
+      </c>
+      <c r="M532" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B533" t="n">
+        <v>508</v>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E533" t="n">
+        <v>26</v>
+      </c>
+      <c r="F533" t="n">
+        <v>22</v>
+      </c>
+      <c r="G533" t="n">
+        <v>28</v>
+      </c>
+      <c r="H533" t="n">
+        <v>27</v>
+      </c>
+      <c r="I533" t="n">
+        <v>104</v>
+      </c>
+      <c r="J533" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K533" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L533" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M533" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B534" t="n">
+        <v>509</v>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>LALakers</t>
+        </is>
+      </c>
+      <c r="E534" t="n">
+        <v>26</v>
+      </c>
+      <c r="F534" t="n">
+        <v>34</v>
+      </c>
+      <c r="G534" t="n">
+        <v>22</v>
+      </c>
+      <c r="H534" t="n">
+        <v>30</v>
+      </c>
+      <c r="I534" t="n">
+        <v>124</v>
+      </c>
+      <c r="J534" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="K534" t="n">
+        <v>217</v>
+      </c>
+      <c r="L534" t="n">
+        <v>210</v>
+      </c>
+      <c r="M534" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B535" t="n">
+        <v>510</v>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E535" t="n">
+        <v>31</v>
+      </c>
+      <c r="F535" t="n">
+        <v>35</v>
+      </c>
+      <c r="G535" t="n">
+        <v>18</v>
+      </c>
+      <c r="H535" t="n">
+        <v>28</v>
+      </c>
+      <c r="I535" t="n">
+        <v>116</v>
+      </c>
+      <c r="J535" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K535" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L535" t="n">
+        <v>-250</v>
+      </c>
+      <c r="M535" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B536" t="n">
+        <v>511</v>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E536" t="n">
+        <v>36</v>
+      </c>
+      <c r="F536" t="n">
+        <v>25</v>
+      </c>
+      <c r="G536" t="n">
+        <v>26</v>
+      </c>
+      <c r="H536" t="n">
+        <v>33</v>
+      </c>
+      <c r="I536" t="n">
+        <v>120</v>
+      </c>
+      <c r="J536" t="n">
+        <v>6</v>
+      </c>
+      <c r="K536" t="n">
+        <v>7</v>
+      </c>
+      <c r="L536" t="n">
+        <v>-300</v>
+      </c>
+      <c r="M536" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B537" t="n">
+        <v>512</v>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E537" t="n">
+        <v>33</v>
+      </c>
+      <c r="F537" t="n">
+        <v>33</v>
+      </c>
+      <c r="G537" t="n">
+        <v>20</v>
+      </c>
+      <c r="H537" t="n">
+        <v>29</v>
+      </c>
+      <c r="I537" t="n">
+        <v>115</v>
+      </c>
+      <c r="J537" t="n">
+        <v>211</v>
+      </c>
+      <c r="K537" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="L537" t="n">
+        <v>250</v>
+      </c>
+      <c r="M537" t="n">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B538" t="n">
+        <v>513</v>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E538" t="n">
+        <v>24</v>
+      </c>
+      <c r="F538" t="n">
+        <v>28</v>
+      </c>
+      <c r="G538" t="n">
+        <v>30</v>
+      </c>
+      <c r="H538" t="n">
+        <v>24</v>
+      </c>
+      <c r="I538" t="n">
+        <v>106</v>
+      </c>
+      <c r="J538" t="n">
+        <v>7</v>
+      </c>
+      <c r="K538" t="n">
+        <v>8</v>
+      </c>
+      <c r="L538" t="n">
+        <v>-340</v>
+      </c>
+      <c r="M538" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B539" t="n">
+        <v>514</v>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E539" t="n">
+        <v>28</v>
+      </c>
+      <c r="F539" t="n">
+        <v>21</v>
+      </c>
+      <c r="G539" t="n">
+        <v>28</v>
+      </c>
+      <c r="H539" t="n">
+        <v>22</v>
+      </c>
+      <c r="I539" t="n">
+        <v>99</v>
+      </c>
+      <c r="J539" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="K539" t="n">
+        <v>219</v>
+      </c>
+      <c r="L539" t="n">
+        <v>280</v>
+      </c>
+      <c r="M539" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B540" t="n">
+        <v>515</v>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E540" t="n">
+        <v>29</v>
+      </c>
+      <c r="F540" t="n">
+        <v>33</v>
+      </c>
+      <c r="G540" t="n">
+        <v>35</v>
+      </c>
+      <c r="H540" t="n">
+        <v>26</v>
+      </c>
+      <c r="I540" t="n">
+        <v>123</v>
+      </c>
+      <c r="J540" t="n">
+        <v>216</v>
+      </c>
+      <c r="K540" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="L540" t="n">
+        <v>105</v>
+      </c>
+      <c r="M540" t="n">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B541" t="n">
+        <v>516</v>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E541" t="n">
+        <v>22</v>
+      </c>
+      <c r="F541" t="n">
+        <v>27</v>
+      </c>
+      <c r="G541" t="n">
+        <v>27</v>
+      </c>
+      <c r="H541" t="n">
+        <v>28</v>
+      </c>
+      <c r="I541" t="n">
+        <v>104</v>
+      </c>
+      <c r="J541" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="K541" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L541" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M541" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B542" t="n">
+        <v>517</v>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E542" t="n">
+        <v>26</v>
+      </c>
+      <c r="F542" t="n">
+        <v>26</v>
+      </c>
+      <c r="G542" t="n">
+        <v>22</v>
+      </c>
+      <c r="H542" t="n">
+        <v>19</v>
+      </c>
+      <c r="I542" t="n">
+        <v>93</v>
+      </c>
+      <c r="J542" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K542" t="n">
+        <v>213</v>
+      </c>
+      <c r="L542" t="n">
+        <v>900</v>
+      </c>
+      <c r="M542" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B543" t="n">
+        <v>518</v>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E543" t="n">
+        <v>32</v>
+      </c>
+      <c r="F543" t="n">
+        <v>32</v>
+      </c>
+      <c r="G543" t="n">
+        <v>24</v>
+      </c>
+      <c r="H543" t="n">
+        <v>26</v>
+      </c>
+      <c r="I543" t="n">
+        <v>114</v>
+      </c>
+      <c r="J543" t="n">
+        <v>14</v>
+      </c>
+      <c r="K543" t="n">
+        <v>15</v>
+      </c>
+      <c r="L543" t="n">
+        <v>-1600</v>
+      </c>
+      <c r="M543" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B544" t="n">
+        <v>519</v>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E544" t="n">
+        <v>21</v>
+      </c>
+      <c r="F544" t="n">
+        <v>28</v>
+      </c>
+      <c r="G544" t="n">
+        <v>32</v>
+      </c>
+      <c r="H544" t="n">
+        <v>29</v>
+      </c>
+      <c r="I544" t="n">
+        <v>110</v>
+      </c>
+      <c r="J544" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K544" t="n">
+        <v>14</v>
+      </c>
+      <c r="L544" t="n">
+        <v>-1200</v>
+      </c>
+      <c r="M544" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B545" t="n">
+        <v>520</v>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>OklahomaCity</t>
+        </is>
+      </c>
+      <c r="E545" t="n">
+        <v>25</v>
+      </c>
+      <c r="F545" t="n">
+        <v>27</v>
+      </c>
+      <c r="G545" t="n">
+        <v>28</v>
+      </c>
+      <c r="H545" t="n">
+        <v>24</v>
+      </c>
+      <c r="I545" t="n">
+        <v>104</v>
+      </c>
+      <c r="J545" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="K545" t="n">
+        <v>208</v>
+      </c>
+      <c r="L545" t="n">
+        <v>750</v>
+      </c>
+      <c r="M545" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B546" t="n">
+        <v>521</v>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E546" t="n">
+        <v>32</v>
+      </c>
+      <c r="F546" t="n">
+        <v>32</v>
+      </c>
+      <c r="G546" t="n">
+        <v>18</v>
+      </c>
+      <c r="H546" t="n">
+        <v>31</v>
+      </c>
+      <c r="I546" t="n">
+        <v>113</v>
+      </c>
+      <c r="J546" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K546" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L546" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M546" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B547" t="n">
+        <v>522</v>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E547" t="n">
+        <v>30</v>
+      </c>
+      <c r="F547" t="n">
+        <v>25</v>
+      </c>
+      <c r="G547" t="n">
+        <v>35</v>
+      </c>
+      <c r="H547" t="n">
+        <v>28</v>
+      </c>
+      <c r="I547" t="n">
+        <v>118</v>
+      </c>
+      <c r="J547" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="K547" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="L547" t="n">
+        <v>400</v>
+      </c>
+      <c r="M547" t="n">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B548" t="n">
+        <v>523</v>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E548" t="n">
+        <v>27</v>
+      </c>
+      <c r="F548" t="n">
+        <v>35</v>
+      </c>
+      <c r="G548" t="n">
+        <v>20</v>
+      </c>
+      <c r="H548" t="n">
+        <v>19</v>
+      </c>
+      <c r="I548" t="n">
+        <v>101</v>
+      </c>
+      <c r="J548" t="n">
+        <v>2</v>
+      </c>
+      <c r="K548" t="n">
+        <v>1</v>
+      </c>
+      <c r="L548" t="n">
+        <v>-110</v>
+      </c>
+      <c r="M548" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B549" t="n">
+        <v>524</v>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E549" t="n">
+        <v>30</v>
+      </c>
+      <c r="F549" t="n">
+        <v>24</v>
+      </c>
+      <c r="G549" t="n">
+        <v>32</v>
+      </c>
+      <c r="H549" t="n">
+        <v>27</v>
+      </c>
+      <c r="I549" t="n">
+        <v>113</v>
+      </c>
+      <c r="J549" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="K549" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="L549" t="n">
+        <v>-110</v>
+      </c>
+      <c r="M549" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B550" t="n">
+        <v>525</v>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E550" t="n">
+        <v>25</v>
+      </c>
+      <c r="F550" t="n">
+        <v>34</v>
+      </c>
+      <c r="G550" t="n">
+        <v>32</v>
+      </c>
+      <c r="H550" t="n">
+        <v>35</v>
+      </c>
+      <c r="I550" t="n">
+        <v>126</v>
+      </c>
+      <c r="J550" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="K550" t="n">
+        <v>218</v>
+      </c>
+      <c r="L550" t="n">
+        <v>135</v>
+      </c>
+      <c r="M550" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B551" t="n">
+        <v>526</v>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E551" t="n">
+        <v>32</v>
+      </c>
+      <c r="F551" t="n">
+        <v>39</v>
+      </c>
+      <c r="G551" t="n">
+        <v>21</v>
+      </c>
+      <c r="H551" t="n">
+        <v>21</v>
+      </c>
+      <c r="I551" t="n">
+        <v>113</v>
+      </c>
+      <c r="J551" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K551" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L551" t="n">
+        <v>-155</v>
+      </c>
+      <c r="M551" t="n">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B552" t="n">
+        <v>527</v>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E552" t="n">
+        <v>27</v>
+      </c>
+      <c r="F552" t="n">
+        <v>23</v>
+      </c>
+      <c r="G552" t="n">
+        <v>23</v>
+      </c>
+      <c r="H552" t="n">
+        <v>29</v>
+      </c>
+      <c r="I552" t="n">
+        <v>102</v>
+      </c>
+      <c r="J552" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K552" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L552" t="n">
+        <v>-165</v>
+      </c>
+      <c r="M552" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B553" t="n">
+        <v>528</v>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E553" t="n">
+        <v>36</v>
+      </c>
+      <c r="F553" t="n">
+        <v>36</v>
+      </c>
+      <c r="G553" t="n">
+        <v>23</v>
+      </c>
+      <c r="H553" t="n">
+        <v>32</v>
+      </c>
+      <c r="I553" t="n">
+        <v>127</v>
+      </c>
+      <c r="J553" t="n">
+        <v>209.5</v>
+      </c>
+      <c r="K553" t="n">
+        <v>211</v>
+      </c>
+      <c r="L553" t="n">
+        <v>145</v>
+      </c>
+      <c r="M553" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B554" t="n">
+        <v>529</v>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E554" t="n">
+        <v>27</v>
+      </c>
+      <c r="F554" t="n">
+        <v>38</v>
+      </c>
+      <c r="G554" t="n">
+        <v>38</v>
+      </c>
+      <c r="H554" t="n">
+        <v>21</v>
+      </c>
+      <c r="I554" t="n">
+        <v>124</v>
+      </c>
+      <c r="J554" t="n">
+        <v>3</v>
+      </c>
+      <c r="K554" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L554" t="n">
+        <v>-165</v>
+      </c>
+      <c r="M554" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B555" t="n">
+        <v>530</v>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>SanAntonio</t>
+        </is>
+      </c>
+      <c r="E555" t="n">
+        <v>27</v>
+      </c>
+      <c r="F555" t="n">
+        <v>31</v>
+      </c>
+      <c r="G555" t="n">
+        <v>25</v>
+      </c>
+      <c r="H555" t="n">
+        <v>23</v>
+      </c>
+      <c r="I555" t="n">
+        <v>106</v>
+      </c>
+      <c r="J555" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="K555" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="L555" t="n">
+        <v>145</v>
+      </c>
+      <c r="M555" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B556" t="n">
+        <v>531</v>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E556" t="n">
+        <v>36</v>
+      </c>
+      <c r="F556" t="n">
+        <v>35</v>
+      </c>
+      <c r="G556" t="n">
+        <v>21</v>
+      </c>
+      <c r="H556" t="n">
+        <v>29</v>
+      </c>
+      <c r="I556" t="n">
+        <v>121</v>
+      </c>
+      <c r="J556" t="n">
+        <v>3</v>
+      </c>
+      <c r="K556" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L556" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M556" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B557" t="n">
+        <v>532</v>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E557" t="n">
+        <v>32</v>
+      </c>
+      <c r="F557" t="n">
+        <v>37</v>
+      </c>
+      <c r="G557" t="n">
+        <v>24</v>
+      </c>
+      <c r="H557" t="n">
+        <v>32</v>
+      </c>
+      <c r="I557" t="n">
+        <v>125</v>
+      </c>
+      <c r="J557" t="n">
+        <v>226</v>
+      </c>
+      <c r="K557" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="L557" t="n">
+        <v>140</v>
+      </c>
+      <c r="M557" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B558" t="n">
+        <v>533</v>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E558" t="n">
+        <v>34</v>
+      </c>
+      <c r="F558" t="n">
+        <v>27</v>
+      </c>
+      <c r="G558" t="n">
+        <v>23</v>
+      </c>
+      <c r="H558" t="n">
+        <v>12</v>
+      </c>
+      <c r="I558" t="n">
+        <v>96</v>
+      </c>
+      <c r="J558" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="K558" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="L558" t="n">
+        <v>400</v>
+      </c>
+      <c r="M558" t="n">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B559" t="n">
+        <v>534</v>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E559" t="n">
+        <v>23</v>
+      </c>
+      <c r="F559" t="n">
+        <v>29</v>
+      </c>
+      <c r="G559" t="n">
+        <v>34</v>
+      </c>
+      <c r="H559" t="n">
+        <v>30</v>
+      </c>
+      <c r="I559" t="n">
+        <v>116</v>
+      </c>
+      <c r="J559" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K559" t="n">
+        <v>10</v>
+      </c>
+      <c r="L559" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M559" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/Odds/NBA/NBA odds 2021-22.xlsx
+++ b/Data/Odds/NBA/NBA odds 2021-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M559"/>
+  <dimension ref="A1:M637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25656,6 +25656,3520 @@
         <v>11.5</v>
       </c>
     </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B560" t="n">
+        <v>535</v>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E560" t="n">
+        <v>18</v>
+      </c>
+      <c r="F560" t="n">
+        <v>22</v>
+      </c>
+      <c r="G560" t="n">
+        <v>22</v>
+      </c>
+      <c r="H560" t="n">
+        <v>34</v>
+      </c>
+      <c r="I560" t="n">
+        <v>96</v>
+      </c>
+      <c r="J560" t="n">
+        <v>206</v>
+      </c>
+      <c r="K560" t="n">
+        <v>205.5</v>
+      </c>
+      <c r="L560" t="n">
+        <v>525</v>
+      </c>
+      <c r="M560" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B561" t="n">
+        <v>536</v>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E561" t="n">
+        <v>30</v>
+      </c>
+      <c r="F561" t="n">
+        <v>34</v>
+      </c>
+      <c r="G561" t="n">
+        <v>18</v>
+      </c>
+      <c r="H561" t="n">
+        <v>25</v>
+      </c>
+      <c r="I561" t="n">
+        <v>107</v>
+      </c>
+      <c r="J561" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K561" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L561" t="n">
+        <v>-750</v>
+      </c>
+      <c r="M561" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B562" t="n">
+        <v>537</v>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E562" t="n">
+        <v>28</v>
+      </c>
+      <c r="F562" t="n">
+        <v>30</v>
+      </c>
+      <c r="G562" t="n">
+        <v>25</v>
+      </c>
+      <c r="H562" t="n">
+        <v>32</v>
+      </c>
+      <c r="I562" t="n">
+        <v>115</v>
+      </c>
+      <c r="J562" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="K562" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="L562" t="n">
+        <v>110</v>
+      </c>
+      <c r="M562" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B563" t="n">
+        <v>538</v>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E563" t="n">
+        <v>30</v>
+      </c>
+      <c r="F563" t="n">
+        <v>38</v>
+      </c>
+      <c r="G563" t="n">
+        <v>31</v>
+      </c>
+      <c r="H563" t="n">
+        <v>34</v>
+      </c>
+      <c r="I563" t="n">
+        <v>133</v>
+      </c>
+      <c r="J563" t="n">
+        <v>3</v>
+      </c>
+      <c r="K563" t="n">
+        <v>2</v>
+      </c>
+      <c r="L563" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M563" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B564" t="n">
+        <v>539</v>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E564" t="n">
+        <v>33</v>
+      </c>
+      <c r="F564" t="n">
+        <v>24</v>
+      </c>
+      <c r="G564" t="n">
+        <v>31</v>
+      </c>
+      <c r="H564" t="n">
+        <v>30</v>
+      </c>
+      <c r="I564" t="n">
+        <v>118</v>
+      </c>
+      <c r="J564" t="n">
+        <v>3</v>
+      </c>
+      <c r="K564" t="n">
+        <v>4</v>
+      </c>
+      <c r="L564" t="n">
+        <v>-165</v>
+      </c>
+      <c r="M564" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B565" t="n">
+        <v>540</v>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>NewYork</t>
+        </is>
+      </c>
+      <c r="E565" t="n">
+        <v>27</v>
+      </c>
+      <c r="F565" t="n">
+        <v>17</v>
+      </c>
+      <c r="G565" t="n">
+        <v>27</v>
+      </c>
+      <c r="H565" t="n">
+        <v>26</v>
+      </c>
+      <c r="I565" t="n">
+        <v>97</v>
+      </c>
+      <c r="J565" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="K565" t="n">
+        <v>214</v>
+      </c>
+      <c r="L565" t="n">
+        <v>145</v>
+      </c>
+      <c r="M565" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B566" t="n">
+        <v>541</v>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E566" t="n">
+        <v>27</v>
+      </c>
+      <c r="F566" t="n">
+        <v>28</v>
+      </c>
+      <c r="G566" t="n">
+        <v>35</v>
+      </c>
+      <c r="H566" t="n">
+        <v>33</v>
+      </c>
+      <c r="I566" t="n">
+        <v>123</v>
+      </c>
+      <c r="J566" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K566" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L566" t="n">
+        <v>-450</v>
+      </c>
+      <c r="M566" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B567" t="n">
+        <v>542</v>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E567" t="n">
+        <v>27</v>
+      </c>
+      <c r="F567" t="n">
+        <v>19</v>
+      </c>
+      <c r="G567" t="n">
+        <v>23</v>
+      </c>
+      <c r="H567" t="n">
+        <v>19</v>
+      </c>
+      <c r="I567" t="n">
+        <v>88</v>
+      </c>
+      <c r="J567" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="K567" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="L567" t="n">
+        <v>375</v>
+      </c>
+      <c r="M567" t="n">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B568" t="n">
+        <v>543</v>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E568" t="n">
+        <v>29</v>
+      </c>
+      <c r="F568" t="n">
+        <v>33</v>
+      </c>
+      <c r="G568" t="n">
+        <v>43</v>
+      </c>
+      <c r="H568" t="n">
+        <v>27</v>
+      </c>
+      <c r="I568" t="n">
+        <v>132</v>
+      </c>
+      <c r="J568" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="K568" t="n">
+        <v>1</v>
+      </c>
+      <c r="L568" t="n">
+        <v>-115</v>
+      </c>
+      <c r="M568" t="n">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B569" t="n">
+        <v>544</v>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E569" t="n">
+        <v>21</v>
+      </c>
+      <c r="F569" t="n">
+        <v>27</v>
+      </c>
+      <c r="G569" t="n">
+        <v>18</v>
+      </c>
+      <c r="H569" t="n">
+        <v>34</v>
+      </c>
+      <c r="I569" t="n">
+        <v>100</v>
+      </c>
+      <c r="J569" t="n">
+        <v>2</v>
+      </c>
+      <c r="K569" t="n">
+        <v>227</v>
+      </c>
+      <c r="L569" t="n">
+        <v>-105</v>
+      </c>
+      <c r="M569" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B570" t="n">
+        <v>545</v>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E570" t="n">
+        <v>35</v>
+      </c>
+      <c r="F570" t="n">
+        <v>22</v>
+      </c>
+      <c r="G570" t="n">
+        <v>24</v>
+      </c>
+      <c r="H570" t="n">
+        <v>16</v>
+      </c>
+      <c r="I570" t="n">
+        <v>97</v>
+      </c>
+      <c r="J570" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="K570" t="n">
+        <v>209</v>
+      </c>
+      <c r="L570" t="n">
+        <v>170</v>
+      </c>
+      <c r="M570" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B571" t="n">
+        <v>546</v>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E571" t="n">
+        <v>31</v>
+      </c>
+      <c r="F571" t="n">
+        <v>35</v>
+      </c>
+      <c r="G571" t="n">
+        <v>26</v>
+      </c>
+      <c r="H571" t="n">
+        <v>22</v>
+      </c>
+      <c r="I571" t="n">
+        <v>114</v>
+      </c>
+      <c r="J571" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K571" t="n">
+        <v>5</v>
+      </c>
+      <c r="L571" t="n">
+        <v>-190</v>
+      </c>
+      <c r="M571" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B572" t="n">
+        <v>547</v>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E572" t="n">
+        <v>25</v>
+      </c>
+      <c r="F572" t="n">
+        <v>31</v>
+      </c>
+      <c r="G572" t="n">
+        <v>20</v>
+      </c>
+      <c r="H572" t="n">
+        <v>25</v>
+      </c>
+      <c r="I572" t="n">
+        <v>101</v>
+      </c>
+      <c r="J572" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K572" t="n">
+        <v>6</v>
+      </c>
+      <c r="L572" t="n">
+        <v>-275</v>
+      </c>
+      <c r="M572" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B573" t="n">
+        <v>548</v>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>OklahomaCity</t>
+        </is>
+      </c>
+      <c r="E573" t="n">
+        <v>27</v>
+      </c>
+      <c r="F573" t="n">
+        <v>27</v>
+      </c>
+      <c r="G573" t="n">
+        <v>14</v>
+      </c>
+      <c r="H573" t="n">
+        <v>31</v>
+      </c>
+      <c r="I573" t="n">
+        <v>99</v>
+      </c>
+      <c r="J573" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="K573" t="n">
+        <v>209.5</v>
+      </c>
+      <c r="L573" t="n">
+        <v>235</v>
+      </c>
+      <c r="M573" t="n">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B574" t="n">
+        <v>549</v>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E574" t="n">
+        <v>14</v>
+      </c>
+      <c r="F574" t="n">
+        <v>23</v>
+      </c>
+      <c r="G574" t="n">
+        <v>26</v>
+      </c>
+      <c r="H574" t="n">
+        <v>25</v>
+      </c>
+      <c r="I574" t="n">
+        <v>88</v>
+      </c>
+      <c r="J574" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K574" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L574" t="n">
+        <v>-180</v>
+      </c>
+      <c r="M574" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B575" t="n">
+        <v>550</v>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>SanAntonio</t>
+        </is>
+      </c>
+      <c r="E575" t="n">
+        <v>30</v>
+      </c>
+      <c r="F575" t="n">
+        <v>22</v>
+      </c>
+      <c r="G575" t="n">
+        <v>18</v>
+      </c>
+      <c r="H575" t="n">
+        <v>26</v>
+      </c>
+      <c r="I575" t="n">
+        <v>96</v>
+      </c>
+      <c r="J575" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="K575" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="L575" t="n">
+        <v>160</v>
+      </c>
+      <c r="M575" t="n">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B576" t="n">
+        <v>551</v>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E576" t="n">
+        <v>23</v>
+      </c>
+      <c r="F576" t="n">
+        <v>23</v>
+      </c>
+      <c r="G576" t="n">
+        <v>26</v>
+      </c>
+      <c r="H576" t="n">
+        <v>26</v>
+      </c>
+      <c r="I576" t="n">
+        <v>98</v>
+      </c>
+      <c r="J576" t="n">
+        <v>213</v>
+      </c>
+      <c r="K576" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="L576" t="n">
+        <v>650</v>
+      </c>
+      <c r="M576" t="n">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B577" t="n">
+        <v>552</v>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E577" t="n">
+        <v>28</v>
+      </c>
+      <c r="F577" t="n">
+        <v>17</v>
+      </c>
+      <c r="G577" t="n">
+        <v>30</v>
+      </c>
+      <c r="H577" t="n">
+        <v>22</v>
+      </c>
+      <c r="I577" t="n">
+        <v>97</v>
+      </c>
+      <c r="J577" t="n">
+        <v>12</v>
+      </c>
+      <c r="K577" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L577" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="M577" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B578" t="n">
+        <v>553</v>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E578" t="n">
+        <v>27</v>
+      </c>
+      <c r="F578" t="n">
+        <v>31</v>
+      </c>
+      <c r="G578" t="n">
+        <v>32</v>
+      </c>
+      <c r="H578" t="n">
+        <v>30</v>
+      </c>
+      <c r="I578" t="n">
+        <v>120</v>
+      </c>
+      <c r="J578" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K578" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L578" t="n">
+        <v>-245</v>
+      </c>
+      <c r="M578" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B579" t="n">
+        <v>554</v>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E579" t="n">
+        <v>16</v>
+      </c>
+      <c r="F579" t="n">
+        <v>31</v>
+      </c>
+      <c r="G579" t="n">
+        <v>26</v>
+      </c>
+      <c r="H579" t="n">
+        <v>36</v>
+      </c>
+      <c r="I579" t="n">
+        <v>109</v>
+      </c>
+      <c r="J579" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="K579" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="L579" t="n">
+        <v>205</v>
+      </c>
+      <c r="M579" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B580" t="n">
+        <v>555</v>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E580" t="n">
+        <v>26</v>
+      </c>
+      <c r="F580" t="n">
+        <v>18</v>
+      </c>
+      <c r="G580" t="n">
+        <v>26</v>
+      </c>
+      <c r="H580" t="n">
+        <v>33</v>
+      </c>
+      <c r="I580" t="n">
+        <v>103</v>
+      </c>
+      <c r="J580" t="n">
+        <v>224</v>
+      </c>
+      <c r="K580" t="n">
+        <v>225</v>
+      </c>
+      <c r="L580" t="n">
+        <v>200</v>
+      </c>
+      <c r="M580" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B581" t="n">
+        <v>556</v>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E581" t="n">
+        <v>27</v>
+      </c>
+      <c r="F581" t="n">
+        <v>31</v>
+      </c>
+      <c r="G581" t="n">
+        <v>33</v>
+      </c>
+      <c r="H581" t="n">
+        <v>27</v>
+      </c>
+      <c r="I581" t="n">
+        <v>118</v>
+      </c>
+      <c r="J581" t="n">
+        <v>6</v>
+      </c>
+      <c r="K581" t="n">
+        <v>6</v>
+      </c>
+      <c r="L581" t="n">
+        <v>-240</v>
+      </c>
+      <c r="M581" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B582" t="n">
+        <v>557</v>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E582" t="n">
+        <v>20</v>
+      </c>
+      <c r="F582" t="n">
+        <v>23</v>
+      </c>
+      <c r="G582" t="n">
+        <v>30</v>
+      </c>
+      <c r="H582" t="n">
+        <v>27</v>
+      </c>
+      <c r="I582" t="n">
+        <v>141</v>
+      </c>
+      <c r="J582" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="K582" t="n">
+        <v>229</v>
+      </c>
+      <c r="L582" t="n">
+        <v>250</v>
+      </c>
+      <c r="M582" t="n">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B583" t="n">
+        <v>558</v>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>LALakers</t>
+        </is>
+      </c>
+      <c r="E583" t="n">
+        <v>20</v>
+      </c>
+      <c r="F583" t="n">
+        <v>23</v>
+      </c>
+      <c r="G583" t="n">
+        <v>35</v>
+      </c>
+      <c r="H583" t="n">
+        <v>22</v>
+      </c>
+      <c r="I583" t="n">
+        <v>137</v>
+      </c>
+      <c r="J583" t="n">
+        <v>1</v>
+      </c>
+      <c r="K583" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L583" t="n">
+        <v>-300</v>
+      </c>
+      <c r="M583" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B584" t="n">
+        <v>559</v>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E584" t="n">
+        <v>35</v>
+      </c>
+      <c r="F584" t="n">
+        <v>21</v>
+      </c>
+      <c r="G584" t="n">
+        <v>16</v>
+      </c>
+      <c r="H584" t="n">
+        <v>28</v>
+      </c>
+      <c r="I584" t="n">
+        <v>121</v>
+      </c>
+      <c r="J584" t="n">
+        <v>218</v>
+      </c>
+      <c r="K584" t="n">
+        <v>218</v>
+      </c>
+      <c r="L584" t="n">
+        <v>220</v>
+      </c>
+      <c r="M584" t="n">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B585" t="n">
+        <v>560</v>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E585" t="n">
+        <v>20</v>
+      </c>
+      <c r="F585" t="n">
+        <v>21</v>
+      </c>
+      <c r="G585" t="n">
+        <v>29</v>
+      </c>
+      <c r="H585" t="n">
+        <v>30</v>
+      </c>
+      <c r="I585" t="n">
+        <v>120</v>
+      </c>
+      <c r="J585" t="n">
+        <v>4</v>
+      </c>
+      <c r="K585" t="n">
+        <v>7</v>
+      </c>
+      <c r="L585" t="n">
+        <v>-270</v>
+      </c>
+      <c r="M585" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B586" t="n">
+        <v>561</v>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>NewYork</t>
+        </is>
+      </c>
+      <c r="E586" t="n">
+        <v>28</v>
+      </c>
+      <c r="F586" t="n">
+        <v>23</v>
+      </c>
+      <c r="G586" t="n">
+        <v>34</v>
+      </c>
+      <c r="H586" t="n">
+        <v>14</v>
+      </c>
+      <c r="I586" t="n">
+        <v>99</v>
+      </c>
+      <c r="J586" t="n">
+        <v>218</v>
+      </c>
+      <c r="K586" t="n">
+        <v>217</v>
+      </c>
+      <c r="L586" t="n">
+        <v>270</v>
+      </c>
+      <c r="M586" t="n">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B587" t="n">
+        <v>562</v>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E587" t="n">
+        <v>27</v>
+      </c>
+      <c r="F587" t="n">
+        <v>23</v>
+      </c>
+      <c r="G587" t="n">
+        <v>24</v>
+      </c>
+      <c r="H587" t="n">
+        <v>16</v>
+      </c>
+      <c r="I587" t="n">
+        <v>90</v>
+      </c>
+      <c r="J587" t="n">
+        <v>4</v>
+      </c>
+      <c r="K587" t="n">
+        <v>8</v>
+      </c>
+      <c r="L587" t="n">
+        <v>-340</v>
+      </c>
+      <c r="M587" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B588" t="n">
+        <v>563</v>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E588" t="n">
+        <v>34</v>
+      </c>
+      <c r="F588" t="n">
+        <v>22</v>
+      </c>
+      <c r="G588" t="n">
+        <v>34</v>
+      </c>
+      <c r="H588" t="n">
+        <v>23</v>
+      </c>
+      <c r="I588" t="n">
+        <v>113</v>
+      </c>
+      <c r="J588" t="n">
+        <v>219</v>
+      </c>
+      <c r="K588" t="n">
+        <v>226</v>
+      </c>
+      <c r="L588" t="n">
+        <v>110</v>
+      </c>
+      <c r="M588" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B589" t="n">
+        <v>564</v>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E589" t="n">
+        <v>20</v>
+      </c>
+      <c r="F589" t="n">
+        <v>26</v>
+      </c>
+      <c r="G589" t="n">
+        <v>26</v>
+      </c>
+      <c r="H589" t="n">
+        <v>35</v>
+      </c>
+      <c r="I589" t="n">
+        <v>107</v>
+      </c>
+      <c r="J589" t="n">
+        <v>3</v>
+      </c>
+      <c r="K589" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L589" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M589" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B590" t="n">
+        <v>565</v>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E590" t="n">
+        <v>30</v>
+      </c>
+      <c r="F590" t="n">
+        <v>41</v>
+      </c>
+      <c r="G590" t="n">
+        <v>28</v>
+      </c>
+      <c r="H590" t="n">
+        <v>36</v>
+      </c>
+      <c r="I590" t="n">
+        <v>143</v>
+      </c>
+      <c r="J590" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K590" t="n">
+        <v>5</v>
+      </c>
+      <c r="L590" t="n">
+        <v>-210</v>
+      </c>
+      <c r="M590" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B591" t="n">
+        <v>566</v>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E591" t="n">
+        <v>43</v>
+      </c>
+      <c r="F591" t="n">
+        <v>30</v>
+      </c>
+      <c r="G591" t="n">
+        <v>37</v>
+      </c>
+      <c r="H591" t="n">
+        <v>25</v>
+      </c>
+      <c r="I591" t="n">
+        <v>146</v>
+      </c>
+      <c r="J591" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="K591" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="L591" t="n">
+        <v>175</v>
+      </c>
+      <c r="M591" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B592" t="n">
+        <v>567</v>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E592" t="n">
+        <v>27</v>
+      </c>
+      <c r="F592" t="n">
+        <v>22</v>
+      </c>
+      <c r="G592" t="n">
+        <v>23</v>
+      </c>
+      <c r="H592" t="n">
+        <v>35</v>
+      </c>
+      <c r="I592" t="n">
+        <v>107</v>
+      </c>
+      <c r="J592" t="n">
+        <v>1</v>
+      </c>
+      <c r="K592" t="n">
+        <v>1</v>
+      </c>
+      <c r="L592" t="n">
+        <v>-105</v>
+      </c>
+      <c r="M592" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B593" t="n">
+        <v>568</v>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E593" t="n">
+        <v>20</v>
+      </c>
+      <c r="F593" t="n">
+        <v>26</v>
+      </c>
+      <c r="G593" t="n">
+        <v>28</v>
+      </c>
+      <c r="H593" t="n">
+        <v>30</v>
+      </c>
+      <c r="I593" t="n">
+        <v>104</v>
+      </c>
+      <c r="J593" t="n">
+        <v>212</v>
+      </c>
+      <c r="K593" t="n">
+        <v>209.5</v>
+      </c>
+      <c r="L593" t="n">
+        <v>-115</v>
+      </c>
+      <c r="M593" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B594" t="n">
+        <v>569</v>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E594" t="n">
+        <v>22</v>
+      </c>
+      <c r="F594" t="n">
+        <v>27</v>
+      </c>
+      <c r="G594" t="n">
+        <v>20</v>
+      </c>
+      <c r="H594" t="n">
+        <v>23</v>
+      </c>
+      <c r="I594" t="n">
+        <v>92</v>
+      </c>
+      <c r="J594" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="K594" t="n">
+        <v>204.5</v>
+      </c>
+      <c r="L594" t="n">
+        <v>375</v>
+      </c>
+      <c r="M594" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B595" t="n">
+        <v>570</v>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E595" t="n">
+        <v>27</v>
+      </c>
+      <c r="F595" t="n">
+        <v>27</v>
+      </c>
+      <c r="G595" t="n">
+        <v>24</v>
+      </c>
+      <c r="H595" t="n">
+        <v>27</v>
+      </c>
+      <c r="I595" t="n">
+        <v>105</v>
+      </c>
+      <c r="J595" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K595" t="n">
+        <v>10</v>
+      </c>
+      <c r="L595" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M595" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B596" t="n">
+        <v>571</v>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E596" t="n">
+        <v>41</v>
+      </c>
+      <c r="F596" t="n">
+        <v>20</v>
+      </c>
+      <c r="G596" t="n">
+        <v>30</v>
+      </c>
+      <c r="H596" t="n">
+        <v>29</v>
+      </c>
+      <c r="I596" t="n">
+        <v>120</v>
+      </c>
+      <c r="J596" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="K596" t="n">
+        <v>213</v>
+      </c>
+      <c r="L596" t="n">
+        <v>210</v>
+      </c>
+      <c r="M596" t="n">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B597" t="n">
+        <v>572</v>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E597" t="n">
+        <v>36</v>
+      </c>
+      <c r="F597" t="n">
+        <v>33</v>
+      </c>
+      <c r="G597" t="n">
+        <v>24</v>
+      </c>
+      <c r="H597" t="n">
+        <v>21</v>
+      </c>
+      <c r="I597" t="n">
+        <v>114</v>
+      </c>
+      <c r="J597" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K597" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L597" t="n">
+        <v>-250</v>
+      </c>
+      <c r="M597" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B598" t="n">
+        <v>573</v>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E598" t="n">
+        <v>23</v>
+      </c>
+      <c r="F598" t="n">
+        <v>22</v>
+      </c>
+      <c r="G598" t="n">
+        <v>22</v>
+      </c>
+      <c r="H598" t="n">
+        <v>38</v>
+      </c>
+      <c r="I598" t="n">
+        <v>105</v>
+      </c>
+      <c r="J598" t="n">
+        <v>217</v>
+      </c>
+      <c r="K598" t="n">
+        <v>215</v>
+      </c>
+      <c r="L598" t="n">
+        <v>650</v>
+      </c>
+      <c r="M598" t="n">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B599" t="n">
+        <v>574</v>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E599" t="n">
+        <v>37</v>
+      </c>
+      <c r="F599" t="n">
+        <v>27</v>
+      </c>
+      <c r="G599" t="n">
+        <v>32</v>
+      </c>
+      <c r="H599" t="n">
+        <v>31</v>
+      </c>
+      <c r="I599" t="n">
+        <v>127</v>
+      </c>
+      <c r="J599" t="n">
+        <v>13</v>
+      </c>
+      <c r="K599" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L599" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="M599" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B600" t="n">
+        <v>501</v>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E600" t="n">
+        <v>20</v>
+      </c>
+      <c r="F600" t="n">
+        <v>24</v>
+      </c>
+      <c r="G600" t="n">
+        <v>31</v>
+      </c>
+      <c r="H600" t="n">
+        <v>30</v>
+      </c>
+      <c r="I600" t="n">
+        <v>105</v>
+      </c>
+      <c r="J600" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K600" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L600" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M600" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B601" t="n">
+        <v>502</v>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E601" t="n">
+        <v>24</v>
+      </c>
+      <c r="F601" t="n">
+        <v>18</v>
+      </c>
+      <c r="G601" t="n">
+        <v>26</v>
+      </c>
+      <c r="H601" t="n">
+        <v>22</v>
+      </c>
+      <c r="I601" t="n">
+        <v>90</v>
+      </c>
+      <c r="J601" t="n">
+        <v>218</v>
+      </c>
+      <c r="K601" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="L601" t="n">
+        <v>120</v>
+      </c>
+      <c r="M601" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B602" t="n">
+        <v>503</v>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E602" t="n">
+        <v>26</v>
+      </c>
+      <c r="F602" t="n">
+        <v>26</v>
+      </c>
+      <c r="G602" t="n">
+        <v>39</v>
+      </c>
+      <c r="H602" t="n">
+        <v>27</v>
+      </c>
+      <c r="I602" t="n">
+        <v>118</v>
+      </c>
+      <c r="J602" t="n">
+        <v>3</v>
+      </c>
+      <c r="K602" t="n">
+        <v>2</v>
+      </c>
+      <c r="L602" t="n">
+        <v>-135</v>
+      </c>
+      <c r="M602" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B603" t="n">
+        <v>504</v>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E603" t="n">
+        <v>26</v>
+      </c>
+      <c r="F603" t="n">
+        <v>21</v>
+      </c>
+      <c r="G603" t="n">
+        <v>27</v>
+      </c>
+      <c r="H603" t="n">
+        <v>26</v>
+      </c>
+      <c r="I603" t="n">
+        <v>100</v>
+      </c>
+      <c r="J603" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K603" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="L603" t="n">
+        <v>115</v>
+      </c>
+      <c r="M603" t="n">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B604" t="n">
+        <v>505</v>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E604" t="n">
+        <v>25</v>
+      </c>
+      <c r="F604" t="n">
+        <v>27</v>
+      </c>
+      <c r="G604" t="n">
+        <v>22</v>
+      </c>
+      <c r="H604" t="n">
+        <v>27</v>
+      </c>
+      <c r="I604" t="n">
+        <v>101</v>
+      </c>
+      <c r="J604" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K604" t="n">
+        <v>223</v>
+      </c>
+      <c r="L604" t="n">
+        <v>150</v>
+      </c>
+      <c r="M604" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B605" t="n">
+        <v>506</v>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E605" t="n">
+        <v>38</v>
+      </c>
+      <c r="F605" t="n">
+        <v>38</v>
+      </c>
+      <c r="G605" t="n">
+        <v>30</v>
+      </c>
+      <c r="H605" t="n">
+        <v>22</v>
+      </c>
+      <c r="I605" t="n">
+        <v>128</v>
+      </c>
+      <c r="J605" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K605" t="n">
+        <v>4</v>
+      </c>
+      <c r="L605" t="n">
+        <v>-170</v>
+      </c>
+      <c r="M605" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B606" t="n">
+        <v>507</v>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E606" t="n">
+        <v>27</v>
+      </c>
+      <c r="F606" t="n">
+        <v>27</v>
+      </c>
+      <c r="G606" t="n">
+        <v>26</v>
+      </c>
+      <c r="H606" t="n">
+        <v>29</v>
+      </c>
+      <c r="I606" t="n">
+        <v>109</v>
+      </c>
+      <c r="J606" t="n">
+        <v>210</v>
+      </c>
+      <c r="K606" t="n">
+        <v>2</v>
+      </c>
+      <c r="L606" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M606" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B607" t="n">
+        <v>508</v>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E607" t="n">
+        <v>26</v>
+      </c>
+      <c r="F607" t="n">
+        <v>25</v>
+      </c>
+      <c r="G607" t="n">
+        <v>25</v>
+      </c>
+      <c r="H607" t="n">
+        <v>21</v>
+      </c>
+      <c r="I607" t="n">
+        <v>97</v>
+      </c>
+      <c r="J607" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K607" t="n">
+        <v>207</v>
+      </c>
+      <c r="L607" t="n">
+        <v>105</v>
+      </c>
+      <c r="M607" t="n">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B608" t="n">
+        <v>509</v>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E608" t="n">
+        <v>21</v>
+      </c>
+      <c r="F608" t="n">
+        <v>27</v>
+      </c>
+      <c r="G608" t="n">
+        <v>22</v>
+      </c>
+      <c r="H608" t="n">
+        <v>36</v>
+      </c>
+      <c r="I608" t="n">
+        <v>106</v>
+      </c>
+      <c r="J608" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="K608" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="L608" t="n">
+        <v>400</v>
+      </c>
+      <c r="M608" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B609" t="n">
+        <v>510</v>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>LALakers</t>
+        </is>
+      </c>
+      <c r="E609" t="n">
+        <v>23</v>
+      </c>
+      <c r="F609" t="n">
+        <v>28</v>
+      </c>
+      <c r="G609" t="n">
+        <v>32</v>
+      </c>
+      <c r="H609" t="n">
+        <v>27</v>
+      </c>
+      <c r="I609" t="n">
+        <v>110</v>
+      </c>
+      <c r="J609" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K609" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L609" t="n">
+        <v>-525</v>
+      </c>
+      <c r="M609" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B610" t="n">
+        <v>511</v>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E610" t="n">
+        <v>19</v>
+      </c>
+      <c r="F610" t="n">
+        <v>24</v>
+      </c>
+      <c r="G610" t="n">
+        <v>35</v>
+      </c>
+      <c r="H610" t="n">
+        <v>18</v>
+      </c>
+      <c r="I610" t="n">
+        <v>96</v>
+      </c>
+      <c r="J610" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="K610" t="n">
+        <v>205.5</v>
+      </c>
+      <c r="L610" t="n">
+        <v>750</v>
+      </c>
+      <c r="M610" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B611" t="n">
+        <v>512</v>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E611" t="n">
+        <v>31</v>
+      </c>
+      <c r="F611" t="n">
+        <v>23</v>
+      </c>
+      <c r="G611" t="n">
+        <v>27</v>
+      </c>
+      <c r="H611" t="n">
+        <v>20</v>
+      </c>
+      <c r="I611" t="n">
+        <v>101</v>
+      </c>
+      <c r="J611" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K611" t="n">
+        <v>14</v>
+      </c>
+      <c r="L611" t="n">
+        <v>-1200</v>
+      </c>
+      <c r="M611" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B612" t="n">
+        <v>513</v>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E612" t="n">
+        <v>32</v>
+      </c>
+      <c r="F612" t="n">
+        <v>31</v>
+      </c>
+      <c r="G612" t="n">
+        <v>32</v>
+      </c>
+      <c r="H612" t="n">
+        <v>25</v>
+      </c>
+      <c r="I612" t="n">
+        <v>120</v>
+      </c>
+      <c r="J612" t="n">
+        <v>207.5</v>
+      </c>
+      <c r="K612" t="n">
+        <v>205.5</v>
+      </c>
+      <c r="L612" t="n">
+        <v>130</v>
+      </c>
+      <c r="M612" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B613" t="n">
+        <v>514</v>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E613" t="n">
+        <v>23</v>
+      </c>
+      <c r="F613" t="n">
+        <v>20</v>
+      </c>
+      <c r="G613" t="n">
+        <v>35</v>
+      </c>
+      <c r="H613" t="n">
+        <v>33</v>
+      </c>
+      <c r="I613" t="n">
+        <v>111</v>
+      </c>
+      <c r="J613" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K613" t="n">
+        <v>3</v>
+      </c>
+      <c r="L613" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M613" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B614" t="n">
+        <v>515</v>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>OklahomaCity</t>
+        </is>
+      </c>
+      <c r="E614" t="n">
+        <v>23</v>
+      </c>
+      <c r="F614" t="n">
+        <v>14</v>
+      </c>
+      <c r="G614" t="n">
+        <v>23</v>
+      </c>
+      <c r="H614" t="n">
+        <v>29</v>
+      </c>
+      <c r="I614" t="n">
+        <v>89</v>
+      </c>
+      <c r="J614" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="K614" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="L614" t="n">
+        <v>120</v>
+      </c>
+      <c r="M614" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B615" t="n">
+        <v>516</v>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E615" t="n">
+        <v>28</v>
+      </c>
+      <c r="F615" t="n">
+        <v>18</v>
+      </c>
+      <c r="G615" t="n">
+        <v>26</v>
+      </c>
+      <c r="H615" t="n">
+        <v>30</v>
+      </c>
+      <c r="I615" t="n">
+        <v>102</v>
+      </c>
+      <c r="J615" t="n">
+        <v>3</v>
+      </c>
+      <c r="K615" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L615" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M615" t="n">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B616" t="n">
+        <v>517</v>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E616" t="n">
+        <v>26</v>
+      </c>
+      <c r="F616" t="n">
+        <v>31</v>
+      </c>
+      <c r="G616" t="n">
+        <v>19</v>
+      </c>
+      <c r="H616" t="n">
+        <v>22</v>
+      </c>
+      <c r="I616" t="n">
+        <v>98</v>
+      </c>
+      <c r="J616" t="n">
+        <v>218</v>
+      </c>
+      <c r="K616" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="L616" t="n">
+        <v>150</v>
+      </c>
+      <c r="M616" t="n">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B617" t="n">
+        <v>518</v>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E617" t="n">
+        <v>20</v>
+      </c>
+      <c r="F617" t="n">
+        <v>28</v>
+      </c>
+      <c r="G617" t="n">
+        <v>30</v>
+      </c>
+      <c r="H617" t="n">
+        <v>22</v>
+      </c>
+      <c r="I617" t="n">
+        <v>100</v>
+      </c>
+      <c r="J617" t="n">
+        <v>4</v>
+      </c>
+      <c r="K617" t="n">
+        <v>4</v>
+      </c>
+      <c r="L617" t="n">
+        <v>-170</v>
+      </c>
+      <c r="M617" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B618" t="n">
+        <v>519</v>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E618" t="n">
+        <v>31</v>
+      </c>
+      <c r="F618" t="n">
+        <v>27</v>
+      </c>
+      <c r="G618" t="n">
+        <v>27</v>
+      </c>
+      <c r="H618" t="n">
+        <v>34</v>
+      </c>
+      <c r="I618" t="n">
+        <v>119</v>
+      </c>
+      <c r="J618" t="n">
+        <v>225</v>
+      </c>
+      <c r="K618" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="L618" t="n">
+        <v>175</v>
+      </c>
+      <c r="M618" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B619" t="n">
+        <v>520</v>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E619" t="n">
+        <v>30</v>
+      </c>
+      <c r="F619" t="n">
+        <v>39</v>
+      </c>
+      <c r="G619" t="n">
+        <v>35</v>
+      </c>
+      <c r="H619" t="n">
+        <v>29</v>
+      </c>
+      <c r="I619" t="n">
+        <v>133</v>
+      </c>
+      <c r="J619" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K619" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L619" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M619" t="n">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B620" t="n">
+        <v>521</v>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E620" t="n">
+        <v>30</v>
+      </c>
+      <c r="F620" t="n">
+        <v>22</v>
+      </c>
+      <c r="G620" t="n">
+        <v>35</v>
+      </c>
+      <c r="H620" t="n">
+        <v>27</v>
+      </c>
+      <c r="I620" t="n">
+        <v>114</v>
+      </c>
+      <c r="J620" t="n">
+        <v>207</v>
+      </c>
+      <c r="K620" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="L620" t="n">
+        <v>220</v>
+      </c>
+      <c r="M620" t="n">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B621" t="n">
+        <v>522</v>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E621" t="n">
+        <v>23</v>
+      </c>
+      <c r="F621" t="n">
+        <v>18</v>
+      </c>
+      <c r="G621" t="n">
+        <v>24</v>
+      </c>
+      <c r="H621" t="n">
+        <v>31</v>
+      </c>
+      <c r="I621" t="n">
+        <v>96</v>
+      </c>
+      <c r="J621" t="n">
+        <v>5</v>
+      </c>
+      <c r="K621" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L621" t="n">
+        <v>-260</v>
+      </c>
+      <c r="M621" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B622" t="n">
+        <v>523</v>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E622" t="n">
+        <v>20</v>
+      </c>
+      <c r="F622" t="n">
+        <v>31</v>
+      </c>
+      <c r="G622" t="n">
+        <v>27</v>
+      </c>
+      <c r="H622" t="n">
+        <v>21</v>
+      </c>
+      <c r="I622" t="n">
+        <v>99</v>
+      </c>
+      <c r="J622" t="n">
+        <v>3</v>
+      </c>
+      <c r="K622" t="n">
+        <v>3</v>
+      </c>
+      <c r="L622" t="n">
+        <v>-155</v>
+      </c>
+      <c r="M622" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B623" t="n">
+        <v>524</v>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>SanAntonio</t>
+        </is>
+      </c>
+      <c r="E623" t="n">
+        <v>20</v>
+      </c>
+      <c r="F623" t="n">
+        <v>25</v>
+      </c>
+      <c r="G623" t="n">
+        <v>39</v>
+      </c>
+      <c r="H623" t="n">
+        <v>32</v>
+      </c>
+      <c r="I623" t="n">
+        <v>116</v>
+      </c>
+      <c r="J623" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K623" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="L623" t="n">
+        <v>135</v>
+      </c>
+      <c r="M623" t="n">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B624" t="n">
+        <v>525</v>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E624" t="n">
+        <v>23</v>
+      </c>
+      <c r="F624" t="n">
+        <v>26</v>
+      </c>
+      <c r="G624" t="n">
+        <v>35</v>
+      </c>
+      <c r="H624" t="n">
+        <v>23</v>
+      </c>
+      <c r="I624" t="n">
+        <v>107</v>
+      </c>
+      <c r="J624" t="n">
+        <v>223</v>
+      </c>
+      <c r="K624" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="L624" t="n">
+        <v>240</v>
+      </c>
+      <c r="M624" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B625" t="n">
+        <v>526</v>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E625" t="n">
+        <v>21</v>
+      </c>
+      <c r="F625" t="n">
+        <v>32</v>
+      </c>
+      <c r="G625" t="n">
+        <v>41</v>
+      </c>
+      <c r="H625" t="n">
+        <v>35</v>
+      </c>
+      <c r="I625" t="n">
+        <v>129</v>
+      </c>
+      <c r="J625" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K625" t="n">
+        <v>7</v>
+      </c>
+      <c r="L625" t="n">
+        <v>-280</v>
+      </c>
+      <c r="M625" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B626" t="n">
+        <v>527</v>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E626" t="n">
+        <v>37</v>
+      </c>
+      <c r="F626" t="n">
+        <v>30</v>
+      </c>
+      <c r="G626" t="n">
+        <v>23</v>
+      </c>
+      <c r="H626" t="n">
+        <v>33</v>
+      </c>
+      <c r="I626" t="n">
+        <v>123</v>
+      </c>
+      <c r="J626" t="n">
+        <v>211</v>
+      </c>
+      <c r="K626" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="L626" t="n">
+        <v>240</v>
+      </c>
+      <c r="M626" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B627" t="n">
+        <v>528</v>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E627" t="n">
+        <v>22</v>
+      </c>
+      <c r="F627" t="n">
+        <v>30</v>
+      </c>
+      <c r="G627" t="n">
+        <v>26</v>
+      </c>
+      <c r="H627" t="n">
+        <v>26</v>
+      </c>
+      <c r="I627" t="n">
+        <v>104</v>
+      </c>
+      <c r="J627" t="n">
+        <v>9</v>
+      </c>
+      <c r="K627" t="n">
+        <v>7</v>
+      </c>
+      <c r="L627" t="n">
+        <v>-280</v>
+      </c>
+      <c r="M627" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B628" t="n">
+        <v>529</v>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E628" t="n">
+        <v>27</v>
+      </c>
+      <c r="F628" t="n">
+        <v>23</v>
+      </c>
+      <c r="G628" t="n">
+        <v>20</v>
+      </c>
+      <c r="H628" t="n">
+        <v>28</v>
+      </c>
+      <c r="I628" t="n">
+        <v>98</v>
+      </c>
+      <c r="J628" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="K628" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="L628" t="n">
+        <v>130</v>
+      </c>
+      <c r="M628" t="n">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B629" t="n">
+        <v>530</v>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E629" t="n">
+        <v>18</v>
+      </c>
+      <c r="F629" t="n">
+        <v>21</v>
+      </c>
+      <c r="G629" t="n">
+        <v>28</v>
+      </c>
+      <c r="H629" t="n">
+        <v>24</v>
+      </c>
+      <c r="I629" t="n">
+        <v>91</v>
+      </c>
+      <c r="J629" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K629" t="n">
+        <v>3</v>
+      </c>
+      <c r="L629" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M629" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B630" t="n">
+        <v>531</v>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>NewYork</t>
+        </is>
+      </c>
+      <c r="E630" t="n">
+        <v>28</v>
+      </c>
+      <c r="F630" t="n">
+        <v>33</v>
+      </c>
+      <c r="G630" t="n">
+        <v>23</v>
+      </c>
+      <c r="H630" t="n">
+        <v>26</v>
+      </c>
+      <c r="I630" t="n">
+        <v>110</v>
+      </c>
+      <c r="J630" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="K630" t="n">
+        <v>215</v>
+      </c>
+      <c r="L630" t="n">
+        <v>200</v>
+      </c>
+      <c r="M630" t="n">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B631" t="n">
+        <v>532</v>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E631" t="n">
+        <v>33</v>
+      </c>
+      <c r="F631" t="n">
+        <v>27</v>
+      </c>
+      <c r="G631" t="n">
+        <v>28</v>
+      </c>
+      <c r="H631" t="n">
+        <v>24</v>
+      </c>
+      <c r="I631" t="n">
+        <v>112</v>
+      </c>
+      <c r="J631" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K631" t="n">
+        <v>6</v>
+      </c>
+      <c r="L631" t="n">
+        <v>-240</v>
+      </c>
+      <c r="M631" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B632" t="n">
+        <v>533</v>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>LALakers</t>
+        </is>
+      </c>
+      <c r="E632" t="n">
+        <v>20</v>
+      </c>
+      <c r="F632" t="n">
+        <v>30</v>
+      </c>
+      <c r="G632" t="n">
+        <v>37</v>
+      </c>
+      <c r="H632" t="n">
+        <v>30</v>
+      </c>
+      <c r="I632" t="n">
+        <v>117</v>
+      </c>
+      <c r="J632" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K632" t="n">
+        <v>224</v>
+      </c>
+      <c r="L632" t="n">
+        <v>-110</v>
+      </c>
+      <c r="M632" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B633" t="n">
+        <v>534</v>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E633" t="n">
+        <v>28</v>
+      </c>
+      <c r="F633" t="n">
+        <v>31</v>
+      </c>
+      <c r="G633" t="n">
+        <v>15</v>
+      </c>
+      <c r="H633" t="n">
+        <v>18</v>
+      </c>
+      <c r="I633" t="n">
+        <v>92</v>
+      </c>
+      <c r="J633" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="L633" t="n">
+        <v>-110</v>
+      </c>
+      <c r="M633" t="n">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B634" t="n">
+        <v>535</v>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E634" t="n">
+        <v>35</v>
+      </c>
+      <c r="F634" t="n">
+        <v>19</v>
+      </c>
+      <c r="G634" t="n">
+        <v>24</v>
+      </c>
+      <c r="H634" t="n">
+        <v>18</v>
+      </c>
+      <c r="I634" t="n">
+        <v>96</v>
+      </c>
+      <c r="J634" t="n">
+        <v>221</v>
+      </c>
+      <c r="K634" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="L634" t="n">
+        <v>135</v>
+      </c>
+      <c r="M634" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B635" t="n">
+        <v>536</v>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E635" t="n">
+        <v>31</v>
+      </c>
+      <c r="F635" t="n">
+        <v>25</v>
+      </c>
+      <c r="G635" t="n">
+        <v>24</v>
+      </c>
+      <c r="H635" t="n">
+        <v>24</v>
+      </c>
+      <c r="I635" t="n">
+        <v>104</v>
+      </c>
+      <c r="J635" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K635" t="n">
+        <v>3</v>
+      </c>
+      <c r="L635" t="n">
+        <v>-155</v>
+      </c>
+      <c r="M635" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B636" t="n">
+        <v>537</v>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E636" t="n">
+        <v>21</v>
+      </c>
+      <c r="F636" t="n">
+        <v>24</v>
+      </c>
+      <c r="G636" t="n">
+        <v>17</v>
+      </c>
+      <c r="H636" t="n">
+        <v>30</v>
+      </c>
+      <c r="I636" t="n">
+        <v>92</v>
+      </c>
+      <c r="J636" t="n">
+        <v>216</v>
+      </c>
+      <c r="K636" t="n">
+        <v>209.5</v>
+      </c>
+      <c r="L636" t="n">
+        <v>290</v>
+      </c>
+      <c r="M636" t="n">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B637" t="n">
+        <v>538</v>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E637" t="n">
+        <v>27</v>
+      </c>
+      <c r="F637" t="n">
+        <v>27</v>
+      </c>
+      <c r="G637" t="n">
+        <v>29</v>
+      </c>
+      <c r="H637" t="n">
+        <v>27</v>
+      </c>
+      <c r="I637" t="n">
+        <v>110</v>
+      </c>
+      <c r="J637" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K637" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L637" t="n">
+        <v>-350</v>
+      </c>
+      <c r="M637" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/Odds/NBA/NBA odds 2021-22.xlsx
+++ b/Data/Odds/NBA/NBA odds 2021-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M637"/>
+  <dimension ref="A1:M725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29170,6 +29170,3968 @@
         <v>1</v>
       </c>
     </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B638" t="n">
+        <v>539</v>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E638" t="n">
+        <v>24</v>
+      </c>
+      <c r="F638" t="n">
+        <v>33</v>
+      </c>
+      <c r="G638" t="n">
+        <v>31</v>
+      </c>
+      <c r="H638" t="n">
+        <v>19</v>
+      </c>
+      <c r="I638" t="n">
+        <v>107</v>
+      </c>
+      <c r="J638" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="K638" t="n">
+        <v>217</v>
+      </c>
+      <c r="L638" t="n">
+        <v>150</v>
+      </c>
+      <c r="M638" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B639" t="n">
+        <v>540</v>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E639" t="n">
+        <v>24</v>
+      </c>
+      <c r="F639" t="n">
+        <v>29</v>
+      </c>
+      <c r="G639" t="n">
+        <v>38</v>
+      </c>
+      <c r="H639" t="n">
+        <v>24</v>
+      </c>
+      <c r="I639" t="n">
+        <v>115</v>
+      </c>
+      <c r="J639" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K639" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L639" t="n">
+        <v>-170</v>
+      </c>
+      <c r="M639" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B640" t="n">
+        <v>541</v>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E640" t="n">
+        <v>38</v>
+      </c>
+      <c r="F640" t="n">
+        <v>27</v>
+      </c>
+      <c r="G640" t="n">
+        <v>22</v>
+      </c>
+      <c r="H640" t="n">
+        <v>27</v>
+      </c>
+      <c r="I640" t="n">
+        <v>114</v>
+      </c>
+      <c r="J640" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K640" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="L640" t="n">
+        <v>115</v>
+      </c>
+      <c r="M640" t="n">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B641" t="n">
+        <v>542</v>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E641" t="n">
+        <v>29</v>
+      </c>
+      <c r="F641" t="n">
+        <v>28</v>
+      </c>
+      <c r="G641" t="n">
+        <v>31</v>
+      </c>
+      <c r="H641" t="n">
+        <v>23</v>
+      </c>
+      <c r="I641" t="n">
+        <v>111</v>
+      </c>
+      <c r="J641" t="n">
+        <v>1</v>
+      </c>
+      <c r="K641" t="n">
+        <v>2</v>
+      </c>
+      <c r="L641" t="n">
+        <v>-135</v>
+      </c>
+      <c r="M641" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B642" t="n">
+        <v>543</v>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E642" t="n">
+        <v>29</v>
+      </c>
+      <c r="F642" t="n">
+        <v>34</v>
+      </c>
+      <c r="G642" t="n">
+        <v>20</v>
+      </c>
+      <c r="H642" t="n">
+        <v>20</v>
+      </c>
+      <c r="I642" t="n">
+        <v>103</v>
+      </c>
+      <c r="J642" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K642" t="n">
+        <v>8</v>
+      </c>
+      <c r="L642" t="n">
+        <v>-340</v>
+      </c>
+      <c r="M642" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B643" t="n">
+        <v>544</v>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E643" t="n">
+        <v>15</v>
+      </c>
+      <c r="F643" t="n">
+        <v>32</v>
+      </c>
+      <c r="G643" t="n">
+        <v>32</v>
+      </c>
+      <c r="H643" t="n">
+        <v>29</v>
+      </c>
+      <c r="I643" t="n">
+        <v>108</v>
+      </c>
+      <c r="J643" t="n">
+        <v>207.5</v>
+      </c>
+      <c r="K643" t="n">
+        <v>208</v>
+      </c>
+      <c r="L643" t="n">
+        <v>280</v>
+      </c>
+      <c r="M643" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B644" t="n">
+        <v>545</v>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E644" t="n">
+        <v>20</v>
+      </c>
+      <c r="F644" t="n">
+        <v>20</v>
+      </c>
+      <c r="G644" t="n">
+        <v>23</v>
+      </c>
+      <c r="H644" t="n">
+        <v>24</v>
+      </c>
+      <c r="I644" t="n">
+        <v>87</v>
+      </c>
+      <c r="J644" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="K644" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="L644" t="n">
+        <v>135</v>
+      </c>
+      <c r="M644" t="n">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B645" t="n">
+        <v>546</v>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E645" t="n">
+        <v>21</v>
+      </c>
+      <c r="F645" t="n">
+        <v>23</v>
+      </c>
+      <c r="G645" t="n">
+        <v>20</v>
+      </c>
+      <c r="H645" t="n">
+        <v>24</v>
+      </c>
+      <c r="I645" t="n">
+        <v>88</v>
+      </c>
+      <c r="J645" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K645" t="n">
+        <v>3</v>
+      </c>
+      <c r="L645" t="n">
+        <v>-155</v>
+      </c>
+      <c r="M645" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B646" t="n">
+        <v>547</v>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E646" t="n">
+        <v>31</v>
+      </c>
+      <c r="F646" t="n">
+        <v>30</v>
+      </c>
+      <c r="G646" t="n">
+        <v>26</v>
+      </c>
+      <c r="H646" t="n">
+        <v>24</v>
+      </c>
+      <c r="I646" t="n">
+        <v>111</v>
+      </c>
+      <c r="J646" t="n">
+        <v>204.5</v>
+      </c>
+      <c r="K646" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="L646" t="n">
+        <v>130</v>
+      </c>
+      <c r="M646" t="n">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B647" t="n">
+        <v>548</v>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E647" t="n">
+        <v>16</v>
+      </c>
+      <c r="F647" t="n">
+        <v>27</v>
+      </c>
+      <c r="G647" t="n">
+        <v>20</v>
+      </c>
+      <c r="H647" t="n">
+        <v>22</v>
+      </c>
+      <c r="I647" t="n">
+        <v>85</v>
+      </c>
+      <c r="J647" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K647" t="n">
+        <v>3</v>
+      </c>
+      <c r="L647" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M647" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B648" t="n">
+        <v>549</v>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E648" t="n">
+        <v>41</v>
+      </c>
+      <c r="F648" t="n">
+        <v>26</v>
+      </c>
+      <c r="G648" t="n">
+        <v>35</v>
+      </c>
+      <c r="H648" t="n">
+        <v>37</v>
+      </c>
+      <c r="I648" t="n">
+        <v>139</v>
+      </c>
+      <c r="J648" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K648" t="n">
+        <v>4</v>
+      </c>
+      <c r="L648" t="n">
+        <v>-170</v>
+      </c>
+      <c r="M648" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B649" t="n">
+        <v>550</v>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E649" t="n">
+        <v>23</v>
+      </c>
+      <c r="F649" t="n">
+        <v>23</v>
+      </c>
+      <c r="G649" t="n">
+        <v>29</v>
+      </c>
+      <c r="H649" t="n">
+        <v>32</v>
+      </c>
+      <c r="I649" t="n">
+        <v>107</v>
+      </c>
+      <c r="J649" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="K649" t="n">
+        <v>216</v>
+      </c>
+      <c r="L649" t="n">
+        <v>150</v>
+      </c>
+      <c r="M649" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B650" t="n">
+        <v>551</v>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E650" t="n">
+        <v>24</v>
+      </c>
+      <c r="F650" t="n">
+        <v>29</v>
+      </c>
+      <c r="G650" t="n">
+        <v>20</v>
+      </c>
+      <c r="H650" t="n">
+        <v>41</v>
+      </c>
+      <c r="I650" t="n">
+        <v>114</v>
+      </c>
+      <c r="J650" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="K650" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="L650" t="n">
+        <v>115</v>
+      </c>
+      <c r="M650" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B651" t="n">
+        <v>552</v>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>OklahomaCity</t>
+        </is>
+      </c>
+      <c r="E651" t="n">
+        <v>26</v>
+      </c>
+      <c r="F651" t="n">
+        <v>34</v>
+      </c>
+      <c r="G651" t="n">
+        <v>21</v>
+      </c>
+      <c r="H651" t="n">
+        <v>29</v>
+      </c>
+      <c r="I651" t="n">
+        <v>110</v>
+      </c>
+      <c r="J651" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K651" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L651" t="n">
+        <v>-135</v>
+      </c>
+      <c r="M651" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B652" t="n">
+        <v>553</v>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E652" t="n">
+        <v>41</v>
+      </c>
+      <c r="F652" t="n">
+        <v>27</v>
+      </c>
+      <c r="G652" t="n">
+        <v>27</v>
+      </c>
+      <c r="H652" t="n">
+        <v>30</v>
+      </c>
+      <c r="I652" t="n">
+        <v>125</v>
+      </c>
+      <c r="J652" t="n">
+        <v>230</v>
+      </c>
+      <c r="K652" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="L652" t="n">
+        <v>300</v>
+      </c>
+      <c r="M652" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B653" t="n">
+        <v>554</v>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E653" t="n">
+        <v>25</v>
+      </c>
+      <c r="F653" t="n">
+        <v>35</v>
+      </c>
+      <c r="G653" t="n">
+        <v>37</v>
+      </c>
+      <c r="H653" t="n">
+        <v>30</v>
+      </c>
+      <c r="I653" t="n">
+        <v>127</v>
+      </c>
+      <c r="J653" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K653" t="n">
+        <v>9</v>
+      </c>
+      <c r="L653" t="n">
+        <v>-360</v>
+      </c>
+      <c r="M653" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B654" t="n">
+        <v>555</v>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E654" t="n">
+        <v>29</v>
+      </c>
+      <c r="F654" t="n">
+        <v>33</v>
+      </c>
+      <c r="G654" t="n">
+        <v>37</v>
+      </c>
+      <c r="H654" t="n">
+        <v>25</v>
+      </c>
+      <c r="I654" t="n">
+        <v>124</v>
+      </c>
+      <c r="J654" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="K654" t="n">
+        <v>215</v>
+      </c>
+      <c r="L654" t="n">
+        <v>205</v>
+      </c>
+      <c r="M654" t="n">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B655" t="n">
+        <v>556</v>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E655" t="n">
+        <v>21</v>
+      </c>
+      <c r="F655" t="n">
+        <v>31</v>
+      </c>
+      <c r="G655" t="n">
+        <v>24</v>
+      </c>
+      <c r="H655" t="n">
+        <v>39</v>
+      </c>
+      <c r="I655" t="n">
+        <v>115</v>
+      </c>
+      <c r="J655" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K655" t="n">
+        <v>6</v>
+      </c>
+      <c r="L655" t="n">
+        <v>-245</v>
+      </c>
+      <c r="M655" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B656" t="n">
+        <v>557</v>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E656" t="n">
+        <v>37</v>
+      </c>
+      <c r="F656" t="n">
+        <v>32</v>
+      </c>
+      <c r="G656" t="n">
+        <v>20</v>
+      </c>
+      <c r="H656" t="n">
+        <v>30</v>
+      </c>
+      <c r="I656" t="n">
+        <v>119</v>
+      </c>
+      <c r="J656" t="n">
+        <v>1</v>
+      </c>
+      <c r="K656" t="n">
+        <v>2</v>
+      </c>
+      <c r="L656" t="n">
+        <v>-115</v>
+      </c>
+      <c r="M656" t="n">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B657" t="n">
+        <v>558</v>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>NewYork</t>
+        </is>
+      </c>
+      <c r="E657" t="n">
+        <v>19</v>
+      </c>
+      <c r="F657" t="n">
+        <v>32</v>
+      </c>
+      <c r="G657" t="n">
+        <v>32</v>
+      </c>
+      <c r="H657" t="n">
+        <v>32</v>
+      </c>
+      <c r="I657" t="n">
+        <v>115</v>
+      </c>
+      <c r="J657" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="K657" t="n">
+        <v>209.5</v>
+      </c>
+      <c r="L657" t="n">
+        <v>-105</v>
+      </c>
+      <c r="M657" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B658" t="n">
+        <v>559</v>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E658" t="n">
+        <v>23</v>
+      </c>
+      <c r="F658" t="n">
+        <v>17</v>
+      </c>
+      <c r="G658" t="n">
+        <v>28</v>
+      </c>
+      <c r="H658" t="n">
+        <v>25</v>
+      </c>
+      <c r="I658" t="n">
+        <v>93</v>
+      </c>
+      <c r="J658" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K658" t="n">
+        <v>216</v>
+      </c>
+      <c r="L658" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M658" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B659" t="n">
+        <v>560</v>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E659" t="n">
+        <v>26</v>
+      </c>
+      <c r="F659" t="n">
+        <v>22</v>
+      </c>
+      <c r="G659" t="n">
+        <v>25</v>
+      </c>
+      <c r="H659" t="n">
+        <v>24</v>
+      </c>
+      <c r="I659" t="n">
+        <v>97</v>
+      </c>
+      <c r="J659" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="K659" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L659" t="n">
+        <v>130</v>
+      </c>
+      <c r="M659" t="n">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B660" t="n">
+        <v>561</v>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>OklahomaCity</t>
+        </is>
+      </c>
+      <c r="E660" t="n">
+        <v>16</v>
+      </c>
+      <c r="F660" t="n">
+        <v>20</v>
+      </c>
+      <c r="G660" t="n">
+        <v>26</v>
+      </c>
+      <c r="H660" t="n">
+        <v>17</v>
+      </c>
+      <c r="I660" t="n">
+        <v>79</v>
+      </c>
+      <c r="J660" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="K660" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="L660" t="n">
+        <v>340</v>
+      </c>
+      <c r="M660" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B661" t="n">
+        <v>562</v>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E661" t="n">
+        <v>31</v>
+      </c>
+      <c r="F661" t="n">
+        <v>41</v>
+      </c>
+      <c r="G661" t="n">
+        <v>41</v>
+      </c>
+      <c r="H661" t="n">
+        <v>39</v>
+      </c>
+      <c r="I661" t="n">
+        <v>152</v>
+      </c>
+      <c r="J661" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K661" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L661" t="n">
+        <v>-430</v>
+      </c>
+      <c r="M661" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B662" t="n">
+        <v>563</v>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E662" t="n">
+        <v>18</v>
+      </c>
+      <c r="F662" t="n">
+        <v>33</v>
+      </c>
+      <c r="G662" t="n">
+        <v>30</v>
+      </c>
+      <c r="H662" t="n">
+        <v>22</v>
+      </c>
+      <c r="I662" t="n">
+        <v>103</v>
+      </c>
+      <c r="J662" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="K662" t="n">
+        <v>208</v>
+      </c>
+      <c r="L662" t="n">
+        <v>700</v>
+      </c>
+      <c r="M662" t="n">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B663" t="n">
+        <v>564</v>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E663" t="n">
+        <v>30</v>
+      </c>
+      <c r="F663" t="n">
+        <v>39</v>
+      </c>
+      <c r="G663" t="n">
+        <v>18</v>
+      </c>
+      <c r="H663" t="n">
+        <v>27</v>
+      </c>
+      <c r="I663" t="n">
+        <v>114</v>
+      </c>
+      <c r="J663" t="n">
+        <v>13</v>
+      </c>
+      <c r="K663" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L663" t="n">
+        <v>-1100</v>
+      </c>
+      <c r="M663" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B664" t="n">
+        <v>565</v>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>SanAntonio</t>
+        </is>
+      </c>
+      <c r="E664" t="n">
+        <v>32</v>
+      </c>
+      <c r="F664" t="n">
+        <v>36</v>
+      </c>
+      <c r="G664" t="n">
+        <v>16</v>
+      </c>
+      <c r="H664" t="n">
+        <v>30</v>
+      </c>
+      <c r="I664" t="n">
+        <v>114</v>
+      </c>
+      <c r="J664" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="K664" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="L664" t="n">
+        <v>195</v>
+      </c>
+      <c r="M664" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B665" t="n">
+        <v>566</v>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E665" t="n">
+        <v>22</v>
+      </c>
+      <c r="F665" t="n">
+        <v>25</v>
+      </c>
+      <c r="G665" t="n">
+        <v>18</v>
+      </c>
+      <c r="H665" t="n">
+        <v>18</v>
+      </c>
+      <c r="I665" t="n">
+        <v>83</v>
+      </c>
+      <c r="J665" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K665" t="n">
+        <v>5</v>
+      </c>
+      <c r="L665" t="n">
+        <v>-230</v>
+      </c>
+      <c r="M665" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B666" t="n">
+        <v>501</v>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E666" t="n">
+        <v>32</v>
+      </c>
+      <c r="F666" t="n">
+        <v>30</v>
+      </c>
+      <c r="G666" t="n">
+        <v>30</v>
+      </c>
+      <c r="H666" t="n">
+        <v>21</v>
+      </c>
+      <c r="I666" t="n">
+        <v>113</v>
+      </c>
+      <c r="J666" t="n">
+        <v>208</v>
+      </c>
+      <c r="K666" t="n">
+        <v>206</v>
+      </c>
+      <c r="L666" t="n">
+        <v>190</v>
+      </c>
+      <c r="M666" t="n">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B667" t="n">
+        <v>502</v>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E667" t="n">
+        <v>25</v>
+      </c>
+      <c r="F667" t="n">
+        <v>30</v>
+      </c>
+      <c r="G667" t="n">
+        <v>26</v>
+      </c>
+      <c r="H667" t="n">
+        <v>23</v>
+      </c>
+      <c r="I667" t="n">
+        <v>104</v>
+      </c>
+      <c r="J667" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K667" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L667" t="n">
+        <v>-220</v>
+      </c>
+      <c r="M667" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B668" t="n">
+        <v>503</v>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E668" t="n">
+        <v>34</v>
+      </c>
+      <c r="F668" t="n">
+        <v>31</v>
+      </c>
+      <c r="G668" t="n">
+        <v>34</v>
+      </c>
+      <c r="H668" t="n">
+        <v>17</v>
+      </c>
+      <c r="I668" t="n">
+        <v>116</v>
+      </c>
+      <c r="J668" t="n">
+        <v>209</v>
+      </c>
+      <c r="K668" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="L668" t="n">
+        <v>130</v>
+      </c>
+      <c r="M668" t="n">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B669" t="n">
+        <v>504</v>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E669" t="n">
+        <v>29</v>
+      </c>
+      <c r="F669" t="n">
+        <v>17</v>
+      </c>
+      <c r="G669" t="n">
+        <v>26</v>
+      </c>
+      <c r="H669" t="n">
+        <v>29</v>
+      </c>
+      <c r="I669" t="n">
+        <v>101</v>
+      </c>
+      <c r="J669" t="n">
+        <v>3</v>
+      </c>
+      <c r="K669" t="n">
+        <v>3</v>
+      </c>
+      <c r="L669" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M669" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B670" t="n">
+        <v>505</v>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E670" t="n">
+        <v>31</v>
+      </c>
+      <c r="F670" t="n">
+        <v>13</v>
+      </c>
+      <c r="G670" t="n">
+        <v>34</v>
+      </c>
+      <c r="H670" t="n">
+        <v>20</v>
+      </c>
+      <c r="I670" t="n">
+        <v>98</v>
+      </c>
+      <c r="J670" t="n">
+        <v>213</v>
+      </c>
+      <c r="K670" t="n">
+        <v>216</v>
+      </c>
+      <c r="L670" t="n">
+        <v>120</v>
+      </c>
+      <c r="M670" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B671" t="n">
+        <v>506</v>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E671" t="n">
+        <v>22</v>
+      </c>
+      <c r="F671" t="n">
+        <v>30</v>
+      </c>
+      <c r="G671" t="n">
+        <v>35</v>
+      </c>
+      <c r="H671" t="n">
+        <v>9</v>
+      </c>
+      <c r="I671" t="n">
+        <v>96</v>
+      </c>
+      <c r="J671" t="n">
+        <v>3</v>
+      </c>
+      <c r="K671" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L671" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M671" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B672" t="n">
+        <v>507</v>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E672" t="n">
+        <v>34</v>
+      </c>
+      <c r="F672" t="n">
+        <v>21</v>
+      </c>
+      <c r="G672" t="n">
+        <v>30</v>
+      </c>
+      <c r="H672" t="n">
+        <v>20</v>
+      </c>
+      <c r="I672" t="n">
+        <v>105</v>
+      </c>
+      <c r="J672" t="n">
+        <v>219</v>
+      </c>
+      <c r="K672" t="n">
+        <v>219</v>
+      </c>
+      <c r="L672" t="n">
+        <v>340</v>
+      </c>
+      <c r="M672" t="n">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B673" t="n">
+        <v>508</v>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E673" t="n">
+        <v>27</v>
+      </c>
+      <c r="F673" t="n">
+        <v>32</v>
+      </c>
+      <c r="G673" t="n">
+        <v>27</v>
+      </c>
+      <c r="H673" t="n">
+        <v>24</v>
+      </c>
+      <c r="I673" t="n">
+        <v>110</v>
+      </c>
+      <c r="J673" t="n">
+        <v>8</v>
+      </c>
+      <c r="K673" t="n">
+        <v>9</v>
+      </c>
+      <c r="L673" t="n">
+        <v>-410</v>
+      </c>
+      <c r="M673" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B674" t="n">
+        <v>509</v>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E674" t="n">
+        <v>24</v>
+      </c>
+      <c r="F674" t="n">
+        <v>32</v>
+      </c>
+      <c r="G674" t="n">
+        <v>27</v>
+      </c>
+      <c r="H674" t="n">
+        <v>33</v>
+      </c>
+      <c r="I674" t="n">
+        <v>116</v>
+      </c>
+      <c r="J674" t="n">
+        <v>216</v>
+      </c>
+      <c r="K674" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="L674" t="n">
+        <v>130</v>
+      </c>
+      <c r="M674" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B675" t="n">
+        <v>510</v>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E675" t="n">
+        <v>31</v>
+      </c>
+      <c r="F675" t="n">
+        <v>23</v>
+      </c>
+      <c r="G675" t="n">
+        <v>30</v>
+      </c>
+      <c r="H675" t="n">
+        <v>34</v>
+      </c>
+      <c r="I675" t="n">
+        <v>118</v>
+      </c>
+      <c r="J675" t="n">
+        <v>3</v>
+      </c>
+      <c r="K675" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L675" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M675" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B676" t="n">
+        <v>511</v>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E676" t="n">
+        <v>14</v>
+      </c>
+      <c r="F676" t="n">
+        <v>30</v>
+      </c>
+      <c r="G676" t="n">
+        <v>35</v>
+      </c>
+      <c r="H676" t="n">
+        <v>28</v>
+      </c>
+      <c r="I676" t="n">
+        <v>107</v>
+      </c>
+      <c r="J676" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="K676" t="n">
+        <v>215</v>
+      </c>
+      <c r="L676" t="n">
+        <v>250</v>
+      </c>
+      <c r="M676" t="n">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B677" t="n">
+        <v>512</v>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E677" t="n">
+        <v>19</v>
+      </c>
+      <c r="F677" t="n">
+        <v>29</v>
+      </c>
+      <c r="G677" t="n">
+        <v>20</v>
+      </c>
+      <c r="H677" t="n">
+        <v>23</v>
+      </c>
+      <c r="I677" t="n">
+        <v>91</v>
+      </c>
+      <c r="J677" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K677" t="n">
+        <v>7</v>
+      </c>
+      <c r="L677" t="n">
+        <v>-300</v>
+      </c>
+      <c r="M677" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B678" t="n">
+        <v>513</v>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E678" t="n">
+        <v>25</v>
+      </c>
+      <c r="F678" t="n">
+        <v>31</v>
+      </c>
+      <c r="G678" t="n">
+        <v>41</v>
+      </c>
+      <c r="H678" t="n">
+        <v>33</v>
+      </c>
+      <c r="I678" t="n">
+        <v>130</v>
+      </c>
+      <c r="J678" t="n">
+        <v>213</v>
+      </c>
+      <c r="K678" t="n">
+        <v>209.5</v>
+      </c>
+      <c r="L678" t="n">
+        <v>290</v>
+      </c>
+      <c r="M678" t="n">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B679" t="n">
+        <v>514</v>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E679" t="n">
+        <v>38</v>
+      </c>
+      <c r="F679" t="n">
+        <v>21</v>
+      </c>
+      <c r="G679" t="n">
+        <v>41</v>
+      </c>
+      <c r="H679" t="n">
+        <v>37</v>
+      </c>
+      <c r="I679" t="n">
+        <v>137</v>
+      </c>
+      <c r="J679" t="n">
+        <v>9</v>
+      </c>
+      <c r="K679" t="n">
+        <v>8</v>
+      </c>
+      <c r="L679" t="n">
+        <v>-350</v>
+      </c>
+      <c r="M679" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B680" t="n">
+        <v>515</v>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E680" t="n">
+        <v>21</v>
+      </c>
+      <c r="F680" t="n">
+        <v>27</v>
+      </c>
+      <c r="G680" t="n">
+        <v>20</v>
+      </c>
+      <c r="H680" t="n">
+        <v>28</v>
+      </c>
+      <c r="I680" t="n">
+        <v>96</v>
+      </c>
+      <c r="J680" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="K680" t="n">
+        <v>215</v>
+      </c>
+      <c r="L680" t="n">
+        <v>250</v>
+      </c>
+      <c r="M680" t="n">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B681" t="n">
+        <v>516</v>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E681" t="n">
+        <v>28</v>
+      </c>
+      <c r="F681" t="n">
+        <v>23</v>
+      </c>
+      <c r="G681" t="n">
+        <v>29</v>
+      </c>
+      <c r="H681" t="n">
+        <v>38</v>
+      </c>
+      <c r="I681" t="n">
+        <v>118</v>
+      </c>
+      <c r="J681" t="n">
+        <v>7</v>
+      </c>
+      <c r="K681" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L681" t="n">
+        <v>-300</v>
+      </c>
+      <c r="M681" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B682" t="n">
+        <v>517</v>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E682" t="n">
+        <v>23</v>
+      </c>
+      <c r="F682" t="n">
+        <v>30</v>
+      </c>
+      <c r="G682" t="n">
+        <v>34</v>
+      </c>
+      <c r="H682" t="n">
+        <v>32</v>
+      </c>
+      <c r="I682" t="n">
+        <v>119</v>
+      </c>
+      <c r="J682" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K682" t="n">
+        <v>219</v>
+      </c>
+      <c r="L682" t="n">
+        <v>115</v>
+      </c>
+      <c r="M682" t="n">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B683" t="n">
+        <v>518</v>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>LALakers</t>
+        </is>
+      </c>
+      <c r="E683" t="n">
+        <v>22</v>
+      </c>
+      <c r="F683" t="n">
+        <v>28</v>
+      </c>
+      <c r="G683" t="n">
+        <v>29</v>
+      </c>
+      <c r="H683" t="n">
+        <v>36</v>
+      </c>
+      <c r="I683" t="n">
+        <v>115</v>
+      </c>
+      <c r="J683" t="n">
+        <v>217</v>
+      </c>
+      <c r="K683" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L683" t="n">
+        <v>-135</v>
+      </c>
+      <c r="M683" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B684" t="n">
+        <v>519</v>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E684" t="n">
+        <v>30</v>
+      </c>
+      <c r="F684" t="n">
+        <v>30</v>
+      </c>
+      <c r="G684" t="n">
+        <v>32</v>
+      </c>
+      <c r="H684" t="n">
+        <v>21</v>
+      </c>
+      <c r="I684" t="n">
+        <v>113</v>
+      </c>
+      <c r="J684" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="K684" t="n">
+        <v>209</v>
+      </c>
+      <c r="L684" t="n">
+        <v>120</v>
+      </c>
+      <c r="M684" t="n">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B685" t="n">
+        <v>520</v>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>NewYork</t>
+        </is>
+      </c>
+      <c r="E685" t="n">
+        <v>25</v>
+      </c>
+      <c r="F685" t="n">
+        <v>24</v>
+      </c>
+      <c r="G685" t="n">
+        <v>22</v>
+      </c>
+      <c r="H685" t="n">
+        <v>28</v>
+      </c>
+      <c r="I685" t="n">
+        <v>99</v>
+      </c>
+      <c r="J685" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K685" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L685" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M685" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B686" t="n">
+        <v>521</v>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E686" t="n">
+        <v>28</v>
+      </c>
+      <c r="F686" t="n">
+        <v>24</v>
+      </c>
+      <c r="G686" t="n">
+        <v>27</v>
+      </c>
+      <c r="H686" t="n">
+        <v>32</v>
+      </c>
+      <c r="I686" t="n">
+        <v>111</v>
+      </c>
+      <c r="J686" t="n">
+        <v>220</v>
+      </c>
+      <c r="K686" t="n">
+        <v>222</v>
+      </c>
+      <c r="L686" t="n">
+        <v>120</v>
+      </c>
+      <c r="M686" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B687" t="n">
+        <v>522</v>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E687" t="n">
+        <v>34</v>
+      </c>
+      <c r="F687" t="n">
+        <v>22</v>
+      </c>
+      <c r="G687" t="n">
+        <v>26</v>
+      </c>
+      <c r="H687" t="n">
+        <v>25</v>
+      </c>
+      <c r="I687" t="n">
+        <v>107</v>
+      </c>
+      <c r="J687" t="n">
+        <v>3</v>
+      </c>
+      <c r="K687" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L687" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M687" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B688" t="n">
+        <v>523</v>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E688" t="n">
+        <v>23</v>
+      </c>
+      <c r="F688" t="n">
+        <v>29</v>
+      </c>
+      <c r="G688" t="n">
+        <v>24</v>
+      </c>
+      <c r="H688" t="n">
+        <v>26</v>
+      </c>
+      <c r="I688" t="n">
+        <v>102</v>
+      </c>
+      <c r="J688" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="K688" t="n">
+        <v>211</v>
+      </c>
+      <c r="L688" t="n">
+        <v>220</v>
+      </c>
+      <c r="M688" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B689" t="n">
+        <v>524</v>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E689" t="n">
+        <v>34</v>
+      </c>
+      <c r="F689" t="n">
+        <v>35</v>
+      </c>
+      <c r="G689" t="n">
+        <v>36</v>
+      </c>
+      <c r="H689" t="n">
+        <v>19</v>
+      </c>
+      <c r="I689" t="n">
+        <v>124</v>
+      </c>
+      <c r="J689" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K689" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L689" t="n">
+        <v>-260</v>
+      </c>
+      <c r="M689" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B690" t="n">
+        <v>525</v>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E690" t="n">
+        <v>22</v>
+      </c>
+      <c r="F690" t="n">
+        <v>27</v>
+      </c>
+      <c r="G690" t="n">
+        <v>23</v>
+      </c>
+      <c r="H690" t="n">
+        <v>25</v>
+      </c>
+      <c r="I690" t="n">
+        <v>97</v>
+      </c>
+      <c r="J690" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="K690" t="n">
+        <v>215</v>
+      </c>
+      <c r="L690" t="n">
+        <v>-110</v>
+      </c>
+      <c r="M690" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B691" t="n">
+        <v>526</v>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E691" t="n">
+        <v>18</v>
+      </c>
+      <c r="F691" t="n">
+        <v>19</v>
+      </c>
+      <c r="G691" t="n">
+        <v>21</v>
+      </c>
+      <c r="H691" t="n">
+        <v>32</v>
+      </c>
+      <c r="I691" t="n">
+        <v>90</v>
+      </c>
+      <c r="J691" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="L691" t="n">
+        <v>-110</v>
+      </c>
+      <c r="M691" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B692" t="n">
+        <v>527</v>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>SanAntonio</t>
+        </is>
+      </c>
+      <c r="E692" t="n">
+        <v>36</v>
+      </c>
+      <c r="F692" t="n">
+        <v>31</v>
+      </c>
+      <c r="G692" t="n">
+        <v>32</v>
+      </c>
+      <c r="H692" t="n">
+        <v>13</v>
+      </c>
+      <c r="I692" t="n">
+        <v>112</v>
+      </c>
+      <c r="J692" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="K692" t="n">
+        <v>219</v>
+      </c>
+      <c r="L692" t="n">
+        <v>330</v>
+      </c>
+      <c r="M692" t="n">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B693" t="n">
+        <v>528</v>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E693" t="n">
+        <v>21</v>
+      </c>
+      <c r="F693" t="n">
+        <v>37</v>
+      </c>
+      <c r="G693" t="n">
+        <v>30</v>
+      </c>
+      <c r="H693" t="n">
+        <v>19</v>
+      </c>
+      <c r="I693" t="n">
+        <v>107</v>
+      </c>
+      <c r="J693" t="n">
+        <v>10</v>
+      </c>
+      <c r="K693" t="n">
+        <v>9</v>
+      </c>
+      <c r="L693" t="n">
+        <v>-400</v>
+      </c>
+      <c r="M693" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B694" t="n">
+        <v>529</v>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E694" t="n">
+        <v>38</v>
+      </c>
+      <c r="F694" t="n">
+        <v>26</v>
+      </c>
+      <c r="G694" t="n">
+        <v>39</v>
+      </c>
+      <c r="H694" t="n">
+        <v>42</v>
+      </c>
+      <c r="I694" t="n">
+        <v>145</v>
+      </c>
+      <c r="J694" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K694" t="n">
+        <v>211</v>
+      </c>
+      <c r="L694" t="n">
+        <v>-105</v>
+      </c>
+      <c r="M694" t="n">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B695" t="n">
+        <v>530</v>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E695" t="n">
+        <v>23</v>
+      </c>
+      <c r="F695" t="n">
+        <v>35</v>
+      </c>
+      <c r="G695" t="n">
+        <v>26</v>
+      </c>
+      <c r="H695" t="n">
+        <v>33</v>
+      </c>
+      <c r="I695" t="n">
+        <v>117</v>
+      </c>
+      <c r="J695" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K695" t="n">
+        <v>1</v>
+      </c>
+      <c r="L695" t="n">
+        <v>-115</v>
+      </c>
+      <c r="M695" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B696" t="n">
+        <v>531</v>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E696" t="n">
+        <v>29</v>
+      </c>
+      <c r="F696" t="n">
+        <v>16</v>
+      </c>
+      <c r="G696" t="n">
+        <v>25</v>
+      </c>
+      <c r="H696" t="n">
+        <v>29</v>
+      </c>
+      <c r="I696" t="n">
+        <v>99</v>
+      </c>
+      <c r="J696" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K696" t="n">
+        <v>2</v>
+      </c>
+      <c r="L696" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M696" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B697" t="n">
+        <v>532</v>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E697" t="n">
+        <v>29</v>
+      </c>
+      <c r="F697" t="n">
+        <v>21</v>
+      </c>
+      <c r="G697" t="n">
+        <v>26</v>
+      </c>
+      <c r="H697" t="n">
+        <v>28</v>
+      </c>
+      <c r="I697" t="n">
+        <v>104</v>
+      </c>
+      <c r="J697" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="K697" t="n">
+        <v>219</v>
+      </c>
+      <c r="L697" t="n">
+        <v>105</v>
+      </c>
+      <c r="M697" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B698" t="n">
+        <v>533</v>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E698" t="n">
+        <v>32</v>
+      </c>
+      <c r="F698" t="n">
+        <v>28</v>
+      </c>
+      <c r="G698" t="n">
+        <v>31</v>
+      </c>
+      <c r="H698" t="n">
+        <v>18</v>
+      </c>
+      <c r="I698" t="n">
+        <v>109</v>
+      </c>
+      <c r="J698" t="n">
+        <v>6</v>
+      </c>
+      <c r="K698" t="n">
+        <v>5</v>
+      </c>
+      <c r="L698" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M698" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B699" t="n">
+        <v>534</v>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E699" t="n">
+        <v>29</v>
+      </c>
+      <c r="F699" t="n">
+        <v>26</v>
+      </c>
+      <c r="G699" t="n">
+        <v>27</v>
+      </c>
+      <c r="H699" t="n">
+        <v>26</v>
+      </c>
+      <c r="I699" t="n">
+        <v>108</v>
+      </c>
+      <c r="J699" t="n">
+        <v>210</v>
+      </c>
+      <c r="K699" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="L699" t="n">
+        <v>175</v>
+      </c>
+      <c r="M699" t="n">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B700" t="n">
+        <v>535</v>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E700" t="n">
+        <v>12</v>
+      </c>
+      <c r="F700" t="n">
+        <v>30</v>
+      </c>
+      <c r="G700" t="n">
+        <v>26</v>
+      </c>
+      <c r="H700" t="n">
+        <v>22</v>
+      </c>
+      <c r="I700" t="n">
+        <v>90</v>
+      </c>
+      <c r="J700" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="K700" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="L700" t="n">
+        <v>100</v>
+      </c>
+      <c r="M700" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B701" t="n">
+        <v>536</v>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E701" t="n">
+        <v>23</v>
+      </c>
+      <c r="F701" t="n">
+        <v>40</v>
+      </c>
+      <c r="G701" t="n">
+        <v>21</v>
+      </c>
+      <c r="H701" t="n">
+        <v>18</v>
+      </c>
+      <c r="I701" t="n">
+        <v>102</v>
+      </c>
+      <c r="J701" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K701" t="n">
+        <v>1</v>
+      </c>
+      <c r="L701" t="n">
+        <v>-120</v>
+      </c>
+      <c r="M701" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B702" t="n">
+        <v>537</v>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E702" t="n">
+        <v>30</v>
+      </c>
+      <c r="F702" t="n">
+        <v>38</v>
+      </c>
+      <c r="G702" t="n">
+        <v>31</v>
+      </c>
+      <c r="H702" t="n">
+        <v>31</v>
+      </c>
+      <c r="I702" t="n">
+        <v>130</v>
+      </c>
+      <c r="J702" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="K702" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="L702" t="n">
+        <v>270</v>
+      </c>
+      <c r="M702" t="n">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B703" t="n">
+        <v>538</v>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E703" t="n">
+        <v>30</v>
+      </c>
+      <c r="F703" t="n">
+        <v>31</v>
+      </c>
+      <c r="G703" t="n">
+        <v>31</v>
+      </c>
+      <c r="H703" t="n">
+        <v>35</v>
+      </c>
+      <c r="I703" t="n">
+        <v>127</v>
+      </c>
+      <c r="J703" t="n">
+        <v>7</v>
+      </c>
+      <c r="K703" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L703" t="n">
+        <v>-330</v>
+      </c>
+      <c r="M703" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B704" t="n">
+        <v>539</v>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E704" t="n">
+        <v>26</v>
+      </c>
+      <c r="F704" t="n">
+        <v>23</v>
+      </c>
+      <c r="G704" t="n">
+        <v>36</v>
+      </c>
+      <c r="H704" t="n">
+        <v>23</v>
+      </c>
+      <c r="I704" t="n">
+        <v>108</v>
+      </c>
+      <c r="J704" t="n">
+        <v>3</v>
+      </c>
+      <c r="K704" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L704" t="n">
+        <v>-145</v>
+      </c>
+      <c r="M704" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B705" t="n">
+        <v>540</v>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E705" t="n">
+        <v>28</v>
+      </c>
+      <c r="F705" t="n">
+        <v>29</v>
+      </c>
+      <c r="G705" t="n">
+        <v>37</v>
+      </c>
+      <c r="H705" t="n">
+        <v>24</v>
+      </c>
+      <c r="I705" t="n">
+        <v>118</v>
+      </c>
+      <c r="J705" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="K705" t="n">
+        <v>222</v>
+      </c>
+      <c r="L705" t="n">
+        <v>125</v>
+      </c>
+      <c r="M705" t="n">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B706" t="n">
+        <v>541</v>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E706" t="n">
+        <v>23</v>
+      </c>
+      <c r="F706" t="n">
+        <v>44</v>
+      </c>
+      <c r="G706" t="n">
+        <v>28</v>
+      </c>
+      <c r="H706" t="n">
+        <v>24</v>
+      </c>
+      <c r="I706" t="n">
+        <v>127</v>
+      </c>
+      <c r="J706" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="K706" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L706" t="n">
+        <v>-300</v>
+      </c>
+      <c r="M706" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B707" t="n">
+        <v>542</v>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E707" t="n">
+        <v>34</v>
+      </c>
+      <c r="F707" t="n">
+        <v>28</v>
+      </c>
+      <c r="G707" t="n">
+        <v>31</v>
+      </c>
+      <c r="H707" t="n">
+        <v>26</v>
+      </c>
+      <c r="I707" t="n">
+        <v>124</v>
+      </c>
+      <c r="J707" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K707" t="n">
+        <v>214</v>
+      </c>
+      <c r="L707" t="n">
+        <v>250</v>
+      </c>
+      <c r="M707" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B708" t="n">
+        <v>543</v>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>OklahomaCity</t>
+        </is>
+      </c>
+      <c r="E708" t="n">
+        <v>28</v>
+      </c>
+      <c r="F708" t="n">
+        <v>22</v>
+      </c>
+      <c r="G708" t="n">
+        <v>22</v>
+      </c>
+      <c r="H708" t="n">
+        <v>42</v>
+      </c>
+      <c r="I708" t="n">
+        <v>114</v>
+      </c>
+      <c r="J708" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="K708" t="n">
+        <v>205</v>
+      </c>
+      <c r="L708" t="n">
+        <v>135</v>
+      </c>
+      <c r="M708" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B709" t="n">
+        <v>544</v>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E709" t="n">
+        <v>37</v>
+      </c>
+      <c r="F709" t="n">
+        <v>26</v>
+      </c>
+      <c r="G709" t="n">
+        <v>18</v>
+      </c>
+      <c r="H709" t="n">
+        <v>22</v>
+      </c>
+      <c r="I709" t="n">
+        <v>103</v>
+      </c>
+      <c r="J709" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K709" t="n">
+        <v>3</v>
+      </c>
+      <c r="L709" t="n">
+        <v>-155</v>
+      </c>
+      <c r="M709" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B710" t="n">
+        <v>545</v>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E710" t="n">
+        <v>18</v>
+      </c>
+      <c r="F710" t="n">
+        <v>29</v>
+      </c>
+      <c r="G710" t="n">
+        <v>31</v>
+      </c>
+      <c r="H710" t="n">
+        <v>32</v>
+      </c>
+      <c r="I710" t="n">
+        <v>110</v>
+      </c>
+      <c r="J710" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="K710" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="L710" t="n">
+        <v>190</v>
+      </c>
+      <c r="M710" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B711" t="n">
+        <v>546</v>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E711" t="n">
+        <v>28</v>
+      </c>
+      <c r="F711" t="n">
+        <v>30</v>
+      </c>
+      <c r="G711" t="n">
+        <v>30</v>
+      </c>
+      <c r="H711" t="n">
+        <v>28</v>
+      </c>
+      <c r="I711" t="n">
+        <v>116</v>
+      </c>
+      <c r="J711" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K711" t="n">
+        <v>6</v>
+      </c>
+      <c r="L711" t="n">
+        <v>-220</v>
+      </c>
+      <c r="M711" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B712" t="n">
+        <v>547</v>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E712" t="n">
+        <v>34</v>
+      </c>
+      <c r="F712" t="n">
+        <v>26</v>
+      </c>
+      <c r="G712" t="n">
+        <v>22</v>
+      </c>
+      <c r="H712" t="n">
+        <v>23</v>
+      </c>
+      <c r="I712" t="n">
+        <v>105</v>
+      </c>
+      <c r="J712" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="K712" t="n">
+        <v>213</v>
+      </c>
+      <c r="L712" t="n">
+        <v>185</v>
+      </c>
+      <c r="M712" t="n">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B713" t="n">
+        <v>548</v>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E713" t="n">
+        <v>25</v>
+      </c>
+      <c r="F713" t="n">
+        <v>24</v>
+      </c>
+      <c r="G713" t="n">
+        <v>18</v>
+      </c>
+      <c r="H713" t="n">
+        <v>23</v>
+      </c>
+      <c r="I713" t="n">
+        <v>90</v>
+      </c>
+      <c r="J713" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K713" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L713" t="n">
+        <v>-215</v>
+      </c>
+      <c r="M713" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B714" t="n">
+        <v>549</v>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E714" t="n">
+        <v>27</v>
+      </c>
+      <c r="F714" t="n">
+        <v>22</v>
+      </c>
+      <c r="G714" t="n">
+        <v>22</v>
+      </c>
+      <c r="H714" t="n">
+        <v>26</v>
+      </c>
+      <c r="I714" t="n">
+        <v>97</v>
+      </c>
+      <c r="J714" t="n">
+        <v>214</v>
+      </c>
+      <c r="K714" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="L714" t="n">
+        <v>115</v>
+      </c>
+      <c r="M714" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B715" t="n">
+        <v>550</v>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E715" t="n">
+        <v>18</v>
+      </c>
+      <c r="F715" t="n">
+        <v>28</v>
+      </c>
+      <c r="G715" t="n">
+        <v>31</v>
+      </c>
+      <c r="H715" t="n">
+        <v>32</v>
+      </c>
+      <c r="I715" t="n">
+        <v>109</v>
+      </c>
+      <c r="J715" t="n">
+        <v>5</v>
+      </c>
+      <c r="K715" t="n">
+        <v>2</v>
+      </c>
+      <c r="L715" t="n">
+        <v>-135</v>
+      </c>
+      <c r="M715" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B716" t="n">
+        <v>551</v>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E716" t="n">
+        <v>33</v>
+      </c>
+      <c r="F716" t="n">
+        <v>28</v>
+      </c>
+      <c r="G716" t="n">
+        <v>35</v>
+      </c>
+      <c r="H716" t="n">
+        <v>25</v>
+      </c>
+      <c r="I716" t="n">
+        <v>121</v>
+      </c>
+      <c r="J716" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="K716" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="L716" t="n">
+        <v>110</v>
+      </c>
+      <c r="M716" t="n">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B717" t="n">
+        <v>552</v>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E717" t="n">
+        <v>24</v>
+      </c>
+      <c r="F717" t="n">
+        <v>24</v>
+      </c>
+      <c r="G717" t="n">
+        <v>30</v>
+      </c>
+      <c r="H717" t="n">
+        <v>32</v>
+      </c>
+      <c r="I717" t="n">
+        <v>110</v>
+      </c>
+      <c r="J717" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K717" t="n">
+        <v>2</v>
+      </c>
+      <c r="L717" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M717" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B718" t="n">
+        <v>553</v>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E718" t="n">
+        <v>24</v>
+      </c>
+      <c r="F718" t="n">
+        <v>26</v>
+      </c>
+      <c r="G718" t="n">
+        <v>28</v>
+      </c>
+      <c r="H718" t="n">
+        <v>26</v>
+      </c>
+      <c r="I718" t="n">
+        <v>104</v>
+      </c>
+      <c r="J718" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="K718" t="n">
+        <v>215</v>
+      </c>
+      <c r="L718" t="n">
+        <v>300</v>
+      </c>
+      <c r="M718" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B719" t="n">
+        <v>554</v>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E719" t="n">
+        <v>24</v>
+      </c>
+      <c r="F719" t="n">
+        <v>32</v>
+      </c>
+      <c r="G719" t="n">
+        <v>32</v>
+      </c>
+      <c r="H719" t="n">
+        <v>24</v>
+      </c>
+      <c r="I719" t="n">
+        <v>112</v>
+      </c>
+      <c r="J719" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K719" t="n">
+        <v>9</v>
+      </c>
+      <c r="L719" t="n">
+        <v>-360</v>
+      </c>
+      <c r="M719" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B720" t="n">
+        <v>555</v>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>SanAntonio</t>
+        </is>
+      </c>
+      <c r="E720" t="n">
+        <v>33</v>
+      </c>
+      <c r="F720" t="n">
+        <v>15</v>
+      </c>
+      <c r="G720" t="n">
+        <v>22</v>
+      </c>
+      <c r="H720" t="n">
+        <v>34</v>
+      </c>
+      <c r="I720" t="n">
+        <v>104</v>
+      </c>
+      <c r="J720" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="K720" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="L720" t="n">
+        <v>250</v>
+      </c>
+      <c r="M720" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B721" t="n">
+        <v>556</v>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E721" t="n">
+        <v>26</v>
+      </c>
+      <c r="F721" t="n">
+        <v>25</v>
+      </c>
+      <c r="G721" t="n">
+        <v>28</v>
+      </c>
+      <c r="H721" t="n">
+        <v>29</v>
+      </c>
+      <c r="I721" t="n">
+        <v>108</v>
+      </c>
+      <c r="J721" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K721" t="n">
+        <v>7</v>
+      </c>
+      <c r="L721" t="n">
+        <v>-300</v>
+      </c>
+      <c r="M721" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B722" t="n">
+        <v>557</v>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E722" t="n">
+        <v>27</v>
+      </c>
+      <c r="F722" t="n">
+        <v>21</v>
+      </c>
+      <c r="G722" t="n">
+        <v>29</v>
+      </c>
+      <c r="H722" t="n">
+        <v>25</v>
+      </c>
+      <c r="I722" t="n">
+        <v>102</v>
+      </c>
+      <c r="J722" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K722" t="n">
+        <v>5</v>
+      </c>
+      <c r="L722" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M722" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B723" t="n">
+        <v>558</v>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E723" t="n">
+        <v>26</v>
+      </c>
+      <c r="F723" t="n">
+        <v>23</v>
+      </c>
+      <c r="G723" t="n">
+        <v>25</v>
+      </c>
+      <c r="H723" t="n">
+        <v>16</v>
+      </c>
+      <c r="I723" t="n">
+        <v>90</v>
+      </c>
+      <c r="J723" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="K723" t="n">
+        <v>213</v>
+      </c>
+      <c r="L723" t="n">
+        <v>175</v>
+      </c>
+      <c r="M723" t="n">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B724" t="n">
+        <v>559</v>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E724" t="n">
+        <v>26</v>
+      </c>
+      <c r="F724" t="n">
+        <v>18</v>
+      </c>
+      <c r="G724" t="n">
+        <v>35</v>
+      </c>
+      <c r="H724" t="n">
+        <v>16</v>
+      </c>
+      <c r="I724" t="n">
+        <v>95</v>
+      </c>
+      <c r="J724" t="n">
+        <v>216</v>
+      </c>
+      <c r="K724" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="L724" t="n">
+        <v>950</v>
+      </c>
+      <c r="M724" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B725" t="n">
+        <v>560</v>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E725" t="n">
+        <v>31</v>
+      </c>
+      <c r="F725" t="n">
+        <v>34</v>
+      </c>
+      <c r="G725" t="n">
+        <v>33</v>
+      </c>
+      <c r="H725" t="n">
+        <v>28</v>
+      </c>
+      <c r="I725" t="n">
+        <v>126</v>
+      </c>
+      <c r="J725" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K725" t="n">
+        <v>16</v>
+      </c>
+      <c r="L725" t="n">
+        <v>-1800</v>
+      </c>
+      <c r="M725" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/Odds/NBA/NBA odds 2021-22.xlsx
+++ b/Data/Odds/NBA/NBA odds 2021-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M725"/>
+  <dimension ref="A1:M825"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33132,6 +33132,4512 @@
         <v>3</v>
       </c>
     </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>1207</v>
+      </c>
+      <c r="B726" t="n">
+        <v>561</v>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E726" t="n">
+        <v>21</v>
+      </c>
+      <c r="F726" t="n">
+        <v>29</v>
+      </c>
+      <c r="G726" t="n">
+        <v>25</v>
+      </c>
+      <c r="H726" t="n">
+        <v>27</v>
+      </c>
+      <c r="I726" t="n">
+        <v>102</v>
+      </c>
+      <c r="J726" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K726" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L726" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M726" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>1207</v>
+      </c>
+      <c r="B727" t="n">
+        <v>562</v>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E727" t="n">
+        <v>27</v>
+      </c>
+      <c r="F727" t="n">
+        <v>35</v>
+      </c>
+      <c r="G727" t="n">
+        <v>24</v>
+      </c>
+      <c r="H727" t="n">
+        <v>13</v>
+      </c>
+      <c r="I727" t="n">
+        <v>99</v>
+      </c>
+      <c r="J727" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="K727" t="n">
+        <v>221</v>
+      </c>
+      <c r="L727" t="n">
+        <v>105</v>
+      </c>
+      <c r="M727" t="n">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>1207</v>
+      </c>
+      <c r="B728" t="n">
+        <v>563</v>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E728" t="n">
+        <v>28</v>
+      </c>
+      <c r="F728" t="n">
+        <v>34</v>
+      </c>
+      <c r="G728" t="n">
+        <v>33</v>
+      </c>
+      <c r="H728" t="n">
+        <v>26</v>
+      </c>
+      <c r="I728" t="n">
+        <v>121</v>
+      </c>
+      <c r="J728" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K728" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L728" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M728" t="n">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>1207</v>
+      </c>
+      <c r="B729" t="n">
+        <v>564</v>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="E729" t="n">
+        <v>28</v>
+      </c>
+      <c r="F729" t="n">
+        <v>28</v>
+      </c>
+      <c r="G729" t="n">
+        <v>25</v>
+      </c>
+      <c r="H729" t="n">
+        <v>28</v>
+      </c>
+      <c r="I729" t="n">
+        <v>109</v>
+      </c>
+      <c r="J729" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="K729" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="L729" t="n">
+        <v>105</v>
+      </c>
+      <c r="M729" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>1207</v>
+      </c>
+      <c r="B730" t="n">
+        <v>565</v>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E730" t="n">
+        <v>33</v>
+      </c>
+      <c r="F730" t="n">
+        <v>22</v>
+      </c>
+      <c r="G730" t="n">
+        <v>20</v>
+      </c>
+      <c r="H730" t="n">
+        <v>27</v>
+      </c>
+      <c r="I730" t="n">
+        <v>102</v>
+      </c>
+      <c r="J730" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K730" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="L730" t="n">
+        <v>130</v>
+      </c>
+      <c r="M730" t="n">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>1207</v>
+      </c>
+      <c r="B731" t="n">
+        <v>566</v>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>LA Lakers</t>
+        </is>
+      </c>
+      <c r="E731" t="n">
+        <v>31</v>
+      </c>
+      <c r="F731" t="n">
+        <v>29</v>
+      </c>
+      <c r="G731" t="n">
+        <v>31</v>
+      </c>
+      <c r="H731" t="n">
+        <v>26</v>
+      </c>
+      <c r="I731" t="n">
+        <v>117</v>
+      </c>
+      <c r="J731" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K731" t="n">
+        <v>3</v>
+      </c>
+      <c r="L731" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M731" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B732" t="n">
+        <v>501</v>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E732" t="n">
+        <v>29</v>
+      </c>
+      <c r="F732" t="n">
+        <v>28</v>
+      </c>
+      <c r="G732" t="n">
+        <v>19</v>
+      </c>
+      <c r="H732" t="n">
+        <v>26</v>
+      </c>
+      <c r="I732" t="n">
+        <v>102</v>
+      </c>
+      <c r="J732" t="n">
+        <v>213</v>
+      </c>
+      <c r="K732" t="n">
+        <v>208</v>
+      </c>
+      <c r="L732" t="n">
+        <v>180</v>
+      </c>
+      <c r="M732" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B733" t="n">
+        <v>502</v>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E733" t="n">
+        <v>36</v>
+      </c>
+      <c r="F733" t="n">
+        <v>34</v>
+      </c>
+      <c r="G733" t="n">
+        <v>26</v>
+      </c>
+      <c r="H733" t="n">
+        <v>26</v>
+      </c>
+      <c r="I733" t="n">
+        <v>122</v>
+      </c>
+      <c r="J733" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K733" t="n">
+        <v>5</v>
+      </c>
+      <c r="L733" t="n">
+        <v>-210</v>
+      </c>
+      <c r="M733" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B734" t="n">
+        <v>503</v>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E734" t="n">
+        <v>24</v>
+      </c>
+      <c r="F734" t="n">
+        <v>19</v>
+      </c>
+      <c r="G734" t="n">
+        <v>23</v>
+      </c>
+      <c r="H734" t="n">
+        <v>26</v>
+      </c>
+      <c r="I734" t="n">
+        <v>92</v>
+      </c>
+      <c r="J734" t="n">
+        <v>208</v>
+      </c>
+      <c r="K734" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="L734" t="n">
+        <v>145</v>
+      </c>
+      <c r="M734" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B735" t="n">
+        <v>504</v>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E735" t="n">
+        <v>29</v>
+      </c>
+      <c r="F735" t="n">
+        <v>23</v>
+      </c>
+      <c r="G735" t="n">
+        <v>30</v>
+      </c>
+      <c r="H735" t="n">
+        <v>33</v>
+      </c>
+      <c r="I735" t="n">
+        <v>115</v>
+      </c>
+      <c r="J735" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="K735" t="n">
+        <v>3</v>
+      </c>
+      <c r="L735" t="n">
+        <v>-165</v>
+      </c>
+      <c r="M735" t="n">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B736" t="n">
+        <v>505</v>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E736" t="n">
+        <v>27</v>
+      </c>
+      <c r="F736" t="n">
+        <v>25</v>
+      </c>
+      <c r="G736" t="n">
+        <v>37</v>
+      </c>
+      <c r="H736" t="n">
+        <v>17</v>
+      </c>
+      <c r="I736" t="n">
+        <v>119</v>
+      </c>
+      <c r="J736" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K736" t="n">
+        <v>5</v>
+      </c>
+      <c r="L736" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M736" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B737" t="n">
+        <v>506</v>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E737" t="n">
+        <v>29</v>
+      </c>
+      <c r="F737" t="n">
+        <v>31</v>
+      </c>
+      <c r="G737" t="n">
+        <v>26</v>
+      </c>
+      <c r="H737" t="n">
+        <v>20</v>
+      </c>
+      <c r="I737" t="n">
+        <v>116</v>
+      </c>
+      <c r="J737" t="n">
+        <v>209.5</v>
+      </c>
+      <c r="K737" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="L737" t="n">
+        <v>175</v>
+      </c>
+      <c r="M737" t="n">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B738" t="n">
+        <v>507</v>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E738" t="n">
+        <v>26</v>
+      </c>
+      <c r="F738" t="n">
+        <v>25</v>
+      </c>
+      <c r="G738" t="n">
+        <v>31</v>
+      </c>
+      <c r="H738" t="n">
+        <v>28</v>
+      </c>
+      <c r="I738" t="n">
+        <v>110</v>
+      </c>
+      <c r="J738" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K738" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L738" t="n">
+        <v>-250</v>
+      </c>
+      <c r="M738" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B739" t="n">
+        <v>508</v>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E739" t="n">
+        <v>26</v>
+      </c>
+      <c r="F739" t="n">
+        <v>27</v>
+      </c>
+      <c r="G739" t="n">
+        <v>28</v>
+      </c>
+      <c r="H739" t="n">
+        <v>25</v>
+      </c>
+      <c r="I739" t="n">
+        <v>106</v>
+      </c>
+      <c r="J739" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K739" t="n">
+        <v>216</v>
+      </c>
+      <c r="L739" t="n">
+        <v>210</v>
+      </c>
+      <c r="M739" t="n">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B740" t="n">
+        <v>509</v>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>Oklahoma City</t>
+        </is>
+      </c>
+      <c r="E740" t="n">
+        <v>26</v>
+      </c>
+      <c r="F740" t="n">
+        <v>28</v>
+      </c>
+      <c r="G740" t="n">
+        <v>33</v>
+      </c>
+      <c r="H740" t="n">
+        <v>23</v>
+      </c>
+      <c r="I740" t="n">
+        <v>110</v>
+      </c>
+      <c r="J740" t="n">
+        <v>208</v>
+      </c>
+      <c r="K740" t="n">
+        <v>206</v>
+      </c>
+      <c r="L740" t="n">
+        <v>265</v>
+      </c>
+      <c r="M740" t="n">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B741" t="n">
+        <v>510</v>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E741" t="n">
+        <v>36</v>
+      </c>
+      <c r="F741" t="n">
+        <v>28</v>
+      </c>
+      <c r="G741" t="n">
+        <v>12</v>
+      </c>
+      <c r="H741" t="n">
+        <v>33</v>
+      </c>
+      <c r="I741" t="n">
+        <v>109</v>
+      </c>
+      <c r="J741" t="n">
+        <v>7</v>
+      </c>
+      <c r="K741" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L741" t="n">
+        <v>-320</v>
+      </c>
+      <c r="M741" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B742" t="n">
+        <v>511</v>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E742" t="n">
+        <v>26</v>
+      </c>
+      <c r="F742" t="n">
+        <v>25</v>
+      </c>
+      <c r="G742" t="n">
+        <v>26</v>
+      </c>
+      <c r="H742" t="n">
+        <v>27</v>
+      </c>
+      <c r="I742" t="n">
+        <v>104</v>
+      </c>
+      <c r="J742" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K742" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L742" t="n">
+        <v>-260</v>
+      </c>
+      <c r="M742" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B743" t="n">
+        <v>512</v>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E743" t="n">
+        <v>24</v>
+      </c>
+      <c r="F743" t="n">
+        <v>20</v>
+      </c>
+      <c r="G743" t="n">
+        <v>39</v>
+      </c>
+      <c r="H743" t="n">
+        <v>30</v>
+      </c>
+      <c r="I743" t="n">
+        <v>113</v>
+      </c>
+      <c r="J743" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="K743" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="L743" t="n">
+        <v>220</v>
+      </c>
+      <c r="M743" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B744" t="n">
+        <v>513</v>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E744" t="n">
+        <v>23</v>
+      </c>
+      <c r="F744" t="n">
+        <v>29</v>
+      </c>
+      <c r="G744" t="n">
+        <v>21</v>
+      </c>
+      <c r="H744" t="n">
+        <v>31</v>
+      </c>
+      <c r="I744" t="n">
+        <v>104</v>
+      </c>
+      <c r="J744" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K744" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L744" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M744" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B745" t="n">
+        <v>514</v>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E745" t="n">
+        <v>30</v>
+      </c>
+      <c r="F745" t="n">
+        <v>37</v>
+      </c>
+      <c r="G745" t="n">
+        <v>23</v>
+      </c>
+      <c r="H745" t="n">
+        <v>24</v>
+      </c>
+      <c r="I745" t="n">
+        <v>114</v>
+      </c>
+      <c r="J745" t="n">
+        <v>225</v>
+      </c>
+      <c r="K745" t="n">
+        <v>223</v>
+      </c>
+      <c r="L745" t="n">
+        <v>140</v>
+      </c>
+      <c r="M745" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B746" t="n">
+        <v>515</v>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E746" t="n">
+        <v>34</v>
+      </c>
+      <c r="F746" t="n">
+        <v>26</v>
+      </c>
+      <c r="G746" t="n">
+        <v>35</v>
+      </c>
+      <c r="H746" t="n">
+        <v>41</v>
+      </c>
+      <c r="I746" t="n">
+        <v>136</v>
+      </c>
+      <c r="J746" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K746" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L746" t="n">
+        <v>-280</v>
+      </c>
+      <c r="M746" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B747" t="n">
+        <v>516</v>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E747" t="n">
+        <v>33</v>
+      </c>
+      <c r="F747" t="n">
+        <v>26</v>
+      </c>
+      <c r="G747" t="n">
+        <v>22</v>
+      </c>
+      <c r="H747" t="n">
+        <v>23</v>
+      </c>
+      <c r="I747" t="n">
+        <v>104</v>
+      </c>
+      <c r="J747" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="K747" t="n">
+        <v>218</v>
+      </c>
+      <c r="L747" t="n">
+        <v>240</v>
+      </c>
+      <c r="M747" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B748" t="n">
+        <v>517</v>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E748" t="n">
+        <v>26</v>
+      </c>
+      <c r="F748" t="n">
+        <v>22</v>
+      </c>
+      <c r="G748" t="n">
+        <v>28</v>
+      </c>
+      <c r="H748" t="n">
+        <v>28</v>
+      </c>
+      <c r="I748" t="n">
+        <v>104</v>
+      </c>
+      <c r="J748" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="K748" t="n">
+        <v>219</v>
+      </c>
+      <c r="L748" t="n">
+        <v>100</v>
+      </c>
+      <c r="M748" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B749" t="n">
+        <v>518</v>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E749" t="n">
+        <v>25</v>
+      </c>
+      <c r="F749" t="n">
+        <v>27</v>
+      </c>
+      <c r="G749" t="n">
+        <v>23</v>
+      </c>
+      <c r="H749" t="n">
+        <v>21</v>
+      </c>
+      <c r="I749" t="n">
+        <v>96</v>
+      </c>
+      <c r="J749" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K749" t="n">
+        <v>1</v>
+      </c>
+      <c r="L749" t="n">
+        <v>-120</v>
+      </c>
+      <c r="M749" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B750" t="n">
+        <v>519</v>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E750" t="n">
+        <v>35</v>
+      </c>
+      <c r="F750" t="n">
+        <v>29</v>
+      </c>
+      <c r="G750" t="n">
+        <v>16</v>
+      </c>
+      <c r="H750" t="n">
+        <v>25</v>
+      </c>
+      <c r="I750" t="n">
+        <v>120</v>
+      </c>
+      <c r="J750" t="n">
+        <v>4</v>
+      </c>
+      <c r="K750" t="n">
+        <v>2</v>
+      </c>
+      <c r="L750" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M750" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B751" t="n">
+        <v>520</v>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>New Orleans</t>
+        </is>
+      </c>
+      <c r="E751" t="n">
+        <v>33</v>
+      </c>
+      <c r="F751" t="n">
+        <v>24</v>
+      </c>
+      <c r="G751" t="n">
+        <v>20</v>
+      </c>
+      <c r="H751" t="n">
+        <v>28</v>
+      </c>
+      <c r="I751" t="n">
+        <v>114</v>
+      </c>
+      <c r="J751" t="n">
+        <v>216</v>
+      </c>
+      <c r="K751" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="L751" t="n">
+        <v>110</v>
+      </c>
+      <c r="M751" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B752" t="n">
+        <v>521</v>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E752" t="n">
+        <v>36</v>
+      </c>
+      <c r="F752" t="n">
+        <v>31</v>
+      </c>
+      <c r="G752" t="n">
+        <v>25</v>
+      </c>
+      <c r="H752" t="n">
+        <v>38</v>
+      </c>
+      <c r="I752" t="n">
+        <v>130</v>
+      </c>
+      <c r="J752" t="n">
+        <v>220</v>
+      </c>
+      <c r="K752" t="n">
+        <v>223</v>
+      </c>
+      <c r="L752" t="n">
+        <v>250</v>
+      </c>
+      <c r="M752" t="n">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B753" t="n">
+        <v>522</v>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E753" t="n">
+        <v>38</v>
+      </c>
+      <c r="F753" t="n">
+        <v>32</v>
+      </c>
+      <c r="G753" t="n">
+        <v>34</v>
+      </c>
+      <c r="H753" t="n">
+        <v>38</v>
+      </c>
+      <c r="I753" t="n">
+        <v>142</v>
+      </c>
+      <c r="J753" t="n">
+        <v>8</v>
+      </c>
+      <c r="K753" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L753" t="n">
+        <v>-300</v>
+      </c>
+      <c r="M753" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B754" t="n">
+        <v>523</v>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E754" t="n">
+        <v>23</v>
+      </c>
+      <c r="F754" t="n">
+        <v>22</v>
+      </c>
+      <c r="G754" t="n">
+        <v>21</v>
+      </c>
+      <c r="H754" t="n">
+        <v>28</v>
+      </c>
+      <c r="I754" t="n">
+        <v>94</v>
+      </c>
+      <c r="J754" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K754" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="L754" t="n">
+        <v>850</v>
+      </c>
+      <c r="M754" t="n">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B755" t="n">
+        <v>524</v>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>Golden State</t>
+        </is>
+      </c>
+      <c r="E755" t="n">
+        <v>26</v>
+      </c>
+      <c r="F755" t="n">
+        <v>21</v>
+      </c>
+      <c r="G755" t="n">
+        <v>29</v>
+      </c>
+      <c r="H755" t="n">
+        <v>28</v>
+      </c>
+      <c r="I755" t="n">
+        <v>104</v>
+      </c>
+      <c r="J755" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K755" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L755" t="n">
+        <v>-1500</v>
+      </c>
+      <c r="M755" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B756" t="n">
+        <v>525</v>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E756" t="n">
+        <v>28</v>
+      </c>
+      <c r="F756" t="n">
+        <v>23</v>
+      </c>
+      <c r="G756" t="n">
+        <v>27</v>
+      </c>
+      <c r="H756" t="n">
+        <v>33</v>
+      </c>
+      <c r="I756" t="n">
+        <v>111</v>
+      </c>
+      <c r="J756" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="K756" t="n">
+        <v>209</v>
+      </c>
+      <c r="L756" t="n">
+        <v>100</v>
+      </c>
+      <c r="M756" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B757" t="n">
+        <v>526</v>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>LA Clippers</t>
+        </is>
+      </c>
+      <c r="E757" t="n">
+        <v>24</v>
+      </c>
+      <c r="F757" t="n">
+        <v>39</v>
+      </c>
+      <c r="G757" t="n">
+        <v>24</v>
+      </c>
+      <c r="H757" t="n">
+        <v>27</v>
+      </c>
+      <c r="I757" t="n">
+        <v>114</v>
+      </c>
+      <c r="J757" t="n">
+        <v>3</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="L757" t="n">
+        <v>-120</v>
+      </c>
+      <c r="M757" t="n">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B758" t="n">
+        <v>527</v>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E758" t="n">
+        <v>27</v>
+      </c>
+      <c r="F758" t="n">
+        <v>34</v>
+      </c>
+      <c r="G758" t="n">
+        <v>27</v>
+      </c>
+      <c r="H758" t="n">
+        <v>30</v>
+      </c>
+      <c r="I758" t="n">
+        <v>118</v>
+      </c>
+      <c r="J758" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K758" t="n">
+        <v>3</v>
+      </c>
+      <c r="L758" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M758" t="n">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B759" t="n">
+        <v>528</v>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E759" t="n">
+        <v>32</v>
+      </c>
+      <c r="F759" t="n">
+        <v>22</v>
+      </c>
+      <c r="G759" t="n">
+        <v>22</v>
+      </c>
+      <c r="H759" t="n">
+        <v>20</v>
+      </c>
+      <c r="I759" t="n">
+        <v>96</v>
+      </c>
+      <c r="J759" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K759" t="n">
+        <v>216</v>
+      </c>
+      <c r="L759" t="n">
+        <v>120</v>
+      </c>
+      <c r="M759" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B760" t="n">
+        <v>529</v>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>LA Lakers</t>
+        </is>
+      </c>
+      <c r="E760" t="n">
+        <v>29</v>
+      </c>
+      <c r="F760" t="n">
+        <v>24</v>
+      </c>
+      <c r="G760" t="n">
+        <v>25</v>
+      </c>
+      <c r="H760" t="n">
+        <v>17</v>
+      </c>
+      <c r="I760" t="n">
+        <v>95</v>
+      </c>
+      <c r="J760" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K760" t="n">
+        <v>4</v>
+      </c>
+      <c r="L760" t="n">
+        <v>-175</v>
+      </c>
+      <c r="M760" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B761" t="n">
+        <v>530</v>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E761" t="n">
+        <v>25</v>
+      </c>
+      <c r="F761" t="n">
+        <v>34</v>
+      </c>
+      <c r="G761" t="n">
+        <v>26</v>
+      </c>
+      <c r="H761" t="n">
+        <v>23</v>
+      </c>
+      <c r="I761" t="n">
+        <v>108</v>
+      </c>
+      <c r="J761" t="n">
+        <v>221</v>
+      </c>
+      <c r="K761" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="L761" t="n">
+        <v>155</v>
+      </c>
+      <c r="M761" t="n">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B762" t="n">
+        <v>531</v>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E762" t="n">
+        <v>29</v>
+      </c>
+      <c r="F762" t="n">
+        <v>36</v>
+      </c>
+      <c r="G762" t="n">
+        <v>25</v>
+      </c>
+      <c r="H762" t="n">
+        <v>21</v>
+      </c>
+      <c r="I762" t="n">
+        <v>111</v>
+      </c>
+      <c r="J762" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K762" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="L762" t="n">
+        <v>120</v>
+      </c>
+      <c r="M762" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B763" t="n">
+        <v>532</v>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="E763" t="n">
+        <v>37</v>
+      </c>
+      <c r="F763" t="n">
+        <v>37</v>
+      </c>
+      <c r="G763" t="n">
+        <v>26</v>
+      </c>
+      <c r="H763" t="n">
+        <v>23</v>
+      </c>
+      <c r="I763" t="n">
+        <v>123</v>
+      </c>
+      <c r="J763" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K763" t="n">
+        <v>2</v>
+      </c>
+      <c r="L763" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M763" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B764" t="n">
+        <v>533</v>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E764" t="n">
+        <v>36</v>
+      </c>
+      <c r="F764" t="n">
+        <v>35</v>
+      </c>
+      <c r="G764" t="n">
+        <v>28</v>
+      </c>
+      <c r="H764" t="n">
+        <v>24</v>
+      </c>
+      <c r="I764" t="n">
+        <v>123</v>
+      </c>
+      <c r="J764" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K764" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L764" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M764" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B765" t="n">
+        <v>534</v>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E765" t="n">
+        <v>37</v>
+      </c>
+      <c r="F765" t="n">
+        <v>32</v>
+      </c>
+      <c r="G765" t="n">
+        <v>29</v>
+      </c>
+      <c r="H765" t="n">
+        <v>26</v>
+      </c>
+      <c r="I765" t="n">
+        <v>124</v>
+      </c>
+      <c r="J765" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="K765" t="n">
+        <v>232.5</v>
+      </c>
+      <c r="L765" t="n">
+        <v>105</v>
+      </c>
+      <c r="M765" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B766" t="n">
+        <v>535</v>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E766" t="n">
+        <v>26</v>
+      </c>
+      <c r="F766" t="n">
+        <v>28</v>
+      </c>
+      <c r="G766" t="n">
+        <v>26</v>
+      </c>
+      <c r="H766" t="n">
+        <v>13</v>
+      </c>
+      <c r="I766" t="n">
+        <v>93</v>
+      </c>
+      <c r="J766" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="K766" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="L766" t="n">
+        <v>110</v>
+      </c>
+      <c r="M766" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B767" t="n">
+        <v>536</v>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E767" t="n">
+        <v>22</v>
+      </c>
+      <c r="F767" t="n">
+        <v>34</v>
+      </c>
+      <c r="G767" t="n">
+        <v>26</v>
+      </c>
+      <c r="H767" t="n">
+        <v>24</v>
+      </c>
+      <c r="I767" t="n">
+        <v>106</v>
+      </c>
+      <c r="J767" t="n">
+        <v>2</v>
+      </c>
+      <c r="K767" t="n">
+        <v>2</v>
+      </c>
+      <c r="L767" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M767" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B768" t="n">
+        <v>537</v>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E768" t="n">
+        <v>26</v>
+      </c>
+      <c r="F768" t="n">
+        <v>26</v>
+      </c>
+      <c r="G768" t="n">
+        <v>37</v>
+      </c>
+      <c r="H768" t="n">
+        <v>24</v>
+      </c>
+      <c r="I768" t="n">
+        <v>113</v>
+      </c>
+      <c r="J768" t="n">
+        <v>1</v>
+      </c>
+      <c r="K768" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="L768" t="n">
+        <v>110</v>
+      </c>
+      <c r="M768" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B769" t="n">
+        <v>538</v>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E769" t="n">
+        <v>26</v>
+      </c>
+      <c r="F769" t="n">
+        <v>29</v>
+      </c>
+      <c r="G769" t="n">
+        <v>36</v>
+      </c>
+      <c r="H769" t="n">
+        <v>14</v>
+      </c>
+      <c r="I769" t="n">
+        <v>105</v>
+      </c>
+      <c r="J769" t="n">
+        <v>224</v>
+      </c>
+      <c r="K769" t="n">
+        <v>2</v>
+      </c>
+      <c r="L769" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M769" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B770" t="n">
+        <v>539</v>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E770" t="n">
+        <v>14</v>
+      </c>
+      <c r="F770" t="n">
+        <v>28</v>
+      </c>
+      <c r="G770" t="n">
+        <v>23</v>
+      </c>
+      <c r="H770" t="n">
+        <v>22</v>
+      </c>
+      <c r="I770" t="n">
+        <v>87</v>
+      </c>
+      <c r="J770" t="n">
+        <v>209</v>
+      </c>
+      <c r="K770" t="n">
+        <v>207.5</v>
+      </c>
+      <c r="L770" t="n">
+        <v>105</v>
+      </c>
+      <c r="M770" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B771" t="n">
+        <v>540</v>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E771" t="n">
+        <v>31</v>
+      </c>
+      <c r="F771" t="n">
+        <v>19</v>
+      </c>
+      <c r="G771" t="n">
+        <v>19</v>
+      </c>
+      <c r="H771" t="n">
+        <v>21</v>
+      </c>
+      <c r="I771" t="n">
+        <v>90</v>
+      </c>
+      <c r="J771" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K771" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L771" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M771" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B772" t="n">
+        <v>541</v>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E772" t="n">
+        <v>34</v>
+      </c>
+      <c r="F772" t="n">
+        <v>31</v>
+      </c>
+      <c r="G772" t="n">
+        <v>27</v>
+      </c>
+      <c r="H772" t="n">
+        <v>31</v>
+      </c>
+      <c r="I772" t="n">
+        <v>123</v>
+      </c>
+      <c r="J772" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="K772" t="n">
+        <v>2</v>
+      </c>
+      <c r="L772" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M772" t="n">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B773" t="n">
+        <v>542</v>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E773" t="n">
+        <v>20</v>
+      </c>
+      <c r="F773" t="n">
+        <v>24</v>
+      </c>
+      <c r="G773" t="n">
+        <v>27</v>
+      </c>
+      <c r="H773" t="n">
+        <v>35</v>
+      </c>
+      <c r="I773" t="n">
+        <v>106</v>
+      </c>
+      <c r="J773" t="n">
+        <v>1</v>
+      </c>
+      <c r="K773" t="n">
+        <v>214</v>
+      </c>
+      <c r="L773" t="n">
+        <v>105</v>
+      </c>
+      <c r="M773" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B774" t="n">
+        <v>543</v>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E774" t="n">
+        <v>26</v>
+      </c>
+      <c r="F774" t="n">
+        <v>32</v>
+      </c>
+      <c r="G774" t="n">
+        <v>32</v>
+      </c>
+      <c r="H774" t="n">
+        <v>33</v>
+      </c>
+      <c r="I774" t="n">
+        <v>123</v>
+      </c>
+      <c r="J774" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K774" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L774" t="n">
+        <v>-420</v>
+      </c>
+      <c r="M774" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B775" t="n">
+        <v>544</v>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E775" t="n">
+        <v>23</v>
+      </c>
+      <c r="F775" t="n">
+        <v>42</v>
+      </c>
+      <c r="G775" t="n">
+        <v>30</v>
+      </c>
+      <c r="H775" t="n">
+        <v>19</v>
+      </c>
+      <c r="I775" t="n">
+        <v>114</v>
+      </c>
+      <c r="J775" t="n">
+        <v>225</v>
+      </c>
+      <c r="K775" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="L775" t="n">
+        <v>350</v>
+      </c>
+      <c r="M775" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B776" t="n">
+        <v>545</v>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>LA Lakers</t>
+        </is>
+      </c>
+      <c r="E776" t="n">
+        <v>32</v>
+      </c>
+      <c r="F776" t="n">
+        <v>32</v>
+      </c>
+      <c r="G776" t="n">
+        <v>29</v>
+      </c>
+      <c r="H776" t="n">
+        <v>23</v>
+      </c>
+      <c r="I776" t="n">
+        <v>116</v>
+      </c>
+      <c r="J776" t="n">
+        <v>6</v>
+      </c>
+      <c r="K776" t="n">
+        <v>4</v>
+      </c>
+      <c r="L776" t="n">
+        <v>-170</v>
+      </c>
+      <c r="M776" t="n">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B777" t="n">
+        <v>546</v>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>Oklahoma City</t>
+        </is>
+      </c>
+      <c r="E777" t="n">
+        <v>18</v>
+      </c>
+      <c r="F777" t="n">
+        <v>27</v>
+      </c>
+      <c r="G777" t="n">
+        <v>23</v>
+      </c>
+      <c r="H777" t="n">
+        <v>27</v>
+      </c>
+      <c r="I777" t="n">
+        <v>95</v>
+      </c>
+      <c r="J777" t="n">
+        <v>216</v>
+      </c>
+      <c r="K777" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="L777" t="n">
+        <v>150</v>
+      </c>
+      <c r="M777" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B778" t="n">
+        <v>547</v>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E778" t="n">
+        <v>32</v>
+      </c>
+      <c r="F778" t="n">
+        <v>23</v>
+      </c>
+      <c r="G778" t="n">
+        <v>12</v>
+      </c>
+      <c r="H778" t="n">
+        <v>26</v>
+      </c>
+      <c r="I778" t="n">
+        <v>93</v>
+      </c>
+      <c r="J778" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="K778" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="L778" t="n">
+        <v>200</v>
+      </c>
+      <c r="M778" t="n">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B779" t="n">
+        <v>548</v>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>New Orleans</t>
+        </is>
+      </c>
+      <c r="E779" t="n">
+        <v>25</v>
+      </c>
+      <c r="F779" t="n">
+        <v>29</v>
+      </c>
+      <c r="G779" t="n">
+        <v>29</v>
+      </c>
+      <c r="H779" t="n">
+        <v>26</v>
+      </c>
+      <c r="I779" t="n">
+        <v>109</v>
+      </c>
+      <c r="J779" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K779" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L779" t="n">
+        <v>-240</v>
+      </c>
+      <c r="M779" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B780" t="n">
+        <v>549</v>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E780" t="n">
+        <v>24</v>
+      </c>
+      <c r="F780" t="n">
+        <v>15</v>
+      </c>
+      <c r="G780" t="n">
+        <v>30</v>
+      </c>
+      <c r="H780" t="n">
+        <v>21</v>
+      </c>
+      <c r="I780" t="n">
+        <v>90</v>
+      </c>
+      <c r="J780" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="K780" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="L780" t="n">
+        <v>140</v>
+      </c>
+      <c r="M780" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B781" t="n">
+        <v>550</v>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E781" t="n">
+        <v>25</v>
+      </c>
+      <c r="F781" t="n">
+        <v>32</v>
+      </c>
+      <c r="G781" t="n">
+        <v>27</v>
+      </c>
+      <c r="H781" t="n">
+        <v>27</v>
+      </c>
+      <c r="I781" t="n">
+        <v>111</v>
+      </c>
+      <c r="J781" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K781" t="n">
+        <v>3</v>
+      </c>
+      <c r="L781" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M781" t="n">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B782" t="n">
+        <v>551</v>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E782" t="n">
+        <v>30</v>
+      </c>
+      <c r="F782" t="n">
+        <v>14</v>
+      </c>
+      <c r="G782" t="n">
+        <v>31</v>
+      </c>
+      <c r="H782" t="n">
+        <v>29</v>
+      </c>
+      <c r="I782" t="n">
+        <v>104</v>
+      </c>
+      <c r="J782" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="K782" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="L782" t="n">
+        <v>280</v>
+      </c>
+      <c r="M782" t="n">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B783" t="n">
+        <v>552</v>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>LA Clippers</t>
+        </is>
+      </c>
+      <c r="E783" t="n">
+        <v>23</v>
+      </c>
+      <c r="F783" t="n">
+        <v>26</v>
+      </c>
+      <c r="G783" t="n">
+        <v>29</v>
+      </c>
+      <c r="H783" t="n">
+        <v>28</v>
+      </c>
+      <c r="I783" t="n">
+        <v>106</v>
+      </c>
+      <c r="J783" t="n">
+        <v>11</v>
+      </c>
+      <c r="K783" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L783" t="n">
+        <v>-340</v>
+      </c>
+      <c r="M783" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B784" t="n">
+        <v>553</v>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E784" t="n">
+        <v>28</v>
+      </c>
+      <c r="F784" t="n">
+        <v>22</v>
+      </c>
+      <c r="G784" t="n">
+        <v>31</v>
+      </c>
+      <c r="H784" t="n">
+        <v>42</v>
+      </c>
+      <c r="I784" t="n">
+        <v>123</v>
+      </c>
+      <c r="J784" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K784" t="n">
+        <v>7</v>
+      </c>
+      <c r="L784" t="n">
+        <v>-300</v>
+      </c>
+      <c r="M784" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B785" t="n">
+        <v>554</v>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E785" t="n">
+        <v>24</v>
+      </c>
+      <c r="F785" t="n">
+        <v>27</v>
+      </c>
+      <c r="G785" t="n">
+        <v>18</v>
+      </c>
+      <c r="H785" t="n">
+        <v>29</v>
+      </c>
+      <c r="I785" t="n">
+        <v>98</v>
+      </c>
+      <c r="J785" t="n">
+        <v>219</v>
+      </c>
+      <c r="K785" t="n">
+        <v>221</v>
+      </c>
+      <c r="L785" t="n">
+        <v>250</v>
+      </c>
+      <c r="M785" t="n">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B786" t="n">
+        <v>555</v>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E786" t="n">
+        <v>29</v>
+      </c>
+      <c r="F786" t="n">
+        <v>18</v>
+      </c>
+      <c r="G786" t="n">
+        <v>30</v>
+      </c>
+      <c r="H786" t="n">
+        <v>29</v>
+      </c>
+      <c r="I786" t="n">
+        <v>106</v>
+      </c>
+      <c r="J786" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="K786" t="n">
+        <v>218</v>
+      </c>
+      <c r="L786" t="n">
+        <v>280</v>
+      </c>
+      <c r="M786" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B787" t="n">
+        <v>556</v>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E787" t="n">
+        <v>40</v>
+      </c>
+      <c r="F787" t="n">
+        <v>23</v>
+      </c>
+      <c r="G787" t="n">
+        <v>23</v>
+      </c>
+      <c r="H787" t="n">
+        <v>27</v>
+      </c>
+      <c r="I787" t="n">
+        <v>113</v>
+      </c>
+      <c r="J787" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K787" t="n">
+        <v>8</v>
+      </c>
+      <c r="L787" t="n">
+        <v>-340</v>
+      </c>
+      <c r="M787" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B788" t="n">
+        <v>557</v>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E788" t="n">
+        <v>25</v>
+      </c>
+      <c r="F788" t="n">
+        <v>27</v>
+      </c>
+      <c r="G788" t="n">
+        <v>18</v>
+      </c>
+      <c r="H788" t="n">
+        <v>22</v>
+      </c>
+      <c r="I788" t="n">
+        <v>92</v>
+      </c>
+      <c r="J788" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="K788" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L788" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M788" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B789" t="n">
+        <v>558</v>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E789" t="n">
+        <v>39</v>
+      </c>
+      <c r="F789" t="n">
+        <v>26</v>
+      </c>
+      <c r="G789" t="n">
+        <v>21</v>
+      </c>
+      <c r="H789" t="n">
+        <v>32</v>
+      </c>
+      <c r="I789" t="n">
+        <v>118</v>
+      </c>
+      <c r="J789" t="n">
+        <v>1</v>
+      </c>
+      <c r="K789" t="n">
+        <v>210</v>
+      </c>
+      <c r="L789" t="n">
+        <v>105</v>
+      </c>
+      <c r="M789" t="n">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B790" t="n">
+        <v>559</v>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E790" t="n">
+        <v>23</v>
+      </c>
+      <c r="F790" t="n">
+        <v>29</v>
+      </c>
+      <c r="G790" t="n">
+        <v>26</v>
+      </c>
+      <c r="H790" t="n">
+        <v>25</v>
+      </c>
+      <c r="I790" t="n">
+        <v>103</v>
+      </c>
+      <c r="J790" t="n">
+        <v>215</v>
+      </c>
+      <c r="K790" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="L790" t="n">
+        <v>220</v>
+      </c>
+      <c r="M790" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B791" t="n">
+        <v>560</v>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E791" t="n">
+        <v>36</v>
+      </c>
+      <c r="F791" t="n">
+        <v>45</v>
+      </c>
+      <c r="G791" t="n">
+        <v>20</v>
+      </c>
+      <c r="H791" t="n">
+        <v>16</v>
+      </c>
+      <c r="I791" t="n">
+        <v>117</v>
+      </c>
+      <c r="J791" t="n">
+        <v>7</v>
+      </c>
+      <c r="K791" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L791" t="n">
+        <v>-260</v>
+      </c>
+      <c r="M791" t="n">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B792" t="n">
+        <v>561</v>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>Golden State</t>
+        </is>
+      </c>
+      <c r="E792" t="n">
+        <v>22</v>
+      </c>
+      <c r="F792" t="n">
+        <v>27</v>
+      </c>
+      <c r="G792" t="n">
+        <v>24</v>
+      </c>
+      <c r="H792" t="n">
+        <v>20</v>
+      </c>
+      <c r="I792" t="n">
+        <v>93</v>
+      </c>
+      <c r="J792" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K792" t="n">
+        <v>3</v>
+      </c>
+      <c r="L792" t="n">
+        <v>-155</v>
+      </c>
+      <c r="M792" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B793" t="n">
+        <v>562</v>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E793" t="n">
+        <v>23</v>
+      </c>
+      <c r="F793" t="n">
+        <v>23</v>
+      </c>
+      <c r="G793" t="n">
+        <v>24</v>
+      </c>
+      <c r="H793" t="n">
+        <v>32</v>
+      </c>
+      <c r="I793" t="n">
+        <v>102</v>
+      </c>
+      <c r="J793" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="K793" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="L793" t="n">
+        <v>135</v>
+      </c>
+      <c r="M793" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B794" t="n">
+        <v>563</v>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E794" t="n">
+        <v>28</v>
+      </c>
+      <c r="F794" t="n">
+        <v>44</v>
+      </c>
+      <c r="G794" t="n">
+        <v>31</v>
+      </c>
+      <c r="H794" t="n">
+        <v>24</v>
+      </c>
+      <c r="I794" t="n">
+        <v>127</v>
+      </c>
+      <c r="J794" t="n">
+        <v>214</v>
+      </c>
+      <c r="K794" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="L794" t="n">
+        <v>-110</v>
+      </c>
+      <c r="M794" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B795" t="n">
+        <v>564</v>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="E795" t="n">
+        <v>29</v>
+      </c>
+      <c r="F795" t="n">
+        <v>27</v>
+      </c>
+      <c r="G795" t="n">
+        <v>18</v>
+      </c>
+      <c r="H795" t="n">
+        <v>38</v>
+      </c>
+      <c r="I795" t="n">
+        <v>112</v>
+      </c>
+      <c r="J795" t="n">
+        <v>2</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="L795" t="n">
+        <v>-110</v>
+      </c>
+      <c r="M795" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B796" t="n">
+        <v>565</v>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E796" t="n">
+        <v>26</v>
+      </c>
+      <c r="F796" t="n">
+        <v>35</v>
+      </c>
+      <c r="G796" t="n">
+        <v>32</v>
+      </c>
+      <c r="H796" t="n">
+        <v>19</v>
+      </c>
+      <c r="I796" t="n">
+        <v>112</v>
+      </c>
+      <c r="J796" t="n">
+        <v>3</v>
+      </c>
+      <c r="K796" t="n">
+        <v>6</v>
+      </c>
+      <c r="L796" t="n">
+        <v>-240</v>
+      </c>
+      <c r="M796" t="n">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B797" t="n">
+        <v>566</v>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E797" t="n">
+        <v>16</v>
+      </c>
+      <c r="F797" t="n">
+        <v>32</v>
+      </c>
+      <c r="G797" t="n">
+        <v>31</v>
+      </c>
+      <c r="H797" t="n">
+        <v>18</v>
+      </c>
+      <c r="I797" t="n">
+        <v>97</v>
+      </c>
+      <c r="J797" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="K797" t="n">
+        <v>216</v>
+      </c>
+      <c r="L797" t="n">
+        <v>200</v>
+      </c>
+      <c r="M797" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B798" t="n">
+        <v>567</v>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E798" t="n">
+        <v>31</v>
+      </c>
+      <c r="F798" t="n">
+        <v>29</v>
+      </c>
+      <c r="G798" t="n">
+        <v>26</v>
+      </c>
+      <c r="H798" t="n">
+        <v>30</v>
+      </c>
+      <c r="I798" t="n">
+        <v>116</v>
+      </c>
+      <c r="J798" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K798" t="n">
+        <v>7</v>
+      </c>
+      <c r="L798" t="n">
+        <v>-310</v>
+      </c>
+      <c r="M798" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B799" t="n">
+        <v>568</v>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E799" t="n">
+        <v>24</v>
+      </c>
+      <c r="F799" t="n">
+        <v>33</v>
+      </c>
+      <c r="G799" t="n">
+        <v>34</v>
+      </c>
+      <c r="H799" t="n">
+        <v>13</v>
+      </c>
+      <c r="I799" t="n">
+        <v>104</v>
+      </c>
+      <c r="J799" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="K799" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="L799" t="n">
+        <v>260</v>
+      </c>
+      <c r="M799" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B800" t="n">
+        <v>569</v>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>New Orleans</t>
+        </is>
+      </c>
+      <c r="E800" t="n">
+        <v>26</v>
+      </c>
+      <c r="F800" t="n">
+        <v>26</v>
+      </c>
+      <c r="G800" t="n">
+        <v>30</v>
+      </c>
+      <c r="H800" t="n">
+        <v>15</v>
+      </c>
+      <c r="I800" t="n">
+        <v>97</v>
+      </c>
+      <c r="J800" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="K800" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="L800" t="n">
+        <v>110</v>
+      </c>
+      <c r="M800" t="n">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B801" t="n">
+        <v>570</v>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="E801" t="n">
+        <v>28</v>
+      </c>
+      <c r="F801" t="n">
+        <v>26</v>
+      </c>
+      <c r="G801" t="n">
+        <v>29</v>
+      </c>
+      <c r="H801" t="n">
+        <v>29</v>
+      </c>
+      <c r="I801" t="n">
+        <v>112</v>
+      </c>
+      <c r="J801" t="n">
+        <v>3</v>
+      </c>
+      <c r="K801" t="n">
+        <v>2</v>
+      </c>
+      <c r="L801" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M801" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B802" t="n">
+        <v>571</v>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E802" t="n">
+        <v>28</v>
+      </c>
+      <c r="F802" t="n">
+        <v>28</v>
+      </c>
+      <c r="G802" t="n">
+        <v>24</v>
+      </c>
+      <c r="H802" t="n">
+        <v>23</v>
+      </c>
+      <c r="I802" t="n">
+        <v>103</v>
+      </c>
+      <c r="J802" t="n">
+        <v>5</v>
+      </c>
+      <c r="K802" t="n">
+        <v>4</v>
+      </c>
+      <c r="L802" t="n">
+        <v>-175</v>
+      </c>
+      <c r="M802" t="n">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B803" t="n">
+        <v>572</v>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>Oklahoma City</t>
+        </is>
+      </c>
+      <c r="E803" t="n">
+        <v>27</v>
+      </c>
+      <c r="F803" t="n">
+        <v>19</v>
+      </c>
+      <c r="G803" t="n">
+        <v>25</v>
+      </c>
+      <c r="H803" t="n">
+        <v>13</v>
+      </c>
+      <c r="I803" t="n">
+        <v>84</v>
+      </c>
+      <c r="J803" t="n">
+        <v>209.5</v>
+      </c>
+      <c r="K803" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="L803" t="n">
+        <v>155</v>
+      </c>
+      <c r="M803" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B804" t="n">
+        <v>573</v>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E804" t="n">
+        <v>33</v>
+      </c>
+      <c r="F804" t="n">
+        <v>23</v>
+      </c>
+      <c r="G804" t="n">
+        <v>33</v>
+      </c>
+      <c r="H804" t="n">
+        <v>27</v>
+      </c>
+      <c r="I804" t="n">
+        <v>116</v>
+      </c>
+      <c r="J804" t="n">
+        <v>1</v>
+      </c>
+      <c r="K804" t="n">
+        <v>226</v>
+      </c>
+      <c r="L804" t="n">
+        <v>130</v>
+      </c>
+      <c r="M804" t="n">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B805" t="n">
+        <v>574</v>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E805" t="n">
+        <v>26</v>
+      </c>
+      <c r="F805" t="n">
+        <v>29</v>
+      </c>
+      <c r="G805" t="n">
+        <v>29</v>
+      </c>
+      <c r="H805" t="n">
+        <v>27</v>
+      </c>
+      <c r="I805" t="n">
+        <v>111</v>
+      </c>
+      <c r="J805" t="n">
+        <v>219</v>
+      </c>
+      <c r="K805" t="n">
+        <v>3</v>
+      </c>
+      <c r="L805" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M805" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B806" t="n">
+        <v>575</v>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E806" t="n">
+        <v>25</v>
+      </c>
+      <c r="F806" t="n">
+        <v>27</v>
+      </c>
+      <c r="G806" t="n">
+        <v>10</v>
+      </c>
+      <c r="H806" t="n">
+        <v>32</v>
+      </c>
+      <c r="I806" t="n">
+        <v>94</v>
+      </c>
+      <c r="J806" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="K806" t="n">
+        <v>221</v>
+      </c>
+      <c r="L806" t="n">
+        <v>360</v>
+      </c>
+      <c r="M806" t="n">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B807" t="n">
+        <v>576</v>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>LA Lakers</t>
+        </is>
+      </c>
+      <c r="E807" t="n">
+        <v>18</v>
+      </c>
+      <c r="F807" t="n">
+        <v>31</v>
+      </c>
+      <c r="G807" t="n">
+        <v>36</v>
+      </c>
+      <c r="H807" t="n">
+        <v>21</v>
+      </c>
+      <c r="I807" t="n">
+        <v>106</v>
+      </c>
+      <c r="J807" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K807" t="n">
+        <v>10</v>
+      </c>
+      <c r="L807" t="n">
+        <v>-430</v>
+      </c>
+      <c r="M807" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B808" t="n">
+        <v>501</v>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E808" t="n">
+        <v>25</v>
+      </c>
+      <c r="F808" t="n">
+        <v>19</v>
+      </c>
+      <c r="G808" t="n">
+        <v>29</v>
+      </c>
+      <c r="H808" t="n">
+        <v>21</v>
+      </c>
+      <c r="I808" t="n">
+        <v>94</v>
+      </c>
+      <c r="J808" t="n">
+        <v>207</v>
+      </c>
+      <c r="K808" t="n">
+        <v>208</v>
+      </c>
+      <c r="L808" t="n">
+        <v>180</v>
+      </c>
+      <c r="M808" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B809" t="n">
+        <v>502</v>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E809" t="n">
+        <v>23</v>
+      </c>
+      <c r="F809" t="n">
+        <v>32</v>
+      </c>
+      <c r="G809" t="n">
+        <v>23</v>
+      </c>
+      <c r="H809" t="n">
+        <v>27</v>
+      </c>
+      <c r="I809" t="n">
+        <v>105</v>
+      </c>
+      <c r="J809" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K809" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L809" t="n">
+        <v>-210</v>
+      </c>
+      <c r="M809" t="n">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B810" t="n">
+        <v>503</v>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>Golden State</t>
+        </is>
+      </c>
+      <c r="E810" t="n">
+        <v>25</v>
+      </c>
+      <c r="F810" t="n">
+        <v>22</v>
+      </c>
+      <c r="G810" t="n">
+        <v>33</v>
+      </c>
+      <c r="H810" t="n">
+        <v>22</v>
+      </c>
+      <c r="I810" t="n">
+        <v>102</v>
+      </c>
+      <c r="J810" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K810" t="n">
+        <v>4</v>
+      </c>
+      <c r="L810" t="n">
+        <v>-175</v>
+      </c>
+      <c r="M810" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B811" t="n">
+        <v>504</v>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E811" t="n">
+        <v>29</v>
+      </c>
+      <c r="F811" t="n">
+        <v>26</v>
+      </c>
+      <c r="G811" t="n">
+        <v>29</v>
+      </c>
+      <c r="H811" t="n">
+        <v>16</v>
+      </c>
+      <c r="I811" t="n">
+        <v>100</v>
+      </c>
+      <c r="J811" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="K811" t="n">
+        <v>214</v>
+      </c>
+      <c r="L811" t="n">
+        <v>155</v>
+      </c>
+      <c r="M811" t="n">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B812" t="n">
+        <v>505</v>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E812" t="n">
+        <v>22</v>
+      </c>
+      <c r="F812" t="n">
+        <v>23</v>
+      </c>
+      <c r="G812" t="n">
+        <v>24</v>
+      </c>
+      <c r="H812" t="n">
+        <v>32</v>
+      </c>
+      <c r="I812" t="n">
+        <v>101</v>
+      </c>
+      <c r="J812" t="n">
+        <v>220</v>
+      </c>
+      <c r="K812" t="n">
+        <v>222</v>
+      </c>
+      <c r="L812" t="n">
+        <v>165</v>
+      </c>
+      <c r="M812" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B813" t="n">
+        <v>506</v>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E813" t="n">
+        <v>30</v>
+      </c>
+      <c r="F813" t="n">
+        <v>40</v>
+      </c>
+      <c r="G813" t="n">
+        <v>23</v>
+      </c>
+      <c r="H813" t="n">
+        <v>31</v>
+      </c>
+      <c r="I813" t="n">
+        <v>124</v>
+      </c>
+      <c r="J813" t="n">
+        <v>5</v>
+      </c>
+      <c r="K813" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L813" t="n">
+        <v>-185</v>
+      </c>
+      <c r="M813" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B814" t="n">
+        <v>507</v>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E814" t="n">
+        <v>28</v>
+      </c>
+      <c r="F814" t="n">
+        <v>30</v>
+      </c>
+      <c r="G814" t="n">
+        <v>30</v>
+      </c>
+      <c r="H814" t="n">
+        <v>44</v>
+      </c>
+      <c r="I814" t="n">
+        <v>132</v>
+      </c>
+      <c r="J814" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="K814" t="n">
+        <v>227</v>
+      </c>
+      <c r="L814" t="n">
+        <v>400</v>
+      </c>
+      <c r="M814" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B815" t="n">
+        <v>508</v>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E815" t="n">
+        <v>38</v>
+      </c>
+      <c r="F815" t="n">
+        <v>31</v>
+      </c>
+      <c r="G815" t="n">
+        <v>32</v>
+      </c>
+      <c r="H815" t="n">
+        <v>25</v>
+      </c>
+      <c r="I815" t="n">
+        <v>126</v>
+      </c>
+      <c r="J815" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K815" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L815" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M815" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B816" t="n">
+        <v>509</v>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E816" t="n">
+        <v>30</v>
+      </c>
+      <c r="F816" t="n">
+        <v>20</v>
+      </c>
+      <c r="G816" t="n">
+        <v>24</v>
+      </c>
+      <c r="H816" t="n">
+        <v>29</v>
+      </c>
+      <c r="I816" t="n">
+        <v>103</v>
+      </c>
+      <c r="J816" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="K816" t="n">
+        <v>1</v>
+      </c>
+      <c r="L816" t="n">
+        <v>-115</v>
+      </c>
+      <c r="M816" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B817" t="n">
+        <v>510</v>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E817" t="n">
+        <v>21</v>
+      </c>
+      <c r="F817" t="n">
+        <v>30</v>
+      </c>
+      <c r="G817" t="n">
+        <v>34</v>
+      </c>
+      <c r="H817" t="n">
+        <v>32</v>
+      </c>
+      <c r="I817" t="n">
+        <v>117</v>
+      </c>
+      <c r="J817" t="n">
+        <v>2</v>
+      </c>
+      <c r="K817" t="n">
+        <v>223</v>
+      </c>
+      <c r="L817" t="n">
+        <v>-105</v>
+      </c>
+      <c r="M817" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B818" t="n">
+        <v>511</v>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E818" t="n">
+        <v>30</v>
+      </c>
+      <c r="F818" t="n">
+        <v>26</v>
+      </c>
+      <c r="G818" t="n">
+        <v>19</v>
+      </c>
+      <c r="H818" t="n">
+        <v>16</v>
+      </c>
+      <c r="I818" t="n">
+        <v>91</v>
+      </c>
+      <c r="J818" t="n">
+        <v>2</v>
+      </c>
+      <c r="K818" t="n">
+        <v>1</v>
+      </c>
+      <c r="L818" t="n">
+        <v>125</v>
+      </c>
+      <c r="M818" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B819" t="n">
+        <v>512</v>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E819" t="n">
+        <v>37</v>
+      </c>
+      <c r="F819" t="n">
+        <v>31</v>
+      </c>
+      <c r="G819" t="n">
+        <v>33</v>
+      </c>
+      <c r="H819" t="n">
+        <v>25</v>
+      </c>
+      <c r="I819" t="n">
+        <v>126</v>
+      </c>
+      <c r="J819" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="K819" t="n">
+        <v>209</v>
+      </c>
+      <c r="L819" t="n">
+        <v>-145</v>
+      </c>
+      <c r="M819" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B820" t="n">
+        <v>513</v>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E820" t="n">
+        <v>20</v>
+      </c>
+      <c r="F820" t="n">
+        <v>23</v>
+      </c>
+      <c r="G820" t="n">
+        <v>26</v>
+      </c>
+      <c r="H820" t="n">
+        <v>27</v>
+      </c>
+      <c r="I820" t="n">
+        <v>96</v>
+      </c>
+      <c r="J820" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="K820" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="L820" t="n">
+        <v>120</v>
+      </c>
+      <c r="M820" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B821" t="n">
+        <v>514</v>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E821" t="n">
+        <v>37</v>
+      </c>
+      <c r="F821" t="n">
+        <v>33</v>
+      </c>
+      <c r="G821" t="n">
+        <v>21</v>
+      </c>
+      <c r="H821" t="n">
+        <v>29</v>
+      </c>
+      <c r="I821" t="n">
+        <v>120</v>
+      </c>
+      <c r="J821" t="n">
+        <v>4</v>
+      </c>
+      <c r="K821" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L821" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M821" t="n">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B822" t="n">
+        <v>515</v>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E822" t="n">
+        <v>22</v>
+      </c>
+      <c r="F822" t="n">
+        <v>19</v>
+      </c>
+      <c r="G822" t="n">
+        <v>29</v>
+      </c>
+      <c r="H822" t="n">
+        <v>37</v>
+      </c>
+      <c r="I822" t="n">
+        <v>107</v>
+      </c>
+      <c r="J822" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="K822" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="L822" t="n">
+        <v>145</v>
+      </c>
+      <c r="M822" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B823" t="n">
+        <v>516</v>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E823" t="n">
+        <v>29</v>
+      </c>
+      <c r="F823" t="n">
+        <v>30</v>
+      </c>
+      <c r="G823" t="n">
+        <v>32</v>
+      </c>
+      <c r="H823" t="n">
+        <v>22</v>
+      </c>
+      <c r="I823" t="n">
+        <v>113</v>
+      </c>
+      <c r="J823" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K823" t="n">
+        <v>4</v>
+      </c>
+      <c r="L823" t="n">
+        <v>-165</v>
+      </c>
+      <c r="M823" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B824" t="n">
+        <v>517</v>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E824" t="n">
+        <v>21</v>
+      </c>
+      <c r="F824" t="n">
+        <v>23</v>
+      </c>
+      <c r="G824" t="n">
+        <v>25</v>
+      </c>
+      <c r="H824" t="n">
+        <v>26</v>
+      </c>
+      <c r="I824" t="n">
+        <v>95</v>
+      </c>
+      <c r="J824" t="n">
+        <v>2</v>
+      </c>
+      <c r="K824" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L824" t="n">
+        <v>-155</v>
+      </c>
+      <c r="M824" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B825" t="n">
+        <v>518</v>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>LA Clippers</t>
+        </is>
+      </c>
+      <c r="E825" t="n">
+        <v>27</v>
+      </c>
+      <c r="F825" t="n">
+        <v>29</v>
+      </c>
+      <c r="G825" t="n">
+        <v>23</v>
+      </c>
+      <c r="H825" t="n">
+        <v>32</v>
+      </c>
+      <c r="I825" t="n">
+        <v>111</v>
+      </c>
+      <c r="J825" t="n">
+        <v>213</v>
+      </c>
+      <c r="K825" t="n">
+        <v>212</v>
+      </c>
+      <c r="L825" t="n">
+        <v>135</v>
+      </c>
+      <c r="M825" t="n">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/Odds/NBA/NBA odds 2021-22.xlsx
+++ b/Data/Odds/NBA/NBA odds 2021-22.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,6 +50,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2157"/>
+  <dimension ref="A1:M2355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97648,6 +97649,8922 @@
         <v>112</v>
       </c>
     </row>
+    <row r="2158">
+      <c r="A2158" t="n">
+        <v>322</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>537</v>
+      </c>
+      <c r="C2158" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2158" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E2158" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>21</v>
+      </c>
+      <c r="G2158" t="n">
+        <v>36</v>
+      </c>
+      <c r="H2158" t="n">
+        <v>16</v>
+      </c>
+      <c r="I2158" t="n">
+        <v>90</v>
+      </c>
+      <c r="J2158" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K2158" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L2158" t="n">
+        <v>-310</v>
+      </c>
+      <c r="M2158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="n">
+        <v>322</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>538</v>
+      </c>
+      <c r="C2159" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2159" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E2159" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>21</v>
+      </c>
+      <c r="G2159" t="n">
+        <v>19</v>
+      </c>
+      <c r="H2159" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2159" t="n">
+        <v>94</v>
+      </c>
+      <c r="J2159" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="K2159" t="n">
+        <v>216</v>
+      </c>
+      <c r="L2159" t="n">
+        <v>260</v>
+      </c>
+      <c r="M2159" t="n">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="n">
+        <v>322</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>539</v>
+      </c>
+      <c r="C2160" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2160" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E2160" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>34</v>
+      </c>
+      <c r="G2160" t="n">
+        <v>23</v>
+      </c>
+      <c r="H2160" t="n">
+        <v>30</v>
+      </c>
+      <c r="I2160" t="n">
+        <v>117</v>
+      </c>
+      <c r="J2160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K2160" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L2160" t="n">
+        <v>-165</v>
+      </c>
+      <c r="M2160" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="n">
+        <v>322</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>540</v>
+      </c>
+      <c r="C2161" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2161" t="inlineStr">
+        <is>
+          <t>NewYork</t>
+        </is>
+      </c>
+      <c r="E2161" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2161" t="n">
+        <v>31</v>
+      </c>
+      <c r="H2161" t="n">
+        <v>22</v>
+      </c>
+      <c r="I2161" t="n">
+        <v>111</v>
+      </c>
+      <c r="J2161" t="n">
+        <v>226</v>
+      </c>
+      <c r="K2161" t="n">
+        <v>226</v>
+      </c>
+      <c r="L2161" t="n">
+        <v>145</v>
+      </c>
+      <c r="M2161" t="n">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="n">
+        <v>322</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>541</v>
+      </c>
+      <c r="C2162" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2162" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E2162" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>23</v>
+      </c>
+      <c r="G2162" t="n">
+        <v>26</v>
+      </c>
+      <c r="H2162" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2162" t="n">
+        <v>98</v>
+      </c>
+      <c r="J2162" t="n">
+        <v>231</v>
+      </c>
+      <c r="K2162" t="n">
+        <v>234.5</v>
+      </c>
+      <c r="L2162" t="n">
+        <v>225</v>
+      </c>
+      <c r="M2162" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="n">
+        <v>322</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>542</v>
+      </c>
+      <c r="C2163" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2163" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E2163" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2163" t="n">
+        <v>32</v>
+      </c>
+      <c r="H2163" t="n">
+        <v>35</v>
+      </c>
+      <c r="I2163" t="n">
+        <v>126</v>
+      </c>
+      <c r="J2163" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K2163" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L2163" t="n">
+        <v>-265</v>
+      </c>
+      <c r="M2163" t="n">
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="n">
+        <v>322</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>543</v>
+      </c>
+      <c r="C2164" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2164" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E2164" t="n">
+        <v>27</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>34</v>
+      </c>
+      <c r="G2164" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2164" t="n">
+        <v>27</v>
+      </c>
+      <c r="I2164" t="n">
+        <v>115</v>
+      </c>
+      <c r="J2164" t="n">
+        <v>223</v>
+      </c>
+      <c r="K2164" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="L2164" t="n">
+        <v>220</v>
+      </c>
+      <c r="M2164" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="n">
+        <v>322</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>544</v>
+      </c>
+      <c r="C2165" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2165" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E2165" t="n">
+        <v>37</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2165" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2165" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2165" t="n">
+        <v>127</v>
+      </c>
+      <c r="J2165" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2165" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L2165" t="n">
+        <v>-260</v>
+      </c>
+      <c r="M2165" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>545</v>
+      </c>
+      <c r="C2166" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2166" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E2166" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>20</v>
+      </c>
+      <c r="G2166" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2166" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2166" t="n">
+        <v>101</v>
+      </c>
+      <c r="J2166" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K2166" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2166" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M2166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>546</v>
+      </c>
+      <c r="C2167" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2167" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E2167" t="n">
+        <v>26</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2167" t="n">
+        <v>34</v>
+      </c>
+      <c r="H2167" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2167" t="n">
+        <v>122</v>
+      </c>
+      <c r="J2167" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="K2167" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="L2167" t="n">
+        <v>175</v>
+      </c>
+      <c r="M2167" t="n">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>547</v>
+      </c>
+      <c r="C2168" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2168" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E2168" t="n">
+        <v>37</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>29</v>
+      </c>
+      <c r="G2168" t="n">
+        <v>19</v>
+      </c>
+      <c r="H2168" t="n">
+        <v>25</v>
+      </c>
+      <c r="I2168" t="n">
+        <v>110</v>
+      </c>
+      <c r="J2168" t="n">
+        <v>238</v>
+      </c>
+      <c r="K2168" t="n">
+        <v>233.5</v>
+      </c>
+      <c r="L2168" t="n">
+        <v>190</v>
+      </c>
+      <c r="M2168" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>548</v>
+      </c>
+      <c r="C2169" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2169" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E2169" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2169" t="n">
+        <v>28</v>
+      </c>
+      <c r="H2169" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2169" t="n">
+        <v>109</v>
+      </c>
+      <c r="J2169" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2169" t="n">
+        <v>6</v>
+      </c>
+      <c r="L2169" t="n">
+        <v>-220</v>
+      </c>
+      <c r="M2169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>549</v>
+      </c>
+      <c r="C2170" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2170" t="inlineStr">
+        <is>
+          <t>NewYork</t>
+        </is>
+      </c>
+      <c r="E2170" t="n">
+        <v>40</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>29</v>
+      </c>
+      <c r="G2170" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2170" t="n">
+        <v>22</v>
+      </c>
+      <c r="I2170" t="n">
+        <v>121</v>
+      </c>
+      <c r="J2170" t="n">
+        <v>227</v>
+      </c>
+      <c r="K2170" t="n">
+        <v>226</v>
+      </c>
+      <c r="L2170" t="n">
+        <v>300</v>
+      </c>
+      <c r="M2170" t="n">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>550</v>
+      </c>
+      <c r="C2171" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2171" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E2171" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>32</v>
+      </c>
+      <c r="G2171" t="n">
+        <v>31</v>
+      </c>
+      <c r="H2171" t="n">
+        <v>19</v>
+      </c>
+      <c r="I2171" t="n">
+        <v>106</v>
+      </c>
+      <c r="J2171" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K2171" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L2171" t="n">
+        <v>-360</v>
+      </c>
+      <c r="M2171" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>551</v>
+      </c>
+      <c r="C2172" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2172" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E2172" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2172" t="n">
+        <v>31</v>
+      </c>
+      <c r="H2172" t="n">
+        <v>37</v>
+      </c>
+      <c r="I2172" t="n">
+        <v>118</v>
+      </c>
+      <c r="J2172" t="n">
+        <v>215</v>
+      </c>
+      <c r="K2172" t="n">
+        <v>209.5</v>
+      </c>
+      <c r="L2172" t="n">
+        <v>400</v>
+      </c>
+      <c r="M2172" t="n">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>552</v>
+      </c>
+      <c r="C2173" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2173" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E2173" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2173" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2173" t="n">
+        <v>24</v>
+      </c>
+      <c r="I2173" t="n">
+        <v>104</v>
+      </c>
+      <c r="J2173" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2173" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2173" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M2173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>553</v>
+      </c>
+      <c r="C2174" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2174" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E2174" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2174" t="n">
+        <v>42</v>
+      </c>
+      <c r="H2174" t="n">
+        <v>16</v>
+      </c>
+      <c r="I2174" t="n">
+        <v>120</v>
+      </c>
+      <c r="J2174" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="K2174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2174" t="n">
+        <v>-110</v>
+      </c>
+      <c r="M2174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>554</v>
+      </c>
+      <c r="C2175" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2175" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E2175" t="n">
+        <v>40</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>36</v>
+      </c>
+      <c r="G2175" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2175" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2175" t="n">
+        <v>132</v>
+      </c>
+      <c r="J2175" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K2175" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="L2175" t="n">
+        <v>-110</v>
+      </c>
+      <c r="M2175" t="n">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>555</v>
+      </c>
+      <c r="C2176" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2176" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E2176" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>21</v>
+      </c>
+      <c r="G2176" t="n">
+        <v>23</v>
+      </c>
+      <c r="H2176" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2176" t="n">
+        <v>97</v>
+      </c>
+      <c r="J2176" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="K2176" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="L2176" t="n">
+        <v>175</v>
+      </c>
+      <c r="M2176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>556</v>
+      </c>
+      <c r="C2177" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2177" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E2177" t="n">
+        <v>39</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>29</v>
+      </c>
+      <c r="G2177" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2177" t="n">
+        <v>32</v>
+      </c>
+      <c r="I2177" t="n">
+        <v>125</v>
+      </c>
+      <c r="J2177" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2177" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2177" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M2177" t="n">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2178" t="n">
+        <v>557</v>
+      </c>
+      <c r="C2178" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2178" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E2178" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>19</v>
+      </c>
+      <c r="G2178" t="n">
+        <v>21</v>
+      </c>
+      <c r="H2178" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2178" t="n">
+        <v>102</v>
+      </c>
+      <c r="J2178" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="K2178" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2178" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M2178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2179" t="n">
+        <v>558</v>
+      </c>
+      <c r="C2179" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2179" t="inlineStr">
+        <is>
+          <t>OklahomaCity</t>
+        </is>
+      </c>
+      <c r="E2179" t="n">
+        <v>26</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>34</v>
+      </c>
+      <c r="G2179" t="n">
+        <v>24</v>
+      </c>
+      <c r="H2179" t="n">
+        <v>34</v>
+      </c>
+      <c r="I2179" t="n">
+        <v>118</v>
+      </c>
+      <c r="J2179" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="K2179" t="n">
+        <v>219</v>
+      </c>
+      <c r="L2179" t="n">
+        <v>110</v>
+      </c>
+      <c r="M2179" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>559</v>
+      </c>
+      <c r="C2180" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2180" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E2180" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2180" t="n">
+        <v>32</v>
+      </c>
+      <c r="H2180" t="n">
+        <v>42</v>
+      </c>
+      <c r="I2180" t="n">
+        <v>125</v>
+      </c>
+      <c r="J2180" t="n">
+        <v>236</v>
+      </c>
+      <c r="K2180" t="n">
+        <v>239</v>
+      </c>
+      <c r="L2180" t="n">
+        <v>105</v>
+      </c>
+      <c r="M2180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2181" t="n">
+        <v>560</v>
+      </c>
+      <c r="C2181" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2181" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E2181" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>34</v>
+      </c>
+      <c r="G2181" t="n">
+        <v>24</v>
+      </c>
+      <c r="H2181" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2181" t="n">
+        <v>116</v>
+      </c>
+      <c r="J2181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K2181" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2181" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M2181" t="n">
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2182" t="n">
+        <v>561</v>
+      </c>
+      <c r="C2182" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2182" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E2182" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>32</v>
+      </c>
+      <c r="G2182" t="n">
+        <v>19</v>
+      </c>
+      <c r="H2182" t="n">
+        <v>19</v>
+      </c>
+      <c r="I2182" t="n">
+        <v>91</v>
+      </c>
+      <c r="J2182" t="n">
+        <v>227</v>
+      </c>
+      <c r="K2182" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="L2182" t="n">
+        <v>400</v>
+      </c>
+      <c r="M2182" t="n">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2183" t="n">
+        <v>562</v>
+      </c>
+      <c r="C2183" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2183" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E2183" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2183" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2183" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2183" t="n">
+        <v>110</v>
+      </c>
+      <c r="J2183" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K2183" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2183" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M2183" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2184" t="n">
+        <v>563</v>
+      </c>
+      <c r="C2184" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2184" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E2184" t="n">
+        <v>27</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>34</v>
+      </c>
+      <c r="G2184" t="n">
+        <v>32</v>
+      </c>
+      <c r="H2184" t="n">
+        <v>33</v>
+      </c>
+      <c r="I2184" t="n">
+        <v>126</v>
+      </c>
+      <c r="J2184" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2184" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2184" t="n">
+        <v>-450</v>
+      </c>
+      <c r="M2184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2185" t="n">
+        <v>564</v>
+      </c>
+      <c r="C2185" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2185" t="inlineStr">
+        <is>
+          <t>LALakers</t>
+        </is>
+      </c>
+      <c r="E2185" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>22</v>
+      </c>
+      <c r="G2185" t="n">
+        <v>39</v>
+      </c>
+      <c r="H2185" t="n">
+        <v>30</v>
+      </c>
+      <c r="I2185" t="n">
+        <v>121</v>
+      </c>
+      <c r="J2185" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="K2185" t="n">
+        <v>226</v>
+      </c>
+      <c r="L2185" t="n">
+        <v>375</v>
+      </c>
+      <c r="M2185" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2186" t="n">
+        <v>565</v>
+      </c>
+      <c r="C2186" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2186" t="inlineStr">
+        <is>
+          <t>SanAntonio</t>
+        </is>
+      </c>
+      <c r="E2186" t="n">
+        <v>45</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>36</v>
+      </c>
+      <c r="G2186" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2186" t="n">
+        <v>19</v>
+      </c>
+      <c r="I2186" t="n">
+        <v>133</v>
+      </c>
+      <c r="J2186" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K2186" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L2186" t="n">
+        <v>-440</v>
+      </c>
+      <c r="M2186" t="n">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="n">
+        <v>323</v>
+      </c>
+      <c r="B2187" t="n">
+        <v>566</v>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2187" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E2187" t="n">
+        <v>27</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2187" t="n">
+        <v>28</v>
+      </c>
+      <c r="H2187" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2187" t="n">
+        <v>96</v>
+      </c>
+      <c r="J2187" t="n">
+        <v>233.5</v>
+      </c>
+      <c r="K2187" t="n">
+        <v>231</v>
+      </c>
+      <c r="L2187" t="n">
+        <v>370</v>
+      </c>
+      <c r="M2187" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="n">
+        <v>324</v>
+      </c>
+      <c r="B2188" t="n">
+        <v>567</v>
+      </c>
+      <c r="C2188" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2188" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E2188" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2188" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2188" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2188" t="n">
+        <v>104</v>
+      </c>
+      <c r="J2188" t="n">
+        <v>214</v>
+      </c>
+      <c r="K2188" t="n">
+        <v>214</v>
+      </c>
+      <c r="L2188" t="n">
+        <v>175</v>
+      </c>
+      <c r="M2188" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="n">
+        <v>324</v>
+      </c>
+      <c r="B2189" t="n">
+        <v>568</v>
+      </c>
+      <c r="C2189" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2189" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E2189" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2189" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2189" t="n">
+        <v>34</v>
+      </c>
+      <c r="I2189" t="n">
+        <v>117</v>
+      </c>
+      <c r="J2189" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2189" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L2189" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M2189" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="n">
+        <v>324</v>
+      </c>
+      <c r="B2190" t="n">
+        <v>569</v>
+      </c>
+      <c r="C2190" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2190" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E2190" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>29</v>
+      </c>
+      <c r="G2190" t="n">
+        <v>24</v>
+      </c>
+      <c r="H2190" t="n">
+        <v>36</v>
+      </c>
+      <c r="I2190" t="n">
+        <v>102</v>
+      </c>
+      <c r="J2190" t="n">
+        <v>233.5</v>
+      </c>
+      <c r="K2190" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="L2190" t="n">
+        <v>330</v>
+      </c>
+      <c r="M2190" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="n">
+        <v>324</v>
+      </c>
+      <c r="B2191" t="n">
+        <v>570</v>
+      </c>
+      <c r="C2191" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2191" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E2191" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>28</v>
+      </c>
+      <c r="G2191" t="n">
+        <v>32</v>
+      </c>
+      <c r="H2191" t="n">
+        <v>22</v>
+      </c>
+      <c r="I2191" t="n">
+        <v>114</v>
+      </c>
+      <c r="J2191" t="n">
+        <v>12</v>
+      </c>
+      <c r="K2191" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L2191" t="n">
+        <v>-400</v>
+      </c>
+      <c r="M2191" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="n">
+        <v>324</v>
+      </c>
+      <c r="B2192" t="n">
+        <v>571</v>
+      </c>
+      <c r="C2192" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2192" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E2192" t="n">
+        <v>39</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>23</v>
+      </c>
+      <c r="G2192" t="n">
+        <v>23</v>
+      </c>
+      <c r="H2192" t="n">
+        <v>24</v>
+      </c>
+      <c r="I2192" t="n">
+        <v>109</v>
+      </c>
+      <c r="J2192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2192" t="n">
+        <v>223.5</v>
+      </c>
+      <c r="L2192" t="n">
+        <v>140</v>
+      </c>
+      <c r="M2192" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="n">
+        <v>324</v>
+      </c>
+      <c r="B2193" t="n">
+        <v>572</v>
+      </c>
+      <c r="C2193" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2193" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E2193" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>32</v>
+      </c>
+      <c r="G2193" t="n">
+        <v>23</v>
+      </c>
+      <c r="H2193" t="n">
+        <v>40</v>
+      </c>
+      <c r="I2193" t="n">
+        <v>126</v>
+      </c>
+      <c r="J2193" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="K2193" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L2193" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M2193" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="n">
+        <v>324</v>
+      </c>
+      <c r="B2194" t="n">
+        <v>573</v>
+      </c>
+      <c r="C2194" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2194" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E2194" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2194" t="n">
+        <v>23</v>
+      </c>
+      <c r="H2194" t="n">
+        <v>32</v>
+      </c>
+      <c r="I2194" t="n">
+        <v>103</v>
+      </c>
+      <c r="J2194" t="n">
+        <v>235.5</v>
+      </c>
+      <c r="K2194" t="n">
+        <v>236</v>
+      </c>
+      <c r="L2194" t="n">
+        <v>475</v>
+      </c>
+      <c r="M2194" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="n">
+        <v>324</v>
+      </c>
+      <c r="B2195" t="n">
+        <v>574</v>
+      </c>
+      <c r="C2195" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2195" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E2195" t="n">
+        <v>44</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2195" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2195" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2195" t="n">
+        <v>133</v>
+      </c>
+      <c r="J2195" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K2195" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L2195" t="n">
+        <v>-650</v>
+      </c>
+      <c r="M2195" t="n">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="n">
+        <v>324</v>
+      </c>
+      <c r="B2196" t="n">
+        <v>575</v>
+      </c>
+      <c r="C2196" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2196" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E2196" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2196" t="n">
+        <v>38</v>
+      </c>
+      <c r="H2196" t="n">
+        <v>36</v>
+      </c>
+      <c r="I2196" t="n">
+        <v>140</v>
+      </c>
+      <c r="J2196" t="n">
+        <v>231</v>
+      </c>
+      <c r="K2196" t="n">
+        <v>232</v>
+      </c>
+      <c r="L2196" t="n">
+        <v>-105</v>
+      </c>
+      <c r="M2196" t="n">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="n">
+        <v>324</v>
+      </c>
+      <c r="B2197" t="n">
+        <v>576</v>
+      </c>
+      <c r="C2197" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2197" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E2197" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>37</v>
+      </c>
+      <c r="G2197" t="n">
+        <v>38</v>
+      </c>
+      <c r="H2197" t="n">
+        <v>24</v>
+      </c>
+      <c r="I2197" t="n">
+        <v>130</v>
+      </c>
+      <c r="J2197" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2197" t="n">
+        <v>-115</v>
+      </c>
+      <c r="M2197" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="n">
+        <v>325</v>
+      </c>
+      <c r="B2198" t="n">
+        <v>577</v>
+      </c>
+      <c r="C2198" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2198" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E2198" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2198" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2198" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2198" t="n">
+        <v>101</v>
+      </c>
+      <c r="J2198" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K2198" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2198" t="n">
+        <v>-170</v>
+      </c>
+      <c r="M2198" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="n">
+        <v>325</v>
+      </c>
+      <c r="B2199" t="n">
+        <v>578</v>
+      </c>
+      <c r="C2199" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2199" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E2199" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2199" t="n">
+        <v>23</v>
+      </c>
+      <c r="H2199" t="n">
+        <v>30</v>
+      </c>
+      <c r="I2199" t="n">
+        <v>107</v>
+      </c>
+      <c r="J2199" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="K2199" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="L2199" t="n">
+        <v>150</v>
+      </c>
+      <c r="M2199" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="n">
+        <v>325</v>
+      </c>
+      <c r="B2200" t="n">
+        <v>579</v>
+      </c>
+      <c r="C2200" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2200" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E2200" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2200" t="n">
+        <v>19</v>
+      </c>
+      <c r="H2200" t="n">
+        <v>21</v>
+      </c>
+      <c r="I2200" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2200" t="n">
+        <v>219</v>
+      </c>
+      <c r="K2200" t="n">
+        <v>223</v>
+      </c>
+      <c r="L2200" t="n">
+        <v>150</v>
+      </c>
+      <c r="M2200" t="n">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="n">
+        <v>325</v>
+      </c>
+      <c r="B2201" t="n">
+        <v>580</v>
+      </c>
+      <c r="C2201" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2201" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E2201" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>20</v>
+      </c>
+      <c r="G2201" t="n">
+        <v>26</v>
+      </c>
+      <c r="H2201" t="n">
+        <v>27</v>
+      </c>
+      <c r="I2201" t="n">
+        <v>97</v>
+      </c>
+      <c r="J2201" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K2201" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L2201" t="n">
+        <v>-170</v>
+      </c>
+      <c r="M2201" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="n">
+        <v>325</v>
+      </c>
+      <c r="B2202" t="n">
+        <v>581</v>
+      </c>
+      <c r="C2202" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2202" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E2202" t="n">
+        <v>42</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2202" t="n">
+        <v>16</v>
+      </c>
+      <c r="H2202" t="n">
+        <v>27</v>
+      </c>
+      <c r="I2202" t="n">
+        <v>110</v>
+      </c>
+      <c r="J2202" t="n">
+        <v>221</v>
+      </c>
+      <c r="K2202" t="n">
+        <v>223</v>
+      </c>
+      <c r="L2202" t="n">
+        <v>110</v>
+      </c>
+      <c r="M2202" t="n">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="n">
+        <v>325</v>
+      </c>
+      <c r="B2203" t="n">
+        <v>582</v>
+      </c>
+      <c r="C2203" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2203" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E2203" t="n">
+        <v>36</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2203" t="n">
+        <v>32</v>
+      </c>
+      <c r="H2203" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2203" t="n">
+        <v>121</v>
+      </c>
+      <c r="J2203" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2203" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2203" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M2203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="n">
+        <v>325</v>
+      </c>
+      <c r="B2204" t="n">
+        <v>583</v>
+      </c>
+      <c r="C2204" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2204" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E2204" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>28</v>
+      </c>
+      <c r="G2204" t="n">
+        <v>17</v>
+      </c>
+      <c r="H2204" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2204" t="n">
+        <v>95</v>
+      </c>
+      <c r="J2204" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="K2204" t="n">
+        <v>228</v>
+      </c>
+      <c r="L2204" t="n">
+        <v>145</v>
+      </c>
+      <c r="M2204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="n">
+        <v>325</v>
+      </c>
+      <c r="B2205" t="n">
+        <v>584</v>
+      </c>
+      <c r="C2205" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2205" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E2205" t="n">
+        <v>26</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2205" t="n">
+        <v>28</v>
+      </c>
+      <c r="H2205" t="n">
+        <v>27</v>
+      </c>
+      <c r="I2205" t="n">
+        <v>116</v>
+      </c>
+      <c r="J2205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K2205" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L2205" t="n">
+        <v>-165</v>
+      </c>
+      <c r="M2205" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="n">
+        <v>325</v>
+      </c>
+      <c r="B2206" t="n">
+        <v>585</v>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2206" t="inlineStr">
+        <is>
+          <t>NewYork</t>
+        </is>
+      </c>
+      <c r="E2206" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2206" t="n">
+        <v>24</v>
+      </c>
+      <c r="H2206" t="n">
+        <v>38</v>
+      </c>
+      <c r="I2206" t="n">
+        <v>111</v>
+      </c>
+      <c r="J2206" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="K2206" t="n">
+        <v>214</v>
+      </c>
+      <c r="L2206" t="n">
+        <v>350</v>
+      </c>
+      <c r="M2206" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="n">
+        <v>325</v>
+      </c>
+      <c r="B2207" t="n">
+        <v>586</v>
+      </c>
+      <c r="C2207" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2207" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E2207" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2207" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2207" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2207" t="n">
+        <v>103</v>
+      </c>
+      <c r="J2207" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K2207" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L2207" t="n">
+        <v>-420</v>
+      </c>
+      <c r="M2207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="n">
+        <v>325</v>
+      </c>
+      <c r="B2208" t="n">
+        <v>587</v>
+      </c>
+      <c r="C2208" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2208" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E2208" t="n">
+        <v>35</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2208" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2208" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2208" t="n">
+        <v>125</v>
+      </c>
+      <c r="J2208" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K2208" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L2208" t="n">
+        <v>-180</v>
+      </c>
+      <c r="M2208" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="n">
+        <v>325</v>
+      </c>
+      <c r="B2209" t="n">
+        <v>588</v>
+      </c>
+      <c r="C2209" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2209" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E2209" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2209" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2209" t="n">
+        <v>29</v>
+      </c>
+      <c r="H2209" t="n">
+        <v>24</v>
+      </c>
+      <c r="I2209" t="n">
+        <v>106</v>
+      </c>
+      <c r="J2209" t="n">
+        <v>235.5</v>
+      </c>
+      <c r="K2209" t="n">
+        <v>234</v>
+      </c>
+      <c r="L2209" t="n">
+        <v>160</v>
+      </c>
+      <c r="M2209" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="n">
+        <v>325</v>
+      </c>
+      <c r="B2210" t="n">
+        <v>589</v>
+      </c>
+      <c r="C2210" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2210" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E2210" t="n">
+        <v>35</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>29</v>
+      </c>
+      <c r="G2210" t="n">
+        <v>29</v>
+      </c>
+      <c r="H2210" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2210" t="n">
+        <v>122</v>
+      </c>
+      <c r="J2210" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K2210" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2210" t="n">
+        <v>-220</v>
+      </c>
+      <c r="M2210" t="n">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="n">
+        <v>325</v>
+      </c>
+      <c r="B2211" t="n">
+        <v>590</v>
+      </c>
+      <c r="C2211" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2211" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E2211" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2211" t="n">
+        <v>28</v>
+      </c>
+      <c r="H2211" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2211" t="n">
+        <v>97</v>
+      </c>
+      <c r="J2211" t="n">
+        <v>222</v>
+      </c>
+      <c r="K2211" t="n">
+        <v>218</v>
+      </c>
+      <c r="L2211" t="n">
+        <v>190</v>
+      </c>
+      <c r="M2211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" t="n">
+        <v>326</v>
+      </c>
+      <c r="B2212" t="n">
+        <v>501</v>
+      </c>
+      <c r="C2212" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2212" t="inlineStr">
+        <is>
+          <t>SanAntonio</t>
+        </is>
+      </c>
+      <c r="E2212" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2212" t="n">
+        <v>36</v>
+      </c>
+      <c r="G2212" t="n">
+        <v>26</v>
+      </c>
+      <c r="H2212" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2212" t="n">
+        <v>107</v>
+      </c>
+      <c r="J2212" t="n">
+        <v>234</v>
+      </c>
+      <c r="K2212" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="L2212" t="n">
+        <v>200</v>
+      </c>
+      <c r="M2212" t="n">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="n">
+        <v>326</v>
+      </c>
+      <c r="B2213" t="n">
+        <v>502</v>
+      </c>
+      <c r="C2213" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2213" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E2213" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2213" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2213" t="n">
+        <v>19</v>
+      </c>
+      <c r="I2213" t="n">
+        <v>103</v>
+      </c>
+      <c r="J2213" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2213" t="n">
+        <v>6</v>
+      </c>
+      <c r="L2213" t="n">
+        <v>-240</v>
+      </c>
+      <c r="M2213" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="n">
+        <v>326</v>
+      </c>
+      <c r="B2214" t="n">
+        <v>503</v>
+      </c>
+      <c r="C2214" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2214" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E2214" t="n">
+        <v>41</v>
+      </c>
+      <c r="F2214" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2214" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2214" t="n">
+        <v>24</v>
+      </c>
+      <c r="I2214" t="n">
+        <v>114</v>
+      </c>
+      <c r="J2214" t="n">
+        <v>224</v>
+      </c>
+      <c r="K2214" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="L2214" t="n">
+        <v>120</v>
+      </c>
+      <c r="M2214" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="n">
+        <v>326</v>
+      </c>
+      <c r="B2215" t="n">
+        <v>504</v>
+      </c>
+      <c r="C2215" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2215" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E2215" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2215" t="n">
+        <v>34</v>
+      </c>
+      <c r="G2215" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2215" t="n">
+        <v>21</v>
+      </c>
+      <c r="I2215" t="n">
+        <v>110</v>
+      </c>
+      <c r="J2215" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2215" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L2215" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M2215" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="n">
+        <v>326</v>
+      </c>
+      <c r="B2216" t="n">
+        <v>505</v>
+      </c>
+      <c r="C2216" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2216" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E2216" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2216" t="n">
+        <v>24</v>
+      </c>
+      <c r="H2216" t="n">
+        <v>21</v>
+      </c>
+      <c r="I2216" t="n">
+        <v>91</v>
+      </c>
+      <c r="J2216" t="n">
+        <v>227</v>
+      </c>
+      <c r="K2216" t="n">
+        <v>223</v>
+      </c>
+      <c r="L2216" t="n">
+        <v>500</v>
+      </c>
+      <c r="M2216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="n">
+        <v>326</v>
+      </c>
+      <c r="B2217" t="n">
+        <v>506</v>
+      </c>
+      <c r="C2217" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2217" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E2217" t="n">
+        <v>41</v>
+      </c>
+      <c r="F2217" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2217" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2217" t="n">
+        <v>35</v>
+      </c>
+      <c r="I2217" t="n">
+        <v>131</v>
+      </c>
+      <c r="J2217" t="n">
+        <v>9</v>
+      </c>
+      <c r="K2217" t="n">
+        <v>12</v>
+      </c>
+      <c r="L2217" t="n">
+        <v>-700</v>
+      </c>
+      <c r="M2217" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="n">
+        <v>326</v>
+      </c>
+      <c r="B2218" t="n">
+        <v>507</v>
+      </c>
+      <c r="C2218" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2218" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E2218" t="n">
+        <v>27</v>
+      </c>
+      <c r="F2218" t="n">
+        <v>40</v>
+      </c>
+      <c r="G2218" t="n">
+        <v>29</v>
+      </c>
+      <c r="H2218" t="n">
+        <v>14</v>
+      </c>
+      <c r="I2218" t="n">
+        <v>110</v>
+      </c>
+      <c r="J2218" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L2218" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M2218" t="n">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="n">
+        <v>326</v>
+      </c>
+      <c r="B2219" t="n">
+        <v>508</v>
+      </c>
+      <c r="C2219" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2219" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E2219" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2219" t="n">
+        <v>21</v>
+      </c>
+      <c r="G2219" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2219" t="n">
+        <v>27</v>
+      </c>
+      <c r="I2219" t="n">
+        <v>95</v>
+      </c>
+      <c r="J2219" t="n">
+        <v>227</v>
+      </c>
+      <c r="K2219" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="L2219" t="n">
+        <v>120</v>
+      </c>
+      <c r="M2219" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="n">
+        <v>326</v>
+      </c>
+      <c r="B2220" t="n">
+        <v>509</v>
+      </c>
+      <c r="C2220" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2220" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E2220" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>18</v>
+      </c>
+      <c r="G2220" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2220" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2220" t="n">
+        <v>102</v>
+      </c>
+      <c r="J2220" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="K2220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2220" t="n">
+        <v>-120</v>
+      </c>
+      <c r="M2220" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="n">
+        <v>326</v>
+      </c>
+      <c r="B2221" t="n">
+        <v>510</v>
+      </c>
+      <c r="C2221" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2221" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E2221" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2221" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2221" t="n">
+        <v>39</v>
+      </c>
+      <c r="H2221" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2221" t="n">
+        <v>127</v>
+      </c>
+      <c r="J2221" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2221" t="n">
+        <v>233.5</v>
+      </c>
+      <c r="L2221" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2221" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="n">
+        <v>326</v>
+      </c>
+      <c r="B2222" t="n">
+        <v>511</v>
+      </c>
+      <c r="C2222" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2222" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E2222" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2222" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2222" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2222" t="n">
+        <v>98</v>
+      </c>
+      <c r="J2222" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="K2222" t="n">
+        <v>223</v>
+      </c>
+      <c r="L2222" t="n">
+        <v>110</v>
+      </c>
+      <c r="M2222" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="n">
+        <v>326</v>
+      </c>
+      <c r="B2223" t="n">
+        <v>512</v>
+      </c>
+      <c r="C2223" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2223" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E2223" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>19</v>
+      </c>
+      <c r="G2223" t="n">
+        <v>28</v>
+      </c>
+      <c r="H2223" t="n">
+        <v>31</v>
+      </c>
+      <c r="I2223" t="n">
+        <v>94</v>
+      </c>
+      <c r="J2223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2223" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2223" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M2223" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="n">
+        <v>326</v>
+      </c>
+      <c r="B2224" t="n">
+        <v>513</v>
+      </c>
+      <c r="C2224" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2224" t="inlineStr">
+        <is>
+          <t>OklahomaCity</t>
+        </is>
+      </c>
+      <c r="E2224" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2224" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2224" t="n">
+        <v>31</v>
+      </c>
+      <c r="I2224" t="n">
+        <v>107</v>
+      </c>
+      <c r="J2224" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="K2224" t="n">
+        <v>229</v>
+      </c>
+      <c r="L2224" t="n">
+        <v>950</v>
+      </c>
+      <c r="M2224" t="n">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="n">
+        <v>326</v>
+      </c>
+      <c r="B2225" t="n">
+        <v>514</v>
+      </c>
+      <c r="C2225" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2225" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E2225" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2225" t="n">
+        <v>29</v>
+      </c>
+      <c r="H2225" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2225" t="n">
+        <v>113</v>
+      </c>
+      <c r="J2225" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K2225" t="n">
+        <v>17</v>
+      </c>
+      <c r="L2225" t="n">
+        <v>-1800</v>
+      </c>
+      <c r="M2225" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" t="n">
+        <v>326</v>
+      </c>
+      <c r="B2226" t="n">
+        <v>515</v>
+      </c>
+      <c r="C2226" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2226" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E2226" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>36</v>
+      </c>
+      <c r="G2226" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2226" t="n">
+        <v>30</v>
+      </c>
+      <c r="I2226" t="n">
+        <v>115</v>
+      </c>
+      <c r="J2226" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K2226" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L2226" t="n">
+        <v>-180</v>
+      </c>
+      <c r="M2226" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="n">
+        <v>326</v>
+      </c>
+      <c r="B2227" t="n">
+        <v>516</v>
+      </c>
+      <c r="C2227" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2227" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E2227" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>32</v>
+      </c>
+      <c r="G2227" t="n">
+        <v>18</v>
+      </c>
+      <c r="H2227" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2227" t="n">
+        <v>98</v>
+      </c>
+      <c r="J2227" t="n">
+        <v>232</v>
+      </c>
+      <c r="K2227" t="n">
+        <v>232.5</v>
+      </c>
+      <c r="L2227" t="n">
+        <v>160</v>
+      </c>
+      <c r="M2227" t="n">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="n">
+        <v>327</v>
+      </c>
+      <c r="B2228" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2228" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2228" t="inlineStr">
+        <is>
+          <t>NewYork</t>
+        </is>
+      </c>
+      <c r="E2228" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2228" t="n">
+        <v>21</v>
+      </c>
+      <c r="H2228" t="n">
+        <v>24</v>
+      </c>
+      <c r="I2228" t="n">
+        <v>104</v>
+      </c>
+      <c r="J2228" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2228" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2228" t="n">
+        <v>-185</v>
+      </c>
+      <c r="M2228" t="n">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="n">
+        <v>327</v>
+      </c>
+      <c r="B2229" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2229" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2229" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E2229" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2229" t="n">
+        <v>32</v>
+      </c>
+      <c r="H2229" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2229" t="n">
+        <v>102</v>
+      </c>
+      <c r="J2229" t="n">
+        <v>220</v>
+      </c>
+      <c r="K2229" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="L2229" t="n">
+        <v>165</v>
+      </c>
+      <c r="M2229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="n">
+        <v>327</v>
+      </c>
+      <c r="B2230" t="n">
+        <v>519</v>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2230" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E2230" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>19</v>
+      </c>
+      <c r="G2230" t="n">
+        <v>31</v>
+      </c>
+      <c r="H2230" t="n">
+        <v>32</v>
+      </c>
+      <c r="I2230" t="n">
+        <v>112</v>
+      </c>
+      <c r="J2230" t="n">
+        <v>227</v>
+      </c>
+      <c r="K2230" t="n">
+        <v>230</v>
+      </c>
+      <c r="L2230" t="n">
+        <v>210</v>
+      </c>
+      <c r="M2230" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="n">
+        <v>327</v>
+      </c>
+      <c r="B2231" t="n">
+        <v>520</v>
+      </c>
+      <c r="C2231" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2231" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E2231" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>38</v>
+      </c>
+      <c r="G2231" t="n">
+        <v>34</v>
+      </c>
+      <c r="H2231" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2231" t="n">
+        <v>134</v>
+      </c>
+      <c r="J2231" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K2231" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L2231" t="n">
+        <v>-250</v>
+      </c>
+      <c r="M2231" t="n">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="n">
+        <v>327</v>
+      </c>
+      <c r="B2232" t="n">
+        <v>521</v>
+      </c>
+      <c r="C2232" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2232" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E2232" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2232" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2232" t="n">
+        <v>34</v>
+      </c>
+      <c r="I2232" t="n">
+        <v>115</v>
+      </c>
+      <c r="J2232" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K2232" t="n">
+        <v>7</v>
+      </c>
+      <c r="L2232" t="n">
+        <v>-280</v>
+      </c>
+      <c r="M2232" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="n">
+        <v>327</v>
+      </c>
+      <c r="B2233" t="n">
+        <v>522</v>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2233" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E2233" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2233" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2233" t="n">
+        <v>31</v>
+      </c>
+      <c r="I2233" t="n">
+        <v>123</v>
+      </c>
+      <c r="J2233" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="K2233" t="n">
+        <v>217</v>
+      </c>
+      <c r="L2233" t="n">
+        <v>240</v>
+      </c>
+      <c r="M2233" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="n">
+        <v>327</v>
+      </c>
+      <c r="B2234" t="n">
+        <v>523</v>
+      </c>
+      <c r="C2234" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2234" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E2234" t="n">
+        <v>39</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2234" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2234" t="n">
+        <v>18</v>
+      </c>
+      <c r="I2234" t="n">
+        <v>104</v>
+      </c>
+      <c r="J2234" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="K2234" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="L2234" t="n">
+        <v>165</v>
+      </c>
+      <c r="M2234" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" t="n">
+        <v>327</v>
+      </c>
+      <c r="B2235" t="n">
+        <v>524</v>
+      </c>
+      <c r="C2235" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2235" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E2235" t="n">
+        <v>37</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>23</v>
+      </c>
+      <c r="G2235" t="n">
+        <v>31</v>
+      </c>
+      <c r="H2235" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2235" t="n">
+        <v>114</v>
+      </c>
+      <c r="J2235" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2235" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L2235" t="n">
+        <v>-185</v>
+      </c>
+      <c r="M2235" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" t="n">
+        <v>327</v>
+      </c>
+      <c r="B2236" t="n">
+        <v>525</v>
+      </c>
+      <c r="C2236" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2236" t="inlineStr">
+        <is>
+          <t>LALakers</t>
+        </is>
+      </c>
+      <c r="E2236" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>38</v>
+      </c>
+      <c r="G2236" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2236" t="n">
+        <v>14</v>
+      </c>
+      <c r="I2236" t="n">
+        <v>108</v>
+      </c>
+      <c r="J2236" t="n">
+        <v>228</v>
+      </c>
+      <c r="K2236" t="n">
+        <v>233.5</v>
+      </c>
+      <c r="L2236" t="n">
+        <v>140</v>
+      </c>
+      <c r="M2236" t="n">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="n">
+        <v>327</v>
+      </c>
+      <c r="B2237" t="n">
+        <v>526</v>
+      </c>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2237" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E2237" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2237" t="n">
+        <v>41</v>
+      </c>
+      <c r="H2237" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2237" t="n">
+        <v>116</v>
+      </c>
+      <c r="J2237" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2237" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2237" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M2237" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="n">
+        <v>327</v>
+      </c>
+      <c r="B2238" t="n">
+        <v>527</v>
+      </c>
+      <c r="C2238" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2238" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E2238" t="n">
+        <v>26</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2238" t="n">
+        <v>37</v>
+      </c>
+      <c r="H2238" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2238" t="n">
+        <v>119</v>
+      </c>
+      <c r="J2238" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="K2238" t="n">
+        <v>238</v>
+      </c>
+      <c r="L2238" t="n">
+        <v>225</v>
+      </c>
+      <c r="M2238" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="n">
+        <v>327</v>
+      </c>
+      <c r="B2239" t="n">
+        <v>528</v>
+      </c>
+      <c r="C2239" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2239" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E2239" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>28</v>
+      </c>
+      <c r="G2239" t="n">
+        <v>29</v>
+      </c>
+      <c r="H2239" t="n">
+        <v>21</v>
+      </c>
+      <c r="I2239" t="n">
+        <v>110</v>
+      </c>
+      <c r="J2239" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2239" t="n">
+        <v>7</v>
+      </c>
+      <c r="L2239" t="n">
+        <v>-265</v>
+      </c>
+      <c r="M2239" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" t="n">
+        <v>327</v>
+      </c>
+      <c r="B2240" t="n">
+        <v>529</v>
+      </c>
+      <c r="C2240" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2240" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E2240" t="n">
+        <v>29</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2240" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2240" t="n">
+        <v>21</v>
+      </c>
+      <c r="I2240" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2240" t="n">
+        <v>222</v>
+      </c>
+      <c r="K2240" t="n">
+        <v>217</v>
+      </c>
+      <c r="L2240" t="n">
+        <v>150</v>
+      </c>
+      <c r="M2240" t="n">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" t="n">
+        <v>327</v>
+      </c>
+      <c r="B2241" t="n">
+        <v>530</v>
+      </c>
+      <c r="C2241" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2241" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E2241" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>37</v>
+      </c>
+      <c r="G2241" t="n">
+        <v>32</v>
+      </c>
+      <c r="H2241" t="n">
+        <v>24</v>
+      </c>
+      <c r="I2241" t="n">
+        <v>114</v>
+      </c>
+      <c r="J2241" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K2241" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2241" t="n">
+        <v>-170</v>
+      </c>
+      <c r="M2241" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" t="n">
+        <v>328</v>
+      </c>
+      <c r="B2242" t="n">
+        <v>531</v>
+      </c>
+      <c r="C2242" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2242" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E2242" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2242" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2242" t="n">
+        <v>37</v>
+      </c>
+      <c r="H2242" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2242" t="n">
+        <v>113</v>
+      </c>
+      <c r="J2242" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K2242" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L2242" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M2242" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="n">
+        <v>328</v>
+      </c>
+      <c r="B2243" t="n">
+        <v>532</v>
+      </c>
+      <c r="C2243" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2243" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E2243" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2243" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2243" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2243" t="n">
+        <v>25</v>
+      </c>
+      <c r="I2243" t="n">
+        <v>109</v>
+      </c>
+      <c r="J2243" t="n">
+        <v>232.5</v>
+      </c>
+      <c r="K2243" t="n">
+        <v>232</v>
+      </c>
+      <c r="L2243" t="n">
+        <v>140</v>
+      </c>
+      <c r="M2243" t="n">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="n">
+        <v>328</v>
+      </c>
+      <c r="B2244" t="n">
+        <v>533</v>
+      </c>
+      <c r="C2244" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2244" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E2244" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2244" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2244" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2244" t="n">
+        <v>21</v>
+      </c>
+      <c r="I2244" t="n">
+        <v>101</v>
+      </c>
+      <c r="J2244" t="n">
+        <v>215</v>
+      </c>
+      <c r="K2244" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="L2244" t="n">
+        <v>330</v>
+      </c>
+      <c r="M2244" t="n">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="n">
+        <v>328</v>
+      </c>
+      <c r="B2245" t="n">
+        <v>534</v>
+      </c>
+      <c r="C2245" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2245" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E2245" t="n">
+        <v>27</v>
+      </c>
+      <c r="F2245" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2245" t="n">
+        <v>21</v>
+      </c>
+      <c r="H2245" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2245" t="n">
+        <v>107</v>
+      </c>
+      <c r="J2245" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2245" t="n">
+        <v>9</v>
+      </c>
+      <c r="L2245" t="n">
+        <v>-400</v>
+      </c>
+      <c r="M2245" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="n">
+        <v>328</v>
+      </c>
+      <c r="B2246" t="n">
+        <v>535</v>
+      </c>
+      <c r="C2246" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2246" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E2246" t="n">
+        <v>44</v>
+      </c>
+      <c r="F2246" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2246" t="n">
+        <v>28</v>
+      </c>
+      <c r="H2246" t="n">
+        <v>30</v>
+      </c>
+      <c r="I2246" t="n">
+        <v>132</v>
+      </c>
+      <c r="J2246" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2246" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L2246" t="n">
+        <v>-320</v>
+      </c>
+      <c r="M2246" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="n">
+        <v>328</v>
+      </c>
+      <c r="B2247" t="n">
+        <v>536</v>
+      </c>
+      <c r="C2247" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2247" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E2247" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2247" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2247" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2247" t="n">
+        <v>33</v>
+      </c>
+      <c r="I2247" t="n">
+        <v>123</v>
+      </c>
+      <c r="J2247" t="n">
+        <v>234.5</v>
+      </c>
+      <c r="K2247" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="L2247" t="n">
+        <v>265</v>
+      </c>
+      <c r="M2247" t="n">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" t="n">
+        <v>328</v>
+      </c>
+      <c r="B2248" t="n">
+        <v>537</v>
+      </c>
+      <c r="C2248" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2248" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E2248" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2248" t="n">
+        <v>22</v>
+      </c>
+      <c r="G2248" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2248" t="n">
+        <v>32</v>
+      </c>
+      <c r="I2248" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2248" t="n">
+        <v>220</v>
+      </c>
+      <c r="K2248" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="L2248" t="n">
+        <v>800</v>
+      </c>
+      <c r="M2248" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" t="n">
+        <v>328</v>
+      </c>
+      <c r="B2249" t="n">
+        <v>538</v>
+      </c>
+      <c r="C2249" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2249" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E2249" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2249" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2249" t="n">
+        <v>36</v>
+      </c>
+      <c r="H2249" t="n">
+        <v>30</v>
+      </c>
+      <c r="I2249" t="n">
+        <v>123</v>
+      </c>
+      <c r="J2249" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K2249" t="n">
+        <v>14</v>
+      </c>
+      <c r="L2249" t="n">
+        <v>-1400</v>
+      </c>
+      <c r="M2249" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" t="n">
+        <v>328</v>
+      </c>
+      <c r="B2250" t="n">
+        <v>539</v>
+      </c>
+      <c r="C2250" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2250" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E2250" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2250" t="n">
+        <v>22</v>
+      </c>
+      <c r="G2250" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2250" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2250" t="n">
+        <v>104</v>
+      </c>
+      <c r="J2250" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2250" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L2250" t="n">
+        <v>-165</v>
+      </c>
+      <c r="M2250" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" t="n">
+        <v>328</v>
+      </c>
+      <c r="B2251" t="n">
+        <v>540</v>
+      </c>
+      <c r="C2251" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2251" t="inlineStr">
+        <is>
+          <t>NewYork</t>
+        </is>
+      </c>
+      <c r="E2251" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2251" t="n">
+        <v>29</v>
+      </c>
+      <c r="G2251" t="n">
+        <v>28</v>
+      </c>
+      <c r="H2251" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2251" t="n">
+        <v>109</v>
+      </c>
+      <c r="J2251" t="n">
+        <v>223.5</v>
+      </c>
+      <c r="K2251" t="n">
+        <v>218</v>
+      </c>
+      <c r="L2251" t="n">
+        <v>145</v>
+      </c>
+      <c r="M2251" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" t="n">
+        <v>328</v>
+      </c>
+      <c r="B2252" t="n">
+        <v>541</v>
+      </c>
+      <c r="C2252" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2252" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E2252" t="n">
+        <v>38</v>
+      </c>
+      <c r="F2252" t="n">
+        <v>20</v>
+      </c>
+      <c r="G2252" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2252" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2252" t="n">
+        <v>112</v>
+      </c>
+      <c r="J2252" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2252" t="n">
+        <v>212</v>
+      </c>
+      <c r="L2252" t="n">
+        <v>300</v>
+      </c>
+      <c r="M2252" t="n">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" t="n">
+        <v>328</v>
+      </c>
+      <c r="B2253" t="n">
+        <v>542</v>
+      </c>
+      <c r="C2253" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2253" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E2253" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2253" t="n">
+        <v>29</v>
+      </c>
+      <c r="G2253" t="n">
+        <v>21</v>
+      </c>
+      <c r="H2253" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2253" t="n">
+        <v>115</v>
+      </c>
+      <c r="J2253" t="n">
+        <v>220</v>
+      </c>
+      <c r="K2253" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L2253" t="n">
+        <v>-360</v>
+      </c>
+      <c r="M2253" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" t="n">
+        <v>328</v>
+      </c>
+      <c r="B2254" t="n">
+        <v>543</v>
+      </c>
+      <c r="C2254" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2254" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E2254" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2254" t="n">
+        <v>21</v>
+      </c>
+      <c r="G2254" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2254" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2254" t="n">
+        <v>95</v>
+      </c>
+      <c r="J2254" t="n">
+        <v>225</v>
+      </c>
+      <c r="K2254" t="n">
+        <v>221</v>
+      </c>
+      <c r="L2254" t="n">
+        <v>360</v>
+      </c>
+      <c r="M2254" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" t="n">
+        <v>328</v>
+      </c>
+      <c r="B2255" t="n">
+        <v>544</v>
+      </c>
+      <c r="C2255" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2255" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E2255" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2255" t="n">
+        <v>43</v>
+      </c>
+      <c r="G2255" t="n">
+        <v>32</v>
+      </c>
+      <c r="H2255" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2255" t="n">
+        <v>123</v>
+      </c>
+      <c r="J2255" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2255" t="n">
+        <v>9</v>
+      </c>
+      <c r="L2255" t="n">
+        <v>-430</v>
+      </c>
+      <c r="M2255" t="n">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" t="n">
+        <v>328</v>
+      </c>
+      <c r="B2256" t="n">
+        <v>545</v>
+      </c>
+      <c r="C2256" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2256" t="inlineStr">
+        <is>
+          <t>SanAntonio</t>
+        </is>
+      </c>
+      <c r="E2256" t="n">
+        <v>39</v>
+      </c>
+      <c r="F2256" t="n">
+        <v>28</v>
+      </c>
+      <c r="G2256" t="n">
+        <v>29</v>
+      </c>
+      <c r="H2256" t="n">
+        <v>27</v>
+      </c>
+      <c r="I2256" t="n">
+        <v>123</v>
+      </c>
+      <c r="J2256" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K2256" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L2256" t="n">
+        <v>-420</v>
+      </c>
+      <c r="M2256" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" t="n">
+        <v>328</v>
+      </c>
+      <c r="B2257" t="n">
+        <v>546</v>
+      </c>
+      <c r="C2257" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2257" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E2257" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2257" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2257" t="n">
+        <v>29</v>
+      </c>
+      <c r="H2257" t="n">
+        <v>36</v>
+      </c>
+      <c r="I2257" t="n">
+        <v>120</v>
+      </c>
+      <c r="J2257" t="n">
+        <v>238</v>
+      </c>
+      <c r="K2257" t="n">
+        <v>233</v>
+      </c>
+      <c r="L2257" t="n">
+        <v>350</v>
+      </c>
+      <c r="M2257" t="n">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" t="n">
+        <v>328</v>
+      </c>
+      <c r="B2258" t="n">
+        <v>547</v>
+      </c>
+      <c r="C2258" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2258" t="inlineStr">
+        <is>
+          <t>OklahomaCity</t>
+        </is>
+      </c>
+      <c r="E2258" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2258" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2258" t="n">
+        <v>23</v>
+      </c>
+      <c r="H2258" t="n">
+        <v>34</v>
+      </c>
+      <c r="I2258" t="n">
+        <v>134</v>
+      </c>
+      <c r="J2258" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K2258" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="L2258" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2258" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" t="n">
+        <v>328</v>
+      </c>
+      <c r="B2259" t="n">
+        <v>548</v>
+      </c>
+      <c r="C2259" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2259" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E2259" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2259" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2259" t="n">
+        <v>28</v>
+      </c>
+      <c r="H2259" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2259" t="n">
+        <v>131</v>
+      </c>
+      <c r="J2259" t="n">
+        <v>223</v>
+      </c>
+      <c r="K2259" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L2259" t="n">
+        <v>-120</v>
+      </c>
+      <c r="M2259" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" t="n">
+        <v>329</v>
+      </c>
+      <c r="B2260" t="n">
+        <v>549</v>
+      </c>
+      <c r="C2260" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2260" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E2260" t="n">
+        <v>27</v>
+      </c>
+      <c r="F2260" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2260" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2260" t="n">
+        <v>37</v>
+      </c>
+      <c r="I2260" t="n">
+        <v>118</v>
+      </c>
+      <c r="J2260" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="K2260" t="n">
+        <v>232</v>
+      </c>
+      <c r="L2260" t="n">
+        <v>-110</v>
+      </c>
+      <c r="M2260" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="n">
+        <v>329</v>
+      </c>
+      <c r="B2261" t="n">
+        <v>550</v>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2261" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E2261" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2261" t="n">
+        <v>37</v>
+      </c>
+      <c r="G2261" t="n">
+        <v>28</v>
+      </c>
+      <c r="H2261" t="n">
+        <v>27</v>
+      </c>
+      <c r="I2261" t="n">
+        <v>116</v>
+      </c>
+      <c r="J2261" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K2261" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="L2261" t="n">
+        <v>-110</v>
+      </c>
+      <c r="M2261" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="n">
+        <v>329</v>
+      </c>
+      <c r="B2262" t="n">
+        <v>551</v>
+      </c>
+      <c r="C2262" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2262" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E2262" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2262" t="n">
+        <v>23</v>
+      </c>
+      <c r="G2262" t="n">
+        <v>24</v>
+      </c>
+      <c r="H2262" t="n">
+        <v>32</v>
+      </c>
+      <c r="I2262" t="n">
+        <v>107</v>
+      </c>
+      <c r="J2262" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2262" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2262" t="n">
+        <v>-175</v>
+      </c>
+      <c r="M2262" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="n">
+        <v>329</v>
+      </c>
+      <c r="B2263" t="n">
+        <v>552</v>
+      </c>
+      <c r="C2263" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2263" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E2263" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2263" t="n">
+        <v>23</v>
+      </c>
+      <c r="G2263" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2263" t="n">
+        <v>21</v>
+      </c>
+      <c r="I2263" t="n">
+        <v>94</v>
+      </c>
+      <c r="J2263" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="K2263" t="n">
+        <v>223.5</v>
+      </c>
+      <c r="L2263" t="n">
+        <v>155</v>
+      </c>
+      <c r="M2263" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" t="n">
+        <v>329</v>
+      </c>
+      <c r="B2264" t="n">
+        <v>553</v>
+      </c>
+      <c r="C2264" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2264" t="inlineStr">
+        <is>
+          <t>LALakers</t>
+        </is>
+      </c>
+      <c r="E2264" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2264" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2264" t="n">
+        <v>28</v>
+      </c>
+      <c r="H2264" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2264" t="n">
+        <v>110</v>
+      </c>
+      <c r="J2264" t="n">
+        <v>222</v>
+      </c>
+      <c r="K2264" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="L2264" t="n">
+        <v>550</v>
+      </c>
+      <c r="M2264" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" t="n">
+        <v>329</v>
+      </c>
+      <c r="B2265" t="n">
+        <v>554</v>
+      </c>
+      <c r="C2265" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2265" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E2265" t="n">
+        <v>43</v>
+      </c>
+      <c r="F2265" t="n">
+        <v>39</v>
+      </c>
+      <c r="G2265" t="n">
+        <v>31</v>
+      </c>
+      <c r="H2265" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2265" t="n">
+        <v>128</v>
+      </c>
+      <c r="J2265" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K2265" t="n">
+        <v>12</v>
+      </c>
+      <c r="L2265" t="n">
+        <v>-800</v>
+      </c>
+      <c r="M2265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" t="n">
+        <v>329</v>
+      </c>
+      <c r="B2266" t="n">
+        <v>555</v>
+      </c>
+      <c r="C2266" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2266" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E2266" t="n">
+        <v>35</v>
+      </c>
+      <c r="F2266" t="n">
+        <v>29</v>
+      </c>
+      <c r="G2266" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2266" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2266" t="n">
+        <v>123</v>
+      </c>
+      <c r="J2266" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="K2266" t="n">
+        <v>233.5</v>
+      </c>
+      <c r="L2266" t="n">
+        <v>750</v>
+      </c>
+      <c r="M2266" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" t="n">
+        <v>329</v>
+      </c>
+      <c r="B2267" t="n">
+        <v>556</v>
+      </c>
+      <c r="C2267" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2267" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E2267" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2267" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2267" t="n">
+        <v>38</v>
+      </c>
+      <c r="H2267" t="n">
+        <v>34</v>
+      </c>
+      <c r="I2267" t="n">
+        <v>130</v>
+      </c>
+      <c r="J2267" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K2267" t="n">
+        <v>14</v>
+      </c>
+      <c r="L2267" t="n">
+        <v>-1200</v>
+      </c>
+      <c r="M2267" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" t="n">
+        <v>329</v>
+      </c>
+      <c r="B2268" t="n">
+        <v>557</v>
+      </c>
+      <c r="C2268" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2268" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E2268" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2268" t="n">
+        <v>29</v>
+      </c>
+      <c r="G2268" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2268" t="n">
+        <v>21</v>
+      </c>
+      <c r="I2268" t="n">
+        <v>115</v>
+      </c>
+      <c r="J2268" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K2268" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L2268" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M2268" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" t="n">
+        <v>329</v>
+      </c>
+      <c r="B2269" t="n">
+        <v>558</v>
+      </c>
+      <c r="C2269" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2269" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E2269" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2269" t="n">
+        <v>34</v>
+      </c>
+      <c r="G2269" t="n">
+        <v>34</v>
+      </c>
+      <c r="H2269" t="n">
+        <v>39</v>
+      </c>
+      <c r="I2269" t="n">
+        <v>121</v>
+      </c>
+      <c r="J2269" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="K2269" t="n">
+        <v>217</v>
+      </c>
+      <c r="L2269" t="n">
+        <v>120</v>
+      </c>
+      <c r="M2269" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2270" t="n">
+        <v>559</v>
+      </c>
+      <c r="C2270" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2270" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E2270" t="n">
+        <v>43</v>
+      </c>
+      <c r="F2270" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2270" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2270" t="n">
+        <v>34</v>
+      </c>
+      <c r="I2270" t="n">
+        <v>125</v>
+      </c>
+      <c r="J2270" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K2270" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2270" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M2270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2271" t="n">
+        <v>560</v>
+      </c>
+      <c r="C2271" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2271" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E2271" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2271" t="n">
+        <v>38</v>
+      </c>
+      <c r="G2271" t="n">
+        <v>38</v>
+      </c>
+      <c r="H2271" t="n">
+        <v>27</v>
+      </c>
+      <c r="I2271" t="n">
+        <v>118</v>
+      </c>
+      <c r="J2271" t="n">
+        <v>232.5</v>
+      </c>
+      <c r="K2271" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="L2271" t="n">
+        <v>400</v>
+      </c>
+      <c r="M2271" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2272" t="n">
+        <v>561</v>
+      </c>
+      <c r="C2272" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2272" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E2272" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2272" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2272" t="n">
+        <v>39</v>
+      </c>
+      <c r="H2272" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2272" t="n">
+        <v>120</v>
+      </c>
+      <c r="J2272" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2272" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L2272" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M2272" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2273" t="n">
+        <v>562</v>
+      </c>
+      <c r="C2273" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2273" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E2273" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2273" t="n">
+        <v>37</v>
+      </c>
+      <c r="G2273" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2273" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2273" t="n">
+        <v>112</v>
+      </c>
+      <c r="J2273" t="n">
+        <v>215</v>
+      </c>
+      <c r="K2273" t="n">
+        <v>215</v>
+      </c>
+      <c r="L2273" t="n">
+        <v>110</v>
+      </c>
+      <c r="M2273" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2274" t="n">
+        <v>563</v>
+      </c>
+      <c r="C2274" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2274" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E2274" t="n">
+        <v>35</v>
+      </c>
+      <c r="F2274" t="n">
+        <v>21</v>
+      </c>
+      <c r="G2274" t="n">
+        <v>23</v>
+      </c>
+      <c r="H2274" t="n">
+        <v>31</v>
+      </c>
+      <c r="I2274" t="n">
+        <v>110</v>
+      </c>
+      <c r="J2274" t="n">
+        <v>223</v>
+      </c>
+      <c r="K2274" t="n">
+        <v>219</v>
+      </c>
+      <c r="L2274" t="n">
+        <v>145</v>
+      </c>
+      <c r="M2274" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2275" t="n">
+        <v>564</v>
+      </c>
+      <c r="C2275" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2275" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E2275" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2275" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2275" t="n">
+        <v>28</v>
+      </c>
+      <c r="H2275" t="n">
+        <v>41</v>
+      </c>
+      <c r="I2275" t="n">
+        <v>127</v>
+      </c>
+      <c r="J2275" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2275" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2275" t="n">
+        <v>-165</v>
+      </c>
+      <c r="M2275" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2276" t="n">
+        <v>565</v>
+      </c>
+      <c r="C2276" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2276" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E2276" t="n">
+        <v>29</v>
+      </c>
+      <c r="F2276" t="n">
+        <v>29</v>
+      </c>
+      <c r="G2276" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2276" t="n">
+        <v>34</v>
+      </c>
+      <c r="I2276" t="n">
+        <v>125</v>
+      </c>
+      <c r="J2276" t="n">
+        <v>226</v>
+      </c>
+      <c r="K2276" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L2276" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M2276" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2277" t="n">
+        <v>566</v>
+      </c>
+      <c r="C2277" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2277" t="inlineStr">
+        <is>
+          <t>NewYork</t>
+        </is>
+      </c>
+      <c r="E2277" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2277" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2277" t="n">
+        <v>28</v>
+      </c>
+      <c r="H2277" t="n">
+        <v>31</v>
+      </c>
+      <c r="I2277" t="n">
+        <v>114</v>
+      </c>
+      <c r="J2277" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="K2277" t="n">
+        <v>223.5</v>
+      </c>
+      <c r="L2277" t="n">
+        <v>120</v>
+      </c>
+      <c r="M2277" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2278" t="n">
+        <v>567</v>
+      </c>
+      <c r="C2278" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2278" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E2278" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2278" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2278" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2278" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2278" t="n">
+        <v>102</v>
+      </c>
+      <c r="J2278" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="K2278" t="n">
+        <v>229</v>
+      </c>
+      <c r="L2278" t="n">
+        <v>120</v>
+      </c>
+      <c r="M2278" t="n">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2279" t="n">
+        <v>568</v>
+      </c>
+      <c r="C2279" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2279" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E2279" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2279" t="n">
+        <v>42</v>
+      </c>
+      <c r="G2279" t="n">
+        <v>35</v>
+      </c>
+      <c r="H2279" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2279" t="n">
+        <v>125</v>
+      </c>
+      <c r="J2279" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2279" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L2279" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M2279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2280" t="n">
+        <v>569</v>
+      </c>
+      <c r="C2280" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2280" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E2280" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2280" t="n">
+        <v>28</v>
+      </c>
+      <c r="G2280" t="n">
+        <v>26</v>
+      </c>
+      <c r="H2280" t="n">
+        <v>27</v>
+      </c>
+      <c r="I2280" t="n">
+        <v>106</v>
+      </c>
+      <c r="J2280" t="n">
+        <v>214</v>
+      </c>
+      <c r="K2280" t="n">
+        <v>213</v>
+      </c>
+      <c r="L2280" t="n">
+        <v>175</v>
+      </c>
+      <c r="M2280" t="n">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2281" t="n">
+        <v>570</v>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2281" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E2281" t="n">
+        <v>29</v>
+      </c>
+      <c r="F2281" t="n">
+        <v>23</v>
+      </c>
+      <c r="G2281" t="n">
+        <v>31</v>
+      </c>
+      <c r="H2281" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2281" t="n">
+        <v>98</v>
+      </c>
+      <c r="J2281" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2281" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2281" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M2281" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2282" t="n">
+        <v>571</v>
+      </c>
+      <c r="C2282" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2282" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E2282" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2282" t="n">
+        <v>44</v>
+      </c>
+      <c r="G2282" t="n">
+        <v>32</v>
+      </c>
+      <c r="H2282" t="n">
+        <v>17</v>
+      </c>
+      <c r="I2282" t="n">
+        <v>121</v>
+      </c>
+      <c r="J2282" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2282" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2282" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M2282" t="n">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2283" t="n">
+        <v>572</v>
+      </c>
+      <c r="C2283" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2283" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E2283" t="n">
+        <v>39</v>
+      </c>
+      <c r="F2283" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2283" t="n">
+        <v>37</v>
+      </c>
+      <c r="H2283" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2283" t="n">
+        <v>118</v>
+      </c>
+      <c r="J2283" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="K2283" t="n">
+        <v>231</v>
+      </c>
+      <c r="L2283" t="n">
+        <v>130</v>
+      </c>
+      <c r="M2283" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2284" t="n">
+        <v>573</v>
+      </c>
+      <c r="C2284" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2284" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E2284" t="n">
+        <v>42</v>
+      </c>
+      <c r="F2284" t="n">
+        <v>43</v>
+      </c>
+      <c r="G2284" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2284" t="n">
+        <v>21</v>
+      </c>
+      <c r="I2284" t="n">
+        <v>136</v>
+      </c>
+      <c r="J2284" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2284" t="n">
+        <v>13</v>
+      </c>
+      <c r="L2284" t="n">
+        <v>-900</v>
+      </c>
+      <c r="M2284" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2285" t="n">
+        <v>574</v>
+      </c>
+      <c r="C2285" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2285" t="inlineStr">
+        <is>
+          <t>OklahomaCity</t>
+        </is>
+      </c>
+      <c r="E2285" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2285" t="n">
+        <v>34</v>
+      </c>
+      <c r="G2285" t="n">
+        <v>31</v>
+      </c>
+      <c r="H2285" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2285" t="n">
+        <v>118</v>
+      </c>
+      <c r="J2285" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="K2285" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="L2285" t="n">
+        <v>600</v>
+      </c>
+      <c r="M2285" t="n">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2286" t="n">
+        <v>575</v>
+      </c>
+      <c r="C2286" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2286" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E2286" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2286" t="n">
+        <v>34</v>
+      </c>
+      <c r="G2286" t="n">
+        <v>28</v>
+      </c>
+      <c r="H2286" t="n">
+        <v>19</v>
+      </c>
+      <c r="I2286" t="n">
+        <v>112</v>
+      </c>
+      <c r="J2286" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K2286" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2286" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M2286" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2287" t="n">
+        <v>576</v>
+      </c>
+      <c r="C2287" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2287" t="inlineStr">
+        <is>
+          <t>SanAntonio</t>
+        </is>
+      </c>
+      <c r="E2287" t="n">
+        <v>27</v>
+      </c>
+      <c r="F2287" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2287" t="n">
+        <v>34</v>
+      </c>
+      <c r="H2287" t="n">
+        <v>25</v>
+      </c>
+      <c r="I2287" t="n">
+        <v>111</v>
+      </c>
+      <c r="J2287" t="n">
+        <v>31</v>
+      </c>
+      <c r="K2287" t="n">
+        <v>234</v>
+      </c>
+      <c r="L2287" t="n">
+        <v>175</v>
+      </c>
+      <c r="M2287" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2288" t="n">
+        <v>577</v>
+      </c>
+      <c r="C2288" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2288" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E2288" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2288" t="n">
+        <v>19</v>
+      </c>
+      <c r="G2288" t="n">
+        <v>34</v>
+      </c>
+      <c r="H2288" t="n">
+        <v>32</v>
+      </c>
+      <c r="I2288" t="n">
+        <v>117</v>
+      </c>
+      <c r="J2288" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2288" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2288" t="n">
+        <v>-1500</v>
+      </c>
+      <c r="M2288" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2289" t="n">
+        <v>578</v>
+      </c>
+      <c r="C2289" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2289" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E2289" t="n">
+        <v>36</v>
+      </c>
+      <c r="F2289" t="n">
+        <v>18</v>
+      </c>
+      <c r="G2289" t="n">
+        <v>28</v>
+      </c>
+      <c r="H2289" t="n">
+        <v>25</v>
+      </c>
+      <c r="I2289" t="n">
+        <v>107</v>
+      </c>
+      <c r="J2289" t="n">
+        <v>228</v>
+      </c>
+      <c r="K2289" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="L2289" t="n">
+        <v>850</v>
+      </c>
+      <c r="M2289" t="n">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2290" t="n">
+        <v>579</v>
+      </c>
+      <c r="C2290" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2290" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E2290" t="n">
+        <v>29</v>
+      </c>
+      <c r="F2290" t="n">
+        <v>21</v>
+      </c>
+      <c r="G2290" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2290" t="n">
+        <v>30</v>
+      </c>
+      <c r="I2290" t="n">
+        <v>107</v>
+      </c>
+      <c r="J2290" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K2290" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2290" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M2290" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" t="n">
+        <v>330</v>
+      </c>
+      <c r="B2291" t="n">
+        <v>580</v>
+      </c>
+      <c r="C2291" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2291" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E2291" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2291" t="n">
+        <v>16</v>
+      </c>
+      <c r="G2291" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2291" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2291" t="n">
+        <v>103</v>
+      </c>
+      <c r="J2291" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="K2291" t="n">
+        <v>222</v>
+      </c>
+      <c r="L2291" t="n">
+        <v>175</v>
+      </c>
+      <c r="M2291" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="n">
+        <v>331</v>
+      </c>
+      <c r="B2292" t="n">
+        <v>581</v>
+      </c>
+      <c r="C2292" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E2292" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2292" t="n">
+        <v>29</v>
+      </c>
+      <c r="G2292" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2292" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2292" t="n">
+        <v>94</v>
+      </c>
+      <c r="J2292" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K2292" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L2292" t="n">
+        <v>-450</v>
+      </c>
+      <c r="M2292" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="n">
+        <v>331</v>
+      </c>
+      <c r="B2293" t="n">
+        <v>582</v>
+      </c>
+      <c r="C2293" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2293" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E2293" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2293" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2293" t="n">
+        <v>23</v>
+      </c>
+      <c r="H2293" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2293" t="n">
+        <v>102</v>
+      </c>
+      <c r="J2293" t="n">
+        <v>223</v>
+      </c>
+      <c r="K2293" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="L2293" t="n">
+        <v>375</v>
+      </c>
+      <c r="M2293" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="n">
+        <v>331</v>
+      </c>
+      <c r="B2294" t="n">
+        <v>583</v>
+      </c>
+      <c r="C2294" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2294" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E2294" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2294" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2294" t="n">
+        <v>31</v>
+      </c>
+      <c r="H2294" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2294" t="n">
+        <v>120</v>
+      </c>
+      <c r="J2294" t="n">
+        <v>238</v>
+      </c>
+      <c r="K2294" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="L2294" t="n">
+        <v>105</v>
+      </c>
+      <c r="M2294" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="n">
+        <v>331</v>
+      </c>
+      <c r="B2295" t="n">
+        <v>584</v>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2295" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E2295" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2295" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2295" t="n">
+        <v>26</v>
+      </c>
+      <c r="H2295" t="n">
+        <v>24</v>
+      </c>
+      <c r="I2295" t="n">
+        <v>119</v>
+      </c>
+      <c r="J2295" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2295" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2295" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M2295" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="n">
+        <v>331</v>
+      </c>
+      <c r="B2296" t="n">
+        <v>585</v>
+      </c>
+      <c r="C2296" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2296" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E2296" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2296" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2296" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2296" t="n">
+        <v>32</v>
+      </c>
+      <c r="I2296" t="n">
+        <v>107</v>
+      </c>
+      <c r="J2296" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="K2296" t="n">
+        <v>229</v>
+      </c>
+      <c r="L2296" t="n">
+        <v>215</v>
+      </c>
+      <c r="M2296" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="n">
+        <v>331</v>
+      </c>
+      <c r="B2297" t="n">
+        <v>586</v>
+      </c>
+      <c r="C2297" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2297" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E2297" t="n">
+        <v>36</v>
+      </c>
+      <c r="F2297" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2297" t="n">
+        <v>34</v>
+      </c>
+      <c r="H2297" t="n">
+        <v>31</v>
+      </c>
+      <c r="I2297" t="n">
+        <v>131</v>
+      </c>
+      <c r="J2297" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K2297" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L2297" t="n">
+        <v>-255</v>
+      </c>
+      <c r="M2297" t="n">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="n">
+        <v>331</v>
+      </c>
+      <c r="B2298" t="n">
+        <v>587</v>
+      </c>
+      <c r="C2298" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2298" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E2298" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2298" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2298" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2298" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2298" t="n">
+        <v>130</v>
+      </c>
+      <c r="J2298" t="n">
+        <v>223</v>
+      </c>
+      <c r="K2298" t="n">
+        <v>221</v>
+      </c>
+      <c r="L2298" t="n">
+        <v>115</v>
+      </c>
+      <c r="M2298" t="n">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="n">
+        <v>331</v>
+      </c>
+      <c r="B2299" t="n">
+        <v>588</v>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2299" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E2299" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2299" t="n">
+        <v>28</v>
+      </c>
+      <c r="G2299" t="n">
+        <v>32</v>
+      </c>
+      <c r="H2299" t="n">
+        <v>36</v>
+      </c>
+      <c r="I2299" t="n">
+        <v>135</v>
+      </c>
+      <c r="J2299" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2299" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L2299" t="n">
+        <v>-135</v>
+      </c>
+      <c r="M2299" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="n">
+        <v>331</v>
+      </c>
+      <c r="B2300" t="n">
+        <v>589</v>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2300" t="inlineStr">
+        <is>
+          <t>LALakers</t>
+        </is>
+      </c>
+      <c r="E2300" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2300" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2300" t="n">
+        <v>24</v>
+      </c>
+      <c r="I2300" t="n">
+        <v>109</v>
+      </c>
+      <c r="J2300" t="n">
+        <v>225</v>
+      </c>
+      <c r="K2300" t="n">
+        <v>228</v>
+      </c>
+      <c r="L2300" t="n">
+        <v>650</v>
+      </c>
+      <c r="M2300" t="n">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="n">
+        <v>331</v>
+      </c>
+      <c r="B2301" t="n">
+        <v>590</v>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E2301" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>32</v>
+      </c>
+      <c r="G2301" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2301" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2301" t="n">
+        <v>122</v>
+      </c>
+      <c r="J2301" t="n">
+        <v>9</v>
+      </c>
+      <c r="K2301" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L2301" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="M2301" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="n">
+        <v>401</v>
+      </c>
+      <c r="B2302" t="n">
+        <v>501</v>
+      </c>
+      <c r="C2302" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2302" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E2302" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2302" t="n">
+        <v>23</v>
+      </c>
+      <c r="G2302" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2302" t="n">
+        <v>25</v>
+      </c>
+      <c r="I2302" t="n">
+        <v>103</v>
+      </c>
+      <c r="J2302" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K2302" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L2302" t="n">
+        <v>-335</v>
+      </c>
+      <c r="M2302" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="n">
+        <v>401</v>
+      </c>
+      <c r="B2303" t="n">
+        <v>502</v>
+      </c>
+      <c r="C2303" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2303" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E2303" t="n">
+        <v>41</v>
+      </c>
+      <c r="F2303" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2303" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2303" t="n">
+        <v>41</v>
+      </c>
+      <c r="I2303" t="n">
+        <v>135</v>
+      </c>
+      <c r="J2303" t="n">
+        <v>220</v>
+      </c>
+      <c r="K2303" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="L2303" t="n">
+        <v>275</v>
+      </c>
+      <c r="M2303" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="n">
+        <v>401</v>
+      </c>
+      <c r="B2304" t="n">
+        <v>503</v>
+      </c>
+      <c r="C2304" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2304" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E2304" t="n">
+        <v>29</v>
+      </c>
+      <c r="F2304" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2304" t="n">
+        <v>26</v>
+      </c>
+      <c r="H2304" t="n">
+        <v>17</v>
+      </c>
+      <c r="I2304" t="n">
+        <v>102</v>
+      </c>
+      <c r="J2304" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K2304" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L2304" t="n">
+        <v>-650</v>
+      </c>
+      <c r="M2304" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="n">
+        <v>401</v>
+      </c>
+      <c r="B2305" t="n">
+        <v>504</v>
+      </c>
+      <c r="C2305" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2305" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E2305" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2305" t="n">
+        <v>23</v>
+      </c>
+      <c r="G2305" t="n">
+        <v>17</v>
+      </c>
+      <c r="H2305" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2305" t="n">
+        <v>89</v>
+      </c>
+      <c r="J2305" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="K2305" t="n">
+        <v>217</v>
+      </c>
+      <c r="L2305" t="n">
+        <v>475</v>
+      </c>
+      <c r="M2305" t="n">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" t="n">
+        <v>401</v>
+      </c>
+      <c r="B2306" t="n">
+        <v>505</v>
+      </c>
+      <c r="C2306" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2306" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E2306" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2306" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2306" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2306" t="n">
+        <v>32</v>
+      </c>
+      <c r="I2306" t="n">
+        <v>123</v>
+      </c>
+      <c r="J2306" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="K2306" t="n">
+        <v>227</v>
+      </c>
+      <c r="L2306" t="n">
+        <v>900</v>
+      </c>
+      <c r="M2306" t="n">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="n">
+        <v>401</v>
+      </c>
+      <c r="B2307" t="n">
+        <v>506</v>
+      </c>
+      <c r="C2307" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2307" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E2307" t="n">
+        <v>37</v>
+      </c>
+      <c r="F2307" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2307" t="n">
+        <v>28</v>
+      </c>
+      <c r="H2307" t="n">
+        <v>32</v>
+      </c>
+      <c r="I2307" t="n">
+        <v>128</v>
+      </c>
+      <c r="J2307" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K2307" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2307" t="n">
+        <v>-1600</v>
+      </c>
+      <c r="M2307" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="n">
+        <v>401</v>
+      </c>
+      <c r="B2308" t="n">
+        <v>507</v>
+      </c>
+      <c r="C2308" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2308" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E2308" t="n">
+        <v>26</v>
+      </c>
+      <c r="F2308" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2308" t="n">
+        <v>29</v>
+      </c>
+      <c r="H2308" t="n">
+        <v>36</v>
+      </c>
+      <c r="I2308" t="n">
+        <v>122</v>
+      </c>
+      <c r="J2308" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2308" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L2308" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M2308" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" t="n">
+        <v>401</v>
+      </c>
+      <c r="B2309" t="n">
+        <v>508</v>
+      </c>
+      <c r="C2309" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2309" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E2309" t="n">
+        <v>41</v>
+      </c>
+      <c r="F2309" t="n">
+        <v>21</v>
+      </c>
+      <c r="G2309" t="n">
+        <v>29</v>
+      </c>
+      <c r="H2309" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2309" t="n">
+        <v>117</v>
+      </c>
+      <c r="J2309" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="K2309" t="n">
+        <v>235</v>
+      </c>
+      <c r="L2309" t="n">
+        <v>140</v>
+      </c>
+      <c r="M2309" t="n">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" t="n">
+        <v>401</v>
+      </c>
+      <c r="B2310" t="n">
+        <v>509</v>
+      </c>
+      <c r="C2310" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2310" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E2310" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2310" t="n">
+        <v>39</v>
+      </c>
+      <c r="G2310" t="n">
+        <v>41</v>
+      </c>
+      <c r="H2310" t="n">
+        <v>39</v>
+      </c>
+      <c r="I2310" t="n">
+        <v>153</v>
+      </c>
+      <c r="J2310" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K2310" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="L2310" t="n">
+        <v>145</v>
+      </c>
+      <c r="M2310" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" t="n">
+        <v>401</v>
+      </c>
+      <c r="B2311" t="n">
+        <v>510</v>
+      </c>
+      <c r="C2311" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2311" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E2311" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2311" t="n">
+        <v>32</v>
+      </c>
+      <c r="G2311" t="n">
+        <v>26</v>
+      </c>
+      <c r="H2311" t="n">
+        <v>31</v>
+      </c>
+      <c r="I2311" t="n">
+        <v>119</v>
+      </c>
+      <c r="J2311" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K2311" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L2311" t="n">
+        <v>-165</v>
+      </c>
+      <c r="M2311" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" t="n">
+        <v>401</v>
+      </c>
+      <c r="B2312" t="n">
+        <v>511</v>
+      </c>
+      <c r="C2312" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2312" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E2312" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2312" t="n">
+        <v>34</v>
+      </c>
+      <c r="G2312" t="n">
+        <v>28</v>
+      </c>
+      <c r="H2312" t="n">
+        <v>27</v>
+      </c>
+      <c r="I2312" t="n">
+        <v>110</v>
+      </c>
+      <c r="J2312" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K2312" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L2312" t="n">
+        <v>-180</v>
+      </c>
+      <c r="M2312" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" t="n">
+        <v>401</v>
+      </c>
+      <c r="B2313" t="n">
+        <v>512</v>
+      </c>
+      <c r="C2313" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2313" t="inlineStr">
+        <is>
+          <t>OklahomaCity</t>
+        </is>
+      </c>
+      <c r="E2313" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2313" t="n">
+        <v>32</v>
+      </c>
+      <c r="G2313" t="n">
+        <v>14</v>
+      </c>
+      <c r="H2313" t="n">
+        <v>35</v>
+      </c>
+      <c r="I2313" t="n">
+        <v>101</v>
+      </c>
+      <c r="J2313" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="K2313" t="n">
+        <v>222</v>
+      </c>
+      <c r="L2313" t="n">
+        <v>160</v>
+      </c>
+      <c r="M2313" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" t="n">
+        <v>401</v>
+      </c>
+      <c r="B2314" t="n">
+        <v>513</v>
+      </c>
+      <c r="C2314" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2314" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E2314" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2314" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2314" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2314" t="n">
+        <v>31</v>
+      </c>
+      <c r="I2314" t="n">
+        <v>114</v>
+      </c>
+      <c r="J2314" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2314" t="n">
+        <v>8</v>
+      </c>
+      <c r="L2314" t="n">
+        <v>-320</v>
+      </c>
+      <c r="M2314" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" t="n">
+        <v>401</v>
+      </c>
+      <c r="B2315" t="n">
+        <v>514</v>
+      </c>
+      <c r="C2315" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2315" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E2315" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2315" t="n">
+        <v>20</v>
+      </c>
+      <c r="G2315" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2315" t="n">
+        <v>38</v>
+      </c>
+      <c r="I2315" t="n">
+        <v>122</v>
+      </c>
+      <c r="J2315" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="K2315" t="n">
+        <v>229</v>
+      </c>
+      <c r="L2315" t="n">
+        <v>265</v>
+      </c>
+      <c r="M2315" t="n">
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" t="n">
+        <v>401</v>
+      </c>
+      <c r="B2316" t="n">
+        <v>515</v>
+      </c>
+      <c r="C2316" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2316" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E2316" t="n">
+        <v>29</v>
+      </c>
+      <c r="F2316" t="n">
+        <v>20</v>
+      </c>
+      <c r="G2316" t="n">
+        <v>32</v>
+      </c>
+      <c r="H2316" t="n">
+        <v>30</v>
+      </c>
+      <c r="I2316" t="n">
+        <v>111</v>
+      </c>
+      <c r="J2316" t="n">
+        <v>231</v>
+      </c>
+      <c r="K2316" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="L2316" t="n">
+        <v>800</v>
+      </c>
+      <c r="M2316" t="n">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" t="n">
+        <v>401</v>
+      </c>
+      <c r="B2317" t="n">
+        <v>516</v>
+      </c>
+      <c r="C2317" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2317" t="inlineStr">
+        <is>
+          <t>SanAntonio</t>
+        </is>
+      </c>
+      <c r="E2317" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2317" t="n">
+        <v>43</v>
+      </c>
+      <c r="G2317" t="n">
+        <v>24</v>
+      </c>
+      <c r="H2317" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2317" t="n">
+        <v>130</v>
+      </c>
+      <c r="J2317" t="n">
+        <v>13</v>
+      </c>
+      <c r="K2317" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L2317" t="n">
+        <v>-1400</v>
+      </c>
+      <c r="M2317" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" t="n">
+        <v>401</v>
+      </c>
+      <c r="B2318" t="n">
+        <v>517</v>
+      </c>
+      <c r="C2318" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2318" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E2318" t="n">
+        <v>40</v>
+      </c>
+      <c r="F2318" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2318" t="n">
+        <v>28</v>
+      </c>
+      <c r="H2318" t="n">
+        <v>38</v>
+      </c>
+      <c r="I2318" t="n">
+        <v>136</v>
+      </c>
+      <c r="J2318" t="n">
+        <v>233.5</v>
+      </c>
+      <c r="K2318" t="n">
+        <v>242</v>
+      </c>
+      <c r="L2318" t="n">
+        <v>120</v>
+      </c>
+      <c r="M2318" t="n">
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" t="n">
+        <v>401</v>
+      </c>
+      <c r="B2319" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2319" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2319" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E2319" t="n">
+        <v>35</v>
+      </c>
+      <c r="F2319" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2319" t="n">
+        <v>29</v>
+      </c>
+      <c r="H2319" t="n">
+        <v>36</v>
+      </c>
+      <c r="I2319" t="n">
+        <v>130</v>
+      </c>
+      <c r="J2319" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2319" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2319" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M2319" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" t="n">
+        <v>401</v>
+      </c>
+      <c r="B2320" t="n">
+        <v>519</v>
+      </c>
+      <c r="C2320" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2320" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E2320" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2320" t="n">
+        <v>20</v>
+      </c>
+      <c r="G2320" t="n">
+        <v>36</v>
+      </c>
+      <c r="H2320" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2320" t="n">
+        <v>114</v>
+      </c>
+      <c r="J2320" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2320" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="L2320" t="n">
+        <v>115</v>
+      </c>
+      <c r="M2320" t="n">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" t="n">
+        <v>401</v>
+      </c>
+      <c r="B2321" t="n">
+        <v>520</v>
+      </c>
+      <c r="C2321" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2321" t="inlineStr">
+        <is>
+          <t>LALakers</t>
+        </is>
+      </c>
+      <c r="E2321" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2321" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2321" t="n">
+        <v>37</v>
+      </c>
+      <c r="H2321" t="n">
+        <v>24</v>
+      </c>
+      <c r="I2321" t="n">
+        <v>111</v>
+      </c>
+      <c r="J2321" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="K2321" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2321" t="n">
+        <v>-135</v>
+      </c>
+      <c r="M2321" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" t="n">
+        <v>402</v>
+      </c>
+      <c r="B2322" t="n">
+        <v>521</v>
+      </c>
+      <c r="C2322" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2322" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E2322" t="n">
+        <v>26</v>
+      </c>
+      <c r="F2322" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2322" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2322" t="n">
+        <v>34</v>
+      </c>
+      <c r="I2322" t="n">
+        <v>114</v>
+      </c>
+      <c r="J2322" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="K2322" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="L2322" t="n">
+        <v>190</v>
+      </c>
+      <c r="M2322" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" t="n">
+        <v>402</v>
+      </c>
+      <c r="B2323" t="n">
+        <v>522</v>
+      </c>
+      <c r="C2323" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2323" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E2323" t="n">
+        <v>29</v>
+      </c>
+      <c r="F2323" t="n">
+        <v>29</v>
+      </c>
+      <c r="G2323" t="n">
+        <v>45</v>
+      </c>
+      <c r="H2323" t="n">
+        <v>41</v>
+      </c>
+      <c r="I2323" t="n">
+        <v>144</v>
+      </c>
+      <c r="J2323" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K2323" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L2323" t="n">
+        <v>-220</v>
+      </c>
+      <c r="M2323" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" t="n">
+        <v>402</v>
+      </c>
+      <c r="B2324" t="n">
+        <v>523</v>
+      </c>
+      <c r="C2324" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2324" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E2324" t="n">
+        <v>39</v>
+      </c>
+      <c r="F2324" t="n">
+        <v>29</v>
+      </c>
+      <c r="G2324" t="n">
+        <v>34</v>
+      </c>
+      <c r="H2324" t="n">
+        <v>17</v>
+      </c>
+      <c r="I2324" t="n">
+        <v>119</v>
+      </c>
+      <c r="J2324" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2324" t="n">
+        <v>221</v>
+      </c>
+      <c r="L2324" t="n">
+        <v>115</v>
+      </c>
+      <c r="M2324" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" t="n">
+        <v>402</v>
+      </c>
+      <c r="B2325" t="n">
+        <v>524</v>
+      </c>
+      <c r="C2325" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2325" t="inlineStr">
+        <is>
+          <t>NewYork</t>
+        </is>
+      </c>
+      <c r="E2325" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2325" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2325" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2325" t="n">
+        <v>16</v>
+      </c>
+      <c r="I2325" t="n">
+        <v>101</v>
+      </c>
+      <c r="J2325" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="K2325" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2325" t="n">
+        <v>-135</v>
+      </c>
+      <c r="M2325" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" t="n">
+        <v>402</v>
+      </c>
+      <c r="B2326" t="n">
+        <v>525</v>
+      </c>
+      <c r="C2326" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2326" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="E2326" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2326" t="n">
+        <v>20</v>
+      </c>
+      <c r="G2326" t="n">
+        <v>37</v>
+      </c>
+      <c r="H2326" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2326" t="n">
+        <v>115</v>
+      </c>
+      <c r="J2326" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2326" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2326" t="n">
+        <v>-135</v>
+      </c>
+      <c r="M2326" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" t="n">
+        <v>402</v>
+      </c>
+      <c r="B2327" t="n">
+        <v>526</v>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2327" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="E2327" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2327" t="n">
+        <v>37</v>
+      </c>
+      <c r="G2327" t="n">
+        <v>29</v>
+      </c>
+      <c r="H2327" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2327" t="n">
+        <v>122</v>
+      </c>
+      <c r="J2327" t="n">
+        <v>242.5</v>
+      </c>
+      <c r="K2327" t="n">
+        <v>243</v>
+      </c>
+      <c r="L2327" t="n">
+        <v>115</v>
+      </c>
+      <c r="M2327" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" t="n">
+        <v>402</v>
+      </c>
+      <c r="B2328" t="n">
+        <v>527</v>
+      </c>
+      <c r="C2328" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2328" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E2328" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2328" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2328" t="n">
+        <v>32</v>
+      </c>
+      <c r="H2328" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2328" t="n">
+        <v>127</v>
+      </c>
+      <c r="J2328" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K2328" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L2328" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M2328" t="n">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" t="n">
+        <v>402</v>
+      </c>
+      <c r="B2329" t="n">
+        <v>528</v>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2329" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E2329" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2329" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2329" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2329" t="n">
+        <v>30</v>
+      </c>
+      <c r="I2329" t="n">
+        <v>109</v>
+      </c>
+      <c r="J2329" t="n">
+        <v>220</v>
+      </c>
+      <c r="K2329" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="L2329" t="n">
+        <v>120</v>
+      </c>
+      <c r="M2329" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" t="n">
+        <v>402</v>
+      </c>
+      <c r="B2330" t="n">
+        <v>529</v>
+      </c>
+      <c r="C2330" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2330" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E2330" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2330" t="n">
+        <v>28</v>
+      </c>
+      <c r="G2330" t="n">
+        <v>29</v>
+      </c>
+      <c r="H2330" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2330" t="n">
+        <v>107</v>
+      </c>
+      <c r="J2330" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K2330" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L2330" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M2330" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" t="n">
+        <v>402</v>
+      </c>
+      <c r="B2331" t="n">
+        <v>530</v>
+      </c>
+      <c r="C2331" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2331" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E2331" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2331" t="n">
+        <v>22</v>
+      </c>
+      <c r="G2331" t="n">
+        <v>36</v>
+      </c>
+      <c r="H2331" t="n">
+        <v>30</v>
+      </c>
+      <c r="I2331" t="n">
+        <v>111</v>
+      </c>
+      <c r="J2331" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="K2331" t="n">
+        <v>219</v>
+      </c>
+      <c r="L2331" t="n">
+        <v>120</v>
+      </c>
+      <c r="M2331" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2332" t="n">
+        <v>531</v>
+      </c>
+      <c r="C2332" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2332" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E2332" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2332" t="n">
+        <v>32</v>
+      </c>
+      <c r="G2332" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2332" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2332" t="n">
+        <v>118</v>
+      </c>
+      <c r="J2332" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="K2332" t="n">
+        <v>227</v>
+      </c>
+      <c r="L2332" t="n">
+        <v>240</v>
+      </c>
+      <c r="M2332" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2333" t="n">
+        <v>532</v>
+      </c>
+      <c r="C2333" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2333" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E2333" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2333" t="n">
+        <v>22</v>
+      </c>
+      <c r="G2333" t="n">
+        <v>32</v>
+      </c>
+      <c r="H2333" t="n">
+        <v>25</v>
+      </c>
+      <c r="I2333" t="n">
+        <v>112</v>
+      </c>
+      <c r="J2333" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K2333" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L2333" t="n">
+        <v>-280</v>
+      </c>
+      <c r="M2333" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2334" t="n">
+        <v>533</v>
+      </c>
+      <c r="C2334" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2334" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E2334" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2334" t="n">
+        <v>37</v>
+      </c>
+      <c r="G2334" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2334" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2334" t="n">
+        <v>102</v>
+      </c>
+      <c r="J2334" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="K2334" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="L2334" t="n">
+        <v>750</v>
+      </c>
+      <c r="M2334" t="n">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2335" t="n">
+        <v>534</v>
+      </c>
+      <c r="C2335" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2335" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E2335" t="n">
+        <v>35</v>
+      </c>
+      <c r="F2335" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2335" t="n">
+        <v>34</v>
+      </c>
+      <c r="H2335" t="n">
+        <v>40</v>
+      </c>
+      <c r="I2335" t="n">
+        <v>144</v>
+      </c>
+      <c r="J2335" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K2335" t="n">
+        <v>13</v>
+      </c>
+      <c r="L2335" t="n">
+        <v>-1200</v>
+      </c>
+      <c r="M2335" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2336" t="n">
+        <v>535</v>
+      </c>
+      <c r="C2336" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2336" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E2336" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2336" t="n">
+        <v>38</v>
+      </c>
+      <c r="G2336" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2336" t="n">
+        <v>34</v>
+      </c>
+      <c r="I2336" t="n">
+        <v>129</v>
+      </c>
+      <c r="J2336" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2336" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L2336" t="n">
+        <v>-230</v>
+      </c>
+      <c r="M2336" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2337" t="n">
+        <v>536</v>
+      </c>
+      <c r="C2337" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2337" t="inlineStr">
+        <is>
+          <t>LALakers</t>
+        </is>
+      </c>
+      <c r="E2337" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2337" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2337" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2337" t="n">
+        <v>24</v>
+      </c>
+      <c r="I2337" t="n">
+        <v>118</v>
+      </c>
+      <c r="J2337" t="n">
+        <v>231</v>
+      </c>
+      <c r="K2337" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="L2337" t="n">
+        <v>195</v>
+      </c>
+      <c r="M2337" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2338" t="n">
+        <v>537</v>
+      </c>
+      <c r="C2338" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2338" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="E2338" t="n">
+        <v>38</v>
+      </c>
+      <c r="F2338" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2338" t="n">
+        <v>36</v>
+      </c>
+      <c r="H2338" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2338" t="n">
+        <v>121</v>
+      </c>
+      <c r="J2338" t="n">
+        <v>232</v>
+      </c>
+      <c r="K2338" t="n">
+        <v>233</v>
+      </c>
+      <c r="L2338" t="n">
+        <v>155</v>
+      </c>
+      <c r="M2338" t="n">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2339" t="n">
+        <v>538</v>
+      </c>
+      <c r="C2339" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2339" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E2339" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2339" t="n">
+        <v>32</v>
+      </c>
+      <c r="G2339" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2339" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2339" t="n">
+        <v>117</v>
+      </c>
+      <c r="J2339" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2339" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L2339" t="n">
+        <v>-175</v>
+      </c>
+      <c r="M2339" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2340" t="n">
+        <v>539</v>
+      </c>
+      <c r="C2340" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2340" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="E2340" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2340" t="n">
+        <v>28</v>
+      </c>
+      <c r="G2340" t="n">
+        <v>32</v>
+      </c>
+      <c r="H2340" t="n">
+        <v>31</v>
+      </c>
+      <c r="I2340" t="n">
+        <v>112</v>
+      </c>
+      <c r="J2340" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K2340" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L2340" t="n">
+        <v>-210</v>
+      </c>
+      <c r="M2340" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2341" t="n">
+        <v>540</v>
+      </c>
+      <c r="C2341" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2341" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="E2341" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2341" t="n">
+        <v>32</v>
+      </c>
+      <c r="G2341" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2341" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2341" t="n">
+        <v>108</v>
+      </c>
+      <c r="J2341" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="K2341" t="n">
+        <v>225</v>
+      </c>
+      <c r="L2341" t="n">
+        <v>180</v>
+      </c>
+      <c r="M2341" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2342" t="n">
+        <v>541</v>
+      </c>
+      <c r="C2342" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2342" t="inlineStr">
+        <is>
+          <t>NewYork</t>
+        </is>
+      </c>
+      <c r="E2342" t="n">
+        <v>29</v>
+      </c>
+      <c r="F2342" t="n">
+        <v>28</v>
+      </c>
+      <c r="G2342" t="n">
+        <v>37</v>
+      </c>
+      <c r="H2342" t="n">
+        <v>24</v>
+      </c>
+      <c r="I2342" t="n">
+        <v>118</v>
+      </c>
+      <c r="J2342" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2342" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2342" t="n">
+        <v>-210</v>
+      </c>
+      <c r="M2342" t="n">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2343" t="n">
+        <v>542</v>
+      </c>
+      <c r="C2343" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2343" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="E2343" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2343" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2343" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2343" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2343" t="n">
+        <v>88</v>
+      </c>
+      <c r="J2343" t="n">
+        <v>216</v>
+      </c>
+      <c r="K2343" t="n">
+        <v>216</v>
+      </c>
+      <c r="L2343" t="n">
+        <v>180</v>
+      </c>
+      <c r="M2343" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2344" t="n">
+        <v>543</v>
+      </c>
+      <c r="C2344" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2344" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E2344" t="n">
+        <v>27</v>
+      </c>
+      <c r="F2344" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2344" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2344" t="n">
+        <v>21</v>
+      </c>
+      <c r="I2344" t="n">
+        <v>96</v>
+      </c>
+      <c r="J2344" t="n">
+        <v>16</v>
+      </c>
+      <c r="K2344" t="n">
+        <v>14</v>
+      </c>
+      <c r="L2344" t="n">
+        <v>-1400</v>
+      </c>
+      <c r="M2344" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2345" t="n">
+        <v>544</v>
+      </c>
+      <c r="C2345" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2345" t="inlineStr">
+        <is>
+          <t>OklahomaCity</t>
+        </is>
+      </c>
+      <c r="E2345" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2345" t="n">
+        <v>32</v>
+      </c>
+      <c r="G2345" t="n">
+        <v>32</v>
+      </c>
+      <c r="H2345" t="n">
+        <v>33</v>
+      </c>
+      <c r="I2345" t="n">
+        <v>117</v>
+      </c>
+      <c r="J2345" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="K2345" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="L2345" t="n">
+        <v>800</v>
+      </c>
+      <c r="M2345" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2346" t="n">
+        <v>545</v>
+      </c>
+      <c r="C2346" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2346" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="E2346" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2346" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2346" t="n">
+        <v>16</v>
+      </c>
+      <c r="H2346" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2346" t="n">
+        <v>92</v>
+      </c>
+      <c r="J2346" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="K2346" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="L2346" t="n">
+        <v>800</v>
+      </c>
+      <c r="M2346" t="n">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2347" t="n">
+        <v>546</v>
+      </c>
+      <c r="C2347" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2347" t="inlineStr">
+        <is>
+          <t>SanAntonio</t>
+        </is>
+      </c>
+      <c r="E2347" t="n">
+        <v>26</v>
+      </c>
+      <c r="F2347" t="n">
+        <v>22</v>
+      </c>
+      <c r="G2347" t="n">
+        <v>34</v>
+      </c>
+      <c r="H2347" t="n">
+        <v>31</v>
+      </c>
+      <c r="I2347" t="n">
+        <v>113</v>
+      </c>
+      <c r="J2347" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K2347" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L2347" t="n">
+        <v>-1400</v>
+      </c>
+      <c r="M2347" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2348" t="n">
+        <v>547</v>
+      </c>
+      <c r="C2348" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2348" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E2348" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2348" t="n">
+        <v>17</v>
+      </c>
+      <c r="G2348" t="n">
+        <v>34</v>
+      </c>
+      <c r="H2348" t="n">
+        <v>35</v>
+      </c>
+      <c r="I2348" t="n">
+        <v>114</v>
+      </c>
+      <c r="J2348" t="n">
+        <v>214</v>
+      </c>
+      <c r="K2348" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="L2348" t="n">
+        <v>170</v>
+      </c>
+      <c r="M2348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2349" t="n">
+        <v>548</v>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2349" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="E2349" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2349" t="n">
+        <v>21</v>
+      </c>
+      <c r="G2349" t="n">
+        <v>23</v>
+      </c>
+      <c r="H2349" t="n">
+        <v>31</v>
+      </c>
+      <c r="I2349" t="n">
+        <v>109</v>
+      </c>
+      <c r="J2349" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2349" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L2349" t="n">
+        <v>-190</v>
+      </c>
+      <c r="M2349" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2350" t="n">
+        <v>549</v>
+      </c>
+      <c r="C2350" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2350" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E2350" t="n">
+        <v>42</v>
+      </c>
+      <c r="F2350" t="n">
+        <v>38</v>
+      </c>
+      <c r="G2350" t="n">
+        <v>36</v>
+      </c>
+      <c r="H2350" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2350" t="n">
+        <v>139</v>
+      </c>
+      <c r="J2350" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K2350" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L2350" t="n">
+        <v>-1200</v>
+      </c>
+      <c r="M2350" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2351" t="n">
+        <v>550</v>
+      </c>
+      <c r="C2351" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2351" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E2351" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2351" t="n">
+        <v>36</v>
+      </c>
+      <c r="G2351" t="n">
+        <v>24</v>
+      </c>
+      <c r="H2351" t="n">
+        <v>40</v>
+      </c>
+      <c r="I2351" t="n">
+        <v>132</v>
+      </c>
+      <c r="J2351" t="n">
+        <v>244</v>
+      </c>
+      <c r="K2351" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="L2351" t="n">
+        <v>750</v>
+      </c>
+      <c r="M2351" t="n">
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2352" t="n">
+        <v>551</v>
+      </c>
+      <c r="C2352" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2352" t="inlineStr">
+        <is>
+          <t>GoldenState</t>
+        </is>
+      </c>
+      <c r="E2352" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2352" t="n">
+        <v>34</v>
+      </c>
+      <c r="G2352" t="n">
+        <v>19</v>
+      </c>
+      <c r="H2352" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2352" t="n">
+        <v>109</v>
+      </c>
+      <c r="J2352" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2352" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L2352" t="n">
+        <v>-185</v>
+      </c>
+      <c r="M2352" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2353" t="n">
+        <v>552</v>
+      </c>
+      <c r="C2353" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2353" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E2353" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2353" t="n">
+        <v>28</v>
+      </c>
+      <c r="G2353" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2353" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2353" t="n">
+        <v>90</v>
+      </c>
+      <c r="J2353" t="n">
+        <v>224</v>
+      </c>
+      <c r="K2353" t="n">
+        <v>221</v>
+      </c>
+      <c r="L2353" t="n">
+        <v>165</v>
+      </c>
+      <c r="M2353" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2354" t="n">
+        <v>553</v>
+      </c>
+      <c r="C2354" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D2354" t="inlineStr">
+        <is>
+          <t>NewOrleans</t>
+        </is>
+      </c>
+      <c r="E2354" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2354" t="n">
+        <v>13</v>
+      </c>
+      <c r="G2354" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2354" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2354" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2354" t="n">
+        <v>223.5</v>
+      </c>
+      <c r="K2354" t="n">
+        <v>223</v>
+      </c>
+      <c r="L2354" t="n">
+        <v>110</v>
+      </c>
+      <c r="M2354" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" t="n">
+        <v>403</v>
+      </c>
+      <c r="B2355" t="n">
+        <v>554</v>
+      </c>
+      <c r="C2355" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2355" t="inlineStr">
+        <is>
+          <t>LAClippers</t>
+        </is>
+      </c>
+      <c r="E2355" t="n">
+        <v>37</v>
+      </c>
+      <c r="F2355" t="n">
+        <v>29</v>
+      </c>
+      <c r="G2355" t="n">
+        <v>26</v>
+      </c>
+      <c r="H2355" t="n">
+        <v>27</v>
+      </c>
+      <c r="I2355" t="n">
+        <v>119</v>
+      </c>
+      <c r="J2355" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K2355" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2355" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M2355" t="n">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
